--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="66">
   <si>
-    <t>StageNum</t>
+    <t>Stage_Mission</t>
   </si>
   <si>
     <t>Quest_Type</t>
@@ -34,6 +34,9 @@
     <t>Quest_Reward</t>
   </si>
   <si>
+    <t>0,0</t>
+  </si>
+  <si>
     <t>Destination</t>
   </si>
   <si>
@@ -41,6 +44,12 @@
   </si>
   <si>
     <t>-1</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>1,1</t>
   </si>
   <si>
     <t>Material</t>
@@ -52,6 +61,9 @@
     <t>70,10</t>
   </si>
   <si>
+    <t>1,2</t>
+  </si>
+  <si>
     <t>Monster</t>
   </si>
   <si>
@@ -59,6 +71,9 @@
   </si>
   <si>
     <t>0,20</t>
+  </si>
+  <si>
+    <t>1,3</t>
   </si>
   <si>
     <t>Escort</t>
@@ -70,6 +85,9 @@
     <t>8,2000</t>
   </si>
   <si>
+    <t>1,4</t>
+  </si>
+  <si>
     <t>Convoy</t>
   </si>
   <si>
@@ -77,6 +95,9 @@
   </si>
   <si>
     <t>2,3000,true</t>
+  </si>
+  <si>
+    <t>1,5</t>
   </si>
   <si>
     <t>Boss</t>
@@ -88,10 +109,19 @@
     <t>0</t>
   </si>
   <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
     <t>71번 아이템을 20개를 모아주세요.</t>
   </si>
   <si>
     <t>71,20</t>
+  </si>
+  <si>
+    <t>2,2</t>
   </si>
   <si>
     <t>1번 몬스터를 40번 잡아주세요.</t>
@@ -100,16 +130,25 @@
     <t>1,40</t>
   </si>
   <si>
+    <t>2,3</t>
+  </si>
+  <si>
     <t>9번 NPC를 호위하세요 (체력 2000)</t>
   </si>
   <si>
     <t>8,1000</t>
   </si>
   <si>
+    <t>2,4</t>
+  </si>
+  <si>
     <t>3번 상자를 호송하세요. (체력 3000)</t>
   </si>
   <si>
     <t>3,3000, false</t>
+  </si>
+  <si>
+    <t>2,5</t>
   </si>
   <si>
     <t>1번 여왕 보스 거미를 잡아주세요.</t>
@@ -492,42 +531,42 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>1.0</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100000.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
         <v>200000.0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>300000.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>1.0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -539,164 +578,178 @@
         <v>13</v>
       </c>
       <c r="E4" s="1">
+        <v>300000.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1">
         <v>400000.0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1">
         <v>500000.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1">
         <v>600000.0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1">
         <v>700000.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
         <v>200001.0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1">
-        <v>300002.0</v>
-      </c>
-    </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>2.0</v>
+      <c r="A10" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1">
+        <v>300002.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1">
         <v>400003.0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1">
+        <v>500004.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1">
+        <v>600005.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1">
-        <v>500004.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1">
-        <v>600005.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1">
         <v>700006.0</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="D15" s="2"/>
@@ -3677,31 +3730,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
@@ -3712,7 +3765,7 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -3735,7 +3788,7 @@
         <v>2.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -3758,7 +3811,7 @@
         <v>3.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -3781,7 +3834,7 @@
         <v>4.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>40003.0</v>
@@ -3793,13 +3846,13 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -3810,7 +3863,7 @@
         <v>5.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -3833,7 +3886,7 @@
         <v>6.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -3856,7 +3909,7 @@
         <v>7.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -3879,7 +3932,7 @@
         <v>8.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1">
         <v>-1.0</v>
@@ -3902,7 +3955,7 @@
         <v>9.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -3925,7 +3978,7 @@
         <v>1.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1">
         <v>40009.0</v>
@@ -3948,7 +4001,7 @@
         <v>2.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1">
         <v>40010.0</v>
@@ -3971,7 +4024,7 @@
         <v>3.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1">
         <v>40011.0</v>
@@ -3994,7 +4047,7 @@
         <v>4.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1">
         <v>40012.0</v>
@@ -4006,7 +4059,7 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -4017,7 +4070,7 @@
         <v>5.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -4040,7 +4093,7 @@
         <v>6.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -4063,7 +4116,7 @@
         <v>7.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -4086,7 +4139,7 @@
         <v>8.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -4109,7 +4162,7 @@
         <v>9.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -10027,31 +10080,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
@@ -10062,7 +10115,7 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -10085,7 +10138,7 @@
         <v>2.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -10108,7 +10161,7 @@
         <v>3.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -10131,7 +10184,7 @@
         <v>4.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>40003.0</v>
@@ -10143,13 +10196,13 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -10160,7 +10213,7 @@
         <v>5.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -10183,7 +10236,7 @@
         <v>6.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -10206,7 +10259,7 @@
         <v>7.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -10229,7 +10282,7 @@
         <v>8.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1">
         <v>-1.0</v>
@@ -10252,7 +10305,7 @@
         <v>9.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -10275,7 +10328,7 @@
         <v>1.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1">
         <v>40009.0</v>
@@ -10298,7 +10351,7 @@
         <v>2.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1">
         <v>40010.0</v>
@@ -10321,7 +10374,7 @@
         <v>3.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1">
         <v>40011.0</v>
@@ -10344,7 +10397,7 @@
         <v>4.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1">
         <v>40012.0</v>
@@ -10356,7 +10409,7 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -10367,7 +10420,7 @@
         <v>5.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -10390,7 +10443,7 @@
         <v>6.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -10413,7 +10466,7 @@
         <v>7.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -10436,7 +10489,7 @@
         <v>8.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -10459,7 +10512,7 @@
         <v>9.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -10491,31 +10544,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
@@ -10526,7 +10579,7 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -10549,7 +10602,7 @@
         <v>2.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -10572,7 +10625,7 @@
         <v>3.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -10595,7 +10648,7 @@
         <v>4.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>40003.0</v>
@@ -10607,13 +10660,13 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -10624,7 +10677,7 @@
         <v>5.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -10647,7 +10700,7 @@
         <v>6.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -10670,7 +10723,7 @@
         <v>7.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -10693,7 +10746,7 @@
         <v>8.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1">
         <v>-1.0</v>
@@ -10716,7 +10769,7 @@
         <v>9.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -10739,7 +10792,7 @@
         <v>1.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1">
         <v>40009.0</v>
@@ -10762,7 +10815,7 @@
         <v>2.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1">
         <v>40010.0</v>
@@ -10785,7 +10838,7 @@
         <v>3.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1">
         <v>40011.0</v>
@@ -10808,7 +10861,7 @@
         <v>4.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1">
         <v>40012.0</v>
@@ -10820,7 +10873,7 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -10831,7 +10884,7 @@
         <v>5.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -10854,7 +10907,7 @@
         <v>6.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -10877,7 +10930,7 @@
         <v>7.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -10900,7 +10953,7 @@
         <v>8.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -10923,7 +10976,7 @@
         <v>9.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -10955,31 +11008,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
@@ -10990,7 +11043,7 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -11013,7 +11066,7 @@
         <v>2.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -11036,7 +11089,7 @@
         <v>3.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -11059,7 +11112,7 @@
         <v>4.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>40003.0</v>
@@ -11071,13 +11124,13 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -11088,7 +11141,7 @@
         <v>5.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -11111,7 +11164,7 @@
         <v>6.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -11134,7 +11187,7 @@
         <v>7.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -11157,7 +11210,7 @@
         <v>8.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1">
         <v>-1.0</v>
@@ -11180,7 +11233,7 @@
         <v>9.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -11203,7 +11256,7 @@
         <v>1.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1">
         <v>40009.0</v>
@@ -11226,7 +11279,7 @@
         <v>2.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1">
         <v>40010.0</v>
@@ -11249,7 +11302,7 @@
         <v>3.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1">
         <v>40011.0</v>
@@ -11272,7 +11325,7 @@
         <v>4.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1">
         <v>40012.0</v>
@@ -11284,7 +11337,7 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -11295,7 +11348,7 @@
         <v>5.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -11318,7 +11371,7 @@
         <v>6.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -11341,7 +11394,7 @@
         <v>7.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -11364,7 +11417,7 @@
         <v>8.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -11387,7 +11440,7 @@
         <v>9.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -11419,31 +11472,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
@@ -11454,7 +11507,7 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -11477,7 +11530,7 @@
         <v>2.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -11500,7 +11553,7 @@
         <v>3.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -11523,7 +11576,7 @@
         <v>4.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>40003.0</v>
@@ -11535,13 +11588,13 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -11552,7 +11605,7 @@
         <v>5.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -11575,7 +11628,7 @@
         <v>6.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -11598,7 +11651,7 @@
         <v>7.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -11621,7 +11674,7 @@
         <v>8.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1">
         <v>-1.0</v>
@@ -11644,7 +11697,7 @@
         <v>9.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -11667,7 +11720,7 @@
         <v>1.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1">
         <v>40009.0</v>
@@ -11690,7 +11743,7 @@
         <v>2.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1">
         <v>40010.0</v>
@@ -11713,7 +11766,7 @@
         <v>3.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1">
         <v>40011.0</v>
@@ -11736,7 +11789,7 @@
         <v>4.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1">
         <v>40012.0</v>
@@ -11748,7 +11801,7 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -11759,7 +11812,7 @@
         <v>5.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -11782,7 +11835,7 @@
         <v>6.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -11805,7 +11858,7 @@
         <v>7.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -11828,7 +11881,7 @@
         <v>8.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -11851,7 +11904,7 @@
         <v>9.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -11883,31 +11936,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
@@ -11918,7 +11971,7 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -11941,7 +11994,7 @@
         <v>2.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -11964,7 +12017,7 @@
         <v>3.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -11987,7 +12040,7 @@
         <v>4.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
         <v>40003.0</v>
@@ -11999,13 +12052,13 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -12016,7 +12069,7 @@
         <v>5.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -12039,7 +12092,7 @@
         <v>6.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -12062,7 +12115,7 @@
         <v>7.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -12085,7 +12138,7 @@
         <v>8.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1">
         <v>-1.0</v>
@@ -12108,7 +12161,7 @@
         <v>9.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -12131,7 +12184,7 @@
         <v>1.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1">
         <v>40009.0</v>
@@ -12154,7 +12207,7 @@
         <v>2.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1">
         <v>40010.0</v>
@@ -12177,7 +12230,7 @@
         <v>3.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1">
         <v>40011.0</v>
@@ -12200,7 +12253,7 @@
         <v>4.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1">
         <v>40012.0</v>
@@ -12212,7 +12265,7 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -12223,7 +12276,7 @@
         <v>5.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -12246,7 +12299,7 @@
         <v>6.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -12269,7 +12322,7 @@
         <v>7.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -12292,7 +12345,7 @@
         <v>8.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -12315,7 +12368,7 @@
         <v>9.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="66">
   <si>
     <t>Stage_Mission</t>
   </si>
@@ -3759,10 +3759,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>55</v>
@@ -3782,10 +3782,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B3" s="1">
         <v>1.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -3805,10 +3805,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B4" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>57</v>
@@ -3828,10 +3828,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B5" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
@@ -3857,10 +3857,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B6" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -3880,10 +3880,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B7" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -3903,10 +3903,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B8" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>63</v>
@@ -3926,10 +3926,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B9" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>64</v>
@@ -3949,10 +3949,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B10" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>65</v>
@@ -3972,16 +3972,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="1">
-        <v>40009.0</v>
+        <v>40000.0</v>
       </c>
       <c r="E11" s="1">
         <v>0.0</v>
@@ -3995,16 +3995,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B12" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="1">
-        <v>40010.0</v>
+        <v>40001.0</v>
       </c>
       <c r="E12" s="1">
         <v>0.0</v>
@@ -4018,16 +4018,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B13" s="1">
         <v>2.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3.0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="1">
-        <v>40011.0</v>
+        <v>40002.0</v>
       </c>
       <c r="E13" s="1">
         <v>0.0</v>
@@ -4041,16 +4041,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B14" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="1">
-        <v>40012.0</v>
+        <v>40003.0</v>
       </c>
       <c r="E14" s="1">
         <v>0.0</v>
@@ -4061,13 +4061,19 @@
       <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B15" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>61</v>
@@ -4087,10 +4093,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B16" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>62</v>
@@ -4110,10 +4116,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B17" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>63</v>
@@ -4133,10 +4139,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B18" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>64</v>
@@ -4156,10 +4162,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B19" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>65</v>
@@ -4178,58 +4184,211 @@
       </c>
     </row>
     <row r="20">
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="A20" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1">
+        <v>40009.0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="A21" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1">
+        <v>40010.0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="22">
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="A22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="1">
+        <v>40011.0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="23">
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="A23" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1">
+        <v>40012.0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24">
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="A24" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-1.0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="A25" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-1.0</v>
+      </c>
     </row>
     <row r="26">
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="A26" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-1.0</v>
+      </c>
     </row>
     <row r="27">
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="A27" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-1.0</v>
+      </c>
     </row>
     <row r="28">
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="A28" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-1.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="D29" s="6"/>
@@ -10109,10 +10268,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>55</v>
@@ -10132,10 +10291,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B3" s="1">
         <v>1.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10155,10 +10314,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B4" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>57</v>
@@ -10178,10 +10337,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B5" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
@@ -10207,10 +10366,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B6" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -10230,10 +10389,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B7" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -10253,10 +10412,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B8" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>63</v>
@@ -10276,10 +10435,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B9" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>64</v>
@@ -10299,10 +10458,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B10" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>65</v>
@@ -10322,16 +10481,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="1">
-        <v>40009.0</v>
+        <v>40000.0</v>
       </c>
       <c r="E11" s="1">
         <v>0.0</v>
@@ -10345,16 +10504,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B12" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="1">
-        <v>40010.0</v>
+        <v>40001.0</v>
       </c>
       <c r="E12" s="1">
         <v>0.0</v>
@@ -10368,16 +10527,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B13" s="1">
         <v>2.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3.0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="1">
-        <v>40011.0</v>
+        <v>40002.0</v>
       </c>
       <c r="E13" s="1">
         <v>0.0</v>
@@ -10391,16 +10550,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B14" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="1">
-        <v>40012.0</v>
+        <v>40003.0</v>
       </c>
       <c r="E14" s="1">
         <v>0.0</v>
@@ -10411,13 +10570,19 @@
       <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B15" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>61</v>
@@ -10437,10 +10602,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B16" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>62</v>
@@ -10460,10 +10625,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B17" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>63</v>
@@ -10483,10 +10648,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B18" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>64</v>
@@ -10506,10 +10671,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B19" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>65</v>
@@ -10524,6 +10689,213 @@
         <v>-1.0</v>
       </c>
       <c r="G19" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1">
+        <v>40009.0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1">
+        <v>40010.0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="1">
+        <v>40011.0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1">
+        <v>40012.0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G28" s="1">
         <v>-1.0</v>
       </c>
     </row>
@@ -10573,10 +10945,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>55</v>
@@ -10596,10 +10968,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B3" s="1">
         <v>1.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -10619,10 +10991,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B4" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>57</v>
@@ -10642,10 +11014,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B5" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
@@ -10671,10 +11043,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B6" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -10694,10 +11066,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B7" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -10717,10 +11089,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B8" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>63</v>
@@ -10740,10 +11112,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B9" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>64</v>
@@ -10763,10 +11135,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B10" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>65</v>
@@ -10786,16 +11158,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="1">
-        <v>40009.0</v>
+        <v>40000.0</v>
       </c>
       <c r="E11" s="1">
         <v>0.0</v>
@@ -10809,16 +11181,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B12" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="1">
-        <v>40010.0</v>
+        <v>40001.0</v>
       </c>
       <c r="E12" s="1">
         <v>0.0</v>
@@ -10832,16 +11204,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B13" s="1">
         <v>2.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3.0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="1">
-        <v>40011.0</v>
+        <v>40002.0</v>
       </c>
       <c r="E13" s="1">
         <v>0.0</v>
@@ -10855,16 +11227,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B14" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="1">
-        <v>40012.0</v>
+        <v>40003.0</v>
       </c>
       <c r="E14" s="1">
         <v>0.0</v>
@@ -10875,13 +11247,19 @@
       <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B15" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>61</v>
@@ -10901,10 +11279,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B16" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>62</v>
@@ -10924,10 +11302,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B17" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>63</v>
@@ -10947,10 +11325,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B18" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>64</v>
@@ -10970,10 +11348,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B19" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>65</v>
@@ -10988,6 +11366,213 @@
         <v>-1.0</v>
       </c>
       <c r="G19" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1">
+        <v>40009.0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1">
+        <v>40010.0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="1">
+        <v>40011.0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1">
+        <v>40012.0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G28" s="1">
         <v>-1.0</v>
       </c>
     </row>
@@ -11037,10 +11622,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>55</v>
@@ -11060,10 +11645,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B3" s="1">
         <v>1.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11083,10 +11668,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B4" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>57</v>
@@ -11106,10 +11691,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B5" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
@@ -11135,10 +11720,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B6" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -11158,10 +11743,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B7" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -11181,10 +11766,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B8" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>63</v>
@@ -11204,10 +11789,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B9" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>64</v>
@@ -11227,10 +11812,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B10" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>65</v>
@@ -11250,16 +11835,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="1">
-        <v>40009.0</v>
+        <v>40000.0</v>
       </c>
       <c r="E11" s="1">
         <v>0.0</v>
@@ -11273,16 +11858,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B12" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="1">
-        <v>40010.0</v>
+        <v>40001.0</v>
       </c>
       <c r="E12" s="1">
         <v>0.0</v>
@@ -11296,16 +11881,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B13" s="1">
         <v>2.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3.0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="1">
-        <v>40011.0</v>
+        <v>40002.0</v>
       </c>
       <c r="E13" s="1">
         <v>0.0</v>
@@ -11319,16 +11904,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B14" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="1">
-        <v>40012.0</v>
+        <v>40003.0</v>
       </c>
       <c r="E14" s="1">
         <v>0.0</v>
@@ -11339,13 +11924,19 @@
       <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B15" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>61</v>
@@ -11365,10 +11956,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B16" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>62</v>
@@ -11388,10 +11979,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B17" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>63</v>
@@ -11411,10 +12002,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B18" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>64</v>
@@ -11434,10 +12025,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B19" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>65</v>
@@ -11452,6 +12043,213 @@
         <v>-1.0</v>
       </c>
       <c r="G19" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1">
+        <v>40009.0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1">
+        <v>40010.0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="1">
+        <v>40011.0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1">
+        <v>40012.0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G28" s="1">
         <v>-1.0</v>
       </c>
     </row>
@@ -11501,10 +12299,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>55</v>
@@ -11524,10 +12322,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B3" s="1">
         <v>1.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -11547,10 +12345,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B4" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>57</v>
@@ -11570,10 +12368,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B5" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
@@ -11599,10 +12397,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B6" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -11622,10 +12420,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B7" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -11645,10 +12443,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B8" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>63</v>
@@ -11668,10 +12466,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B9" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>64</v>
@@ -11691,10 +12489,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B10" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>65</v>
@@ -11714,16 +12512,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="1">
-        <v>40009.0</v>
+        <v>40000.0</v>
       </c>
       <c r="E11" s="1">
         <v>0.0</v>
@@ -11737,16 +12535,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B12" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="1">
-        <v>40010.0</v>
+        <v>40001.0</v>
       </c>
       <c r="E12" s="1">
         <v>0.0</v>
@@ -11760,16 +12558,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B13" s="1">
         <v>2.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3.0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="1">
-        <v>40011.0</v>
+        <v>40002.0</v>
       </c>
       <c r="E13" s="1">
         <v>0.0</v>
@@ -11783,16 +12581,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B14" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="1">
-        <v>40012.0</v>
+        <v>40003.0</v>
       </c>
       <c r="E14" s="1">
         <v>0.0</v>
@@ -11803,13 +12601,19 @@
       <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B15" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>61</v>
@@ -11829,10 +12633,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B16" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>62</v>
@@ -11852,10 +12656,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B17" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>63</v>
@@ -11875,10 +12679,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B18" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>64</v>
@@ -11898,10 +12702,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B19" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>65</v>
@@ -11916,6 +12720,213 @@
         <v>-1.0</v>
       </c>
       <c r="G19" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1">
+        <v>40009.0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1">
+        <v>40010.0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="1">
+        <v>40011.0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1">
+        <v>40012.0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G28" s="1">
         <v>-1.0</v>
       </c>
     </row>
@@ -11965,10 +12976,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>55</v>
@@ -11988,10 +12999,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B3" s="1">
         <v>1.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2.0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>56</v>
@@ -12011,10 +13022,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B4" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>57</v>
@@ -12034,10 +13045,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B5" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
@@ -12063,10 +13074,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B6" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>61</v>
@@ -12086,10 +13097,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B7" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>62</v>
@@ -12109,10 +13120,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B8" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>63</v>
@@ -12132,10 +13143,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B9" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>64</v>
@@ -12155,10 +13166,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B10" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>65</v>
@@ -12178,16 +13189,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="1">
-        <v>40009.0</v>
+        <v>40000.0</v>
       </c>
       <c r="E11" s="1">
         <v>0.0</v>
@@ -12201,16 +13212,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B12" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D12" s="1">
-        <v>40010.0</v>
+        <v>40001.0</v>
       </c>
       <c r="E12" s="1">
         <v>0.0</v>
@@ -12224,16 +13235,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B13" s="1">
         <v>2.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3.0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D13" s="1">
-        <v>40011.0</v>
+        <v>40002.0</v>
       </c>
       <c r="E13" s="1">
         <v>0.0</v>
@@ -12247,16 +13258,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B14" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="1">
-        <v>40012.0</v>
+        <v>40003.0</v>
       </c>
       <c r="E14" s="1">
         <v>0.0</v>
@@ -12267,13 +13278,19 @@
       <c r="G14" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="H14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B15" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>61</v>
@@ -12293,10 +13310,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B16" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>62</v>
@@ -12316,10 +13333,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B17" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>63</v>
@@ -12339,10 +13356,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B18" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>64</v>
@@ -12362,10 +13379,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B19" s="1">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>65</v>
@@ -12380,6 +13397,213 @@
         <v>-1.0</v>
       </c>
       <c r="G19" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1">
+        <v>40009.0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="1">
+        <v>40010.0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="1">
+        <v>40011.0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1">
+        <v>40012.0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G28" s="1">
         <v>-1.0</v>
       </c>
     </row>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="67">
   <si>
     <t>Stage_Mission</t>
   </si>
@@ -193,7 +193,7 @@
     <t>HardCore</t>
   </si>
   <si>
-    <t>8,9</t>
+    <t>4,5</t>
   </si>
   <si>
     <t>0,90,5</t>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>SimpleStation</t>
+  </si>
+  <si>
+    <t>8,9</t>
   </si>
 </sst>
 </file>
@@ -3777,7 +3780,7 @@
         <v>10.0</v>
       </c>
       <c r="G2" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -3799,8 +3802,8 @@
       <c r="F3" s="1">
         <v>10.0</v>
       </c>
-      <c r="G3" s="1">
-        <v>6.0</v>
+      <c r="G3" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -3823,7 +3826,7 @@
         <v>10.0</v>
       </c>
       <c r="G4" s="1">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -3875,7 +3878,7 @@
         <v>-1.0</v>
       </c>
       <c r="G6" s="1">
-        <v>-1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -3898,7 +3901,7 @@
         <v>-1.0</v>
       </c>
       <c r="G7" s="1">
-        <v>-1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
@@ -3921,7 +3924,7 @@
         <v>-1.0</v>
       </c>
       <c r="G8" s="1">
-        <v>-1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
@@ -3944,7 +3947,7 @@
         <v>-1.0</v>
       </c>
       <c r="G9" s="1">
-        <v>-1.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
@@ -4059,7 +4062,7 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>59</v>
@@ -4272,7 +4275,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -10355,7 +10358,7 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>59</v>
@@ -10568,7 +10571,7 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>59</v>
@@ -10781,7 +10784,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -11032,7 +11035,7 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>59</v>
@@ -11245,7 +11248,7 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>59</v>
@@ -11458,7 +11461,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -11709,7 +11712,7 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>59</v>
@@ -11922,7 +11925,7 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>59</v>
@@ -12135,7 +12138,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -12386,7 +12389,7 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>59</v>
@@ -12599,7 +12602,7 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>59</v>
@@ -12812,7 +12815,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -13063,7 +13066,7 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>59</v>
@@ -13276,7 +13279,7 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>59</v>
@@ -13489,7 +13492,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -202,6 +202,9 @@
     <t>0번 보스가, 거리 90%에 나타나지만, 출현 몬스터 수는 5번까지이다.</t>
   </si>
   <si>
+    <t>8,9</t>
+  </si>
+  <si>
     <t>Oasis</t>
   </si>
   <si>
@@ -215,9 +218,6 @@
   </si>
   <si>
     <t>SimpleStation</t>
-  </si>
-  <si>
-    <t>8,9</t>
   </si>
 </sst>
 </file>
@@ -3837,10 +3837,10 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D5" s="1">
-        <v>40003.0</v>
+        <v>40000.0</v>
       </c>
       <c r="E5" s="1">
         <v>0.0</v>
@@ -3851,12 +3851,6 @@
       <c r="G5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
@@ -3866,16 +3860,16 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1">
-        <v>-1.0</v>
+        <v>40001.0</v>
       </c>
       <c r="E6" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G6" s="1">
         <v>6.0</v>
@@ -3889,16 +3883,16 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1">
-        <v>-1.0</v>
+        <v>40000.0</v>
       </c>
       <c r="E7" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G7" s="1">
         <v>6.0</v>
@@ -3912,16 +3906,16 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D8" s="1">
-        <v>-1.0</v>
+        <v>40001.0</v>
       </c>
       <c r="E8" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G8" s="1">
         <v>7.0</v>
@@ -3935,16 +3929,16 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1">
-        <v>-1.0</v>
+        <v>40002.0</v>
       </c>
       <c r="E9" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G9" s="1">
         <v>8.0</v>
@@ -3958,19 +3952,25 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1">
-        <v>-1.0</v>
+        <v>40003.0</v>
       </c>
       <c r="E10" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G10" s="1">
         <v>-1.0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -4062,7 +4062,7 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>59</v>
@@ -4079,7 +4079,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -4102,7 +4102,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -4125,7 +4125,7 @@
         <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -4148,7 +4148,7 @@
         <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -4171,7 +4171,7 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -4275,7 +4275,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -4286,7 +4286,7 @@
         <v>4.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -4309,7 +4309,7 @@
         <v>5.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -4332,7 +4332,7 @@
         <v>6.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1">
         <v>-1.0</v>
@@ -4355,7 +4355,7 @@
         <v>7.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1">
         <v>-1.0</v>
@@ -4378,7 +4378,7 @@
         <v>8.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -10358,7 +10358,7 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>59</v>
@@ -10375,7 +10375,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -10398,7 +10398,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -10421,7 +10421,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -10444,7 +10444,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1">
         <v>-1.0</v>
@@ -10467,7 +10467,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -10571,7 +10571,7 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>59</v>
@@ -10588,7 +10588,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -10611,7 +10611,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -10634,7 +10634,7 @@
         <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -10657,7 +10657,7 @@
         <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -10680,7 +10680,7 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -10784,7 +10784,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -10795,7 +10795,7 @@
         <v>4.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -10818,7 +10818,7 @@
         <v>5.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -10841,7 +10841,7 @@
         <v>6.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1">
         <v>-1.0</v>
@@ -10864,7 +10864,7 @@
         <v>7.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1">
         <v>-1.0</v>
@@ -10887,7 +10887,7 @@
         <v>8.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -11035,7 +11035,7 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>59</v>
@@ -11052,7 +11052,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -11075,7 +11075,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -11098,7 +11098,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -11121,7 +11121,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1">
         <v>-1.0</v>
@@ -11144,7 +11144,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -11248,7 +11248,7 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>59</v>
@@ -11265,7 +11265,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -11288,7 +11288,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -11311,7 +11311,7 @@
         <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -11334,7 +11334,7 @@
         <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -11357,7 +11357,7 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -11461,7 +11461,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -11472,7 +11472,7 @@
         <v>4.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -11495,7 +11495,7 @@
         <v>5.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -11518,7 +11518,7 @@
         <v>6.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1">
         <v>-1.0</v>
@@ -11541,7 +11541,7 @@
         <v>7.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1">
         <v>-1.0</v>
@@ -11564,7 +11564,7 @@
         <v>8.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -11712,7 +11712,7 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>59</v>
@@ -11729,7 +11729,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -11752,7 +11752,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -11775,7 +11775,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -11798,7 +11798,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1">
         <v>-1.0</v>
@@ -11821,7 +11821,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -11925,7 +11925,7 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>59</v>
@@ -11942,7 +11942,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -11965,7 +11965,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -11988,7 +11988,7 @@
         <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -12011,7 +12011,7 @@
         <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -12034,7 +12034,7 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -12138,7 +12138,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -12149,7 +12149,7 @@
         <v>4.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -12172,7 +12172,7 @@
         <v>5.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -12195,7 +12195,7 @@
         <v>6.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1">
         <v>-1.0</v>
@@ -12218,7 +12218,7 @@
         <v>7.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1">
         <v>-1.0</v>
@@ -12241,7 +12241,7 @@
         <v>8.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -12389,7 +12389,7 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>59</v>
@@ -12406,7 +12406,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -12429,7 +12429,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -12452,7 +12452,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -12475,7 +12475,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1">
         <v>-1.0</v>
@@ -12498,7 +12498,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -12602,7 +12602,7 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>59</v>
@@ -12619,7 +12619,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -12642,7 +12642,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -12665,7 +12665,7 @@
         <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -12688,7 +12688,7 @@
         <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -12711,7 +12711,7 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -12815,7 +12815,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -12826,7 +12826,7 @@
         <v>4.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -12849,7 +12849,7 @@
         <v>5.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -12872,7 +12872,7 @@
         <v>6.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1">
         <v>-1.0</v>
@@ -12895,7 +12895,7 @@
         <v>7.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1">
         <v>-1.0</v>
@@ -12918,7 +12918,7 @@
         <v>8.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -13066,7 +13066,7 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>59</v>
@@ -13083,7 +13083,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -13106,7 +13106,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -13129,7 +13129,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -13152,7 +13152,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1">
         <v>-1.0</v>
@@ -13175,7 +13175,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -13279,7 +13279,7 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>59</v>
@@ -13296,7 +13296,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -13319,7 +13319,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -13342,7 +13342,7 @@
         <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -13365,7 +13365,7 @@
         <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -13388,7 +13388,7 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -13492,7 +13492,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24">
@@ -13503,7 +13503,7 @@
         <v>4.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -13526,7 +13526,7 @@
         <v>5.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -13549,7 +13549,7 @@
         <v>6.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="1">
         <v>-1.0</v>
@@ -13572,7 +13572,7 @@
         <v>7.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1">
         <v>-1.0</v>
@@ -13595,7 +13595,7 @@
         <v>8.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="70">
   <si>
     <t>Stage_Mission</t>
   </si>
@@ -46,6 +46,30 @@
     <t>-1</t>
   </si>
   <si>
+    <t>0,2</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>0번 몬스터를 20번 잡아주세요.</t>
+  </si>
+  <si>
+    <t>0,20</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>여왕거미를 잡아주세요</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>1,0</t>
   </si>
   <si>
@@ -62,15 +86,6 @@
   </si>
   <si>
     <t>1,2</t>
-  </si>
-  <si>
-    <t>Monster</t>
-  </si>
-  <si>
-    <t>0번 몬스터를 20번 잡아주세요.</t>
-  </si>
-  <si>
-    <t>0,20</t>
   </si>
   <si>
     <t>1,3</t>
@@ -100,13 +115,7 @@
     <t>1,5</t>
   </si>
   <si>
-    <t>Boss</t>
-  </si>
-  <si>
     <t>0번 여왕 보스 거미를 잡아주세요.</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>2,0</t>
@@ -555,13 +564,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="1">
         <v>200000.0</v>
@@ -569,16 +578,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="1">
         <v>300000.0</v>
@@ -586,19 +595,19 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>400000.0</v>
+        <v>200000.0</v>
       </c>
     </row>
     <row r="6">
@@ -611,11 +620,11 @@
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="1">
-        <v>500000.0</v>
+        <v>300000.0</v>
       </c>
     </row>
     <row r="7">
@@ -623,50 +632,50 @@
         <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="1">
-        <v>600000.0</v>
+        <v>400000.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E8" s="1">
-        <v>700000.0</v>
+        <v>500000.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E9" s="1">
-        <v>200001.0</v>
+        <v>600000.0</v>
       </c>
     </row>
     <row r="10">
@@ -674,91 +683,119 @@
         <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E10" s="1">
-        <v>300002.0</v>
+        <v>700000.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1">
-        <v>400003.0</v>
+        <v>200001.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E12" s="1">
-        <v>500004.0</v>
+        <v>300002.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E13" s="1">
-        <v>600005.0</v>
+        <v>400003.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1">
+        <v>500004.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E15" s="1">
+        <v>600005.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1">
         <v>700006.0</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="D17" s="2"/>
@@ -3733,31 +3770,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -3768,7 +3805,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -3791,7 +3828,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -3803,7 +3840,7 @@
         <v>10.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -3814,7 +3851,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -3837,7 +3874,7 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1">
         <v>40000.0</v>
@@ -3849,7 +3886,7 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -3860,7 +3897,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1">
         <v>40001.0</v>
@@ -3883,7 +3920,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1">
         <v>40000.0</v>
@@ -3906,7 +3943,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1">
         <v>40001.0</v>
@@ -3929,7 +3966,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1">
         <v>40002.0</v>
@@ -3952,7 +3989,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1">
         <v>40003.0</v>
@@ -3967,10 +4004,10 @@
         <v>-1.0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -3981,7 +4018,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1">
         <v>40000.0</v>
@@ -4004,7 +4041,7 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1">
         <v>40001.0</v>
@@ -4027,7 +4064,7 @@
         <v>2.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1">
         <v>40002.0</v>
@@ -4050,7 +4087,7 @@
         <v>3.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1">
         <v>40003.0</v>
@@ -4062,13 +4099,13 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -4079,7 +4116,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -4102,7 +4139,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -4125,7 +4162,7 @@
         <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -4148,7 +4185,7 @@
         <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -4171,7 +4208,7 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -4194,7 +4231,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1">
         <v>40009.0</v>
@@ -4217,7 +4254,7 @@
         <v>1.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1">
         <v>40010.0</v>
@@ -4240,7 +4277,7 @@
         <v>2.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1">
         <v>40011.0</v>
@@ -4263,7 +4300,7 @@
         <v>3.0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1">
         <v>40012.0</v>
@@ -4275,7 +4312,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
@@ -4286,7 +4323,7 @@
         <v>4.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -4309,7 +4346,7 @@
         <v>5.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -4332,7 +4369,7 @@
         <v>6.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D26" s="1">
         <v>-1.0</v>
@@ -4355,7 +4392,7 @@
         <v>7.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1">
         <v>-1.0</v>
@@ -4378,7 +4415,7 @@
         <v>8.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -10242,31 +10279,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -10277,7 +10314,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -10300,7 +10337,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -10323,7 +10360,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -10346,7 +10383,7 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>40003.0</v>
@@ -10358,13 +10395,13 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -10375,7 +10412,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -10398,7 +10435,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -10421,7 +10458,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -10444,7 +10481,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1">
         <v>-1.0</v>
@@ -10467,7 +10504,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -10490,7 +10527,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1">
         <v>40000.0</v>
@@ -10513,7 +10550,7 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1">
         <v>40001.0</v>
@@ -10536,7 +10573,7 @@
         <v>2.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1">
         <v>40002.0</v>
@@ -10559,7 +10596,7 @@
         <v>3.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1">
         <v>40003.0</v>
@@ -10571,13 +10608,13 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -10588,7 +10625,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -10611,7 +10648,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -10634,7 +10671,7 @@
         <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -10657,7 +10694,7 @@
         <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -10680,7 +10717,7 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -10703,7 +10740,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1">
         <v>40009.0</v>
@@ -10726,7 +10763,7 @@
         <v>1.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1">
         <v>40010.0</v>
@@ -10749,7 +10786,7 @@
         <v>2.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1">
         <v>40011.0</v>
@@ -10772,7 +10809,7 @@
         <v>3.0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1">
         <v>40012.0</v>
@@ -10784,7 +10821,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
@@ -10795,7 +10832,7 @@
         <v>4.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -10818,7 +10855,7 @@
         <v>5.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -10841,7 +10878,7 @@
         <v>6.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D26" s="1">
         <v>-1.0</v>
@@ -10864,7 +10901,7 @@
         <v>7.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1">
         <v>-1.0</v>
@@ -10887,7 +10924,7 @@
         <v>8.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -10919,31 +10956,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -10954,7 +10991,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -10966,7 +11003,7 @@
         <v>10.0</v>
       </c>
       <c r="G2" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -10977,7 +11014,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -10989,7 +11026,7 @@
         <v>10.0</v>
       </c>
       <c r="G3" s="1">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -11000,7 +11037,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -11012,7 +11049,7 @@
         <v>10.0</v>
       </c>
       <c r="G4" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -11023,7 +11060,7 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>40003.0</v>
@@ -11034,117 +11071,123 @@
       <c r="F5" s="1">
         <v>10.0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>61</v>
+      <c r="G5" s="1">
+        <v>-1.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B6" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1">
-        <v>-1.0</v>
+        <v>40000.0</v>
       </c>
       <c r="E6" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G6" s="1">
-        <v>-1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B7" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1">
-        <v>-1.0</v>
+        <v>40001.0</v>
       </c>
       <c r="E7" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G7" s="1">
-        <v>-1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B8" s="1">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1">
-        <v>-1.0</v>
+        <v>40002.0</v>
       </c>
       <c r="E8" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G8" s="1">
-        <v>-1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B9" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1">
-        <v>-1.0</v>
+        <v>40003.0</v>
       </c>
       <c r="E9" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B10" s="1">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -11164,22 +11207,22 @@
         <v>1.0</v>
       </c>
       <c r="B11" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1">
-        <v>40000.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="F11" s="1">
-        <v>10.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G11" s="1">
-        <v>5.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="12">
@@ -11187,22 +11230,22 @@
         <v>1.0</v>
       </c>
       <c r="B12" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1">
-        <v>40001.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="F12" s="1">
-        <v>10.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G12" s="1">
-        <v>6.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="13">
@@ -11210,22 +11253,22 @@
         <v>1.0</v>
       </c>
       <c r="B13" s="1">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1">
-        <v>40002.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="F13" s="1">
-        <v>10.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G13" s="1">
-        <v>7.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="14">
@@ -11233,131 +11276,125 @@
         <v>1.0</v>
       </c>
       <c r="B14" s="1">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1">
-        <v>40003.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="F14" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>-1.0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B15" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1">
-        <v>-1.0</v>
+        <v>40009.0</v>
       </c>
       <c r="E15" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F15" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G15" s="1">
-        <v>-1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B16" s="1">
         <v>1.0</v>
       </c>
-      <c r="B16" s="1">
-        <v>5.0</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1">
-        <v>-1.0</v>
+        <v>40010.0</v>
       </c>
       <c r="E16" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G16" s="1">
-        <v>-1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B17" s="1">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1">
-        <v>-1.0</v>
+        <v>40011.0</v>
       </c>
       <c r="E17" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G17" s="1">
-        <v>-1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B18" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1">
-        <v>-1.0</v>
+        <v>40012.0</v>
       </c>
       <c r="E18" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F18" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B19" s="1">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -11377,22 +11414,22 @@
         <v>2.0</v>
       </c>
       <c r="B20" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1">
-        <v>40009.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="F20" s="1">
-        <v>10.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G20" s="1">
-        <v>5.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="21">
@@ -11400,22 +11437,22 @@
         <v>2.0</v>
       </c>
       <c r="B21" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D21" s="1">
-        <v>40010.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="F21" s="1">
-        <v>10.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G21" s="1">
-        <v>6.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="22">
@@ -11423,22 +11460,22 @@
         <v>2.0</v>
       </c>
       <c r="B22" s="1">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1">
-        <v>40011.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="F22" s="1">
-        <v>10.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G22" s="1">
-        <v>7.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="23">
@@ -11446,136 +11483,21 @@
         <v>2.0</v>
       </c>
       <c r="B23" s="1">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D23" s="1">
-        <v>40012.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E23" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="F23" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="G26" s="1">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="G28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G23" s="1">
         <v>-1.0</v>
       </c>
     </row>
@@ -11596,31 +11518,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -11631,7 +11553,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -11654,7 +11576,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -11677,7 +11599,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -11700,7 +11622,7 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>40003.0</v>
@@ -11712,13 +11634,13 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -11729,7 +11651,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -11752,7 +11674,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -11775,7 +11697,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -11798,7 +11720,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1">
         <v>-1.0</v>
@@ -11821,7 +11743,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -11844,7 +11766,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1">
         <v>40000.0</v>
@@ -11867,7 +11789,7 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1">
         <v>40001.0</v>
@@ -11890,7 +11812,7 @@
         <v>2.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1">
         <v>40002.0</v>
@@ -11913,7 +11835,7 @@
         <v>3.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1">
         <v>40003.0</v>
@@ -11925,13 +11847,13 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -11942,7 +11864,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -11965,7 +11887,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -11988,7 +11910,7 @@
         <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -12011,7 +11933,7 @@
         <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -12034,7 +11956,7 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -12057,7 +11979,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1">
         <v>40009.0</v>
@@ -12080,7 +12002,7 @@
         <v>1.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1">
         <v>40010.0</v>
@@ -12103,7 +12025,7 @@
         <v>2.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1">
         <v>40011.0</v>
@@ -12126,7 +12048,7 @@
         <v>3.0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1">
         <v>40012.0</v>
@@ -12138,7 +12060,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
@@ -12149,7 +12071,7 @@
         <v>4.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -12172,7 +12094,7 @@
         <v>5.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -12195,7 +12117,7 @@
         <v>6.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D26" s="1">
         <v>-1.0</v>
@@ -12218,7 +12140,7 @@
         <v>7.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1">
         <v>-1.0</v>
@@ -12241,7 +12163,7 @@
         <v>8.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -12273,31 +12195,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -12308,7 +12230,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -12331,7 +12253,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -12354,7 +12276,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -12377,7 +12299,7 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>40003.0</v>
@@ -12389,13 +12311,13 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -12406,7 +12328,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -12429,7 +12351,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -12452,7 +12374,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -12475,7 +12397,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1">
         <v>-1.0</v>
@@ -12498,7 +12420,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -12521,7 +12443,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D11" s="1">
         <v>40000.0</v>
@@ -12544,7 +12466,7 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1">
         <v>40001.0</v>
@@ -12567,7 +12489,7 @@
         <v>2.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1">
         <v>40002.0</v>
@@ -12590,7 +12512,7 @@
         <v>3.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1">
         <v>40003.0</v>
@@ -12602,13 +12524,13 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -12619,7 +12541,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -12642,7 +12564,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -12665,7 +12587,7 @@
         <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -12688,7 +12610,7 @@
         <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -12711,7 +12633,7 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -12734,7 +12656,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1">
         <v>40009.0</v>
@@ -12757,7 +12679,7 @@
         <v>1.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1">
         <v>40010.0</v>
@@ -12780,7 +12702,7 @@
         <v>2.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1">
         <v>40011.0</v>
@@ -12803,7 +12725,7 @@
         <v>3.0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1">
         <v>40012.0</v>
@@ -12815,7 +12737,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24">
@@ -12826,7 +12748,7 @@
         <v>4.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -12849,7 +12771,7 @@
         <v>5.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -12872,7 +12794,7 @@
         <v>6.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D26" s="1">
         <v>-1.0</v>
@@ -12895,7 +12817,7 @@
         <v>7.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1">
         <v>-1.0</v>
@@ -12918,7 +12840,7 @@
         <v>8.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -12950,31 +12872,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
@@ -12985,7 +12907,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -12997,7 +12919,7 @@
         <v>10.0</v>
       </c>
       <c r="G2" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -13008,7 +12930,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -13020,7 +12942,7 @@
         <v>10.0</v>
       </c>
       <c r="G3" s="1">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -13031,7 +12953,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -13043,7 +12965,7 @@
         <v>10.0</v>
       </c>
       <c r="G4" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -13054,7 +12976,7 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>40003.0</v>
@@ -13065,117 +12987,123 @@
       <c r="F5" s="1">
         <v>10.0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>61</v>
+      <c r="G5" s="1">
+        <v>-1.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B6" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1">
-        <v>-1.0</v>
+        <v>40000.0</v>
       </c>
       <c r="E6" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F6" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G6" s="1">
-        <v>-1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B7" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1">
-        <v>-1.0</v>
+        <v>40001.0</v>
       </c>
       <c r="E7" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F7" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G7" s="1">
-        <v>-1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B8" s="1">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1">
-        <v>-1.0</v>
+        <v>40002.0</v>
       </c>
       <c r="E8" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G8" s="1">
-        <v>-1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B9" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1">
-        <v>-1.0</v>
+        <v>40003.0</v>
       </c>
       <c r="E9" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F9" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="B10" s="1">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -13195,22 +13123,22 @@
         <v>1.0</v>
       </c>
       <c r="B11" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1">
-        <v>40000.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E11" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="F11" s="1">
-        <v>10.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G11" s="1">
-        <v>5.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="12">
@@ -13218,22 +13146,22 @@
         <v>1.0</v>
       </c>
       <c r="B12" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1">
-        <v>40001.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E12" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="F12" s="1">
-        <v>10.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G12" s="1">
-        <v>6.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="13">
@@ -13241,22 +13169,22 @@
         <v>1.0</v>
       </c>
       <c r="B13" s="1">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1">
-        <v>40002.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="F13" s="1">
-        <v>10.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G13" s="1">
-        <v>7.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="14">
@@ -13264,131 +13192,125 @@
         <v>1.0</v>
       </c>
       <c r="B14" s="1">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1">
-        <v>40003.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E14" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="F14" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>-1.0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B15" s="1">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D15" s="1">
-        <v>-1.0</v>
+        <v>40009.0</v>
       </c>
       <c r="E15" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F15" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G15" s="1">
-        <v>-1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B16" s="1">
         <v>1.0</v>
       </c>
-      <c r="B16" s="1">
-        <v>5.0</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D16" s="1">
-        <v>-1.0</v>
+        <v>40010.0</v>
       </c>
       <c r="E16" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F16" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G16" s="1">
-        <v>-1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B17" s="1">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1">
-        <v>-1.0</v>
+        <v>40011.0</v>
       </c>
       <c r="E17" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
       </c>
       <c r="G17" s="1">
-        <v>-1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B18" s="1">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1">
-        <v>-1.0</v>
+        <v>40012.0</v>
       </c>
       <c r="E18" s="1">
-        <v>-1.0</v>
+        <v>0.0</v>
       </c>
       <c r="F18" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="G18" s="1">
-        <v>-1.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B19" s="1">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -13408,22 +13330,22 @@
         <v>2.0</v>
       </c>
       <c r="B20" s="1">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1">
-        <v>40009.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E20" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="F20" s="1">
-        <v>10.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G20" s="1">
-        <v>5.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="21">
@@ -13431,22 +13353,22 @@
         <v>2.0</v>
       </c>
       <c r="B21" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D21" s="1">
-        <v>40010.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E21" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="F21" s="1">
-        <v>10.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G21" s="1">
-        <v>6.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="22">
@@ -13454,22 +13376,22 @@
         <v>2.0</v>
       </c>
       <c r="B22" s="1">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D22" s="1">
-        <v>40011.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E22" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="F22" s="1">
-        <v>10.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G22" s="1">
-        <v>7.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="23">
@@ -13477,136 +13399,21 @@
         <v>2.0</v>
       </c>
       <c r="B23" s="1">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D23" s="1">
-        <v>40012.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E23" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="F23" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="G24" s="1">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="G26" s="1">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>-1.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="G28" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="G23" s="1">
         <v>-1.0</v>
       </c>
     </row>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="71">
   <si>
     <t>Stage_Mission</t>
   </si>
@@ -55,7 +55,7 @@
     <t>0번 몬스터를 20번 잡아주세요.</t>
   </si>
   <si>
-    <t>0,20</t>
+    <t>0,9999</t>
   </si>
   <si>
     <t>0,5</t>
@@ -67,7 +67,7 @@
     <t>여왕거미를 잡아주세요</t>
   </si>
   <si>
-    <t>0</t>
+    <t>0,1</t>
   </si>
   <si>
     <t>1,0</t>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>1,2</t>
+  </si>
+  <si>
+    <t>0,20</t>
   </si>
   <si>
     <t>1,3</t>
@@ -116,6 +119,9 @@
   </si>
   <si>
     <t>0번 여왕 보스 거미를 잡아주세요.</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>2,0</t>
@@ -160,10 +166,7 @@
     <t>2,5</t>
   </si>
   <si>
-    <t>1번 여왕 보스 거미를 잡아주세요.</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>1번 비행정을 잡아주세요.</t>
   </si>
   <si>
     <t>Stage_Num</t>
@@ -638,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1">
         <v>400000.0</v>
@@ -646,16 +649,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1">
         <v>500000.0</v>
@@ -663,16 +666,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1">
         <v>600000.0</v>
@@ -680,16 +683,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1">
         <v>700000.0</v>
@@ -697,7 +700,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
@@ -714,16 +717,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1">
         <v>300002.0</v>
@@ -731,16 +734,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1">
         <v>400003.0</v>
@@ -748,16 +751,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1">
         <v>500004.0</v>
@@ -765,16 +768,16 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1">
         <v>600005.0</v>
@@ -782,16 +785,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="E16" s="1">
         <v>700006.0</v>
@@ -3770,31 +3773,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -3805,7 +3808,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -3828,7 +3831,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -3840,7 +3843,7 @@
         <v>10.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
@@ -3851,7 +3854,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -3874,7 +3877,7 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1">
         <v>40000.0</v>
@@ -3886,7 +3889,7 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -3897,7 +3900,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1">
         <v>40001.0</v>
@@ -3920,7 +3923,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" s="1">
         <v>40000.0</v>
@@ -3943,7 +3946,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1">
         <v>40001.0</v>
@@ -3966,7 +3969,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1">
         <v>40002.0</v>
@@ -4004,10 +4007,10 @@
         <v>-1.0</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -4018,7 +4021,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1">
         <v>40000.0</v>
@@ -4041,7 +4044,7 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1">
         <v>40001.0</v>
@@ -4064,7 +4067,7 @@
         <v>2.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1">
         <v>40002.0</v>
@@ -4099,13 +4102,13 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -4116,7 +4119,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -4139,7 +4142,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -4162,7 +4165,7 @@
         <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -4185,7 +4188,7 @@
         <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -4208,7 +4211,7 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -4231,7 +4234,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1">
         <v>40009.0</v>
@@ -4254,7 +4257,7 @@
         <v>1.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1">
         <v>40010.0</v>
@@ -4277,7 +4280,7 @@
         <v>2.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1">
         <v>40011.0</v>
@@ -4312,7 +4315,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -4323,7 +4326,7 @@
         <v>4.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -4346,7 +4349,7 @@
         <v>5.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -4369,7 +4372,7 @@
         <v>6.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1">
         <v>-1.0</v>
@@ -4392,7 +4395,7 @@
         <v>7.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D27" s="1">
         <v>-1.0</v>
@@ -4415,7 +4418,7 @@
         <v>8.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -10279,31 +10282,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -10314,7 +10317,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -10337,7 +10340,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -10360,7 +10363,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -10395,13 +10398,13 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -10412,7 +10415,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -10435,7 +10438,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -10458,7 +10461,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -10481,7 +10484,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1">
         <v>-1.0</v>
@@ -10504,7 +10507,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -10527,7 +10530,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1">
         <v>40000.0</v>
@@ -10550,7 +10553,7 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1">
         <v>40001.0</v>
@@ -10573,7 +10576,7 @@
         <v>2.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1">
         <v>40002.0</v>
@@ -10608,13 +10611,13 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -10625,7 +10628,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -10648,7 +10651,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -10671,7 +10674,7 @@
         <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -10694,7 +10697,7 @@
         <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -10717,7 +10720,7 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -10740,7 +10743,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1">
         <v>40009.0</v>
@@ -10763,7 +10766,7 @@
         <v>1.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1">
         <v>40010.0</v>
@@ -10786,7 +10789,7 @@
         <v>2.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1">
         <v>40011.0</v>
@@ -10821,7 +10824,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -10832,7 +10835,7 @@
         <v>4.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -10855,7 +10858,7 @@
         <v>5.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -10878,7 +10881,7 @@
         <v>6.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1">
         <v>-1.0</v>
@@ -10901,7 +10904,7 @@
         <v>7.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D27" s="1">
         <v>-1.0</v>
@@ -10924,7 +10927,7 @@
         <v>8.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -10956,31 +10959,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -10991,7 +10994,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -11014,7 +11017,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -11037,7 +11040,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -11075,10 +11078,10 @@
         <v>-1.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -11089,7 +11092,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1">
         <v>40000.0</v>
@@ -11112,7 +11115,7 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1">
         <v>40001.0</v>
@@ -11135,7 +11138,7 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1">
         <v>40002.0</v>
@@ -11170,13 +11173,13 @@
         <v>10.0</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -11187,7 +11190,7 @@
         <v>4.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -11210,7 +11213,7 @@
         <v>5.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1">
         <v>-1.0</v>
@@ -11233,7 +11236,7 @@
         <v>6.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1">
         <v>-1.0</v>
@@ -11256,7 +11259,7 @@
         <v>7.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1">
         <v>-1.0</v>
@@ -11279,7 +11282,7 @@
         <v>8.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1">
         <v>-1.0</v>
@@ -11302,7 +11305,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1">
         <v>40009.0</v>
@@ -11325,7 +11328,7 @@
         <v>1.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1">
         <v>40010.0</v>
@@ -11348,7 +11351,7 @@
         <v>2.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1">
         <v>40011.0</v>
@@ -11383,7 +11386,7 @@
         <v>10.0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -11394,7 +11397,7 @@
         <v>4.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -11417,7 +11420,7 @@
         <v>5.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1">
         <v>-1.0</v>
@@ -11440,7 +11443,7 @@
         <v>6.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="1">
         <v>-1.0</v>
@@ -11463,7 +11466,7 @@
         <v>7.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="1">
         <v>-1.0</v>
@@ -11486,7 +11489,7 @@
         <v>8.0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="1">
         <v>-1.0</v>
@@ -11518,31 +11521,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -11553,7 +11556,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -11576,7 +11579,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -11599,7 +11602,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -11634,13 +11637,13 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -11651,7 +11654,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -11674,7 +11677,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -11697,7 +11700,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -11720,7 +11723,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1">
         <v>-1.0</v>
@@ -11743,7 +11746,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -11766,7 +11769,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1">
         <v>40000.0</v>
@@ -11789,7 +11792,7 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1">
         <v>40001.0</v>
@@ -11812,7 +11815,7 @@
         <v>2.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1">
         <v>40002.0</v>
@@ -11847,13 +11850,13 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -11864,7 +11867,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -11887,7 +11890,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -11910,7 +11913,7 @@
         <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -11933,7 +11936,7 @@
         <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -11956,7 +11959,7 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -11979,7 +11982,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1">
         <v>40009.0</v>
@@ -12002,7 +12005,7 @@
         <v>1.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1">
         <v>40010.0</v>
@@ -12025,7 +12028,7 @@
         <v>2.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1">
         <v>40011.0</v>
@@ -12060,7 +12063,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -12071,7 +12074,7 @@
         <v>4.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -12094,7 +12097,7 @@
         <v>5.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -12117,7 +12120,7 @@
         <v>6.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1">
         <v>-1.0</v>
@@ -12140,7 +12143,7 @@
         <v>7.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D27" s="1">
         <v>-1.0</v>
@@ -12163,7 +12166,7 @@
         <v>8.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -12195,31 +12198,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -12230,7 +12233,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -12253,7 +12256,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -12276,7 +12279,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -12311,13 +12314,13 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -12328,7 +12331,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -12351,7 +12354,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -12374,7 +12377,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -12397,7 +12400,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1">
         <v>-1.0</v>
@@ -12420,7 +12423,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -12443,7 +12446,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1">
         <v>40000.0</v>
@@ -12466,7 +12469,7 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1">
         <v>40001.0</v>
@@ -12489,7 +12492,7 @@
         <v>2.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1">
         <v>40002.0</v>
@@ -12524,13 +12527,13 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -12541,7 +12544,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -12564,7 +12567,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -12587,7 +12590,7 @@
         <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -12610,7 +12613,7 @@
         <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -12633,7 +12636,7 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -12656,7 +12659,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1">
         <v>40009.0</v>
@@ -12679,7 +12682,7 @@
         <v>1.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1">
         <v>40010.0</v>
@@ -12702,7 +12705,7 @@
         <v>2.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1">
         <v>40011.0</v>
@@ -12737,7 +12740,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -12748,7 +12751,7 @@
         <v>4.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -12771,7 +12774,7 @@
         <v>5.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -12794,7 +12797,7 @@
         <v>6.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1">
         <v>-1.0</v>
@@ -12817,7 +12820,7 @@
         <v>7.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D27" s="1">
         <v>-1.0</v>
@@ -12840,7 +12843,7 @@
         <v>8.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -12872,31 +12875,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -12907,7 +12910,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -12930,7 +12933,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -12953,7 +12956,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -12991,10 +12994,10 @@
         <v>-1.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -13005,7 +13008,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1">
         <v>40000.0</v>
@@ -13028,7 +13031,7 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1">
         <v>40001.0</v>
@@ -13051,7 +13054,7 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1">
         <v>40002.0</v>
@@ -13086,13 +13089,13 @@
         <v>10.0</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10">
@@ -13103,7 +13106,7 @@
         <v>4.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -13126,7 +13129,7 @@
         <v>5.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1">
         <v>-1.0</v>
@@ -13149,7 +13152,7 @@
         <v>6.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1">
         <v>-1.0</v>
@@ -13172,7 +13175,7 @@
         <v>7.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1">
         <v>-1.0</v>
@@ -13195,7 +13198,7 @@
         <v>8.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D14" s="1">
         <v>-1.0</v>
@@ -13218,7 +13221,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1">
         <v>40009.0</v>
@@ -13241,7 +13244,7 @@
         <v>1.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1">
         <v>40010.0</v>
@@ -13264,7 +13267,7 @@
         <v>2.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1">
         <v>40011.0</v>
@@ -13299,7 +13302,7 @@
         <v>10.0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -13310,7 +13313,7 @@
         <v>4.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -13333,7 +13336,7 @@
         <v>5.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1">
         <v>-1.0</v>
@@ -13356,7 +13359,7 @@
         <v>6.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="1">
         <v>-1.0</v>
@@ -13379,7 +13382,7 @@
         <v>7.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="1">
         <v>-1.0</v>
@@ -13402,7 +13405,7 @@
         <v>8.0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="1">
         <v>-1.0</v>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="64">
   <si>
     <t>Stage_Mission</t>
   </si>
@@ -166,6 +166,9 @@
     <t>Open_SubStageNum</t>
   </si>
   <si>
+    <t>NextStageFlag</t>
+  </si>
+  <si>
     <t>SubStage_Status</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
   </si>
   <si>
     <t>Nomal</t>
+  </si>
+  <si>
+    <t>마지막</t>
   </si>
   <si>
     <t>Hard</t>
@@ -3747,6 +3753,9 @@
       <c r="I1" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -3756,7 +3765,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -3769,6 +3778,9 @@
       </c>
       <c r="G2" s="6">
         <v>1.0</v>
+      </c>
+      <c r="H2" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3779,7 +3791,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1">
         <v>40000.0</v>
@@ -3791,21 +3803,24 @@
         <v>10.0</v>
       </c>
       <c r="G3" s="6">
-        <v>-1.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="B4" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1">
-        <v>40000.0</v>
+        <v>45000.0</v>
       </c>
       <c r="E4" s="1">
         <v>0.0</v>
@@ -3813,8 +3828,14 @@
       <c r="F4" s="1">
         <v>10.0</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>15</v>
+      <c r="G4" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -3822,13 +3843,13 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1">
-        <v>45000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="E5" s="1">
         <v>0.0</v>
@@ -3836,8 +3857,11 @@
       <c r="F5" s="1">
         <v>10.0</v>
       </c>
-      <c r="G5" s="6">
-        <v>2.0</v>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3845,10 +3869,10 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1">
         <v>45000.0</v>
@@ -3860,7 +3884,10 @@
         <v>10.0</v>
       </c>
       <c r="G6" s="6">
-        <v>-1.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3868,13 +3895,13 @@
         <v>1.0</v>
       </c>
       <c r="B7" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1">
-        <v>50000.0</v>
+        <v>45000.0</v>
       </c>
       <c r="E7" s="1">
         <v>0.0</v>
@@ -3883,7 +3910,10 @@
         <v>10.0</v>
       </c>
       <c r="G7" s="6">
-        <v>4.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3891,10 +3921,10 @@
         <v>1.0</v>
       </c>
       <c r="B8" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1">
         <v>50000.0</v>
@@ -3906,21 +3936,24 @@
         <v>10.0</v>
       </c>
       <c r="G8" s="6">
-        <v>-1.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B9" s="1">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1">
-        <v>40000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="E9" s="1">
         <v>0.0</v>
@@ -3928,22 +3961,25 @@
       <c r="F9" s="1">
         <v>10.0</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
+      <c r="G9" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1">
-        <v>45000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="E10" s="1">
         <v>0.0</v>
@@ -3951,8 +3987,14 @@
       <c r="F10" s="1">
         <v>10.0</v>
       </c>
-      <c r="G10" s="1">
-        <v>2.0</v>
+      <c r="G10" s="6">
+        <v>-1.0</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11">
@@ -3960,13 +4002,13 @@
         <v>2.0</v>
       </c>
       <c r="B11" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1">
-        <v>50000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="E11" s="1">
         <v>0.0</v>
@@ -3974,8 +4016,11 @@
       <c r="F11" s="1">
         <v>10.0</v>
       </c>
-      <c r="G11" s="1">
-        <v>3.0</v>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3983,13 +4028,13 @@
         <v>2.0</v>
       </c>
       <c r="B12" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1">
-        <v>55000.0</v>
+        <v>45000.0</v>
       </c>
       <c r="E12" s="1">
         <v>0.0</v>
@@ -3998,7 +4043,10 @@
         <v>10.0</v>
       </c>
       <c r="G12" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -4006,13 +4054,13 @@
         <v>2.0</v>
       </c>
       <c r="B13" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1">
-        <v>60000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="E13" s="1">
         <v>0.0</v>
@@ -4021,7 +4069,10 @@
         <v>10.0</v>
       </c>
       <c r="G13" s="1">
-        <v>-1.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4029,13 +4080,13 @@
         <v>2.0</v>
       </c>
       <c r="B14" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="1">
-        <v>60000.0</v>
+        <v>55000.0</v>
       </c>
       <c r="E14" s="1">
         <v>0.0</v>
@@ -4044,7 +4095,10 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4052,13 +4106,13 @@
         <v>2.0</v>
       </c>
       <c r="B15" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="1">
-        <v>65000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="E15" s="1">
         <v>0.0</v>
@@ -4067,17 +4121,92 @@
         <v>10.0</v>
       </c>
       <c r="G15" s="1">
-        <v>-1.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="G16" s="6"/>
+      <c r="A16" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1">
+        <v>60000.0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="G17" s="6"/>
+      <c r="A17" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1">
+        <v>65000.0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="G18" s="6"/>
+      <c r="A18" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1">
+        <v>70000.0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>-1.0</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19">
       <c r="G19" s="6"/>
@@ -9858,87 +9987,45 @@
       <c r="G986" s="9"/>
     </row>
     <row r="987">
-      <c r="D987" s="8"/>
-      <c r="E987" s="8"/>
-      <c r="F987" s="8"/>
       <c r="G987" s="9"/>
     </row>
     <row r="988">
-      <c r="D988" s="8"/>
-      <c r="E988" s="8"/>
-      <c r="F988" s="8"/>
       <c r="G988" s="9"/>
     </row>
     <row r="989">
-      <c r="D989" s="8"/>
-      <c r="E989" s="8"/>
-      <c r="F989" s="8"/>
       <c r="G989" s="9"/>
     </row>
     <row r="990">
-      <c r="D990" s="8"/>
-      <c r="E990" s="8"/>
-      <c r="F990" s="8"/>
       <c r="G990" s="9"/>
     </row>
     <row r="991">
-      <c r="D991" s="8"/>
-      <c r="E991" s="8"/>
-      <c r="F991" s="8"/>
       <c r="G991" s="9"/>
     </row>
     <row r="992">
-      <c r="D992" s="8"/>
-      <c r="E992" s="8"/>
-      <c r="F992" s="8"/>
       <c r="G992" s="9"/>
     </row>
     <row r="993">
-      <c r="D993" s="8"/>
-      <c r="E993" s="8"/>
-      <c r="F993" s="8"/>
       <c r="G993" s="9"/>
     </row>
     <row r="994">
-      <c r="D994" s="8"/>
-      <c r="E994" s="8"/>
-      <c r="F994" s="8"/>
       <c r="G994" s="9"/>
     </row>
     <row r="995">
-      <c r="D995" s="8"/>
-      <c r="E995" s="8"/>
-      <c r="F995" s="8"/>
       <c r="G995" s="9"/>
     </row>
     <row r="996">
-      <c r="D996" s="8"/>
-      <c r="E996" s="8"/>
-      <c r="F996" s="8"/>
       <c r="G996" s="9"/>
     </row>
     <row r="997">
-      <c r="D997" s="8"/>
-      <c r="E997" s="8"/>
-      <c r="F997" s="8"/>
       <c r="G997" s="9"/>
     </row>
     <row r="998">
-      <c r="D998" s="8"/>
-      <c r="E998" s="8"/>
-      <c r="F998" s="8"/>
       <c r="G998" s="9"/>
     </row>
     <row r="999">
-      <c r="D999" s="8"/>
-      <c r="E999" s="8"/>
-      <c r="F999" s="8"/>
       <c r="G999" s="9"/>
     </row>
     <row r="1000">
-      <c r="D1000" s="8"/>
-      <c r="E1000" s="8"/>
-      <c r="F1000" s="8"/>
       <c r="G1000" s="9"/>
     </row>
   </sheetData>
@@ -9979,10 +10066,10 @@
         <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
@@ -9993,7 +10080,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -10016,7 +10103,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -10039,7 +10126,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -10074,13 +10161,13 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -10091,7 +10178,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -10114,7 +10201,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -10137,7 +10224,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -10160,7 +10247,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1">
         <v>-1.0</v>
@@ -10183,7 +10270,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -10206,7 +10293,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1">
         <v>40000.0</v>
@@ -10229,7 +10316,7 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1">
         <v>40001.0</v>
@@ -10252,7 +10339,7 @@
         <v>2.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1">
         <v>40002.0</v>
@@ -10287,13 +10374,13 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -10304,7 +10391,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -10327,7 +10414,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -10350,7 +10437,7 @@
         <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -10373,7 +10460,7 @@
         <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -10396,7 +10483,7 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -10419,7 +10506,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1">
         <v>40009.0</v>
@@ -10442,7 +10529,7 @@
         <v>1.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1">
         <v>40010.0</v>
@@ -10465,7 +10552,7 @@
         <v>2.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1">
         <v>40011.0</v>
@@ -10500,7 +10587,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
@@ -10511,7 +10598,7 @@
         <v>4.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -10534,7 +10621,7 @@
         <v>5.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -10557,7 +10644,7 @@
         <v>6.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1">
         <v>-1.0</v>
@@ -10580,7 +10667,7 @@
         <v>7.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1">
         <v>-1.0</v>
@@ -10603,7 +10690,7 @@
         <v>8.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -10656,10 +10743,10 @@
         <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
@@ -10670,7 +10757,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -10693,7 +10780,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1">
         <v>45000.0</v>
@@ -10716,7 +10803,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1">
         <v>50000.0</v>
@@ -10739,7 +10826,7 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1">
         <v>55000.0</v>
@@ -10762,7 +10849,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1">
         <v>60000.0</v>
@@ -10774,7 +10861,7 @@
         <v>10.0</v>
       </c>
       <c r="G6" s="1">
-        <v>-1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="7">
@@ -10785,7 +10872,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" s="1">
         <v>60000.0</v>
@@ -10808,7 +10895,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1">
         <v>65000.0</v>
@@ -10820,7 +10907,33 @@
         <v>10.0</v>
       </c>
       <c r="G8" s="1">
-        <v>-1.0</v>
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1">
+        <v>70000.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -10861,10 +10974,10 @@
         <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
@@ -10875,7 +10988,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -10898,7 +11011,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -10921,7 +11034,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -10956,13 +11069,13 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -10973,7 +11086,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -10996,7 +11109,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -11019,7 +11132,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -11042,7 +11155,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1">
         <v>-1.0</v>
@@ -11065,7 +11178,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -11088,7 +11201,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1">
         <v>40000.0</v>
@@ -11111,7 +11224,7 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1">
         <v>40001.0</v>
@@ -11134,7 +11247,7 @@
         <v>2.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1">
         <v>40002.0</v>
@@ -11169,13 +11282,13 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -11186,7 +11299,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -11209,7 +11322,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -11232,7 +11345,7 @@
         <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -11255,7 +11368,7 @@
         <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -11278,7 +11391,7 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -11301,7 +11414,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1">
         <v>40009.0</v>
@@ -11324,7 +11437,7 @@
         <v>1.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1">
         <v>40010.0</v>
@@ -11347,7 +11460,7 @@
         <v>2.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1">
         <v>40011.0</v>
@@ -11382,7 +11495,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
@@ -11393,7 +11506,7 @@
         <v>4.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -11416,7 +11529,7 @@
         <v>5.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -11439,7 +11552,7 @@
         <v>6.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1">
         <v>-1.0</v>
@@ -11462,7 +11575,7 @@
         <v>7.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1">
         <v>-1.0</v>
@@ -11485,7 +11598,7 @@
         <v>8.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -11538,10 +11651,10 @@
         <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
@@ -11552,7 +11665,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -11575,7 +11688,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -11598,7 +11711,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -11633,13 +11746,13 @@
         <v>10.0</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -11650,7 +11763,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -11673,7 +11786,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -11696,7 +11809,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -11719,7 +11832,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1">
         <v>-1.0</v>
@@ -11742,7 +11855,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -11765,7 +11878,7 @@
         <v>0.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1">
         <v>40000.0</v>
@@ -11788,7 +11901,7 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1">
         <v>40001.0</v>
@@ -11811,7 +11924,7 @@
         <v>2.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1">
         <v>40002.0</v>
@@ -11846,13 +11959,13 @@
         <v>10.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -11863,7 +11976,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -11886,7 +11999,7 @@
         <v>5.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D16" s="1">
         <v>-1.0</v>
@@ -11909,7 +12022,7 @@
         <v>6.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1">
         <v>-1.0</v>
@@ -11932,7 +12045,7 @@
         <v>7.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -11955,7 +12068,7 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -11978,7 +12091,7 @@
         <v>0.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1">
         <v>40009.0</v>
@@ -12001,7 +12114,7 @@
         <v>1.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1">
         <v>40010.0</v>
@@ -12024,7 +12137,7 @@
         <v>2.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1">
         <v>40011.0</v>
@@ -12059,7 +12172,7 @@
         <v>10.0</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
@@ -12070,7 +12183,7 @@
         <v>4.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -12093,7 +12206,7 @@
         <v>5.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -12116,7 +12229,7 @@
         <v>6.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1">
         <v>-1.0</v>
@@ -12139,7 +12252,7 @@
         <v>7.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1">
         <v>-1.0</v>
@@ -12162,7 +12275,7 @@
         <v>8.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -12215,10 +12328,10 @@
         <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
@@ -12229,7 +12342,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
@@ -12252,7 +12365,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1">
         <v>40001.0</v>
@@ -12275,7 +12388,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1">
         <v>40002.0</v>
@@ -12313,10 +12426,10 @@
         <v>-1.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -12327,7 +12440,7 @@
         <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1">
         <v>40000.0</v>
@@ -12350,7 +12463,7 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1">
         <v>40001.0</v>
@@ -12373,7 +12486,7 @@
         <v>2.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1">
         <v>40002.0</v>
@@ -12408,13 +12521,13 @@
         <v>10.0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -12425,7 +12538,7 @@
         <v>4.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -12448,7 +12561,7 @@
         <v>5.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1">
         <v>-1.0</v>
@@ -12471,7 +12584,7 @@
         <v>6.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1">
         <v>-1.0</v>
@@ -12494,7 +12607,7 @@
         <v>7.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1">
         <v>-1.0</v>
@@ -12517,7 +12630,7 @@
         <v>8.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1">
         <v>-1.0</v>
@@ -12540,7 +12653,7 @@
         <v>0.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1">
         <v>40009.0</v>
@@ -12563,7 +12676,7 @@
         <v>1.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1">
         <v>40010.0</v>
@@ -12586,7 +12699,7 @@
         <v>2.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1">
         <v>40011.0</v>
@@ -12621,7 +12734,7 @@
         <v>10.0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
@@ -12632,7 +12745,7 @@
         <v>4.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -12655,7 +12768,7 @@
         <v>5.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="1">
         <v>-1.0</v>
@@ -12678,7 +12791,7 @@
         <v>6.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1">
         <v>-1.0</v>
@@ -12701,7 +12814,7 @@
         <v>7.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1">
         <v>-1.0</v>
@@ -12724,7 +12837,7 @@
         <v>8.0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D23" s="1">
         <v>-1.0</v>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="95">
   <si>
     <t>Stage_Mission</t>
   </si>
@@ -62,10 +62,10 @@
     <t>Monster</t>
   </si>
   <si>
-    <t>0번 몬스터를 100마리 잡아주세요.</t>
+    <t>일반약탈자를 20마리 잡아주세요.</t>
   </si>
   <si>
-    <t>0,100</t>
+    <t>0,20</t>
   </si>
   <si>
     <t>3,0</t>
@@ -74,10 +74,10 @@
     <t>3,2</t>
   </si>
   <si>
-    <t>5번 몬스터를 20마리 잡아주세요.</t>
+    <t>거미알을 10마리 잡아주세요.</t>
   </si>
   <si>
-    <t>5,20</t>
+    <t>5,10</t>
   </si>
   <si>
     <t>4,5</t>
@@ -218,19 +218,16 @@
     <t>7,3,4,2</t>
   </si>
   <si>
-    <t>6,2,3</t>
+    <t>6,2,3,2</t>
   </si>
   <si>
-    <t>6,2,3,1</t>
+    <t>6,2,3,2,2</t>
   </si>
   <si>
-    <t>6,4,3,2</t>
+    <t>6,4,3,2,2</t>
   </si>
   <si>
-    <t>5,2,2,4</t>
-  </si>
-  <si>
-    <t>6,2,3,2</t>
+    <t>5,2,2,4,4</t>
   </si>
   <si>
     <t>Escort</t>
@@ -666,7 +663,10 @@
         <v>9</v>
       </c>
       <c r="E2" s="1">
-        <v>5000.0</v>
+        <v>7000.0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>60.0</v>
       </c>
     </row>
     <row r="3">
@@ -683,7 +683,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>5500.0</v>
+        <v>7500.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>60.0</v>
       </c>
     </row>
     <row r="4">
@@ -700,7 +703,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="1">
-        <v>6000.0</v>
+        <v>8000.0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>60.0</v>
       </c>
     </row>
     <row r="5">
@@ -717,7 +723,10 @@
         <v>15</v>
       </c>
       <c r="E5" s="1">
-        <v>10000.0</v>
+        <v>12000.0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>60.0</v>
       </c>
     </row>
     <row r="6">
@@ -734,7 +743,10 @@
         <v>-1.0</v>
       </c>
       <c r="E6" s="1">
-        <v>5000.0</v>
+        <v>7000.0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>60.0</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +763,10 @@
         <v>19</v>
       </c>
       <c r="E7" s="1">
-        <v>10000.0</v>
+        <v>12000.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>60.0</v>
       </c>
     </row>
     <row r="8">
@@ -768,7 +783,10 @@
         <v>23</v>
       </c>
       <c r="E8" s="1">
-        <v>20000.0</v>
+        <v>22000.0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>60.0</v>
       </c>
     </row>
     <row r="17">
@@ -12270,7 +12288,7 @@
         <v>49</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1">
         <v>1.0</v>
@@ -12377,13 +12395,13 @@
         <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="E2" s="1">
         <v>500000.0</v>
@@ -12391,16 +12409,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="E3" s="1">
         <v>600000.0</v>
@@ -12408,16 +12426,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E4" s="1">
         <v>700000.0</v>
@@ -12442,16 +12460,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E6" s="1">
         <v>300002.0</v>
@@ -12465,10 +12483,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E7" s="1">
         <v>400003.0</v>
@@ -12476,16 +12494,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="E8" s="1">
         <v>500004.0</v>
@@ -12493,16 +12511,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="E9" s="1">
         <v>600005.0</v>
@@ -12510,16 +12528,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="E10" s="1">
         <v>700006.0</v>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="205">
   <si>
     <t>Stage_Mission</t>
   </si>
@@ -419,9 +419,6 @@
     <t>SimpleStation</t>
   </si>
   <si>
-    <t>StartBranchFlag</t>
-  </si>
-  <si>
     <t>0,2,3,4,7</t>
   </si>
   <si>
@@ -509,7 +506,40 @@
     <t>7,4,3,3,1,4,4</t>
   </si>
   <si>
+    <t>0,3,4,10,8,13</t>
+  </si>
+  <si>
+    <t>6,2,3,4,2,1</t>
+  </si>
+  <si>
+    <t>0,4,10,8,13</t>
+  </si>
+  <si>
+    <t>7,2,4,2,2</t>
+  </si>
+  <si>
     <t>1,90,5</t>
+  </si>
+  <si>
+    <t>4,6,4,4,5,3,1</t>
+  </si>
+  <si>
+    <t>0,2,7</t>
+  </si>
+  <si>
+    <t>10,10,10</t>
+  </si>
+  <si>
+    <t>6,4,2,3,4,4</t>
+  </si>
+  <si>
+    <t>6,5,5,4,3,5</t>
+  </si>
+  <si>
+    <t>10,12,13,14,15,5</t>
+  </si>
+  <si>
+    <t>6,1,6,6,6,6</t>
   </si>
   <si>
     <t>1,3</t>
@@ -645,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -689,6 +719,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -11926,7 +11959,7 @@
         <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>63</v>
@@ -11952,10 +11985,10 @@
         <v>40000.0</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>134</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>135</v>
       </c>
       <c r="G2" s="1">
         <v>1.0</v>
@@ -11981,10 +12014,10 @@
         <v>50000.0</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>137</v>
       </c>
       <c r="G3" s="1">
         <v>-1.0</v>
@@ -12013,10 +12046,10 @@
         <v>45000.0</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G4" s="1">
         <v>1.0</v>
@@ -12042,10 +12075,10 @@
         <v>55000.0</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="G5" s="1">
         <v>-1.0</v>
@@ -12074,10 +12107,10 @@
         <v>60000.0</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="G6" s="1">
         <v>1.0</v>
@@ -12103,10 +12136,10 @@
         <v>70000.0</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="G7" s="1">
         <v>-1.0</v>
@@ -12135,10 +12168,10 @@
         <v>60000.0</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="G8" s="1">
         <v>1.0</v>
@@ -12164,10 +12197,10 @@
         <v>65000.0</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="G9" s="1">
         <v>2.0</v>
@@ -12193,10 +12226,10 @@
         <v>75000.0</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G10" s="1">
         <v>3.0</v>
@@ -12222,10 +12255,10 @@
         <v>80000.0</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>151</v>
       </c>
       <c r="G11" s="1">
         <v>-1.0</v>
@@ -12254,10 +12287,10 @@
         <v>65000.0</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="G12" s="1">
         <v>-1.0</v>
@@ -12286,10 +12319,10 @@
         <v>70000.0</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>155</v>
       </c>
       <c r="G13" s="1">
         <v>1.0</v>
@@ -12315,10 +12348,10 @@
         <v>75000.0</v>
       </c>
       <c r="E14" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>157</v>
       </c>
       <c r="G14" s="1">
         <v>-1.0</v>
@@ -12347,10 +12380,10 @@
         <v>70000.0</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>159</v>
       </c>
       <c r="G15" s="1">
         <v>1.0</v>
@@ -12376,10 +12409,10 @@
         <v>75000.0</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G16" s="1">
         <v>2.0</v>
@@ -12405,10 +12438,10 @@
         <v>80000.0</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="G17" s="1">
         <v>-1.0</v>
@@ -13951,6 +13984,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="5" max="5" width="16.13"/>
+    <col customWidth="1" min="6" max="6" width="12.75"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -13975,7 +14012,7 @@
         <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>63</v>
@@ -13998,13 +14035,13 @@
         <v>66</v>
       </c>
       <c r="D2" s="1">
-        <v>40000.0</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="8">
-        <v>10.0</v>
+        <v>60000.0</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="G2" s="1">
         <v>1.0</v>
@@ -14024,16 +14061,16 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="D3" s="1">
-        <v>40000.0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>10.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-1.0</v>
       </c>
       <c r="G3" s="1">
         <v>2.0</v>
@@ -14053,60 +14090,60 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-1.0</v>
+        <v>40000.0</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="G4" s="1">
-        <v>3.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="B5" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1">
-        <v>40000.0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>10.0</v>
+        <v>50000.0</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="G5" s="1">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="H5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6">
@@ -14114,25 +14151,25 @@
         <v>9.0</v>
       </c>
       <c r="B6" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1">
-        <v>40000.0</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>10.0</v>
+        <v>65000.0</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="G6" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>0</v>
@@ -14143,22 +14180,22 @@
         <v>9.0</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1">
-        <v>40000.0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>10.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-1.0</v>
       </c>
       <c r="G7" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H7" s="1" t="b">
         <v>0</v>
@@ -14172,89 +14209,95 @@
         <v>9.0</v>
       </c>
       <c r="B8" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1">
         <v>40000.0</v>
       </c>
-      <c r="E8" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>10.0</v>
+      <c r="E8" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="G8" s="1">
-        <v>3.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="B9" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>-1.0</v>
+        <v>50000.0</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="G9" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="H9" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="K9" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>14.0</v>
       </c>
       <c r="B10" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1">
-        <v>40000.0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>10.0</v>
+        <v>50000.0</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="G10" s="1">
-        <v>-1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>126</v>
+      <c r="K10" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -14262,31 +14305,28 @@
         <v>14.0</v>
       </c>
       <c r="B11" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1">
-        <v>40000.0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>10.0</v>
+        <v>60000.0</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="G11" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H11" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12">
@@ -14294,31 +14334,28 @@
         <v>14.0</v>
       </c>
       <c r="B12" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="D12" s="1">
-        <v>40000.0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>10.0</v>
+        <v>-1.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-1.0</v>
       </c>
       <c r="G12" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="H12" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -14326,88 +14363,30 @@
         <v>14.0</v>
       </c>
       <c r="B13" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1">
         <v>40000.0</v>
       </c>
-      <c r="E13" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="8">
-        <v>10.0</v>
+      <c r="E13" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="G13" s="1">
-        <v>3.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="H14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1">
-        <v>40000.0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="8">
-        <v>10.0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="H15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>126</v>
       </c>
     </row>
@@ -14436,7 +14415,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -14448,16 +14427,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>167</v>
+        <v>176</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="E2" s="1">
         <v>500000.0</v>
@@ -14465,16 +14444,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>171</v>
+        <v>180</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="E3" s="1">
         <v>600000.0</v>
@@ -14482,16 +14461,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>174</v>
+        <v>183</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>184</v>
       </c>
       <c r="E4" s="1">
         <v>700000.0</v>
@@ -14507,7 +14486,7 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1">
@@ -14516,16 +14495,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>178</v>
+        <v>187</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="E6" s="1">
         <v>300002.0</v>
@@ -14533,16 +14512,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>181</v>
+        <v>190</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>191</v>
       </c>
       <c r="E7" s="1">
         <v>400003.0</v>
@@ -14550,16 +14529,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>184</v>
+        <v>193</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="E8" s="1">
         <v>500004.0</v>
@@ -14567,16 +14546,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>187</v>
+        <v>196</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="E9" s="1">
         <v>600005.0</v>
@@ -14584,15 +14563,15 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="1">
@@ -14601,16 +14580,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>191</v>
+        <v>200</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>201</v>
       </c>
       <c r="E11" s="1">
         <v>12000.0</v>
@@ -14641,13 +14620,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>52</v>
@@ -14667,7 +14646,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>35</v>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -1012,7 +1012,7 @@
         <v>5000.0</v>
       </c>
       <c r="F2" s="1">
-        <v>60.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
@@ -1029,10 +1029,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>5000.0</v>
+        <v>5500.0</v>
       </c>
       <c r="F3" s="1">
-        <v>60.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="4">
@@ -1049,10 +1049,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="1">
-        <v>5000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="F4" s="1">
-        <v>60.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
@@ -1069,10 +1069,10 @@
         <v>-1.0</v>
       </c>
       <c r="E5" s="1">
-        <v>5000.0</v>
+        <v>6500.0</v>
       </c>
       <c r="F5" s="1">
-        <v>60.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
@@ -1089,10 +1089,10 @@
         <v>16</v>
       </c>
       <c r="E6" s="1">
-        <v>10000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="F6" s="1">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="7">
@@ -1109,10 +1109,10 @@
         <v>-1.0</v>
       </c>
       <c r="E7" s="1">
-        <v>5000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="F7" s="1">
-        <v>60.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="8">
@@ -1129,10 +1129,10 @@
         <v>21</v>
       </c>
       <c r="E8" s="1">
-        <v>5000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="F8" s="1">
-        <v>60.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="9">
@@ -1149,10 +1149,10 @@
         <v>-1.0</v>
       </c>
       <c r="E9" s="1">
-        <v>5000.0</v>
+        <v>6500.0</v>
       </c>
       <c r="F9" s="1">
-        <v>60.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="10">
@@ -1169,10 +1169,10 @@
         <v>25</v>
       </c>
       <c r="E10" s="1">
-        <v>5000.0</v>
+        <v>8500.0</v>
       </c>
       <c r="F10" s="1">
-        <v>60.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="11">
@@ -1189,10 +1189,10 @@
         <v>-1.0</v>
       </c>
       <c r="E11" s="1">
-        <v>5000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="F11" s="1">
-        <v>60.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="12">
@@ -1209,10 +1209,10 @@
         <v>13</v>
       </c>
       <c r="E12" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F12" s="1">
-        <v>60.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="13">
@@ -1229,10 +1229,10 @@
         <v>-1.0</v>
       </c>
       <c r="E13" s="1">
-        <v>5000.0</v>
+        <v>7500.0</v>
       </c>
       <c r="F13" s="1">
-        <v>60.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="14">
@@ -1249,10 +1249,10 @@
         <v>32</v>
       </c>
       <c r="E14" s="1">
-        <v>5000.0</v>
+        <v>11000.0</v>
       </c>
       <c r="F14" s="1">
-        <v>60.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="15">
@@ -1269,10 +1269,10 @@
         <v>35</v>
       </c>
       <c r="E15" s="1">
-        <v>10000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="F15" s="1">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         <v>5000.0</v>
       </c>
       <c r="F16" s="1">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="17">
@@ -1309,10 +1309,10 @@
         <v>39</v>
       </c>
       <c r="E17" s="1">
-        <v>5000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="F17" s="1">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="18">
@@ -1329,10 +1329,10 @@
         <v>-1.0</v>
       </c>
       <c r="E18" s="1">
-        <v>5000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="F18" s="1">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="19">
@@ -1349,10 +1349,10 @@
         <v>43</v>
       </c>
       <c r="E19" s="1">
-        <v>5000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="F19" s="1">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="20">
@@ -1369,10 +1369,10 @@
         <v>-1.0</v>
       </c>
       <c r="E20" s="1">
-        <v>5000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="F20" s="1">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="21">
@@ -1389,10 +1389,10 @@
         <v>47</v>
       </c>
       <c r="E21" s="1">
-        <v>5000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="F21" s="1">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="22">
@@ -1409,10 +1409,10 @@
         <v>-1.0</v>
       </c>
       <c r="E22" s="1">
-        <v>5000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="F22" s="1">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="23">
@@ -1429,10 +1429,10 @@
         <v>52</v>
       </c>
       <c r="E23" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F23" s="1">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="24">
@@ -1449,10 +1449,10 @@
         <v>35</v>
       </c>
       <c r="E24" s="1">
-        <v>10000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="F24" s="1">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="25">
@@ -14194,9 +14194,7 @@
       <c r="F7" s="1">
         <v>-1.0</v>
       </c>
-      <c r="G7" s="1">
-        <v>3.0</v>
-      </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1" t="b">
         <v>0</v>
       </c>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="206">
   <si>
     <t>Stage_Mission</t>
   </si>
@@ -50,201 +50,216 @@
     <t>-1</t>
   </si>
   <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>재료를 수집하세요</t>
+  </si>
+  <si>
+    <t>70,10,60</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>Escort</t>
+  </si>
+  <si>
+    <t>이봐, 다음 정거장으로 데려다줘</t>
+  </si>
+  <si>
+    <t>2000,20,5</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>Convoy</t>
+  </si>
+  <si>
+    <t>호송하세요</t>
+  </si>
+  <si>
+    <t>5000,10000,1000,500000,50000</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>네펜더스를 잡아주세요.</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>5,0</t>
+  </si>
+  <si>
+    <t>5,2</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>일반 약탈자 10마리를 잡아주세요.</t>
+  </si>
+  <si>
+    <t>0,10</t>
+  </si>
+  <si>
+    <t>6,0</t>
+  </si>
+  <si>
+    <t>6,2</t>
+  </si>
+  <si>
+    <t>정예 약탈자 10마리를  잡아주세요.</t>
+  </si>
+  <si>
+    <t>2,10</t>
+  </si>
+  <si>
+    <t>7,0</t>
+  </si>
+  <si>
+    <t>7,2</t>
+  </si>
+  <si>
+    <t>까마귀 5마리를 잡아주세요.</t>
+  </si>
+  <si>
+    <t>8,0</t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
+    <t>폭주 약탈자 10마리를 잡아주세요.</t>
+  </si>
+  <si>
+    <t>7,10</t>
+  </si>
+  <si>
+    <t>9,5</t>
+  </si>
+  <si>
+    <t>비행정을 잡아주세요.</t>
+  </si>
+  <si>
+    <t>10,0</t>
+  </si>
+  <si>
+    <t>10,2</t>
+  </si>
+  <si>
+    <t>선인장 10마리를 잡아주세요.</t>
+  </si>
+  <si>
+    <t>9,10</t>
+  </si>
+  <si>
+    <t>11,0</t>
+  </si>
+  <si>
+    <t>11,2</t>
+  </si>
+  <si>
+    <t>코뿔소 5마리를 잡아주세요.</t>
+  </si>
+  <si>
+    <t>11,5</t>
+  </si>
+  <si>
+    <t>12,0</t>
+  </si>
+  <si>
+    <t>12,2</t>
+  </si>
+  <si>
+    <t>히드라 1마리를 잡아주세요.</t>
+  </si>
+  <si>
+    <t>12,1</t>
+  </si>
+  <si>
+    <t>13,0</t>
+  </si>
+  <si>
+    <t>무사히 목적지까지 도착하세요.</t>
+  </si>
+  <si>
+    <t>13,2</t>
+  </si>
+  <si>
+    <t>거미알을 10개를 잡아주세요.</t>
+  </si>
+  <si>
+    <t>5,10</t>
+  </si>
+  <si>
+    <t>14,5</t>
+  </si>
+  <si>
+    <t>여왕 거미를 잡아주세요.</t>
+  </si>
+  <si>
+    <t>Stage_Num</t>
+  </si>
+  <si>
+    <t>SubStage_Num</t>
+  </si>
+  <si>
+    <t>SubStage_Type</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Emerging_Monster</t>
+  </si>
+  <si>
+    <t>Monster_Count</t>
+  </si>
+  <si>
+    <t>Open_SubStageNum</t>
+  </si>
+  <si>
+    <t>StartStageFlag</t>
+  </si>
+  <si>
+    <t>NextStageFlag</t>
+  </si>
+  <si>
+    <t>SubStage_Status</t>
+  </si>
+  <si>
+    <t>상세정보</t>
+  </si>
+  <si>
+    <t>Nomal</t>
+  </si>
+  <si>
+    <t>마지막</t>
+  </si>
+  <si>
     <t>0,3</t>
   </si>
   <si>
-    <t>Escort</t>
-  </si>
-  <si>
-    <t>호위하세요</t>
-  </si>
-  <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>Convoy</t>
-  </si>
-  <si>
-    <t>호송하세요</t>
-  </si>
-  <si>
-    <t>5000,10000,1000,500000,50000</t>
-  </si>
-  <si>
-    <t>2,0</t>
-  </si>
-  <si>
-    <t>3,0</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>Boss</t>
-  </si>
-  <si>
-    <t>네펜더스를 잡아주세요.</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>5,0</t>
-  </si>
-  <si>
-    <t>5,2</t>
-  </si>
-  <si>
-    <t>Monster</t>
-  </si>
-  <si>
-    <t>일반 약탈자 10마리를 잡아주세요.</t>
-  </si>
-  <si>
-    <t>0,10</t>
-  </si>
-  <si>
-    <t>6,0</t>
-  </si>
-  <si>
-    <t>6,2</t>
-  </si>
-  <si>
-    <t>정예 약탈자 10마리를  잡아주세요.</t>
-  </si>
-  <si>
-    <t>2,10</t>
-  </si>
-  <si>
-    <t>7,0</t>
-  </si>
-  <si>
-    <t>7,2</t>
-  </si>
-  <si>
-    <t>까마귀 5마리를 잡아주세요.</t>
-  </si>
-  <si>
-    <t>8,0</t>
-  </si>
-  <si>
-    <t>8,2</t>
-  </si>
-  <si>
-    <t>폭주 약탈자 10마리를 잡아주세요.</t>
-  </si>
-  <si>
-    <t>7,10</t>
-  </si>
-  <si>
-    <t>9,5</t>
-  </si>
-  <si>
-    <t>비행정을 잡아주세요.</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>10,0</t>
-  </si>
-  <si>
-    <t>10,2</t>
-  </si>
-  <si>
-    <t>선인장 10마리를 잡아주세요.</t>
-  </si>
-  <si>
-    <t>9,10</t>
-  </si>
-  <si>
-    <t>11,0</t>
-  </si>
-  <si>
-    <t>11,2</t>
-  </si>
-  <si>
-    <t>코뿔소 5마리를 잡아주세요.</t>
-  </si>
-  <si>
-    <t>11,5</t>
-  </si>
-  <si>
-    <t>12,0</t>
-  </si>
-  <si>
-    <t>12,2</t>
-  </si>
-  <si>
-    <t>히드라 1마리를 잡아주세요.</t>
-  </si>
-  <si>
-    <t>12,1</t>
-  </si>
-  <si>
-    <t>13,0</t>
-  </si>
-  <si>
-    <t>무사히 목적지까지 도착하세요.</t>
-  </si>
-  <si>
-    <t>13,2</t>
-  </si>
-  <si>
-    <t>거미알을 10개를 잡아주세요.</t>
-  </si>
-  <si>
-    <t>5,10</t>
-  </si>
-  <si>
-    <t>14,5</t>
-  </si>
-  <si>
-    <t>여왕 거미를 잡아주세요.</t>
-  </si>
-  <si>
-    <t>Stage_Num</t>
-  </si>
-  <si>
-    <t>SubStage_Num</t>
-  </si>
-  <si>
-    <t>SubStage_Type</t>
-  </si>
-  <si>
-    <t>Distance</t>
-  </si>
-  <si>
-    <t>Emerging_Monster</t>
-  </si>
-  <si>
-    <t>Monster_Count</t>
-  </si>
-  <si>
-    <t>Open_SubStageNum</t>
-  </si>
-  <si>
-    <t>StartStageFlag</t>
-  </si>
-  <si>
-    <t>NextStageFlag</t>
-  </si>
-  <si>
-    <t>SubStage_Status</t>
-  </si>
-  <si>
-    <t>상세정보</t>
-  </si>
-  <si>
-    <t>Nomal</t>
-  </si>
-  <si>
-    <t>마지막</t>
-  </si>
-  <si>
     <t>0,3,4</t>
   </si>
   <si>
@@ -545,9 +560,6 @@
     <t>6,1,6,6,6,6</t>
   </si>
   <si>
-    <t>1,3</t>
-  </si>
-  <si>
     <t>8번 NPC를 호위하세요 (체력 2000)</t>
   </si>
   <si>
@@ -570,9 +582,6 @@
   </si>
   <si>
     <t>2,1</t>
-  </si>
-  <si>
-    <t>Material</t>
   </si>
   <si>
     <t>71번 아이템을 20개를 모아주세요.</t>
@@ -1016,8 +1025,8 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1">
-        <v>-1.0</v>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E3" s="1">
         <v>5000.0</v>
@@ -1028,19 +1037,19 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E4" s="1">
-        <v>5500.0</v>
+        <v>5000.0</v>
       </c>
       <c r="F4" s="1">
         <v>10.0</v>
@@ -1048,16 +1057,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1">
         <v>5000.0</v>
@@ -1068,7 +1077,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -1080,7 +1089,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="1">
-        <v>6000.0</v>
+        <v>5500.0</v>
       </c>
       <c r="F6" s="1">
         <v>10.0</v>
@@ -1088,7 +1097,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -1096,11 +1105,11 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1">
-        <v>6500.0</v>
+        <v>6000.0</v>
       </c>
       <c r="F7" s="1">
         <v>10.0</v>
@@ -1108,19 +1117,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1">
-        <v>20000.0</v>
+        <v>6500.0</v>
       </c>
       <c r="F8" s="1">
         <v>10.0</v>
@@ -1128,39 +1137,39 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1">
-        <v>6000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="F9" s="1">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1">
-        <v>8000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="F10" s="1">
         <v>20.0</v>
@@ -1168,19 +1177,19 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1">
-        <v>6500.0</v>
+        <v>8000.0</v>
       </c>
       <c r="F11" s="1">
         <v>20.0</v>
@@ -1188,19 +1197,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1">
-        <v>8500.0</v>
+        <v>6500.0</v>
       </c>
       <c r="F12" s="1">
         <v>20.0</v>
@@ -1208,19 +1217,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1">
-        <v>7000.0</v>
+        <v>8500.0</v>
       </c>
       <c r="F13" s="1">
         <v>20.0</v>
@@ -1228,19 +1237,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E14" s="1">
-        <v>10000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="F14" s="1">
         <v>20.0</v>
@@ -1248,19 +1257,19 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1">
-        <v>7500.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F15" s="1">
         <v>20.0</v>
@@ -1268,19 +1277,19 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E16" s="1">
-        <v>11000.0</v>
+        <v>7500.0</v>
       </c>
       <c r="F16" s="1">
         <v>20.0</v>
@@ -1288,59 +1297,59 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1">
-        <v>25000.0</v>
+        <v>11000.0</v>
       </c>
       <c r="F17" s="1">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1">
-        <v>5000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="F18" s="1">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1">
-        <v>7000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="F19" s="1">
         <v>40.0</v>
@@ -1348,19 +1357,19 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E20" s="1">
-        <v>6000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="F20" s="1">
         <v>40.0</v>
@@ -1368,19 +1377,19 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1">
-        <v>8000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="F21" s="1">
         <v>40.0</v>
@@ -1388,19 +1397,19 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E22" s="1">
-        <v>7000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="F22" s="1">
         <v>40.0</v>
@@ -1408,19 +1417,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E23" s="1">
-        <v>9000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="F23" s="1">
         <v>40.0</v>
@@ -1428,19 +1437,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="E24" s="1">
-        <v>8000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="F24" s="1">
         <v>40.0</v>
@@ -1448,19 +1457,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E25" s="1">
-        <v>10000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="F25" s="1">
         <v>40.0</v>
@@ -1468,39 +1477,50 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E26" s="1">
+        <v>10000.0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1">
         <v>30000.0</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F27" s="1">
         <v>10.0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="D27" s="2"/>
-    </row>
-    <row r="29">
-      <c r="D29" s="2"/>
+    <row r="28">
+      <c r="D28" s="2"/>
     </row>
     <row r="30">
       <c r="D30" s="2"/>
     </row>
-    <row r="31">
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="D32" s="2"/>
-    </row>
     <row r="33">
       <c r="D33" s="2"/>
     </row>
@@ -4404,6 +4424,9 @@
     </row>
     <row r="1000">
       <c r="D1000" s="2"/>
+    </row>
+    <row r="1001">
+      <c r="D1001" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4429,37 +4452,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
@@ -4470,7 +4493,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1">
         <v>60000.0</v>
@@ -4491,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -4502,7 +4525,7 @@
         <v>0.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1">
         <v>65000.0</v>
@@ -4523,7 +4546,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -4534,16 +4557,16 @@
         <v>0.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1">
         <v>50000.0</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G4" s="7">
         <v>1.0</v>
@@ -4563,16 +4586,16 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1">
         <v>60000.0</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G5" s="7">
         <v>-1.0</v>
@@ -4584,7 +4607,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -4595,16 +4618,16 @@
         <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1">
         <v>55000.0</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" s="7">
         <v>1.0</v>
@@ -4624,16 +4647,16 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1">
         <v>65000.0</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G7" s="7">
         <v>-1.0</v>
@@ -4645,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -4656,16 +4679,16 @@
         <v>0.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1">
         <v>50000.0</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G8" s="7">
         <v>1.0</v>
@@ -4685,16 +4708,16 @@
         <v>1.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1">
         <v>55000.0</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G9" s="7">
         <v>2.0</v>
@@ -4714,16 +4737,16 @@
         <v>2.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D10" s="1">
         <v>60000.0</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G10" s="7">
         <v>-1.0</v>
@@ -4735,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -4746,16 +4769,16 @@
         <v>0.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1">
         <v>55000.0</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G11" s="7">
         <v>1.0</v>
@@ -4775,16 +4798,16 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D12" s="1">
         <v>65000.0</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G12" s="7">
         <v>2.0</v>
@@ -4804,16 +4827,16 @@
         <v>2.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1">
         <v>70000.0</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G13" s="7">
         <v>3.0</v>
@@ -4833,16 +4856,16 @@
         <v>3.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1">
         <v>75000.0</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7">
         <v>-1.0</v>
@@ -4854,7 +4877,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -4865,16 +4888,16 @@
         <v>0.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1">
         <v>60000.0</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G15" s="7">
         <v>1.0</v>
@@ -4894,16 +4917,16 @@
         <v>1.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D16" s="1">
         <v>65000.0</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7">
         <v>2.0</v>
@@ -4923,16 +4946,16 @@
         <v>2.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1">
         <v>70000.0</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G17" s="7">
         <v>3.0</v>
@@ -4952,16 +4975,16 @@
         <v>3.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D18" s="1">
         <v>80000.0</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G18" s="7">
         <v>-1.0</v>
@@ -4973,7 +4996,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -4984,16 +5007,16 @@
         <v>0.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1">
         <v>60000.0</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7">
         <v>2.0</v>
@@ -5005,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
@@ -5016,16 +5039,16 @@
         <v>1.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1">
         <v>65000.0</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7">
         <v>2.0</v>
@@ -5037,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
@@ -5048,16 +5071,16 @@
         <v>2.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D21" s="1">
         <v>75000.0</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G21" s="7">
         <v>3.0</v>
@@ -5077,16 +5100,16 @@
         <v>3.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D22" s="1">
         <v>85000.0</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7">
         <v>-1.0</v>
@@ -5098,7 +5121,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -5109,7 +5132,7 @@
         <v>0.0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D23" s="1">
         <v>80000.0</v>
@@ -5130,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -5141,16 +5164,16 @@
         <v>0.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1">
         <v>65000.0</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G24" s="7">
         <v>1.0</v>
@@ -5170,16 +5193,16 @@
         <v>1.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D25" s="1">
         <v>75000.0</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G25" s="7">
         <v>-1.0</v>
@@ -5191,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -5202,16 +5225,16 @@
         <v>0.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1">
         <v>60000.0</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="G26" s="7">
         <v>1.0</v>
@@ -5223,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
@@ -5234,16 +5257,16 @@
         <v>1.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D27" s="1">
         <v>65000.0</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G27" s="7">
         <v>3.0</v>
@@ -5255,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28">
@@ -5266,16 +5289,16 @@
         <v>2.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D28" s="1">
         <v>80000.0</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G28" s="7">
         <v>3.0</v>
@@ -5287,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
@@ -5298,16 +5321,16 @@
         <v>3.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D29" s="1">
         <v>90000.0</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G29" s="7">
         <v>-1.0</v>
@@ -5319,7 +5342,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30">
@@ -5330,16 +5353,16 @@
         <v>0.0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D30" s="1">
         <v>70000.0</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G30" s="7">
         <v>1.0</v>
@@ -5351,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31">
@@ -5362,16 +5385,16 @@
         <v>1.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D31" s="1">
         <v>80000.0</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G31" s="7">
         <v>4.0</v>
@@ -5383,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32">
@@ -5394,16 +5417,16 @@
         <v>2.0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D32" s="1">
         <v>70000.0</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G32" s="7">
         <v>3.0</v>
@@ -5415,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -5426,16 +5449,16 @@
         <v>3.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D33" s="1">
         <v>80000.0</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G33" s="7">
         <v>4.0</v>
@@ -5447,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34">
@@ -5458,16 +5481,16 @@
         <v>4.0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D34" s="1">
         <v>90000.0</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G34" s="7">
         <v>-1.0</v>
@@ -5479,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -11278,31 +11301,69 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="1">
+        <v>60000.0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>-1.0</v>
+      </c>
+      <c r="H2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -11327,37 +11388,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
@@ -11368,16 +11429,16 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G2" s="1">
         <v>1.0</v>
@@ -11397,16 +11458,16 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1">
         <v>50000.0</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G3" s="1">
         <v>-1.0</v>
@@ -11418,7 +11479,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -11429,16 +11490,16 @@
         <v>0.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1">
         <v>45000.0</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G4" s="1">
         <v>1.0</v>
@@ -11458,16 +11519,16 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1">
         <v>55000.0</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G5" s="1">
         <v>-1.0</v>
@@ -11479,7 +11540,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -11490,16 +11551,16 @@
         <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1">
         <v>60000.0</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G6" s="1">
         <v>1.0</v>
@@ -11519,16 +11580,16 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1">
         <v>70000.0</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G7" s="1">
         <v>-1.0</v>
@@ -11540,7 +11601,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -11551,16 +11612,16 @@
         <v>0.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1">
         <v>60000.0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G8" s="1">
         <v>1.0</v>
@@ -11580,16 +11641,16 @@
         <v>1.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D9" s="1">
         <v>65000.0</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G9" s="1">
         <v>2.0</v>
@@ -11609,16 +11670,16 @@
         <v>2.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D10" s="1">
         <v>75000.0</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G10" s="1">
         <v>3.0</v>
@@ -11638,16 +11699,16 @@
         <v>3.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1">
         <v>80000.0</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G11" s="1">
         <v>-1.0</v>
@@ -11659,7 +11720,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -11670,16 +11731,16 @@
         <v>0.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D12" s="1">
         <v>65000.0</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G12" s="1">
         <v>-1.0</v>
@@ -11691,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -11702,16 +11763,16 @@
         <v>0.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1">
         <v>70000.0</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G13" s="1">
         <v>1.0</v>
@@ -11731,16 +11792,16 @@
         <v>1.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D14" s="1">
         <v>75000.0</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G14" s="1">
         <v>-1.0</v>
@@ -11752,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -11763,16 +11824,16 @@
         <v>0.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1">
         <v>70000.0</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G15" s="1">
         <v>1.0</v>
@@ -11792,16 +11853,16 @@
         <v>1.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D16" s="1">
         <v>75000.0</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G16" s="1">
         <v>2.0</v>
@@ -11821,16 +11882,16 @@
         <v>2.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D17" s="1">
         <v>80000.0</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G17" s="1">
         <v>-1.0</v>
@@ -11842,7 +11903,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -11853,16 +11914,16 @@
         <v>0.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1">
         <v>60000.0</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G18" s="1">
         <v>1.0</v>
@@ -11874,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
@@ -11885,16 +11946,16 @@
         <v>1.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D19" s="1">
         <v>70000.0</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G19" s="1">
         <v>2.0</v>
@@ -11906,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
@@ -11917,16 +11978,16 @@
         <v>2.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D20" s="1">
         <v>60000.0</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G20" s="1">
         <v>3.0</v>
@@ -11938,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
@@ -11949,16 +12010,16 @@
         <v>3.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D21" s="1">
         <v>70000.0</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G21" s="1">
         <v>4.0</v>
@@ -11970,7 +12031,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22">
@@ -11981,16 +12042,16 @@
         <v>4.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D22" s="1">
         <v>80000.0</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G22" s="1">
         <v>-1.0</v>
@@ -12002,7 +12063,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -12022,37 +12083,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
@@ -12063,7 +12124,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1">
         <v>60000.0</v>
@@ -12084,7 +12145,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -12104,37 +12165,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
@@ -12145,7 +12206,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1">
         <v>60000.0</v>
@@ -12166,7 +12227,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -12190,37 +12251,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
@@ -12231,16 +12292,16 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1">
         <v>60000.0</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G2" s="1">
         <v>1.0</v>
@@ -12260,7 +12321,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D3" s="1">
         <v>-1.0</v>
@@ -12289,16 +12350,16 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1">
         <v>40000.0</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G4" s="1">
         <v>-1.0</v>
@@ -12310,10 +12371,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
@@ -12324,16 +12385,16 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1">
         <v>50000.0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G5" s="1">
         <v>1.0</v>
@@ -12353,16 +12414,16 @@
         <v>1.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1">
         <v>65000.0</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="G6" s="1">
         <v>2.0</v>
@@ -12382,7 +12443,7 @@
         <v>2.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -12409,16 +12470,16 @@
         <v>3.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1">
         <v>40000.0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G8" s="1">
         <v>-1.0</v>
@@ -12430,7 +12491,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9">
@@ -12441,16 +12502,16 @@
         <v>0.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D9" s="1">
         <v>50000.0</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="G9" s="1">
         <v>2.0</v>
@@ -12462,7 +12523,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -12473,16 +12534,16 @@
         <v>1.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D10" s="1">
         <v>50000.0</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G10" s="1">
         <v>2.0</v>
@@ -12494,7 +12555,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
@@ -12505,16 +12566,16 @@
         <v>2.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D11" s="1">
         <v>60000.0</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G11" s="1">
         <v>3.0</v>
@@ -12534,7 +12595,7 @@
         <v>3.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D12" s="1">
         <v>-1.0</v>
@@ -12563,16 +12624,16 @@
         <v>4.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1">
         <v>40000.0</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G13" s="1">
         <v>-1.0</v>
@@ -12584,7 +12645,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -12601,6 +12662,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="36.75"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -12624,16 +12688,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E2" s="1">
         <v>500000.0</v>
@@ -12641,16 +12705,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E3" s="1">
         <v>600000.0</v>
@@ -12658,16 +12722,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E4" s="1">
         <v>700000.0</v>
@@ -12675,7 +12739,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -12692,16 +12756,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E6" s="1">
         <v>300002.0</v>
@@ -12709,16 +12773,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E7" s="1">
         <v>400003.0</v>
@@ -12726,16 +12790,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E8" s="1">
         <v>500004.0</v>
@@ -12743,16 +12807,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E9" s="1">
         <v>600005.0</v>
@@ -12760,16 +12824,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1">
         <v>700006.0</v>
@@ -12777,16 +12841,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E11" s="1">
         <v>12000.0</v>
@@ -12797,7 +12861,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -12817,16 +12881,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1">
         <v>12000.0</v>
@@ -12837,16 +12901,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
         <v>22000.0</v>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="210">
   <si>
     <t>Stage_Mission</t>
   </si>
@@ -38,12 +38,18 @@
     <t>Quest_Fail</t>
   </si>
   <si>
+    <t>-1,0</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>테스트</t>
+  </si>
+  <si>
     <t>0,0</t>
   </si>
   <si>
-    <t>Destination</t>
-  </si>
-  <si>
     <t>무사히 목적지까지 도착하세요</t>
   </si>
   <si>
@@ -254,6 +260,15 @@
     <t>Nomal</t>
   </si>
   <si>
+    <t>SimpleStation</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
     <t>마지막</t>
   </si>
   <si>
@@ -519,9 +534,6 @@
   </si>
   <si>
     <t>6,2,3,4,2,1</t>
-  </si>
-  <si>
-    <t>SimpleStation</t>
   </si>
   <si>
     <t>0,4,10,8,13</t>
@@ -1005,28 +1017,28 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
+      <c r="D2" s="1">
+        <v>-1.0</v>
       </c>
       <c r="E2" s="1">
         <v>5000.0</v>
       </c>
       <c r="F2" s="1">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="1">
         <v>5000.0</v>
@@ -1037,16 +1049,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E4" s="1">
         <v>5000.0</v>
@@ -1057,16 +1069,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="1">
         <v>5000.0</v>
@@ -1077,19 +1089,19 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="1">
-        <v>5500.0</v>
+        <v>5000.0</v>
       </c>
       <c r="F6" s="1">
         <v>10.0</v>
@@ -1097,19 +1109,19 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1">
-        <v>6000.0</v>
+        <v>5500.0</v>
       </c>
       <c r="F7" s="1">
         <v>10.0</v>
@@ -1117,19 +1129,19 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E8" s="1">
-        <v>6500.0</v>
+        <v>6000.0</v>
       </c>
       <c r="F8" s="1">
         <v>10.0</v>
@@ -1137,19 +1149,19 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1">
-        <v>20000.0</v>
+        <v>6500.0</v>
       </c>
       <c r="F9" s="1">
         <v>10.0</v>
@@ -1157,39 +1169,39 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1">
-        <v>6000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="F10" s="1">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1">
-        <v>8000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="F11" s="1">
         <v>20.0</v>
@@ -1197,19 +1209,19 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1">
-        <v>6500.0</v>
+        <v>8000.0</v>
       </c>
       <c r="F12" s="1">
         <v>20.0</v>
@@ -1217,19 +1229,19 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1">
-        <v>8500.0</v>
+        <v>6500.0</v>
       </c>
       <c r="F13" s="1">
         <v>20.0</v>
@@ -1237,19 +1249,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1">
-        <v>7000.0</v>
+        <v>8500.0</v>
       </c>
       <c r="F14" s="1">
         <v>20.0</v>
@@ -1257,19 +1269,19 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1">
-        <v>10000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="F15" s="1">
         <v>20.0</v>
@@ -1280,16 +1292,16 @@
         <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1">
-        <v>7500.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F16" s="1">
         <v>20.0</v>
@@ -1297,19 +1309,19 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1">
-        <v>11000.0</v>
+        <v>7500.0</v>
       </c>
       <c r="F17" s="1">
         <v>20.0</v>
@@ -1317,22 +1329,22 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E18" s="1">
-        <v>25000.0</v>
+        <v>11000.0</v>
       </c>
       <c r="F18" s="1">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="19">
@@ -1340,36 +1352,36 @@
         <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E19" s="1">
-        <v>5000.0</v>
+        <v>25000.0</v>
       </c>
       <c r="F19" s="1">
-        <v>40.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1">
-        <v>7000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="F20" s="1">
         <v>40.0</v>
@@ -1377,19 +1389,19 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="E21" s="1">
-        <v>6000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="F21" s="1">
         <v>40.0</v>
@@ -1397,19 +1409,19 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1">
-        <v>8000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="F22" s="1">
         <v>40.0</v>
@@ -1417,19 +1429,19 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E23" s="1">
-        <v>7000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="F23" s="1">
         <v>40.0</v>
@@ -1437,19 +1449,19 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E24" s="1">
-        <v>9000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="F24" s="1">
         <v>40.0</v>
@@ -1457,19 +1469,19 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E25" s="1">
-        <v>8000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="F25" s="1">
         <v>40.0</v>
@@ -1480,16 +1492,16 @@
         <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>63</v>
+      <c r="D26" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E26" s="1">
-        <v>10000.0</v>
+        <v>8000.0</v>
       </c>
       <c r="F26" s="1">
         <v>40.0</v>
@@ -1497,26 +1509,43 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="E27" s="1">
+        <v>10000.0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1">
         <v>30000.0</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F28" s="1">
         <v>10.0</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="D28" s="2"/>
     </row>
     <row r="30">
       <c r="D30" s="2"/>
@@ -4452,127 +4481,121 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="B2" s="1">
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1">
-        <v>60000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="E2" s="8">
         <v>0.0</v>
       </c>
       <c r="F2" s="8">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" s="7">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="B3" s="1">
         <v>1.0</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.0</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>65000.0</v>
+        <v>-1.0</v>
       </c>
       <c r="E3" s="8">
-        <v>0.0</v>
+        <v>-1.0</v>
       </c>
       <c r="F3" s="8">
-        <v>9.0</v>
+        <v>-1.0</v>
       </c>
       <c r="G3" s="7">
-        <v>-1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H3" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="B4" s="1">
         <v>2.0</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.0</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1">
         <v>50000.0</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>48</v>
+      <c r="E4" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.0</v>
       </c>
       <c r="G4" s="7">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H4" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>0</v>
@@ -4580,60 +4603,57 @@
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>2.0</v>
+        <v>-1.0</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1">
-        <v>60000.0</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>81</v>
+        <v>-1.0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>-1.0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>-1.0</v>
       </c>
       <c r="G5" s="7">
-        <v>-1.0</v>
+        <v>4.0</v>
       </c>
       <c r="H5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
-        <v>3.0</v>
+        <v>-1.0</v>
       </c>
       <c r="B6" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="1">
+        <v>50000.0</v>
+      </c>
+      <c r="E6" s="8">
         <v>0.0</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="1">
-        <v>55000.0</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>83</v>
+      <c r="F6" s="8">
+        <v>1.0</v>
       </c>
       <c r="G6" s="7">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="H6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>0</v>
@@ -4641,144 +4661,144 @@
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>3.0</v>
+        <v>-1.0</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1">
-        <v>65000.0</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>85</v>
+        <v>-1.0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>-1.0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>-1.0</v>
       </c>
       <c r="G7" s="7">
-        <v>-1.0</v>
+        <v>6.0</v>
       </c>
       <c r="H7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>5.0</v>
+        <v>-1.0</v>
       </c>
       <c r="B8" s="1">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1">
         <v>50000.0</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>87</v>
+      <c r="E8" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1.0</v>
       </c>
       <c r="G8" s="7">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" s="1" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="B9" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D9" s="1">
-        <v>55000.0</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>89</v>
+        <v>60000.0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>8.0</v>
       </c>
       <c r="G9" s="7">
-        <v>2.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H9" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="B10" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1">
-        <v>60000.0</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>91</v>
+        <v>65000.0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>9.0</v>
       </c>
       <c r="G10" s="7">
         <v>-1.0</v>
       </c>
       <c r="H10" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B11" s="1">
         <v>0.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D11" s="1">
-        <v>55000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7">
         <v>1.0</v>
@@ -4792,57 +4812,60 @@
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="B12" s="1">
         <v>1.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D12" s="1">
-        <v>65000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G12" s="7">
-        <v>2.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H12" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B13" s="1">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1">
-        <v>70000.0</v>
+        <v>55000.0</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="H13" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>0</v>
@@ -4850,22 +4873,22 @@
     </row>
     <row r="14">
       <c r="A14" s="1">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B14" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1">
-        <v>75000.0</v>
+        <v>65000.0</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7">
         <v>-1.0</v>
@@ -4877,27 +4900,27 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B15" s="1">
         <v>0.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1">
-        <v>60000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G15" s="7">
         <v>1.0</v>
@@ -4911,22 +4934,22 @@
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B16" s="1">
         <v>1.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1">
-        <v>65000.0</v>
+        <v>55000.0</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7">
         <v>2.0</v>
@@ -4940,246 +4963,237 @@
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="B17" s="1">
         <v>2.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D17" s="1">
-        <v>70000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7">
-        <v>3.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H17" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="B18" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1">
-        <v>80000.0</v>
+        <v>55000.0</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G18" s="7">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="H18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B19" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D19" s="1">
-        <v>60000.0</v>
+        <v>65000.0</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G19" s="7">
         <v>2.0</v>
       </c>
       <c r="H19" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B20" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D20" s="1">
-        <v>65000.0</v>
+        <v>70000.0</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H20" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="B21" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D21" s="1">
         <v>75000.0</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G21" s="7">
-        <v>3.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H21" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B22" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D22" s="1">
-        <v>85000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G22" s="7">
-        <v>-1.0</v>
+        <v>1.0</v>
       </c>
       <c r="H22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="B23" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D23" s="1">
-        <v>80000.0</v>
-      </c>
-      <c r="E23" s="9">
+        <v>65000.0</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="7">
         <v>2.0</v>
       </c>
-      <c r="F23" s="9">
-        <v>8.0</v>
-      </c>
-      <c r="G23" s="7">
-        <v>-1.0</v>
-      </c>
       <c r="H23" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B24" s="1">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D24" s="1">
-        <v>65000.0</v>
+        <v>70000.0</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G24" s="7">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H24" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1" t="b">
         <v>0</v>
@@ -5187,22 +5201,22 @@
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>11.0</v>
+        <v>7.0</v>
       </c>
       <c r="B25" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D25" s="1">
-        <v>75000.0</v>
+        <v>80000.0</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="G25" s="7">
         <v>-1.0</v>
@@ -5214,30 +5228,30 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="B26" s="1">
         <v>0.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1">
         <v>60000.0</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G26" s="7">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H26" s="1" t="b">
         <v>1</v>
@@ -5246,91 +5260,88 @@
         <v>0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="B27" s="1">
         <v>1.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1">
         <v>65000.0</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G27" s="7">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="H27" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="B28" s="1">
         <v>2.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D28" s="1">
-        <v>80000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G28" s="7">
         <v>3.0</v>
       </c>
       <c r="H28" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="B29" s="1">
         <v>3.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D29" s="1">
-        <v>90000.0</v>
+        <v>85000.0</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G29" s="7">
         <v>-1.0</v>
@@ -5342,405 +5353,389 @@
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="B30" s="1">
         <v>0.0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D30" s="1">
-        <v>70000.0</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>127</v>
+        <v>80000.0</v>
+      </c>
+      <c r="E30" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F30" s="9">
+        <v>8.0</v>
       </c>
       <c r="G30" s="7">
-        <v>1.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I30" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="B31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="1">
+        <v>65000.0</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="7">
         <v>1.0</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="1">
-        <v>80000.0</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G31" s="7">
-        <v>4.0</v>
-      </c>
       <c r="H31" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="B32" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D32" s="1">
-        <v>70000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="G32" s="7">
-        <v>3.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I32" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="K32" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B33" s="1">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D33" s="1">
-        <v>80000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G33" s="7">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="H33" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B34" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D34" s="1">
-        <v>90000.0</v>
+        <v>65000.0</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G34" s="7">
-        <v>-1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H34" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="1">
+        <v>80000.0</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="H35" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7"/>
+      <c r="I35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="36">
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="7"/>
+      <c r="A36" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="7">
+        <v>-1.0</v>
+      </c>
+      <c r="H36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="37">
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="7"/>
+      <c r="A37" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="1">
+        <v>70000.0</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="38">
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
+      <c r="A38" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="1">
+        <v>80000.0</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="H38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="39">
-      <c r="D39" s="10"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
+      <c r="A39" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="1">
+        <v>70000.0</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" s="7">
+        <v>3.0</v>
+      </c>
+      <c r="H39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="40">
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
+      <c r="A40" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="1">
+        <v>80000.0</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="H40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="41">
-      <c r="D41" s="10"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42">
-      <c r="D42" s="10"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43">
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44">
-      <c r="D44" s="10"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
-    </row>
-    <row r="45">
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
-    </row>
-    <row r="46">
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12"/>
-    </row>
-    <row r="47">
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
-    </row>
-    <row r="48">
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49">
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50">
-      <c r="D50" s="10"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
-    </row>
-    <row r="51">
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
-    </row>
-    <row r="52">
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12"/>
-    </row>
-    <row r="53">
-      <c r="D53" s="10"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12"/>
-    </row>
-    <row r="54">
-      <c r="D54" s="10"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55">
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56">
-      <c r="D56" s="10"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="12"/>
-    </row>
-    <row r="57">
-      <c r="D57" s="10"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58">
-      <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="12"/>
-    </row>
-    <row r="59">
-      <c r="D59" s="10"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="12"/>
-    </row>
-    <row r="60">
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="12"/>
-    </row>
-    <row r="61">
-      <c r="D61" s="10"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="12"/>
-    </row>
-    <row r="62">
-      <c r="D62" s="10"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="12"/>
-    </row>
-    <row r="63">
-      <c r="D63" s="10"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="12"/>
-    </row>
-    <row r="64">
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="12"/>
-    </row>
-    <row r="65">
-      <c r="D65" s="10"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="11"/>
-      <c r="G65" s="12"/>
-    </row>
-    <row r="66">
-      <c r="D66" s="10"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-      <c r="G66" s="12"/>
-    </row>
-    <row r="67">
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="12"/>
-    </row>
-    <row r="68">
-      <c r="D68" s="10"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11"/>
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69">
-      <c r="D69" s="10"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11"/>
-      <c r="G69" s="12"/>
-    </row>
-    <row r="70">
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="12"/>
-    </row>
-    <row r="71">
-      <c r="D71" s="10"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="12"/>
-    </row>
-    <row r="72">
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="12"/>
-    </row>
-    <row r="73">
-      <c r="D73" s="10"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="12"/>
-    </row>
-    <row r="74">
-      <c r="D74" s="10"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="12"/>
+      <c r="A41" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="1">
+        <v>90000.0</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G41" s="7">
+        <v>-1.0</v>
+      </c>
+      <c r="H41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="75">
       <c r="D75" s="10"/>
@@ -11301,37 +11296,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
@@ -11342,7 +11337,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1">
         <v>60000.0</v>
@@ -11363,7 +11358,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -11388,37 +11383,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
@@ -11429,16 +11424,16 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1">
         <v>40000.0</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G2" s="1">
         <v>1.0</v>
@@ -11458,16 +11453,16 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1">
         <v>50000.0</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G3" s="1">
         <v>-1.0</v>
@@ -11479,7 +11474,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
@@ -11490,16 +11485,16 @@
         <v>0.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1">
         <v>45000.0</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G4" s="1">
         <v>1.0</v>
@@ -11519,16 +11514,16 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1">
         <v>55000.0</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G5" s="1">
         <v>-1.0</v>
@@ -11540,7 +11535,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -11551,16 +11546,16 @@
         <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1">
         <v>60000.0</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="G6" s="1">
         <v>1.0</v>
@@ -11580,16 +11575,16 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1">
         <v>70000.0</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G7" s="1">
         <v>-1.0</v>
@@ -11601,7 +11596,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -11612,16 +11607,16 @@
         <v>0.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1">
         <v>60000.0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G8" s="1">
         <v>1.0</v>
@@ -11641,16 +11636,16 @@
         <v>1.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D9" s="1">
         <v>65000.0</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G9" s="1">
         <v>2.0</v>
@@ -11670,16 +11665,16 @@
         <v>2.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1">
         <v>75000.0</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="G10" s="1">
         <v>3.0</v>
@@ -11699,16 +11694,16 @@
         <v>3.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1">
         <v>80000.0</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G11" s="1">
         <v>-1.0</v>
@@ -11720,7 +11715,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12">
@@ -11731,16 +11726,16 @@
         <v>0.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D12" s="1">
         <v>65000.0</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G12" s="1">
         <v>-1.0</v>
@@ -11752,7 +11747,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -11763,16 +11758,16 @@
         <v>0.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13" s="1">
         <v>70000.0</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G13" s="1">
         <v>1.0</v>
@@ -11792,16 +11787,16 @@
         <v>1.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1">
         <v>75000.0</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G14" s="1">
         <v>-1.0</v>
@@ -11813,7 +11808,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15">
@@ -11824,16 +11819,16 @@
         <v>0.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1">
         <v>70000.0</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G15" s="1">
         <v>1.0</v>
@@ -11853,16 +11848,16 @@
         <v>1.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D16" s="1">
         <v>75000.0</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G16" s="1">
         <v>2.0</v>
@@ -11882,16 +11877,16 @@
         <v>2.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D17" s="1">
         <v>80000.0</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G17" s="1">
         <v>-1.0</v>
@@ -11903,7 +11898,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -11914,16 +11909,16 @@
         <v>0.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1">
         <v>60000.0</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G18" s="1">
         <v>1.0</v>
@@ -11935,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19">
@@ -11946,16 +11941,16 @@
         <v>1.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D19" s="1">
         <v>70000.0</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G19" s="1">
         <v>2.0</v>
@@ -11967,7 +11962,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20">
@@ -11978,16 +11973,16 @@
         <v>2.0</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D20" s="1">
         <v>60000.0</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G20" s="1">
         <v>3.0</v>
@@ -11999,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21">
@@ -12010,16 +12005,16 @@
         <v>3.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D21" s="1">
         <v>70000.0</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G21" s="1">
         <v>4.0</v>
@@ -12031,7 +12026,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22">
@@ -12042,16 +12037,16 @@
         <v>4.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D22" s="1">
         <v>80000.0</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G22" s="1">
         <v>-1.0</v>
@@ -12063,7 +12058,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -12083,37 +12078,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
@@ -12124,7 +12119,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1">
         <v>60000.0</v>
@@ -12145,7 +12140,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -12165,37 +12160,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
@@ -12206,7 +12201,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1">
         <v>60000.0</v>
@@ -12227,7 +12222,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -12251,37 +12246,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
@@ -12292,16 +12287,16 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1">
         <v>60000.0</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G2" s="1">
         <v>1.0</v>
@@ -12321,7 +12316,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1">
         <v>-1.0</v>
@@ -12350,16 +12345,16 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
         <v>40000.0</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G4" s="1">
         <v>-1.0</v>
@@ -12371,10 +12366,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
@@ -12385,16 +12380,16 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1">
         <v>50000.0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1">
         <v>1.0</v>
@@ -12414,16 +12409,16 @@
         <v>1.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1">
         <v>65000.0</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G6" s="1">
         <v>2.0</v>
@@ -12443,7 +12438,7 @@
         <v>2.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -12470,16 +12465,16 @@
         <v>3.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1">
         <v>40000.0</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G8" s="1">
         <v>-1.0</v>
@@ -12491,7 +12486,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
@@ -12502,16 +12497,16 @@
         <v>0.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1">
         <v>50000.0</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G9" s="1">
         <v>2.0</v>
@@ -12523,7 +12518,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -12534,16 +12529,16 @@
         <v>1.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1">
         <v>50000.0</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G10" s="1">
         <v>2.0</v>
@@ -12555,7 +12550,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
@@ -12566,16 +12561,16 @@
         <v>2.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D11" s="1">
         <v>60000.0</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G11" s="1">
         <v>3.0</v>
@@ -12595,7 +12590,7 @@
         <v>3.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1">
         <v>-1.0</v>
@@ -12624,16 +12619,16 @@
         <v>4.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1">
         <v>40000.0</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G13" s="1">
         <v>-1.0</v>
@@ -12645,7 +12640,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -12688,16 +12683,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E2" s="1">
         <v>500000.0</v>
@@ -12705,16 +12700,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E3" s="1">
         <v>600000.0</v>
@@ -12722,16 +12717,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E4" s="1">
         <v>700000.0</v>
@@ -12739,16 +12734,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
         <v>200001.0</v>
@@ -12756,16 +12751,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E6" s="1">
         <v>300002.0</v>
@@ -12773,16 +12768,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E7" s="1">
         <v>400003.0</v>
@@ -12790,16 +12785,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E8" s="1">
         <v>500004.0</v>
@@ -12807,16 +12802,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E9" s="1">
         <v>600005.0</v>
@@ -12824,16 +12819,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1">
         <v>700006.0</v>
@@ -12841,16 +12836,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E11" s="1">
         <v>12000.0</v>
@@ -12861,13 +12856,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
         <v>-1.0</v>
@@ -12881,16 +12876,16 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1">
         <v>12000.0</v>
@@ -12901,16 +12896,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1">
         <v>22000.0</v>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -263,10 +263,10 @@
     <t>SimpleStation</t>
   </si>
   <si>
+    <t>Food</t>
+  </si>
+  <si>
     <t>Treasure</t>
-  </si>
-  <si>
-    <t>Food</t>
   </si>
   <si>
     <t>마지막</t>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -2096,7 +2096,7 @@
     <t>7,2,4,2,2</t>
   </si>
   <si>
-    <t>2,90,9</t>
+    <t>2,98,9</t>
   </si>
   <si>
     <t>0번 보스가, 거리 90%에 나타나지만, 출현 몬스터 수는 5번까지이다.</t>
@@ -2147,7 +2147,7 @@
     <t>7,4,12,3,3,3</t>
   </si>
   <si>
-    <t>1,90,9</t>
+    <t>1,98,9</t>
   </si>
   <si>
     <t>0,2</t>
@@ -2246,7 +2246,7 @@
     <t>4,6,3,3,2,4,4,4</t>
   </si>
   <si>
-    <t>0,90,9</t>
+    <t>0,98,9</t>
   </si>
   <si>
     <t>1,3</t>
@@ -2720,7 +2720,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F2" s="1">
         <v>10.0</v>
@@ -2740,7 +2740,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F3" s="1">
         <v>10.0</v>
@@ -2760,7 +2760,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F4" s="1">
         <v>10.0</v>
@@ -2780,7 +2780,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="1">
-        <v>8000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F5" s="1">
         <v>10.0</v>
@@ -2800,7 +2800,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F6" s="1">
         <v>10.0</v>
@@ -2820,7 +2820,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F7" s="1">
         <v>10.0</v>
@@ -2860,7 +2860,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F9" s="1">
         <v>10.0</v>
@@ -2880,7 +2880,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F10" s="1">
         <v>10.0</v>
@@ -2899,8 +2899,8 @@
       <c r="D11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="4">
-        <v>5000.0</v>
+      <c r="E11" s="1">
+        <v>10000.0</v>
       </c>
       <c r="F11" s="4">
         <v>10.0</v>
@@ -2919,8 +2919,8 @@
       <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="4">
-        <v>5000.0</v>
+      <c r="E12" s="1">
+        <v>10000.0</v>
       </c>
       <c r="F12" s="4">
         <v>10.0</v>
@@ -2940,7 +2940,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F13" s="1">
         <v>10.0</v>
@@ -2960,7 +2960,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F14" s="1">
         <v>10.0</v>
@@ -2979,8 +2979,8 @@
       <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="4">
-        <v>5000.0</v>
+      <c r="E15" s="1">
+        <v>10000.0</v>
       </c>
       <c r="F15" s="4">
         <v>10.0</v>
@@ -2999,8 +2999,8 @@
       <c r="D16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="4">
-        <v>5000.0</v>
+      <c r="E16" s="1">
+        <v>10000.0</v>
       </c>
       <c r="F16" s="4">
         <v>10.0</v>
@@ -3020,7 +3020,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F17" s="1">
         <v>10.0</v>
@@ -3040,7 +3040,7 @@
         <v>46</v>
       </c>
       <c r="E18" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F18" s="1">
         <v>10.0</v>
@@ -3059,8 +3059,8 @@
       <c r="D19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="4">
-        <v>5000.0</v>
+      <c r="E19" s="1">
+        <v>10000.0</v>
       </c>
       <c r="F19" s="4">
         <v>10.0</v>
@@ -3079,8 +3079,8 @@
       <c r="D20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="4">
-        <v>5000.0</v>
+      <c r="E20" s="1">
+        <v>10000.0</v>
       </c>
       <c r="F20" s="4">
         <v>10.0</v>
@@ -3100,7 +3100,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F21" s="1">
         <v>10.0</v>
@@ -3120,7 +3120,7 @@
         <v>52</v>
       </c>
       <c r="E22" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F22" s="1">
         <v>10.0</v>
@@ -3139,8 +3139,8 @@
       <c r="D23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="4">
-        <v>5000.0</v>
+      <c r="E23" s="1">
+        <v>10000.0</v>
       </c>
       <c r="F23" s="4">
         <v>10.0</v>
@@ -3159,8 +3159,8 @@
       <c r="D24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="4">
-        <v>5000.0</v>
+      <c r="E24" s="1">
+        <v>10000.0</v>
       </c>
       <c r="F24" s="4">
         <v>10.0</v>
@@ -3200,7 +3200,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F26" s="1">
         <v>10.0</v>
@@ -3220,7 +3220,7 @@
         <v>62</v>
       </c>
       <c r="E27" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F27" s="1">
         <v>10.0</v>
@@ -3240,7 +3240,7 @@
         <v>65</v>
       </c>
       <c r="E28" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F28" s="1">
         <v>10.0</v>
@@ -3259,8 +3259,8 @@
       <c r="D29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="4">
-        <v>5000.0</v>
+      <c r="E29" s="1">
+        <v>10000.0</v>
       </c>
       <c r="F29" s="4">
         <v>10.0</v>
@@ -3279,8 +3279,8 @@
       <c r="D30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E30" s="4">
-        <v>5000.0</v>
+      <c r="E30" s="1">
+        <v>10000.0</v>
       </c>
       <c r="F30" s="4">
         <v>10.0</v>
@@ -3300,7 +3300,7 @@
         <v>9</v>
       </c>
       <c r="E31" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F31" s="1">
         <v>10.0</v>
@@ -3320,7 +3320,7 @@
         <v>70</v>
       </c>
       <c r="E32" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F32" s="1">
         <v>10.0</v>
@@ -3340,7 +3340,7 @@
         <v>73</v>
       </c>
       <c r="E33" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F33" s="1">
         <v>10.0</v>
@@ -3359,8 +3359,8 @@
       <c r="D34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="4">
-        <v>5000.0</v>
+      <c r="E34" s="1">
+        <v>10000.0</v>
       </c>
       <c r="F34" s="4">
         <v>10.0</v>
@@ -3379,8 +3379,8 @@
       <c r="D35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="4">
-        <v>5000.0</v>
+      <c r="E35" s="1">
+        <v>10000.0</v>
       </c>
       <c r="F35" s="4">
         <v>10.0</v>
@@ -3400,7 +3400,7 @@
         <v>9</v>
       </c>
       <c r="E36" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F36" s="1">
         <v>10.0</v>
@@ -3420,7 +3420,7 @@
         <v>78</v>
       </c>
       <c r="E37" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F37" s="1">
         <v>10.0</v>
@@ -3440,7 +3440,7 @@
         <v>81</v>
       </c>
       <c r="E38" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F38" s="1">
         <v>10.0</v>
@@ -3459,8 +3459,8 @@
       <c r="D39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="4">
-        <v>5000.0</v>
+      <c r="E39" s="1">
+        <v>10000.0</v>
       </c>
       <c r="F39" s="4">
         <v>10.0</v>
@@ -3479,8 +3479,8 @@
       <c r="D40" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E40" s="4">
-        <v>5000.0</v>
+      <c r="E40" s="1">
+        <v>10000.0</v>
       </c>
       <c r="F40" s="4">
         <v>10.0</v>
@@ -3500,7 +3500,7 @@
         <v>9</v>
       </c>
       <c r="E41" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F41" s="1">
         <v>10.0</v>
@@ -3520,7 +3520,7 @@
         <v>86</v>
       </c>
       <c r="E42" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F42" s="1">
         <v>10.0</v>
@@ -3540,7 +3540,7 @@
         <v>89</v>
       </c>
       <c r="E43" s="1">
-        <v>5000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="F43" s="1">
         <v>10.0</v>
@@ -3559,8 +3559,8 @@
       <c r="D44" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="4">
-        <v>5000.0</v>
+      <c r="E44" s="1">
+        <v>10000.0</v>
       </c>
       <c r="F44" s="4">
         <v>10.0</v>
@@ -3579,8 +3579,8 @@
       <c r="D45" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="4">
-        <v>5000.0</v>
+      <c r="E45" s="1">
+        <v>10000.0</v>
       </c>
       <c r="F45" s="4">
         <v>10.0</v>
@@ -7774,7 +7774,7 @@
         <v>134</v>
       </c>
       <c r="G33" s="8">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H33" s="1" t="b">
         <v>0</v>
@@ -7815,7 +7815,7 @@
         <v>136</v>
       </c>
       <c r="G34" s="8">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H34" s="1" t="b">
         <v>0</v>
@@ -7856,7 +7856,7 @@
         <v>-1.0</v>
       </c>
       <c r="G35" s="8">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H35" s="1" t="b">
         <v>0</v>
@@ -7897,7 +7897,7 @@
         <v>138</v>
       </c>
       <c r="G36" s="8">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H36" s="1" t="b">
         <v>0</v>
@@ -7938,7 +7938,7 @@
         <v>139</v>
       </c>
       <c r="G37" s="8">
-        <v>13.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H37" s="1" t="b">
         <v>0</v>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -344,7 +344,7 @@
     <t>쉼표2</t>
   </si>
   <si>
-    <t>Nomal</t>
+    <t>Normal</t>
   </si>
   <si>
     <t>0,3</t>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="746">
   <si>
     <t>Stage_Mission</t>
   </si>
@@ -845,1056 +845,1035 @@
     <t>7,2,5,4,5</t>
   </si>
   <si>
+    <t>2,4,8,9,10,11</t>
+  </si>
+  <si>
+    <t>7,3,5,4,5,1</t>
+  </si>
+  <si>
+    <t>5,13</t>
+  </si>
+  <si>
+    <t>2,4,8,9,10,11,13</t>
+  </si>
+  <si>
+    <t>7,3,5,4,5,2,1</t>
+  </si>
+  <si>
+    <t>7,3,2,4,5</t>
+  </si>
+  <si>
+    <t>8,10</t>
+  </si>
+  <si>
+    <t>7,3,1,4,5,2,1</t>
+  </si>
+  <si>
+    <t>7,3,2,4,5,2,2</t>
+  </si>
+  <si>
+    <t>7,3,2,4,5,1,1</t>
+  </si>
+  <si>
+    <t>2,8,9,10,11,13,14</t>
+  </si>
+  <si>
+    <t>7,2,4,5,1,1,3</t>
+  </si>
+  <si>
+    <t>4,14</t>
+  </si>
+  <si>
+    <t>2,8,9,10,11,12,13,14</t>
+  </si>
+  <si>
+    <t>7,2,4,5,1,1,1,3</t>
+  </si>
+  <si>
+    <t>5,2,4,3,3,3,3,3</t>
+  </si>
+  <si>
+    <t>2,4,7,8,10</t>
+  </si>
+  <si>
+    <t>5,4,5,2,2</t>
+  </si>
+  <si>
+    <t>6,3,5,2,2</t>
+  </si>
+  <si>
+    <t>2,7</t>
+  </si>
+  <si>
+    <t>2,4,7,8,10,14</t>
+  </si>
+  <si>
+    <t>6,2,5,2,2,2</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>6,2,5,3,3,3</t>
+  </si>
+  <si>
+    <t>2,4,7,8,9,10,14</t>
+  </si>
+  <si>
+    <t>6,2,5,3,4,4,4</t>
+  </si>
+  <si>
+    <t>6,2,5,2,3,3</t>
+  </si>
+  <si>
+    <t>6,2,4,3,3,3,3</t>
+  </si>
+  <si>
+    <t>2,7,8,9,10,11,12,13,14</t>
+  </si>
+  <si>
+    <t>6,2,5,3,4,4,1,2,4</t>
+  </si>
+  <si>
+    <t>4,2,3,3,2,2,1,2,2</t>
+  </si>
+  <si>
+    <t>6,2,5,4,3,3,2,3,3</t>
+  </si>
+  <si>
+    <t>5,6,4,2,4,5,3</t>
+  </si>
+  <si>
+    <t>7,6,4,2,4,5,3</t>
+  </si>
+  <si>
+    <t>7,6,5,3,5,5,4</t>
+  </si>
+  <si>
+    <t>3,7,6,5,3,1,5,5,4</t>
+  </si>
+  <si>
+    <t>2,7,6,5,3,5,5,4</t>
+  </si>
+  <si>
+    <t>8,9,11</t>
+  </si>
+  <si>
+    <t>3,8,6,5,3,1,5,5,4</t>
+  </si>
+  <si>
+    <t>1,8,5,4,2,3,3,4</t>
+  </si>
+  <si>
+    <t>1,8,5,4,2,3,3,3</t>
+  </si>
+  <si>
+    <t>2,8,6,5,3,2,5,5,4</t>
+  </si>
+  <si>
+    <t>2,10,6,5,3,3,5,5,4</t>
+  </si>
+  <si>
+    <t>2,12,6,5,3,4,5,5,4</t>
+  </si>
+  <si>
+    <t>4,2,2,1</t>
+  </si>
+  <si>
+    <t>4,3,1,1</t>
+  </si>
+  <si>
+    <t>5,2,2,1</t>
+  </si>
+  <si>
+    <t>7,2,2,1</t>
+  </si>
+  <si>
+    <t>8,3,2,2,1</t>
+  </si>
+  <si>
+    <t>4,3,2,2,1</t>
+  </si>
+  <si>
+    <t>9,10</t>
+  </si>
+  <si>
+    <t>9,4,3,3,2</t>
+  </si>
+  <si>
+    <t>5,3,2,2,1</t>
+  </si>
+  <si>
+    <t>6,4,3,3,2</t>
+  </si>
+  <si>
+    <t>9,5,4,3,3</t>
+  </si>
+  <si>
+    <t>5,5,5,3,5</t>
+  </si>
+  <si>
+    <t>3,5,3,3,3</t>
+  </si>
+  <si>
+    <t>0,2,3,4,7,10</t>
+  </si>
+  <si>
+    <t>4,5,4,3,3,1</t>
+  </si>
+  <si>
+    <t>6,6,2,3,5,3</t>
+  </si>
+  <si>
+    <t>0,2,3,4,7,9,10</t>
+  </si>
+  <si>
+    <t>3,6,2,3,5,1,3</t>
+  </si>
+  <si>
+    <t>3,6,2,4,5,2,3</t>
+  </si>
+  <si>
+    <t>4,7,1,5,5,3,3</t>
+  </si>
+  <si>
+    <t>5,6,2,4,5,1,3</t>
+  </si>
+  <si>
+    <t>4,6,2,4,5,2,4</t>
+  </si>
+  <si>
+    <t>6,6,2,4,5,3,4</t>
+  </si>
+  <si>
+    <t>6,6,2,4,5,1,3</t>
+  </si>
+  <si>
+    <t>7,7,2,4,5,1,3</t>
+  </si>
+  <si>
+    <t>2,5,3,3,3</t>
+  </si>
+  <si>
+    <t>0,2,3,4,7,9</t>
+  </si>
+  <si>
+    <t>2,5,1,1,3,2</t>
+  </si>
+  <si>
+    <t>3,5,1,1,3,3</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>0,2,3,4,7,9,11</t>
+  </si>
+  <si>
+    <t>5,5,1,2,2,6,1</t>
+  </si>
+  <si>
+    <t>2,4,1,1,2,2</t>
+  </si>
+  <si>
+    <t>2,5,1,1,2,3</t>
+  </si>
+  <si>
+    <t>2,6,1,1,2,4</t>
+  </si>
+  <si>
+    <t>2,6,1,1,2,3,1</t>
+  </si>
+  <si>
+    <t>0,2,4,7,9,11</t>
+  </si>
+  <si>
+    <t>2,6,1,2,3,3</t>
+  </si>
+  <si>
+    <t>0,2,4,7,9,11,12</t>
+  </si>
+  <si>
+    <t>2,6,1,2,4,3,1</t>
+  </si>
+  <si>
+    <t>2,6,1,2,5,3,1</t>
+  </si>
+  <si>
+    <t>2,3,3,2</t>
+  </si>
+  <si>
+    <t>2,4,1,3,2,1</t>
+  </si>
+  <si>
+    <t>2,5,8</t>
+  </si>
+  <si>
+    <t>1,5,1,3,2,1</t>
+  </si>
+  <si>
+    <t>2,4,7,9,11</t>
+  </si>
+  <si>
+    <t>5,1,3,2,1</t>
+  </si>
+  <si>
+    <t>2,6,1,3,2,1</t>
+  </si>
+  <si>
+    <t>3,6</t>
+  </si>
+  <si>
+    <t>2,7,1,3,3,2</t>
+  </si>
+  <si>
+    <t>9,1,3,3,2</t>
+  </si>
+  <si>
+    <t>4,12</t>
+  </si>
+  <si>
+    <t>6,1,3,2,2</t>
+  </si>
+  <si>
+    <t>2,4,7,9,11,13</t>
+  </si>
+  <si>
+    <t>8,1,3,2,2,1</t>
+  </si>
+  <si>
+    <t>2,7,9,11,13,14</t>
+  </si>
+  <si>
+    <t>8,1,2,3,3,3</t>
+  </si>
+  <si>
+    <t>2,7,9,11,12,13,14</t>
+  </si>
+  <si>
+    <t>9,1,2,3,1,3,3</t>
+  </si>
+  <si>
+    <t>9,1,2,3,1,4,4</t>
+  </si>
+  <si>
+    <t>2,7,9,10</t>
+  </si>
+  <si>
+    <t>6,2,3,3</t>
+  </si>
+  <si>
+    <t>6,2,4,4</t>
+  </si>
+  <si>
+    <t>6,3,3,4</t>
+  </si>
+  <si>
+    <t>3,9</t>
+  </si>
+  <si>
+    <t>7,4,4,4</t>
+  </si>
+  <si>
+    <t>2,7,9,10,11</t>
+  </si>
+  <si>
+    <t>7,4,5,5,1</t>
+  </si>
+  <si>
+    <t>6,14</t>
+  </si>
+  <si>
+    <t>7,6,5,5,1</t>
+  </si>
+  <si>
+    <t>7,15</t>
+  </si>
+  <si>
+    <t>2,7,9,10,11,12,13</t>
+  </si>
+  <si>
+    <t>7,7,2,3,1,1,3</t>
+  </si>
+  <si>
+    <t>4,14,11</t>
+  </si>
+  <si>
+    <t>2,7,9,10,11,12</t>
+  </si>
+  <si>
+    <t>7,6,5,5,1,1</t>
+  </si>
+  <si>
+    <t>7,7,2,3,1,1,1</t>
+  </si>
+  <si>
+    <t>7,7,2,3,4,1,5</t>
+  </si>
+  <si>
+    <t>3,3,3,3,1</t>
+  </si>
+  <si>
+    <t>3,4,3,3,2</t>
+  </si>
+  <si>
+    <t>2,6,4,4,3</t>
+  </si>
+  <si>
+    <t>2,6,4,4,4</t>
+  </si>
+  <si>
+    <t>1,7,4,4,5</t>
+  </si>
+  <si>
+    <t>0,2,7,9,10,11,13</t>
+  </si>
+  <si>
+    <t>1,7,4,4,5,1,1</t>
+  </si>
+  <si>
+    <t>1,7,4,4,6,1,1</t>
+  </si>
+  <si>
+    <t>2,9</t>
+  </si>
+  <si>
+    <t>2,7,9,10,11,13</t>
+  </si>
+  <si>
+    <t>7,4,4,7,1,3</t>
+  </si>
+  <si>
+    <t>4,5,11</t>
+  </si>
+  <si>
+    <t>8,4,4,8,1,1,3</t>
+  </si>
+  <si>
+    <t>2,3,7,14</t>
+  </si>
+  <si>
+    <t>7,5,5,1</t>
+  </si>
+  <si>
+    <t>2,7,13,14</t>
+  </si>
+  <si>
+    <t>7,5,1,3</t>
+  </si>
+  <si>
+    <t>3,7</t>
+  </si>
+  <si>
+    <t>7,5,2,4</t>
+  </si>
+  <si>
+    <t>8,5,3,4</t>
+  </si>
+  <si>
+    <t>5,9</t>
+  </si>
+  <si>
+    <t>2,7,9,13,14</t>
+  </si>
+  <si>
+    <t>8,5,2,4,2</t>
+  </si>
+  <si>
+    <t>2,7,9,10,13,14</t>
+  </si>
+  <si>
+    <t>8,5,2,1,4,2</t>
+  </si>
+  <si>
+    <t>8,5,3,3,5,2</t>
+  </si>
+  <si>
+    <t>7,5,3,2,3,1</t>
+  </si>
+  <si>
+    <t>8,5,2,1,5,2</t>
+  </si>
+  <si>
+    <t>8,5,2,1,6,2</t>
+  </si>
+  <si>
+    <t>2,3,4,8,9</t>
+  </si>
+  <si>
+    <t>5,2,2,1,3</t>
+  </si>
+  <si>
+    <t>2,15</t>
+  </si>
+  <si>
+    <t>5,2,2,2,4</t>
+  </si>
+  <si>
+    <t>3,8</t>
+  </si>
+  <si>
+    <t>2,3,4,8,9,14</t>
+  </si>
+  <si>
+    <t>5,3,3,3,5,2</t>
+  </si>
+  <si>
+    <t>2,3,4,8,9,14,15</t>
+  </si>
+  <si>
+    <t>5,3,3,3,5,2,1</t>
+  </si>
+  <si>
+    <t>5,2,2,2,4,2,1</t>
+  </si>
+  <si>
+    <t>3,10,17</t>
+  </si>
+  <si>
+    <t>6,2,2,2,4,3,2</t>
+  </si>
+  <si>
+    <t>6,19</t>
+  </si>
+  <si>
+    <t>6,3,3,5,5,2,1</t>
+  </si>
+  <si>
+    <t>5,3,3,3,5,1</t>
+  </si>
+  <si>
+    <t>5,3,3,4,5,1</t>
+  </si>
+  <si>
+    <t>9,18</t>
+  </si>
+  <si>
+    <t>6,2,2,2,3,3,1</t>
+  </si>
+  <si>
+    <t>3,3,3,1,1</t>
+  </si>
+  <si>
+    <t>3,3,3,2,2</t>
+  </si>
+  <si>
+    <t>3,4,7,8,10,14</t>
+  </si>
+  <si>
+    <t>3,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>2,3,4,7,8,10,14</t>
+  </si>
+  <si>
+    <t>3,3,3,3,1,1,1</t>
+  </si>
+  <si>
+    <t>3,3,3,3,1,1,2</t>
+  </si>
+  <si>
+    <t>4,3,3,3,1,1,3</t>
+  </si>
+  <si>
+    <t>5,3,4,3,1,1,3</t>
+  </si>
+  <si>
+    <t>2,7,8,10,14</t>
+  </si>
+  <si>
+    <t>5,4,3,3,5</t>
+  </si>
+  <si>
+    <t>6,4,3,3,5</t>
+  </si>
+  <si>
+    <t>7,4,3,3,5</t>
+  </si>
+  <si>
+    <t>8,4,4,4,5</t>
+  </si>
+  <si>
+    <t>2,7,8,10,11,14</t>
+  </si>
+  <si>
+    <t>8,4,4,4,1,5</t>
+  </si>
+  <si>
+    <t>2,7,8,10,11,12,13,14</t>
+  </si>
+  <si>
+    <t>4,1,4,3,2,1,2,5</t>
+  </si>
+  <si>
+    <t>5,1,4,3,2,1,2,5</t>
+  </si>
+  <si>
+    <t>6,1,4,3,2,1,2,7</t>
+  </si>
+  <si>
+    <t>5,9,10,14</t>
+  </si>
+  <si>
+    <t>4,5,3,1</t>
+  </si>
+  <si>
+    <t>4,5,3,2</t>
+  </si>
+  <si>
+    <t>4,5,3,3</t>
+  </si>
+  <si>
+    <t>0,5,9,10,14</t>
+  </si>
+  <si>
+    <t>2,4,5,3,3</t>
+  </si>
+  <si>
+    <t>0,2,5,9,10,14</t>
+  </si>
+  <si>
+    <t>4,4,2,5,3,2</t>
+  </si>
+  <si>
+    <t>0,2,5,9,10,13,14</t>
+  </si>
+  <si>
+    <t>4,4,2,5,3,1,2</t>
+  </si>
+  <si>
+    <t>0,2,5,9,10,12,13,14</t>
+  </si>
+  <si>
+    <t>2,6,2,5,3,1,3,4</t>
+  </si>
+  <si>
+    <t>11,16,22</t>
+  </si>
+  <si>
+    <t>15,21</t>
+  </si>
+  <si>
+    <t>13,19,23</t>
+  </si>
+  <si>
+    <t>21,24</t>
+  </si>
+  <si>
+    <t>18,24</t>
+  </si>
+  <si>
+    <t>2,5,12,13,14,15</t>
+  </si>
+  <si>
+    <t>5,17,1,2,3,7</t>
+  </si>
+  <si>
+    <t>1,6,8</t>
+  </si>
+  <si>
+    <t>0,2,4,7,9</t>
+  </si>
+  <si>
+    <t>6,4,1,3,1</t>
+  </si>
+  <si>
+    <t>4,6,1,3,3</t>
+  </si>
+  <si>
+    <t>0,2,4,7,9,12</t>
+  </si>
+  <si>
+    <t>4,8,1,3,2,1</t>
+  </si>
+  <si>
+    <t>6,4,1,3,2</t>
+  </si>
+  <si>
+    <t>4,7,1,3,3</t>
+  </si>
+  <si>
+    <t>4,8,1,3,2,2</t>
+  </si>
+  <si>
+    <t>4,8,1,4,3,2</t>
+  </si>
+  <si>
+    <t>5,5,5,2</t>
+  </si>
+  <si>
+    <t>3,7,10</t>
+  </si>
+  <si>
+    <t>6,6,6,3,3</t>
+  </si>
+  <si>
+    <t>5,5,5,3,3</t>
+  </si>
+  <si>
+    <t>3,7,7,4,4</t>
+  </si>
+  <si>
+    <t>1,4,5,3,3</t>
+  </si>
+  <si>
+    <t>10,12</t>
+  </si>
+  <si>
+    <t>1,5,5,3,3</t>
+  </si>
+  <si>
+    <t>0,2,7,9,10,11</t>
+  </si>
+  <si>
+    <t>1,6,5,4,4,1</t>
+  </si>
+  <si>
+    <t>5,12</t>
+  </si>
+  <si>
+    <t>1,6,5,3,3,1</t>
+  </si>
+  <si>
+    <t>0,2,7,9,10,11,12</t>
+  </si>
+  <si>
+    <t>1,6,5,3,3,1,1</t>
+  </si>
+  <si>
+    <t>2,5,5,5,5</t>
+  </si>
+  <si>
+    <t>0,2,7,8,9,10</t>
+  </si>
+  <si>
+    <t>2,5,5,2,5,5</t>
+  </si>
+  <si>
+    <t>2,6,5,3,5,5</t>
+  </si>
+  <si>
+    <t>0,2,7,8,9,10,11</t>
+  </si>
+  <si>
+    <t>1,6,5,3,5,5,1</t>
+  </si>
+  <si>
+    <t>1,7,5,4,5,5,1</t>
+  </si>
+  <si>
+    <t>0,2,7,8,9,10,14</t>
+  </si>
+  <si>
+    <t>1,7,4,4,4,2,3</t>
+  </si>
+  <si>
+    <t>0,2,7,14,9,10</t>
+  </si>
+  <si>
+    <t>0,2,7,14,9,10,11</t>
+  </si>
+  <si>
+    <t>2,6,2,4,2,1,1</t>
+  </si>
+  <si>
+    <t>8,2,4,2,1,1</t>
+  </si>
+  <si>
+    <t>4,7</t>
+  </si>
+  <si>
+    <t>8,2,4,2,1,1,1</t>
+  </si>
+  <si>
+    <t>6,2,3,2,1,1</t>
+  </si>
+  <si>
+    <t>4,2,3,2,1,1</t>
+  </si>
+  <si>
+    <t>8,12</t>
+  </si>
+  <si>
+    <t>5,2,3,2,1,1</t>
+  </si>
+  <si>
+    <t>2,7,9,10,11,13,14</t>
+  </si>
+  <si>
+    <t>5,2,3,2,1,1,1</t>
+  </si>
+  <si>
+    <t>6,2,3,2,1,1,1</t>
+  </si>
+  <si>
+    <t>2,7,9,10,11,12,13,14</t>
+  </si>
+  <si>
+    <t>7,2,3,2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>7,2,3,2,1,1,2,2</t>
+  </si>
+  <si>
+    <t>7,4,5,1</t>
+  </si>
+  <si>
+    <t>2,10</t>
+  </si>
+  <si>
+    <t>2,3,7,8,14</t>
+  </si>
+  <si>
+    <t>7,4,5,1,1</t>
+  </si>
+  <si>
+    <t>7,4,5,2,2</t>
+  </si>
+  <si>
+    <t>7,4,5,3,3</t>
+  </si>
+  <si>
+    <t>7,4,5,4,4</t>
+  </si>
+  <si>
+    <t>2,3,7,8,13,14</t>
+  </si>
+  <si>
+    <t>8,6,5,5,3,5</t>
+  </si>
+  <si>
+    <t>7,4,5,3,1,2</t>
+  </si>
+  <si>
+    <t>2,3,7,8,12,13,14</t>
+  </si>
+  <si>
+    <t>8,6,5,5,1,3,5</t>
+  </si>
+  <si>
+    <t>4,4,4,4,4</t>
+  </si>
+  <si>
+    <t>5,4,4,4,4</t>
+  </si>
+  <si>
+    <t>5,4,4,4,5</t>
+  </si>
+  <si>
+    <t>3,8,9</t>
+  </si>
+  <si>
+    <t>2,4,8,9,10,14</t>
+  </si>
+  <si>
+    <t>5,4,4,4,5,4</t>
+  </si>
+  <si>
+    <t>5,10</t>
+  </si>
+  <si>
+    <t>2,4,8,9,10,12,14</t>
+  </si>
+  <si>
+    <t>7,4,4,4,5,1,4</t>
+  </si>
+  <si>
+    <t>6,11</t>
+  </si>
+  <si>
+    <t>5,1,4,4,5,5</t>
+  </si>
+  <si>
+    <t>6,1,4,4,5,6</t>
+  </si>
+  <si>
+    <t>2,8,9,10,14</t>
+  </si>
+  <si>
+    <t>8,4,4,5,4</t>
+  </si>
+  <si>
+    <t>6,4,4,5,4</t>
+  </si>
+  <si>
+    <t>2,8,9,10,13,14</t>
+  </si>
+  <si>
+    <t>6,4,4,5,1,4</t>
+  </si>
+  <si>
+    <t>12,16</t>
+  </si>
+  <si>
+    <t>2,8,9,10,12,13,14</t>
+  </si>
+  <si>
+    <t>9,3,4,5,1,3,4</t>
+  </si>
+  <si>
+    <t>7,3,4,5,1,2</t>
+  </si>
+  <si>
+    <t>2,4,7</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>2,4,7,14</t>
+  </si>
+  <si>
+    <t>2,7,8,14</t>
+  </si>
+  <si>
+    <t>5,5,2,3</t>
+  </si>
+  <si>
+    <t>4,17</t>
+  </si>
+  <si>
+    <t>2,7,8,12,14</t>
+  </si>
+  <si>
+    <t>7,5,2,1,3</t>
+  </si>
+  <si>
+    <t>2,7,8,11,13,14</t>
+  </si>
+  <si>
+    <t>6,5,2,1,1,3</t>
+  </si>
+  <si>
+    <t>2,7,8,11,12,13,14</t>
+  </si>
+  <si>
+    <t>6,5,2,2,1,1,3</t>
+  </si>
+  <si>
+    <t>2,9,11</t>
+  </si>
+  <si>
+    <t>2,7,8,11,14</t>
+  </si>
+  <si>
+    <t>5,5,5,1,3</t>
+  </si>
+  <si>
+    <t>6,5,5,1,3</t>
+  </si>
+  <si>
+    <t>6,5,5,2,3</t>
+  </si>
+  <si>
+    <t>10,13</t>
+  </si>
+  <si>
+    <t>6,5,5,1,1,3</t>
+  </si>
+  <si>
+    <t>6,5,5,2,2,3</t>
+  </si>
+  <si>
+    <t>2,5,7,8,11,12,13,14</t>
+  </si>
+  <si>
+    <t>8,3,5,2,2,1,2,3</t>
+  </si>
+  <si>
+    <t>8,4,5,2,2,1,2,3</t>
+  </si>
+  <si>
+    <t>6,4,5,3,1,3,4,3</t>
+  </si>
+  <si>
+    <t>2,13</t>
+  </si>
+  <si>
     <t>4,9</t>
   </si>
   <si>
-    <t>2,4,8,9,10,11</t>
-  </si>
-  <si>
-    <t>7,3,5,4,5,1</t>
-  </si>
-  <si>
-    <t>5,13</t>
-  </si>
-  <si>
-    <t>2,4,8,9,10,11,13</t>
-  </si>
-  <si>
-    <t>7,3,5,4,5,2,1</t>
-  </si>
-  <si>
-    <t>7,3,2,4,5</t>
-  </si>
-  <si>
-    <t>8,10</t>
-  </si>
-  <si>
-    <t>7,3,1,4,5,2,1</t>
-  </si>
-  <si>
-    <t>7,3,2,4,5,2,2</t>
-  </si>
-  <si>
-    <t>7,3,2,4,5,1,1</t>
-  </si>
-  <si>
-    <t>2,8,9,10,11,13,14</t>
-  </si>
-  <si>
-    <t>7,2,4,5,1,1,3</t>
-  </si>
-  <si>
-    <t>4,14</t>
-  </si>
-  <si>
-    <t>2,8,9,10,11,12,13,14</t>
-  </si>
-  <si>
-    <t>7,2,4,5,1,1,1,3</t>
-  </si>
-  <si>
-    <t>5,2,4,3,3,3,3,3</t>
-  </si>
-  <si>
-    <t>2,4,7,8,10</t>
-  </si>
-  <si>
-    <t>5,4,5,2,2</t>
-  </si>
-  <si>
-    <t>6,3,5,2,2</t>
-  </si>
-  <si>
-    <t>2,7</t>
-  </si>
-  <si>
-    <t>2,4,7,8,10,14</t>
-  </si>
-  <si>
-    <t>6,2,5,2,2,2</t>
-  </si>
-  <si>
-    <t>3,4</t>
-  </si>
-  <si>
-    <t>6,2,5,3,3,3</t>
-  </si>
-  <si>
-    <t>2,4,7,8,9,10,14</t>
-  </si>
-  <si>
-    <t>6,2,5,3,4,4,4</t>
-  </si>
-  <si>
-    <t>6,2,5,2,3,3</t>
-  </si>
-  <si>
-    <t>6,2,4,3,3,3,3</t>
-  </si>
-  <si>
-    <t>2,7,8,9,10,11,12,13,14</t>
-  </si>
-  <si>
-    <t>6,2,5,3,4,4,1,2,4</t>
-  </si>
-  <si>
-    <t>4,2,3,3,2,2,1,2,2</t>
-  </si>
-  <si>
-    <t>6,2,5,4,3,3,2,3,3</t>
-  </si>
-  <si>
-    <t>5,6,4,2,4,5,3</t>
-  </si>
-  <si>
-    <t>7,6,4,2,4,5,3</t>
-  </si>
-  <si>
-    <t>7,6,5,3,5,5,4</t>
-  </si>
-  <si>
-    <t>3,7,6,5,3,1,5,5,4</t>
-  </si>
-  <si>
-    <t>2,7,6,5,3,5,5,4</t>
-  </si>
-  <si>
-    <t>8,9,11</t>
-  </si>
-  <si>
-    <t>3,8,6,5,3,1,5,5,4</t>
-  </si>
-  <si>
-    <t>1,8,5,4,2,3,3,4</t>
+    <t>7,5,6,4,2,4,5,4</t>
+  </si>
+  <si>
+    <t>7,5,6,4,2,1,4,5,4</t>
+  </si>
+  <si>
+    <t>6,5,1,4</t>
+  </si>
+  <si>
+    <t>6,5,2,2,4</t>
+  </si>
+  <si>
+    <t>6,4,2,3</t>
+  </si>
+  <si>
+    <t>6,4,1,2,3</t>
+  </si>
+  <si>
+    <t>0,2,3,4,7,12</t>
+  </si>
+  <si>
+    <t>4,6,1,2,3,1</t>
+  </si>
+  <si>
+    <t>4,6,5,2</t>
+  </si>
+  <si>
+    <t>4,8,4,4</t>
+  </si>
+  <si>
+    <t>4,8</t>
+  </si>
+  <si>
+    <t>0,2,7,9,12</t>
+  </si>
+  <si>
+    <t>4,8,4,4,1</t>
+  </si>
+  <si>
+    <t>5,8,4,4,1</t>
+  </si>
+  <si>
+    <t>5,8,5,5,1</t>
+  </si>
+  <si>
+    <t>1,11</t>
+  </si>
+  <si>
+    <t>4,6,5,3,4</t>
+  </si>
+  <si>
+    <t>3,13</t>
+  </si>
+  <si>
+    <t>2,8,5,3,3</t>
+  </si>
+  <si>
+    <t>0,2,7,9,10,12</t>
+  </si>
+  <si>
+    <t>2,8,5,3,3,1</t>
+  </si>
+  <si>
+    <t>3,8,5,3,3,1</t>
+  </si>
+  <si>
+    <t>4,8,5,4,4,1</t>
+  </si>
+  <si>
+    <t>8,9</t>
+  </si>
+  <si>
+    <t>4,6,5,2,2</t>
+  </si>
+  <si>
+    <t>2,6,3,2,2,1</t>
   </si>
   <si>
     <t>15,16</t>
   </si>
   <si>
-    <t>1,8,5,4,2,3,3,3</t>
-  </si>
-  <si>
-    <t>2,8,6,5,3,2,5,5,4</t>
-  </si>
-  <si>
-    <t>2,10,6,5,3,3,5,5,4</t>
-  </si>
-  <si>
-    <t>2,12,6,5,3,4,5,5,4</t>
-  </si>
-  <si>
-    <t>4,2,2,1</t>
-  </si>
-  <si>
-    <t>4,3,1,1</t>
-  </si>
-  <si>
-    <t>5,2,2,1</t>
-  </si>
-  <si>
-    <t>7,2,2,1</t>
-  </si>
-  <si>
-    <t>8,3,2,2,1</t>
-  </si>
-  <si>
-    <t>4,3,2,2,1</t>
-  </si>
-  <si>
-    <t>9,10</t>
-  </si>
-  <si>
-    <t>9,4,3,3,2</t>
-  </si>
-  <si>
-    <t>5,3,2,2,1</t>
-  </si>
-  <si>
-    <t>6,4,3,3,2</t>
-  </si>
-  <si>
-    <t>9,5,4,3,3</t>
-  </si>
-  <si>
-    <t>4,3,3,3,3</t>
-  </si>
-  <si>
-    <t>5,5,5,3,5</t>
-  </si>
-  <si>
-    <t>3,5,3,3,3</t>
-  </si>
-  <si>
-    <t>0,2,3,4,7,10</t>
-  </si>
-  <si>
-    <t>4,5,4,3,3,1</t>
-  </si>
-  <si>
-    <t>6,6,2,3,5,3</t>
-  </si>
-  <si>
-    <t>0,2,3,4,7,9,10</t>
-  </si>
-  <si>
-    <t>3,6,2,3,5,1,3</t>
-  </si>
-  <si>
-    <t>3,6,2,4,5,2,3</t>
-  </si>
-  <si>
-    <t>4,7,1,5,5,3,3</t>
-  </si>
-  <si>
-    <t>5,6,2,4,5,1,3</t>
-  </si>
-  <si>
-    <t>4,6,2,4,5,2,4</t>
-  </si>
-  <si>
-    <t>6,6,2,4,5,3,4</t>
-  </si>
-  <si>
-    <t>6,6,2,4,5,1,3</t>
-  </si>
-  <si>
-    <t>7,7,2,4,5,1,3</t>
-  </si>
-  <si>
-    <t>2,5,3,3,3</t>
-  </si>
-  <si>
-    <t>0,2,3,4,7,9</t>
-  </si>
-  <si>
-    <t>2,5,1,1,3,2</t>
-  </si>
-  <si>
-    <t>3,5,1,1,3,3</t>
-  </si>
-  <si>
-    <t>5,6</t>
-  </si>
-  <si>
-    <t>0,2,3,4,7,9,11</t>
-  </si>
-  <si>
-    <t>5,5,1,2,2,6,1</t>
-  </si>
-  <si>
-    <t>2,4,1,1,2,2</t>
-  </si>
-  <si>
-    <t>2,5,1,1,2,3</t>
-  </si>
-  <si>
-    <t>2,6,1,1,2,4</t>
-  </si>
-  <si>
-    <t>2,6,1,1,2,3,1</t>
-  </si>
-  <si>
-    <t>0,2,4,7,9,11</t>
-  </si>
-  <si>
-    <t>2,6,1,2,3,3</t>
-  </si>
-  <si>
-    <t>0,2,4,7,9,11,12</t>
-  </si>
-  <si>
-    <t>2,6,1,2,4,3,1</t>
-  </si>
-  <si>
-    <t>2,6,1,2,5,3,1</t>
-  </si>
-  <si>
-    <t>2,3,3,2</t>
-  </si>
-  <si>
-    <t>2,4,1,3,2,1</t>
-  </si>
-  <si>
-    <t>2,5,8</t>
-  </si>
-  <si>
-    <t>1,5,1,3,2,1</t>
-  </si>
-  <si>
-    <t>2,4,7,9,11</t>
-  </si>
-  <si>
-    <t>5,1,3,2,1</t>
-  </si>
-  <si>
-    <t>2,6,1,3,2,1</t>
-  </si>
-  <si>
-    <t>3,6</t>
-  </si>
-  <si>
-    <t>2,7,1,3,3,2</t>
-  </si>
-  <si>
-    <t>9,1,3,3,2</t>
-  </si>
-  <si>
-    <t>4,12</t>
-  </si>
-  <si>
-    <t>6,1,3,2,2</t>
-  </si>
-  <si>
-    <t>2,4,7,9,11,13</t>
-  </si>
-  <si>
-    <t>8,1,3,2,2,1</t>
-  </si>
-  <si>
-    <t>2,7,9,11,13,14</t>
-  </si>
-  <si>
-    <t>8,1,2,3,3,3</t>
-  </si>
-  <si>
-    <t>2,7,9,11,12,13,14</t>
-  </si>
-  <si>
-    <t>9,1,2,3,1,3,3</t>
-  </si>
-  <si>
-    <t>9,1,2,3,1,4,4</t>
-  </si>
-  <si>
-    <t>2,7,9,10</t>
-  </si>
-  <si>
-    <t>6,2,3,3</t>
-  </si>
-  <si>
-    <t>6,2,4,4</t>
-  </si>
-  <si>
-    <t>6,3,3,4</t>
-  </si>
-  <si>
-    <t>3,9</t>
-  </si>
-  <si>
-    <t>7,4,4,4</t>
-  </si>
-  <si>
-    <t>2,7,9,10,11</t>
-  </si>
-  <si>
-    <t>7,4,5,5,1</t>
-  </si>
-  <si>
-    <t>6,14</t>
-  </si>
-  <si>
-    <t>7,6,5,5,1</t>
-  </si>
-  <si>
-    <t>7,15</t>
-  </si>
-  <si>
-    <t>2,7,9,10,11,12,13</t>
-  </si>
-  <si>
-    <t>7,7,2,3,1,1,3</t>
-  </si>
-  <si>
-    <t>4,14,11</t>
-  </si>
-  <si>
-    <t>2,7,9,10,11,12</t>
-  </si>
-  <si>
-    <t>7,6,5,5,1,1</t>
-  </si>
-  <si>
-    <t>7,7,2,3,1,1,1</t>
-  </si>
-  <si>
-    <t>7,7,2,3,4,1,5</t>
-  </si>
-  <si>
-    <t>3,3,3,3,1</t>
-  </si>
-  <si>
-    <t>3,4,3,3,2</t>
-  </si>
-  <si>
-    <t>2,6,4,4,3</t>
-  </si>
-  <si>
-    <t>2,6,4,4,4</t>
-  </si>
-  <si>
-    <t>1,7,4,4,5</t>
-  </si>
-  <si>
-    <t>0,2,7,9,10,11,13</t>
-  </si>
-  <si>
-    <t>1,7,4,4,5,1,1</t>
-  </si>
-  <si>
-    <t>1,7,4,4,6,1,1</t>
-  </si>
-  <si>
-    <t>2,9</t>
-  </si>
-  <si>
-    <t>2,7,9,10,11,13</t>
-  </si>
-  <si>
-    <t>7,4,4,7,1,3</t>
-  </si>
-  <si>
-    <t>4,5,11</t>
-  </si>
-  <si>
-    <t>8,4,4,8,1,1,3</t>
-  </si>
-  <si>
-    <t>2,3,7,14</t>
-  </si>
-  <si>
-    <t>7,5,5,1</t>
-  </si>
-  <si>
-    <t>2,7,13,14</t>
-  </si>
-  <si>
-    <t>7,5,1,3</t>
-  </si>
-  <si>
-    <t>3,7</t>
-  </si>
-  <si>
-    <t>7,5,2,4</t>
-  </si>
-  <si>
-    <t>8,5,3,4</t>
-  </si>
-  <si>
-    <t>5,9</t>
-  </si>
-  <si>
-    <t>2,7,9,13,14</t>
-  </si>
-  <si>
-    <t>8,5,2,4,2</t>
-  </si>
-  <si>
-    <t>2,7,9,10,13,14</t>
-  </si>
-  <si>
-    <t>8,5,2,1,4,2</t>
-  </si>
-  <si>
-    <t>8,5,3,3,5,2</t>
-  </si>
-  <si>
-    <t>7,5,3,2,3,1</t>
-  </si>
-  <si>
-    <t>8,5,2,1,5,2</t>
-  </si>
-  <si>
-    <t>8,5,2,1,6,2</t>
-  </si>
-  <si>
-    <t>2,3,4,8,9</t>
-  </si>
-  <si>
-    <t>5,2,2,1,3</t>
-  </si>
-  <si>
-    <t>2,15</t>
-  </si>
-  <si>
-    <t>5,2,2,2,4</t>
-  </si>
-  <si>
-    <t>3,8</t>
-  </si>
-  <si>
-    <t>2,3,4,8,9,14</t>
-  </si>
-  <si>
-    <t>5,3,3,3,5,2</t>
-  </si>
-  <si>
-    <t>2,3,4,8,9,14,15</t>
-  </si>
-  <si>
-    <t>5,3,3,3,5,2,1</t>
-  </si>
-  <si>
-    <t>5,2,2,2,4,2,1</t>
-  </si>
-  <si>
-    <t>3,10,17</t>
-  </si>
-  <si>
-    <t>6,2,2,2,4,3,2</t>
-  </si>
-  <si>
-    <t>6,19</t>
-  </si>
-  <si>
-    <t>6,3,3,5,5,2,1</t>
-  </si>
-  <si>
-    <t>5,3,3,3,5,1</t>
-  </si>
-  <si>
-    <t>5,3,3,4,5,1</t>
-  </si>
-  <si>
-    <t>9,18</t>
-  </si>
-  <si>
-    <t>6,2,2,2,3,3,1</t>
-  </si>
-  <si>
-    <t>3,3,3,1,1</t>
-  </si>
-  <si>
-    <t>3,3,3,2,2</t>
-  </si>
-  <si>
-    <t>3,4,7,8,10,14</t>
-  </si>
-  <si>
-    <t>3,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>2,3,4,7,8,10,14</t>
-  </si>
-  <si>
-    <t>3,3,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>3,3,3,3,1,1,2</t>
-  </si>
-  <si>
-    <t>4,3,3,3,1,1,3</t>
-  </si>
-  <si>
-    <t>5,3,4,3,1,1,3</t>
-  </si>
-  <si>
-    <t>2,7,8,10,14</t>
-  </si>
-  <si>
-    <t>5,4,3,3,5</t>
-  </si>
-  <si>
-    <t>6,4,3,3,5</t>
-  </si>
-  <si>
-    <t>7,4,3,3,5</t>
-  </si>
-  <si>
-    <t>8,4,4,4,5</t>
-  </si>
-  <si>
-    <t>2,7,8,10,11,14</t>
-  </si>
-  <si>
-    <t>8,4,4,4,1,5</t>
-  </si>
-  <si>
-    <t>2,7,8,10,11,12,13,14</t>
-  </si>
-  <si>
-    <t>4,1,4,3,2,1,2,5</t>
-  </si>
-  <si>
-    <t>5,1,4,3,2,1,2,5</t>
-  </si>
-  <si>
-    <t>6,1,4,3,2,1,2,7</t>
-  </si>
-  <si>
-    <t>5,9,10,14</t>
-  </si>
-  <si>
-    <t>4,5,3,1</t>
-  </si>
-  <si>
-    <t>4,5,3,2</t>
-  </si>
-  <si>
-    <t>4,5,3,3</t>
-  </si>
-  <si>
-    <t>0,5,9,10,14</t>
-  </si>
-  <si>
-    <t>2,4,5,3,3</t>
-  </si>
-  <si>
-    <t>0,2,5,9,10,14</t>
-  </si>
-  <si>
-    <t>4,4,2,5,3,2</t>
-  </si>
-  <si>
-    <t>0,2,5,9,10,13,14</t>
-  </si>
-  <si>
-    <t>4,4,2,5,3,1,2</t>
-  </si>
-  <si>
-    <t>0,2,5,9,10,12,13,14</t>
-  </si>
-  <si>
-    <t>2,6,2,5,3,1,3,4</t>
-  </si>
-  <si>
-    <t>11,16,22</t>
-  </si>
-  <si>
-    <t>14,18,20</t>
-  </si>
-  <si>
-    <t>15,21</t>
-  </si>
-  <si>
-    <t>13,19,23</t>
-  </si>
-  <si>
-    <t>13,21,24</t>
-  </si>
-  <si>
-    <t>14,26</t>
-  </si>
-  <si>
-    <t>18,24</t>
-  </si>
-  <si>
-    <t>2,5,12,13,14,15</t>
-  </si>
-  <si>
-    <t>5,17,1,2,3,7</t>
-  </si>
-  <si>
-    <t>1,6,8</t>
-  </si>
-  <si>
-    <t>0,2,4,7,9</t>
-  </si>
-  <si>
-    <t>6,4,1,3,1</t>
-  </si>
-  <si>
-    <t>4,6,1,3,3</t>
-  </si>
-  <si>
-    <t>0,2,4,7,9,12</t>
-  </si>
-  <si>
-    <t>4,8,1,3,2,1</t>
-  </si>
-  <si>
-    <t>10,12</t>
-  </si>
-  <si>
-    <t>6,4,1,3,2</t>
-  </si>
-  <si>
-    <t>4,7,1,3,3</t>
-  </si>
-  <si>
-    <t>9,12</t>
-  </si>
-  <si>
-    <t>4,8,1,3,2,2</t>
-  </si>
-  <si>
-    <t>5,11,13</t>
-  </si>
-  <si>
-    <t>4,8,1,4,3,2</t>
-  </si>
-  <si>
-    <t>5,5,5,2</t>
-  </si>
-  <si>
-    <t>3,7,10</t>
-  </si>
-  <si>
-    <t>6,6,6,3,3</t>
-  </si>
-  <si>
-    <t>5,5,5,3,3</t>
-  </si>
-  <si>
-    <t>6,11</t>
-  </si>
-  <si>
-    <t>3,7,7,4,4</t>
-  </si>
-  <si>
-    <t>13,14</t>
-  </si>
-  <si>
-    <t>1,4,5,3,3</t>
-  </si>
-  <si>
-    <t>1,5,5,3,3</t>
-  </si>
-  <si>
-    <t>0,2,7,9,10,11</t>
-  </si>
-  <si>
-    <t>1,6,5,4,4,1</t>
-  </si>
-  <si>
-    <t>5,12</t>
-  </si>
-  <si>
-    <t>1,6,5,3,3,1</t>
-  </si>
-  <si>
-    <t>0,2,7,9,10,11,12</t>
-  </si>
-  <si>
-    <t>1,6,5,3,3,1,1</t>
-  </si>
-  <si>
-    <t>2,5,5,5,5</t>
-  </si>
-  <si>
-    <t>0,2,7,8,9,10</t>
-  </si>
-  <si>
-    <t>2,5,5,2,5,5</t>
-  </si>
-  <si>
-    <t>2,6,5,3,5,5</t>
-  </si>
-  <si>
-    <t>0,2,7,8,9,10,11</t>
-  </si>
-  <si>
-    <t>1,6,5,3,5,5,1</t>
-  </si>
-  <si>
-    <t>1,7,5,4,5,5,1</t>
-  </si>
-  <si>
-    <t>0,2,7,8,9,10,14</t>
-  </si>
-  <si>
-    <t>1,7,4,4,4,2,3</t>
-  </si>
-  <si>
-    <t>0,2,7,14,9,10</t>
-  </si>
-  <si>
-    <t>0,2,7,14,9,10,11</t>
-  </si>
-  <si>
-    <t>2,6,2,4,2,1,1</t>
-  </si>
-  <si>
-    <t>8,2,4,2,1,1</t>
-  </si>
-  <si>
-    <t>4,7</t>
-  </si>
-  <si>
-    <t>8,2,4,2,1,1,1</t>
-  </si>
-  <si>
-    <t>6,2,3,2,1,1</t>
-  </si>
-  <si>
-    <t>4,2,3,2,1,1</t>
-  </si>
-  <si>
-    <t>8,11,12</t>
-  </si>
-  <si>
-    <t>5,2,3,2,1,1</t>
-  </si>
-  <si>
-    <t>2,7,9,10,11,13,14</t>
-  </si>
-  <si>
-    <t>5,2,3,2,1,1,1</t>
-  </si>
-  <si>
-    <t>6,2,3,2,1,1,1</t>
-  </si>
-  <si>
-    <t>2,7,9,10,11,12,13,14</t>
-  </si>
-  <si>
-    <t>7,2,3,2,1,1,1,1</t>
-  </si>
-  <si>
-    <t>7,2,3,2,1,1,2,2</t>
-  </si>
-  <si>
-    <t>7,4,5,1</t>
-  </si>
-  <si>
-    <t>2,10</t>
-  </si>
-  <si>
-    <t>2,3,7,8,14</t>
-  </si>
-  <si>
-    <t>7,4,5,1,1</t>
-  </si>
-  <si>
-    <t>7,4,5,2,2</t>
-  </si>
-  <si>
-    <t>7,4,5,3,3</t>
-  </si>
-  <si>
-    <t>5,9,13</t>
-  </si>
-  <si>
-    <t>7,4,5,4,4</t>
-  </si>
-  <si>
-    <t>2,3,7,8,13,14</t>
-  </si>
-  <si>
-    <t>8,6,5,5,3,5</t>
-  </si>
-  <si>
-    <t>7,4,5,3,1,2</t>
-  </si>
-  <si>
-    <t>2,3,7,8,12,13,14</t>
-  </si>
-  <si>
-    <t>8,6,5,5,1,3,5</t>
-  </si>
-  <si>
-    <t>4,4,4,4,4</t>
-  </si>
-  <si>
-    <t>5,4,4,4,4</t>
-  </si>
-  <si>
-    <t>5,4,4,4,5</t>
-  </si>
-  <si>
-    <t>3,8,9</t>
-  </si>
-  <si>
-    <t>2,4,8,9,10,14</t>
-  </si>
-  <si>
-    <t>5,4,4,4,5,4</t>
-  </si>
-  <si>
-    <t>5,8,10</t>
-  </si>
-  <si>
-    <t>2,4,8,9,10,12,14</t>
-  </si>
-  <si>
-    <t>7,4,4,4,5,1,4</t>
-  </si>
-  <si>
-    <t>5,1,4,4,5,5</t>
-  </si>
-  <si>
-    <t>6,1,4,4,5,6</t>
-  </si>
-  <si>
-    <t>2,8,9,10,14</t>
-  </si>
-  <si>
-    <t>8,4,4,5,4</t>
-  </si>
-  <si>
-    <t>6,4,4,5,4</t>
-  </si>
-  <si>
-    <t>2,8,9,10,13,14</t>
-  </si>
-  <si>
-    <t>6,4,4,5,1,4</t>
-  </si>
-  <si>
-    <t>12,16</t>
-  </si>
-  <si>
-    <t>2,8,9,10,12,13,14</t>
-  </si>
-  <si>
-    <t>9,3,4,5,1,3,4</t>
-  </si>
-  <si>
-    <t>7,3,4,5,1,2</t>
-  </si>
-  <si>
-    <t>2,4,7</t>
-  </si>
-  <si>
-    <t>1,8</t>
-  </si>
-  <si>
-    <t>2,4,7,14</t>
-  </si>
-  <si>
-    <t>2,7,8,14</t>
-  </si>
-  <si>
-    <t>5,5,2,3</t>
-  </si>
-  <si>
-    <t>4,17</t>
-  </si>
-  <si>
-    <t>2,7,8,12,14</t>
-  </si>
-  <si>
-    <t>7,5,2,1,3</t>
-  </si>
-  <si>
-    <t>2,7,8,11,13,14</t>
-  </si>
-  <si>
-    <t>6,5,2,1,1,3</t>
-  </si>
-  <si>
-    <t>2,7,8,11,12,13,14</t>
-  </si>
-  <si>
-    <t>6,5,2,2,1,1,3</t>
-  </si>
-  <si>
-    <t>2,9,11</t>
-  </si>
-  <si>
-    <t>2,7,8,11,14</t>
-  </si>
-  <si>
-    <t>5,5,5,1,3</t>
-  </si>
-  <si>
-    <t>3,12</t>
-  </si>
-  <si>
-    <t>6,5,5,1,3</t>
-  </si>
-  <si>
-    <t>6,5,5,2,3</t>
-  </si>
-  <si>
-    <t>10,13</t>
-  </si>
-  <si>
-    <t>6,5,5,1,1,3</t>
-  </si>
-  <si>
-    <t>6,5,5,2,2,3</t>
-  </si>
-  <si>
-    <t>2,5,7,8,11,12,13,14</t>
-  </si>
-  <si>
-    <t>8,3,5,2,2,1,2,3</t>
-  </si>
-  <si>
-    <t>8,4,5,2,2,1,2,3</t>
-  </si>
-  <si>
-    <t>6,4,5,3,1,3,4,3</t>
-  </si>
-  <si>
-    <t>2,13</t>
-  </si>
-  <si>
-    <t>7,5,6,4,2,4,5,4</t>
-  </si>
-  <si>
-    <t>7,5,6,4,2,1,4,5,4</t>
-  </si>
-  <si>
-    <t>6,5,1,4</t>
-  </si>
-  <si>
-    <t>6,5,2,2,4</t>
-  </si>
-  <si>
-    <t>6,4,2,3</t>
-  </si>
-  <si>
-    <t>6,4,1,2,3</t>
-  </si>
-  <si>
-    <t>0,2,3,4,7,12</t>
-  </si>
-  <si>
-    <t>4,6,1,2,3,1</t>
-  </si>
-  <si>
-    <t>4,6,5,2</t>
-  </si>
-  <si>
-    <t>4,8,4,4</t>
-  </si>
-  <si>
-    <t>4,8</t>
-  </si>
-  <si>
-    <t>0,2,7,9,12</t>
-  </si>
-  <si>
-    <t>4,8,4,4,1</t>
-  </si>
-  <si>
-    <t>5,8,4,4,1</t>
-  </si>
-  <si>
-    <t>5,8,5,5,1</t>
-  </si>
-  <si>
-    <t>1,11</t>
-  </si>
-  <si>
-    <t>4,6,5,3,4</t>
-  </si>
-  <si>
-    <t>2,8,5,3,3</t>
-  </si>
-  <si>
-    <t>0,2,7,9,10,12</t>
-  </si>
-  <si>
-    <t>2,8,5,3,3,1</t>
-  </si>
-  <si>
-    <t>3,8,5,3,3,1</t>
-  </si>
-  <si>
-    <t>4,8,5,4,4,1</t>
-  </si>
-  <si>
-    <t>8,9</t>
-  </si>
-  <si>
-    <t>4,6,5,2,2</t>
-  </si>
-  <si>
-    <t>2,6,3,2,2,1</t>
-  </si>
-  <si>
     <t>2,6,5,3,3</t>
   </si>
   <si>
@@ -1991,9 +1970,6 @@
     <t>6,9</t>
   </si>
   <si>
-    <t>7,</t>
-  </si>
-  <si>
     <t>4,4,4,4,1,1</t>
   </si>
   <si>
@@ -2033,27 +2009,27 @@
     <t>10,14</t>
   </si>
   <si>
+    <t>8,11</t>
+  </si>
+  <si>
     <t>5,14</t>
   </si>
   <si>
     <t>5,4,3,3,1,3,2,3</t>
   </si>
   <si>
+    <t>15,19</t>
+  </si>
+  <si>
     <t>5,4,3,3,1,3,4,4</t>
   </si>
   <si>
-    <t>17,20</t>
-  </si>
-  <si>
     <t>5,4,3,3,1,1,3,4,4</t>
   </si>
   <si>
     <t>5,7,3,3,1,1,3,4,5</t>
   </si>
   <si>
-    <t>16,21</t>
-  </si>
-  <si>
     <t>5,8,4,4,1,1,3,4,6</t>
   </si>
   <si>
@@ -2277,9 +2253,6 @@
   </si>
   <si>
     <t>거미알을 10마리 잡아주세요.</t>
-  </si>
-  <si>
-    <t>5,10</t>
   </si>
   <si>
     <t>0번 여왕 보스 거미를 잡아주세요</t>
@@ -9217,7 +9190,7 @@
         <v>164</v>
       </c>
       <c r="G69" s="4">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H69" s="1" t="b">
         <v>0</v>
@@ -9258,7 +9231,7 @@
         <v>165</v>
       </c>
       <c r="G70" s="4">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H70" s="1" t="b">
         <v>0</v>
@@ -9299,7 +9272,7 @@
         <v>-1.0</v>
       </c>
       <c r="G71" s="4">
-        <v>-1.0</v>
+        <v>9.0</v>
       </c>
       <c r="H71" s="1" t="b">
         <v>0</v>
@@ -9340,7 +9313,7 @@
         <v>-1.0</v>
       </c>
       <c r="G72" s="4">
-        <v>-1.0</v>
+        <v>9.0</v>
       </c>
       <c r="H72" s="1" t="b">
         <v>0</v>
@@ -10488,7 +10461,7 @@
         <v>196</v>
       </c>
       <c r="G100" s="4">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="H100" s="1" t="b">
         <v>0</v>
@@ -10529,7 +10502,7 @@
         <v>196</v>
       </c>
       <c r="G101" s="4">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="H101" s="1" t="b">
         <v>0</v>
@@ -10570,7 +10543,7 @@
         <v>-1.0</v>
       </c>
       <c r="G102" s="4">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="H102" s="1" t="b">
         <v>0</v>
@@ -10611,7 +10584,7 @@
         <v>198</v>
       </c>
       <c r="G103" s="4">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="H103" s="1" t="b">
         <v>0</v>
@@ -10652,7 +10625,7 @@
         <v>199</v>
       </c>
       <c r="G104" s="4">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="H104" s="1" t="b">
         <v>0</v>
@@ -18816,7 +18789,7 @@
         <v>-1.0</v>
       </c>
       <c r="G19" s="1">
-        <v>-1.0</v>
+        <v>18.0</v>
       </c>
       <c r="H19" s="1" t="b">
         <v>0</v>
@@ -19020,8 +18993,8 @@
       <c r="F24" s="1">
         <v>-1.0</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>275</v>
+      <c r="G24" s="1">
+        <v>4.0</v>
       </c>
       <c r="H24" s="1" t="b">
         <v>0</v>
@@ -19056,13 +19029,13 @@
         <v>90000.0</v>
       </c>
       <c r="E25" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F25" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="G25" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
@@ -19097,10 +19070,10 @@
         <v>110000.0</v>
       </c>
       <c r="E26" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>279</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>280</v>
       </c>
       <c r="G26" s="1">
         <v>16.0</v>
@@ -19182,10 +19155,10 @@
         <v>270</v>
       </c>
       <c r="F28" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>0</v>
@@ -19220,10 +19193,10 @@
         <v>120000.0</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G29" s="1">
         <v>9.0</v>
@@ -19261,10 +19234,10 @@
         <v>130000.0</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G30" s="1">
         <v>3.0</v>
@@ -19305,7 +19278,7 @@
         <v>270</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G31" s="1">
         <v>11.0</v>
@@ -19343,10 +19316,10 @@
         <v>110000.0</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G32" s="1">
         <v>12.0</v>
@@ -19425,13 +19398,13 @@
         <v>130000.0</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="G34" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="H34" s="1" t="b">
         <v>0</v>
@@ -19507,10 +19480,10 @@
         <v>160000.0</v>
       </c>
       <c r="E36" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>290</v>
       </c>
       <c r="G36" s="1">
         <v>16.0</v>
@@ -19589,10 +19562,10 @@
         <v>140000.0</v>
       </c>
       <c r="E38" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>290</v>
       </c>
       <c r="G38" s="1">
         <v>18.0</v>
@@ -19630,10 +19603,10 @@
         <v>160000.0</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G39" s="1">
         <v>-1.0</v>
@@ -19671,10 +19644,10 @@
         <v>60000.0</v>
       </c>
       <c r="E40" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>293</v>
       </c>
       <c r="G40" s="1">
         <v>1.0</v>
@@ -19712,13 +19685,13 @@
         <v>65000.0</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F41" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="H41" s="1" t="b">
         <v>0</v>
@@ -19753,13 +19726,13 @@
         <v>70000.0</v>
       </c>
       <c r="E42" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F42" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="G42" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>0</v>
@@ -19794,10 +19767,10 @@
         <v>75000.0</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G43" s="1">
         <v>5.0</v>
@@ -19835,10 +19808,10 @@
         <v>80000.0</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G44" s="1">
         <v>5.0</v>
@@ -19876,10 +19849,10 @@
         <v>120000.0</v>
       </c>
       <c r="E45" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>300</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>301</v>
       </c>
       <c r="G45" s="1">
         <v>6.0</v>
@@ -19958,10 +19931,10 @@
         <v>70000.0</v>
       </c>
       <c r="E47" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F47" s="9" t="s">
         <v>296</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>297</v>
       </c>
       <c r="G47" s="1">
         <v>8.0</v>
@@ -19999,10 +19972,10 @@
         <v>75000.0</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G48" s="1">
         <v>9.0</v>
@@ -20040,10 +20013,10 @@
         <v>80000.0</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G49" s="1">
         <v>10.0</v>
@@ -20122,10 +20095,10 @@
         <v>120000.0</v>
       </c>
       <c r="E51" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>300</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>301</v>
       </c>
       <c r="G51" s="1">
         <v>12.0</v>
@@ -20163,10 +20136,10 @@
         <v>100000.0</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G52" s="1">
         <v>13.0</v>
@@ -20245,10 +20218,10 @@
         <v>120000.0</v>
       </c>
       <c r="E54" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>304</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>305</v>
       </c>
       <c r="G54" s="1">
         <v>15.0</v>
@@ -20286,10 +20259,10 @@
         <v>100000.0</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G55" s="1">
         <v>16.0</v>
@@ -20327,10 +20300,10 @@
         <v>140000.0</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G56" s="1">
         <v>17.0</v>
@@ -20368,10 +20341,10 @@
         <v>160000.0</v>
       </c>
       <c r="E57" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="F57" s="9" t="s">
         <v>304</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>305</v>
       </c>
       <c r="G57" s="1">
         <v>-1.0</v>
@@ -20412,7 +20385,7 @@
         <v>236</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G58" s="1">
         <v>1.0</v>
@@ -20453,7 +20426,7 @@
         <v>236</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G59" s="1">
         <v>2.0</v>
@@ -20494,7 +20467,7 @@
         <v>236</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G60" s="1">
         <v>3.0</v>
@@ -20535,7 +20508,7 @@
         <v>236</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G61" s="1">
         <v>4.0</v>
@@ -20576,7 +20549,7 @@
         <v>236</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G62" s="1">
         <v>5.0</v>
@@ -20658,7 +20631,7 @@
         <v>243</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G64" s="1">
         <v>7.0</v>
@@ -20699,10 +20672,10 @@
         <v>239</v>
       </c>
       <c r="F65" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>0</v>
@@ -20740,7 +20713,7 @@
         <v>243</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G66" s="1">
         <v>17.0</v>
@@ -20781,7 +20754,7 @@
         <v>239</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G67" s="1">
         <v>10.0</v>
@@ -20822,10 +20795,10 @@
         <v>239</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
+      </c>
+      <c r="G68" s="1">
+        <v>16.0</v>
       </c>
       <c r="H68" s="1" t="b">
         <v>0</v>
@@ -20863,7 +20836,7 @@
         <v>236</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G69" s="1">
         <v>12.0</v>
@@ -20945,7 +20918,7 @@
         <v>239</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G71" s="1">
         <v>14.0</v>
@@ -20986,7 +20959,7 @@
         <v>239</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G72" s="1">
         <v>15.0</v>
@@ -21027,7 +21000,7 @@
         <v>239</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G73" s="1">
         <v>10.0</v>
@@ -21068,7 +21041,7 @@
         <v>243</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G74" s="1">
         <v>17.0</v>
@@ -21109,7 +21082,7 @@
         <v>243</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G75" s="1">
         <v>18.0</v>
@@ -21150,7 +21123,7 @@
         <v>243</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G76" s="1">
         <v>-1.0</v>
@@ -21250,7 +21223,7 @@
         <v>119</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G2" s="1">
         <v>1.0</v>
@@ -21291,7 +21264,7 @@
         <v>119</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G3" s="1">
         <v>2.0</v>
@@ -21332,7 +21305,7 @@
         <v>119</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G4" s="1">
         <v>3.0</v>
@@ -21455,7 +21428,7 @@
         <v>119</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G7" s="1">
         <v>6.0</v>
@@ -21496,7 +21469,7 @@
         <v>125</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G8" s="1">
         <v>7.0</v>
@@ -21578,10 +21551,10 @@
         <v>125</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H10" s="1" t="b">
         <v>0</v>
@@ -21619,7 +21592,7 @@
         <v>125</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G11" s="1">
         <v>14.0</v>
@@ -21660,7 +21633,7 @@
         <v>125</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G12" s="1">
         <v>11.0</v>
@@ -21692,16 +21665,16 @@
         <v>11.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D13" s="1">
-        <v>100000.0</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>330</v>
+        <v>-1.0</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-1.0</v>
+      </c>
+      <c r="F13" s="11">
+        <v>-1.0</v>
       </c>
       <c r="G13" s="1">
         <v>12.0</v>
@@ -21714,11 +21687,11 @@
       </c>
       <c r="L13" s="10">
         <f t="shared" ref="L13:M13" si="13">LEN(E13)-LEN(SUBSTITUTE(E13, ",", ""))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M13" s="10">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N13" s="10" t="b">
         <f t="shared" si="3"/>
@@ -21733,16 +21706,16 @@
         <v>12.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D14" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="E14" s="9">
-        <v>-1.0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>-1.0</v>
+        <v>100000.0</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>328</v>
       </c>
       <c r="G14" s="1">
         <v>13.0</v>
@@ -21755,11 +21728,11 @@
       </c>
       <c r="L14" s="10">
         <f t="shared" ref="L14:M14" si="14">LEN(E14)-LEN(SUBSTITUTE(E14, ",", ""))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M14" s="10">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N14" s="10" t="b">
         <f t="shared" si="3"/>
@@ -21783,7 +21756,7 @@
         <v>125</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G15" s="1">
         <v>14.0</v>
@@ -21815,16 +21788,16 @@
         <v>14.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D16" s="1">
-        <v>110000.0</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>332</v>
+        <v>-1.0</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-1.0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-1.0</v>
       </c>
       <c r="G16" s="1">
         <v>15.0</v>
@@ -21837,11 +21810,11 @@
       </c>
       <c r="L16" s="10">
         <f t="shared" ref="L16:M16" si="16">LEN(E16)-LEN(SUBSTITUTE(E16, ",", ""))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M16" s="10">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N16" s="10" t="b">
         <f t="shared" si="3"/>
@@ -21865,7 +21838,7 @@
         <v>125</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="G17" s="1">
         <v>-1.0</v>
@@ -21906,7 +21879,7 @@
         <v>125</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G18" s="1">
         <v>1.0</v>
@@ -21947,7 +21920,7 @@
         <v>125</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G19" s="1">
         <v>2.0</v>
@@ -21988,7 +21961,7 @@
         <v>125</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G20" s="1">
         <v>3.0</v>
@@ -22067,10 +22040,10 @@
         <v>100000.0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G22" s="1">
         <v>5.0</v>
@@ -22108,10 +22081,10 @@
         <v>80000.0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G23" s="1">
         <v>6.0</v>
@@ -22190,10 +22163,10 @@
         <v>80000.0</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G25" s="1">
         <v>8.0</v>
@@ -22231,13 +22204,13 @@
         <v>90000.0</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H26" s="1" t="b">
         <v>0</v>
@@ -22272,10 +22245,10 @@
         <v>180000.0</v>
       </c>
       <c r="E27" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>338</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>341</v>
       </c>
       <c r="G27" s="1">
         <v>13.0</v>
@@ -22313,10 +22286,10 @@
         <v>100000.0</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G28" s="1">
         <v>11.0</v>
@@ -22354,10 +22327,10 @@
         <v>110000.0</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G29" s="1">
         <v>12.0</v>
@@ -22395,10 +22368,10 @@
         <v>110000.0</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G30" s="1">
         <v>13.0</v>
@@ -22436,10 +22409,10 @@
         <v>110000.0</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G31" s="1">
         <v>14.0</v>
@@ -22477,10 +22450,10 @@
         <v>120000.0</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G32" s="1">
         <v>-1.0</v>
@@ -22521,7 +22494,7 @@
         <v>125</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G33" s="1">
         <v>1.0</v>
@@ -22559,10 +22532,10 @@
         <v>75000.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G34" s="1">
         <v>2.0</v>
@@ -22600,10 +22573,10 @@
         <v>80000.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G35" s="1">
         <v>3.0</v>
@@ -22641,10 +22614,10 @@
         <v>85000.0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G36" s="1">
         <v>4.0</v>
@@ -22682,13 +22655,13 @@
         <v>90000.0</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="H37" s="1" t="b">
         <v>0</v>
@@ -22723,10 +22696,10 @@
         <v>250000.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G38" s="1">
         <v>15.0</v>
@@ -22764,13 +22737,13 @@
         <v>100000.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G39" s="1">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H39" s="1" t="b">
         <v>0</v>
@@ -22805,13 +22778,13 @@
         <v>100000.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G40" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="H40" s="1" t="b">
         <v>0</v>
@@ -22846,13 +22819,13 @@
         <v>110000.0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G41" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H41" s="1" t="b">
         <v>0</v>
@@ -22893,7 +22866,7 @@
         <v>-1.0</v>
       </c>
       <c r="G42" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>0</v>
@@ -22928,13 +22901,13 @@
         <v>130000.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G43" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H43" s="1" t="b">
         <v>0</v>
@@ -22975,7 +22948,7 @@
         <v>-1.0</v>
       </c>
       <c r="G44" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H44" s="1" t="b">
         <v>0</v>
@@ -23010,13 +22983,13 @@
         <v>150000.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G45" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H45" s="1" t="b">
         <v>0</v>
@@ -23057,7 +23030,7 @@
         <v>-1.0</v>
       </c>
       <c r="G46" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H46" s="1" t="b">
         <v>0</v>
@@ -23092,13 +23065,13 @@
         <v>100000.0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G47" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H47" s="1" t="b">
         <v>0</v>
@@ -23133,13 +23106,13 @@
         <v>120000.0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G48" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H48" s="1" t="b">
         <v>0</v>
@@ -23174,10 +23147,10 @@
         <v>140000.0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G49" s="1">
         <v>-1.0</v>
@@ -23218,7 +23191,7 @@
         <v>148</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G50" s="1">
         <v>1.0</v>
@@ -23256,13 +23229,13 @@
         <v>110000.0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H51" s="1" t="b">
         <v>0</v>
@@ -23297,10 +23270,10 @@
         <v>110000.0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G52" s="1">
         <v>3.0</v>
@@ -23379,10 +23352,10 @@
         <v>120000.0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G54" s="1">
         <v>13.0</v>
@@ -23420,13 +23393,13 @@
         <v>125000.0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H55" s="1" t="b">
         <v>0</v>
@@ -23461,10 +23434,10 @@
         <v>125000.0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G56" s="1">
         <v>7.0</v>
@@ -23502,13 +23475,13 @@
         <v>140000.0</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H57" s="1" t="b">
         <v>0</v>
@@ -23543,10 +23516,10 @@
         <v>110000.0</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G58" s="1">
         <v>9.0</v>
@@ -23625,10 +23598,10 @@
         <v>110000.0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G60" s="1">
         <v>11.0</v>
@@ -23666,10 +23639,10 @@
         <v>120000.0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G61" s="1">
         <v>12.0</v>
@@ -23748,10 +23721,10 @@
         <v>120000.0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G63" s="1">
         <v>14.0</v>
@@ -23789,10 +23762,10 @@
         <v>130000.0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G64" s="1">
         <v>15.0</v>
@@ -23830,10 +23803,10 @@
         <v>150000.0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G65" s="1">
         <v>-1.0</v>
@@ -23871,10 +23844,10 @@
         <v>90000.0</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G66" s="1">
         <v>1.0</v>
@@ -23912,10 +23885,10 @@
         <v>100000.0</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G67" s="1">
         <v>2.0</v>
@@ -23953,13 +23926,13 @@
         <v>110000.0</v>
       </c>
       <c r="E68" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="F68" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="F68" s="9" t="s">
-        <v>385</v>
-      </c>
       <c r="G68" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H68" s="1" t="b">
         <v>0</v>
@@ -23994,10 +23967,10 @@
         <v>120000.0</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G69" s="1">
         <v>4.0</v>
@@ -24035,10 +24008,10 @@
         <v>140000.0</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G70" s="1">
         <v>5.0</v>
@@ -24082,7 +24055,7 @@
         <v>-1.0</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H71" s="1" t="b">
         <v>0</v>
@@ -24117,13 +24090,13 @@
         <v>100000.0</v>
       </c>
       <c r="E72" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="F72" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="F72" s="9" t="s">
-        <v>391</v>
-      </c>
       <c r="G72" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H72" s="1" t="b">
         <v>0</v>
@@ -24158,10 +24131,10 @@
         <v>100000.0</v>
       </c>
       <c r="E73" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="F73" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>391</v>
       </c>
       <c r="G73" s="1">
         <v>8.0</v>
@@ -24199,10 +24172,10 @@
         <v>150000.0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G74" s="1">
         <v>16.0</v>
@@ -24240,10 +24213,10 @@
         <v>100000.0</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G75" s="1">
         <v>10.0</v>
@@ -24281,13 +24254,13 @@
         <v>120000.0</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H76" s="1" t="b">
         <v>0</v>
@@ -24363,10 +24336,10 @@
         <v>100000.0</v>
       </c>
       <c r="E78" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="F78" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>391</v>
       </c>
       <c r="G78" s="1">
         <v>13.0</v>
@@ -24404,10 +24377,10 @@
         <v>120000.0</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G79" s="1">
         <v>14.0</v>
@@ -24445,10 +24418,10 @@
         <v>140000.0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G80" s="1">
         <v>15.0</v>
@@ -24527,10 +24500,10 @@
         <v>160000.0</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G82" s="1">
         <v>-1.0</v>
@@ -24571,7 +24544,7 @@
         <v>152</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G83" s="1">
         <v>1.0</v>
@@ -24612,10 +24585,10 @@
         <v>152</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H84" s="1" t="b">
         <v>0</v>
@@ -24653,7 +24626,7 @@
         <v>152</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G85" s="1">
         <v>3.0</v>
@@ -24694,7 +24667,7 @@
         <v>152</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G86" s="1">
         <v>4.0</v>
@@ -24735,7 +24708,7 @@
         <v>152</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G87" s="1">
         <v>5.0</v>
@@ -24776,7 +24749,7 @@
         <v>152</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G88" s="1">
         <v>6.0</v>
@@ -24814,10 +24787,10 @@
         <v>100000.0</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G89" s="1">
         <v>12.0</v>
@@ -24855,13 +24828,13 @@
         <v>110000.0</v>
       </c>
       <c r="E90" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="H90" s="1" t="b">
         <v>0</v>
@@ -24896,13 +24869,13 @@
         <v>120000.0</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H91" s="1" t="b">
         <v>0</v>
@@ -24937,10 +24910,10 @@
         <v>150000.0</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G92" s="1">
         <v>10.0</v>
@@ -25060,10 +25033,10 @@
         <v>170000.0</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G95" s="1">
         <v>-1.0</v>
@@ -25142,10 +25115,10 @@
         <v>85000.0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>206</v>
@@ -25183,13 +25156,13 @@
         <v>90000.0</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H98" s="1" t="b">
         <v>0</v>
@@ -25224,10 +25197,10 @@
         <v>90000.0</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="G99" s="1">
         <v>4.0</v>
@@ -25265,13 +25238,13 @@
         <v>100000.0</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H100" s="1" t="b">
         <v>0</v>
@@ -25306,10 +25279,10 @@
         <v>120000.0</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G101" s="1">
         <v>6.0</v>
@@ -25388,10 +25361,10 @@
         <v>80000.0</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G103" s="1">
         <v>8.0</v>
@@ -25429,10 +25402,10 @@
         <v>100000.0</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G104" s="1">
         <v>9.0</v>
@@ -25511,10 +25484,10 @@
         <v>120000.0</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G106" s="1">
         <v>14.0</v>
@@ -25552,10 +25525,10 @@
         <v>80000.0</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G107" s="1">
         <v>12.0</v>
@@ -25593,10 +25566,10 @@
         <v>90000.0</v>
       </c>
       <c r="E108" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="G108" s="1">
         <v>13.0</v>
@@ -25634,10 +25607,10 @@
         <v>120000.0</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G109" s="1">
         <v>9.0</v>
@@ -25675,10 +25648,10 @@
         <v>110000.0</v>
       </c>
       <c r="E110" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="G110" s="1">
         <v>15.0</v>
@@ -25716,10 +25689,10 @@
         <v>130000.0</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G111" s="1">
         <v>6.0</v>
@@ -25757,10 +25730,10 @@
         <v>150000.0</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G112" s="1">
         <v>17.0</v>
@@ -25798,10 +25771,10 @@
         <v>180000.0</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G113" s="1">
         <v>-1.0</v>
@@ -25839,10 +25812,10 @@
         <v>70000.0</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G114" s="1">
         <v>1.0</v>
@@ -25880,13 +25853,13 @@
         <v>75000.0</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H115" s="1" t="b">
         <v>0</v>
@@ -25921,13 +25894,13 @@
         <v>80000.0</v>
       </c>
       <c r="E116" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>432</v>
-      </c>
       <c r="G116" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H116" s="1" t="b">
         <v>0</v>
@@ -25962,10 +25935,10 @@
         <v>100000.0</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G117" s="1">
         <v>9.0</v>
@@ -26003,10 +25976,10 @@
         <v>90000.0</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G118" s="1">
         <v>5.0</v>
@@ -26044,10 +26017,10 @@
         <v>120000.0</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G119" s="1">
         <v>12.0</v>
@@ -26085,10 +26058,10 @@
         <v>100000.0</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G120" s="1">
         <v>7.0</v>
@@ -26126,10 +26099,10 @@
         <v>110000.0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G121" s="1">
         <v>14.0</v>
@@ -26167,10 +26140,10 @@
         <v>130000.0</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G122" s="1">
         <v>9.0</v>
@@ -26214,7 +26187,7 @@
         <v>-1.0</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="H123" s="1" t="b">
         <v>0</v>
@@ -26249,10 +26222,10 @@
         <v>140000.0</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G124" s="1">
         <v>11.0</v>
@@ -26290,10 +26263,10 @@
         <v>120000.0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G125" s="1">
         <v>4.0</v>
@@ -26372,13 +26345,13 @@
         <v>120000.0</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F127" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G127" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="H127" s="1" t="b">
         <v>0</v>
@@ -26413,10 +26386,10 @@
         <v>140000.0</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G128" s="1">
         <v>20.0</v>
@@ -26454,10 +26427,10 @@
         <v>80000.0</v>
       </c>
       <c r="E129" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="G129" s="1">
         <v>16.0</v>
@@ -26495,10 +26468,10 @@
         <v>90000.0</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G130" s="1">
         <v>17.0</v>
@@ -26536,13 +26509,13 @@
         <v>100000.0</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H131" s="1" t="b">
         <v>0</v>
@@ -26577,10 +26550,10 @@
         <v>180000.0</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G132" s="1">
         <v>13.0</v>
@@ -26618,10 +26591,10 @@
         <v>150000.0</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G133" s="1">
         <v>14.0</v>
@@ -26659,10 +26632,10 @@
         <v>150000.0</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G134" s="1">
         <v>-1.0</v>
@@ -26703,7 +26676,7 @@
         <v>221</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G135" s="1">
         <v>1.0</v>
@@ -26744,7 +26717,7 @@
         <v>221</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G136" s="1">
         <v>2.0</v>
@@ -26782,10 +26755,10 @@
         <v>80000.0</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G137" s="1">
         <v>3.0</v>
@@ -26823,10 +26796,10 @@
         <v>85000.0</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G138" s="1">
         <v>4.0</v>
@@ -26864,10 +26837,10 @@
         <v>90000.0</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G139" s="1">
         <v>5.0</v>
@@ -26905,10 +26878,10 @@
         <v>95000.0</v>
       </c>
       <c r="E140" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="F140" s="9" t="s">
         <v>451</v>
-      </c>
-      <c r="F140" s="9" t="s">
-        <v>454</v>
       </c>
       <c r="G140" s="1">
         <v>6.0</v>
@@ -26946,10 +26919,10 @@
         <v>100000.0</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G141" s="1">
         <v>7.0</v>
@@ -26987,10 +26960,10 @@
         <v>105000.0</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G142" s="1">
         <v>8.0</v>
@@ -27069,10 +27042,10 @@
         <v>110000.0</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G144" s="1">
         <v>10.0</v>
@@ -27110,10 +27083,10 @@
         <v>120000.0</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G145" s="1">
         <v>11.0</v>
@@ -27151,10 +27124,10 @@
         <v>130000.0</v>
       </c>
       <c r="E146" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="F146" s="9" t="s">
         <v>456</v>
-      </c>
-      <c r="F146" s="9" t="s">
-        <v>459</v>
       </c>
       <c r="G146" s="1">
         <v>12.0</v>
@@ -27192,10 +27165,10 @@
         <v>140000.0</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G147" s="1">
         <v>13.0</v>
@@ -27274,10 +27247,10 @@
         <v>140000.0</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G149" s="1">
         <v>15.0</v>
@@ -27315,10 +27288,10 @@
         <v>140000.0</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G150" s="1">
         <v>16.0</v>
@@ -27356,10 +27329,10 @@
         <v>150000.0</v>
       </c>
       <c r="E151" s="9" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G151" s="1">
         <v>17.0</v>
@@ -27397,10 +27370,10 @@
         <v>150000.0</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G152" s="1">
         <v>18.0</v>
@@ -27438,10 +27411,10 @@
         <v>150000.0</v>
       </c>
       <c r="E153" s="18" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G153" s="1">
         <v>19.0</v>
@@ -27479,10 +27452,10 @@
         <v>150000.0</v>
       </c>
       <c r="E154" s="18" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G154" s="1">
         <v>20.0</v>
@@ -27520,10 +27493,10 @@
         <v>160000.0</v>
       </c>
       <c r="E155" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="F155" s="11" t="s">
         <v>463</v>
-      </c>
-      <c r="F155" s="11" t="s">
-        <v>466</v>
       </c>
       <c r="G155" s="1">
         <v>-1.0</v>
@@ -27561,10 +27534,10 @@
         <v>50000.0</v>
       </c>
       <c r="E156" s="9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G156" s="1">
         <v>1.0</v>
@@ -27602,10 +27575,10 @@
         <v>55000.0</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G157" s="1">
         <v>2.0</v>
@@ -27643,10 +27616,10 @@
         <v>60000.0</v>
       </c>
       <c r="E158" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="F158" s="9" t="s">
         <v>467</v>
-      </c>
-      <c r="F158" s="9" t="s">
-        <v>470</v>
       </c>
       <c r="G158" s="1">
         <v>3.0</v>
@@ -27684,10 +27657,10 @@
         <v>65000.0</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G159" s="1">
         <v>4.0</v>
@@ -27725,10 +27698,10 @@
         <v>70000.0</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G160" s="1">
         <v>5.0</v>
@@ -27766,10 +27739,10 @@
         <v>75000.0</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G161" s="1">
         <v>6.0</v>
@@ -27807,10 +27780,10 @@
         <v>80000.0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G162" s="1">
         <v>7.0</v>
@@ -27848,10 +27821,10 @@
         <v>100000.0</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G163" s="1">
         <v>8.0</v>
@@ -27930,10 +27903,10 @@
         <v>130000.0</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G165" s="1">
         <v>10.0</v>
@@ -27971,13 +27944,13 @@
         <v>50000.0</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F166" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G166" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="H166" s="1" t="b">
         <v>0</v>
@@ -28012,10 +27985,10 @@
         <v>70000.0</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G167" s="1">
         <v>12.0</v>
@@ -28094,13 +28067,13 @@
         <v>80000.0</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>480</v>
+        <v>80</v>
       </c>
       <c r="H169" s="1" t="b">
         <v>0</v>
@@ -28141,7 +28114,7 @@
         <v>-1.0</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H170" s="1" t="b">
         <v>0</v>
@@ -28176,10 +28149,10 @@
         <v>120000.0</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G171" s="1">
         <v>27.0</v>
@@ -28217,10 +28190,10 @@
         <v>70000.0</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G172" s="1">
         <v>17.0</v>
@@ -28299,13 +28272,13 @@
         <v>90000.0</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H174" s="1" t="b">
         <v>0</v>
@@ -28340,10 +28313,10 @@
         <v>100000.0</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G175" s="1">
         <v>20.0</v>
@@ -28387,7 +28360,7 @@
         <v>-1.0</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H176" s="1" t="b">
         <v>0</v>
@@ -28422,13 +28395,13 @@
         <v>110000.0</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>484</v>
+        <v>473</v>
+      </c>
+      <c r="G177" s="1">
+        <v>26.0</v>
       </c>
       <c r="H177" s="1" t="b">
         <v>0</v>
@@ -28463,10 +28436,10 @@
         <v>70000.0</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G178" s="1">
         <v>23.0</v>
@@ -28510,7 +28483,7 @@
         <v>-1.0</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H179" s="1" t="b">
         <v>0</v>
@@ -28668,10 +28641,10 @@
         <v>150000.0</v>
       </c>
       <c r="E183" s="9" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G183" s="1">
         <v>-1.0</v>
@@ -28784,7 +28757,7 @@
         <v>141</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
@@ -28819,10 +28792,10 @@
         <v>75000.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G3" s="1">
         <v>2.0</v>
@@ -28860,10 +28833,10 @@
         <v>90000.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G4" s="1">
         <v>3.0</v>
@@ -28942,10 +28915,10 @@
         <v>110000.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="G6" s="1">
         <v>5.0</v>
@@ -28988,8 +28961,8 @@
       <c r="F7" s="1">
         <v>-1.0</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>494</v>
+      <c r="G7" s="1">
+        <v>12.0</v>
       </c>
       <c r="H7" s="1" t="b">
         <v>0</v>
@@ -29024,10 +28997,10 @@
         <v>80000.0</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G8" s="1">
         <v>7.0</v>
@@ -29065,10 +29038,10 @@
         <v>85000.0</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>489</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>495</v>
       </c>
       <c r="G9" s="1">
         <v>4.0</v>
@@ -29106,10 +29079,10 @@
         <v>90000.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G10" s="1">
         <v>9.0</v>
@@ -29147,10 +29120,10 @@
         <v>95000.0</v>
       </c>
       <c r="E11" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>489</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>495</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>166</v>
@@ -29188,13 +29161,13 @@
         <v>110000.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>420</v>
+        <v>490</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5.0</v>
       </c>
       <c r="H12" s="1" t="b">
         <v>0</v>
@@ -29234,8 +29207,8 @@
       <c r="F13" s="1">
         <v>-1.0</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>497</v>
+      <c r="G13" s="1">
+        <v>12.0</v>
       </c>
       <c r="H13" s="1" t="b">
         <v>0</v>
@@ -29270,13 +29243,13 @@
         <v>90000.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>499</v>
+        <v>491</v>
+      </c>
+      <c r="G14" s="1">
+        <v>13.0</v>
       </c>
       <c r="H14" s="1" t="b">
         <v>0</v>
@@ -29311,10 +29284,10 @@
         <v>130000.0</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="G15" s="1">
         <v>-1.0</v>
@@ -29396,7 +29369,7 @@
         <v>148</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G17" s="1">
         <v>2.0</v>
@@ -29440,7 +29413,7 @@
         <v>154</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="H18" s="1" t="b">
         <v>0</v>
@@ -29519,7 +29492,7 @@
         <v>152</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="G20" s="1">
         <v>5.0</v>
@@ -29560,10 +29533,10 @@
         <v>152</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>505</v>
+        <v>496</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6.0</v>
       </c>
       <c r="H21" s="1" t="b">
         <v>0</v>
@@ -29601,10 +29574,10 @@
         <v>152</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
+      </c>
+      <c r="G22" s="1">
+        <v>14.0</v>
       </c>
       <c r="H22" s="1" t="b">
         <v>0</v>
@@ -29683,7 +29656,7 @@
         <v>152</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="G24" s="1">
         <v>9.0</v>
@@ -29724,10 +29697,10 @@
         <v>152</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
@@ -29765,7 +29738,7 @@
         <v>152</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="G26" s="1">
         <v>11.0</v>
@@ -29803,13 +29776,13 @@
         <v>130000.0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="H27" s="1" t="b">
         <v>0</v>
@@ -29885,10 +29858,10 @@
         <v>100000.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="G29" s="1">
         <v>6.0</v>
@@ -29926,10 +29899,10 @@
         <v>160000.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="G30" s="1">
         <v>-1.0</v>
@@ -30011,7 +29984,7 @@
         <v>152</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="G32" s="1">
         <v>2.0</v>
@@ -30055,7 +30028,7 @@
         <v>-1.0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H33" s="1" t="b">
         <v>0</v>
@@ -30090,10 +30063,10 @@
         <v>80000.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G34" s="1">
         <v>4.0</v>
@@ -30131,10 +30104,10 @@
         <v>85000.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="G35" s="1">
         <v>5.0</v>
@@ -30213,10 +30186,10 @@
         <v>100000.0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="G37" s="1">
         <v>7.0</v>
@@ -30254,10 +30227,10 @@
         <v>120000.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="G38" s="1">
         <v>8.0</v>
@@ -30295,10 +30268,10 @@
         <v>90000.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G39" s="1">
         <v>14.0</v>
@@ -30336,10 +30309,10 @@
         <v>100000.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G40" s="1">
         <v>10.0</v>
@@ -30377,10 +30350,10 @@
         <v>110000.0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="G41" s="1">
         <v>11.0</v>
@@ -30459,10 +30432,10 @@
         <v>120000.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="G43" s="1">
         <v>13.0</v>
@@ -30500,10 +30473,10 @@
         <v>140000.0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="G44" s="1">
         <v>8.0</v>
@@ -30541,10 +30514,10 @@
         <v>170000.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G45" s="1">
         <v>-1.0</v>
@@ -30664,13 +30637,13 @@
         <v>90000.0</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H48" s="1" t="b">
         <v>0</v>
@@ -30705,13 +30678,13 @@
         <v>110000.0</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="H49" s="1" t="b">
         <v>0</v>
@@ -30787,10 +30760,10 @@
         <v>140000.0</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="G51" s="1">
         <v>6.0</v>
@@ -30828,10 +30801,10 @@
         <v>110000.0</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="G52" s="1">
         <v>14.0</v>
@@ -30869,13 +30842,13 @@
         <v>100000.0</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>0</v>
@@ -30910,10 +30883,10 @@
         <v>105000.0</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="G54" s="1">
         <v>6.0</v>
@@ -30951,10 +30924,10 @@
         <v>110000.0</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G55" s="1">
         <v>10.0</v>
@@ -30992,10 +30965,10 @@
         <v>130000.0</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="G56" s="1">
         <v>11.0</v>
@@ -31074,10 +31047,10 @@
         <v>160000.0</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="G58" s="1">
         <v>13.0</v>
@@ -31156,10 +31129,10 @@
         <v>120000.0</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="G60" s="1">
         <v>15.0</v>
@@ -31238,10 +31211,10 @@
         <v>140000.0</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G62" s="1">
         <v>17.0</v>
@@ -31279,10 +31252,10 @@
         <v>160000.0</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G63" s="1">
         <v>-1.0</v>
@@ -31361,13 +31334,13 @@
         <v>55000.0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>0</v>
@@ -31402,13 +31375,13 @@
         <v>60000.0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H66" s="1" t="b">
         <v>0</v>
@@ -31443,13 +31416,13 @@
         <v>65000.0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>373</v>
+        <v>536</v>
+      </c>
+      <c r="G67" s="1">
+        <v>4.0</v>
       </c>
       <c r="H67" s="1" t="b">
         <v>0</v>
@@ -31484,13 +31457,13 @@
         <v>70000.0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>547</v>
+        <v>277</v>
       </c>
       <c r="H68" s="1" t="b">
         <v>0</v>
@@ -31525,10 +31498,10 @@
         <v>75000.0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G69" s="1">
         <v>6.0</v>
@@ -31566,13 +31539,13 @@
         <v>90000.0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>316</v>
+        <v>540</v>
+      </c>
+      <c r="G70" s="1">
+        <v>16.0</v>
       </c>
       <c r="H70" s="1" t="b">
         <v>0</v>
@@ -31607,10 +31580,10 @@
         <v>80000.0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G71" s="1">
         <v>8.0</v>
@@ -31689,10 +31662,10 @@
         <v>90000.0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="G73" s="1">
         <v>4.0</v>
@@ -31730,10 +31703,10 @@
         <v>80000.0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="G74" s="1">
         <v>11.0</v>
@@ -31812,10 +31785,10 @@
         <v>90000.0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="G76" s="1">
         <v>3.0</v>
@@ -31853,10 +31826,10 @@
         <v>90000.0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="G77" s="1">
         <v>14.0</v>
@@ -31935,10 +31908,10 @@
         <v>100000.0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="G79" s="1">
         <v>6.0</v>
@@ -31976,10 +31949,10 @@
         <v>120000.0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="G80" s="1">
         <v>-1.0</v>
@@ -32020,7 +31993,7 @@
         <v>270</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="G81" s="1">
         <v>1.0</v>
@@ -32061,7 +32034,7 @@
         <v>270</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="G82" s="1">
         <v>2.0</v>
@@ -32102,10 +32075,10 @@
         <v>270</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="H83" s="1" t="b">
         <v>0</v>
@@ -32140,10 +32113,10 @@
         <v>100000.0</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="G84" s="1">
         <v>5.0</v>
@@ -32187,7 +32160,7 @@
         <v>-1.0</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="H85" s="1" t="b">
         <v>0</v>
@@ -32222,13 +32195,13 @@
         <v>120000.0</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>505</v>
+        <v>553</v>
       </c>
       <c r="H86" s="1" t="b">
         <v>0</v>
@@ -32263,10 +32236,10 @@
         <v>110000.0</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="G87" s="1">
         <v>7.0</v>
@@ -32304,10 +32277,10 @@
         <v>115000.0</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="G88" s="1">
         <v>13.0</v>
@@ -32345,10 +32318,10 @@
         <v>80000.0</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G89" s="1">
         <v>4.0</v>
@@ -32386,10 +32359,10 @@
         <v>85000.0</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="G90" s="1">
         <v>10.0</v>
@@ -32427,13 +32400,13 @@
         <v>90000.0</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>288</v>
+        <v>560</v>
+      </c>
+      <c r="G91" s="1">
+        <v>14.0</v>
       </c>
       <c r="H91" s="1" t="b">
         <v>0</v>
@@ -32468,13 +32441,13 @@
         <v>100000.0</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="H92" s="1" t="b">
         <v>0</v>
@@ -32509,10 +32482,10 @@
         <v>150000.0</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G93" s="1">
         <v>13.0</v>
@@ -32550,10 +32523,10 @@
         <v>120000.0</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="G94" s="1">
         <v>18.0</v>
@@ -32591,10 +32564,10 @@
         <v>100000.0</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G95" s="1">
         <v>15.0</v>
@@ -32638,7 +32611,7 @@
         <v>-1.0</v>
       </c>
       <c r="G96" s="1">
-        <v>-1.0</v>
+        <v>16.0</v>
       </c>
       <c r="H96" s="17" t="b">
         <v>0</v>
@@ -32673,10 +32646,10 @@
         <v>100000.0</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="G97" s="1">
         <v>17.0</v>
@@ -32714,10 +32687,10 @@
         <v>110000.0</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="G98" s="1">
         <v>13.0</v>
@@ -32755,10 +32728,10 @@
         <v>140000.0</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G99" s="1">
         <v>-1.0</v>
@@ -32796,13 +32769,13 @@
         <v>80000.0</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="F100" s="9" t="s">
         <v>170</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="H100" s="1" t="b">
         <v>1</v>
@@ -32837,7 +32810,7 @@
         <v>85000.0</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F101" s="9" t="s">
         <v>150</v>
@@ -32878,10 +32851,10 @@
         <v>90000.0</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G102" s="1">
         <v>3.0</v>
@@ -32925,7 +32898,7 @@
         <v>-1.0</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="H103" s="1" t="b">
         <v>0</v>
@@ -32960,10 +32933,10 @@
         <v>120000.0</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="G104" s="1">
         <v>5.0</v>
@@ -33001,10 +32974,10 @@
         <v>90000.0</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="G105" s="1">
         <v>6.0</v>
@@ -33042,10 +33015,10 @@
         <v>95000.0</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="G106" s="1">
         <v>7.0</v>
@@ -33083,10 +33056,10 @@
         <v>120000.0</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="G107" s="1">
         <v>18.0</v>
@@ -33124,13 +33097,13 @@
         <v>90000.0</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>150</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="H108" s="1" t="b">
         <v>0</v>
@@ -33165,10 +33138,10 @@
         <v>95000.0</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G109" s="1">
         <v>10.0</v>
@@ -33206,13 +33179,13 @@
         <v>100000.0</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>589</v>
+        <v>579</v>
+      </c>
+      <c r="G110" s="1">
+        <v>3.0</v>
       </c>
       <c r="H110" s="1" t="b">
         <v>0</v>
@@ -33247,10 +33220,10 @@
         <v>100000.0</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="G111" s="1">
         <v>12.0</v>
@@ -33288,13 +33261,13 @@
         <v>100000.0</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="H112" s="1" t="b">
         <v>0</v>
@@ -33370,10 +33343,10 @@
         <v>120000.0</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="G114" s="1">
         <v>15.0</v>
@@ -33411,10 +33384,10 @@
         <v>140000.0</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="G115" s="1">
         <v>16.0</v>
@@ -33493,10 +33466,10 @@
         <v>160000.0</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="G117" s="1">
         <v>16.0</v>
@@ -33534,10 +33507,10 @@
         <v>180000.0</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="G118" s="1">
         <v>-1.0</v>
@@ -33578,7 +33551,7 @@
         <v>239</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G119" s="1">
         <v>1.0</v>
@@ -33619,10 +33592,10 @@
         <v>239</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="H120" s="1" t="b">
         <v>0</v>
@@ -33660,7 +33633,7 @@
         <v>239</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G121" s="1">
         <v>3.0</v>
@@ -33701,10 +33674,10 @@
         <v>239</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>275</v>
+        <v>590</v>
       </c>
       <c r="H122" s="1" t="b">
         <v>0</v>
@@ -33742,7 +33715,7 @@
         <v>239</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G123" s="1">
         <v>5.0</v>
@@ -33783,7 +33756,7 @@
         <v>239</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G124" s="1">
         <v>6.0</v>
@@ -33824,7 +33797,7 @@
         <v>239</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G125" s="1">
         <v>7.0</v>
@@ -33865,7 +33838,7 @@
         <v>239</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G126" s="1">
         <v>8.0</v>
@@ -33947,7 +33920,7 @@
         <v>239</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G128" s="1">
         <v>10.0</v>
@@ -33988,7 +33961,7 @@
         <v>239</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G129" s="1">
         <v>11.0</v>
@@ -34070,7 +34043,7 @@
         <v>243</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="G131" s="1">
         <v>7.0</v>
@@ -34111,7 +34084,7 @@
         <v>239</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G132" s="1">
         <v>14.0</v>
@@ -34152,7 +34125,7 @@
         <v>239</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G133" s="1">
         <v>15.0</v>
@@ -34193,10 +34166,10 @@
         <v>239</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G134" s="1">
-        <v>11.0</v>
+        <v>16.0</v>
       </c>
       <c r="H134" s="17" t="b">
         <v>0</v>
@@ -34237,7 +34210,7 @@
         <v>-1.0</v>
       </c>
       <c r="G135" s="1">
-        <v>7.0</v>
+        <v>17.0</v>
       </c>
       <c r="H135" s="17" t="b">
         <v>0</v>
@@ -34275,7 +34248,7 @@
         <v>239</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G136" s="1">
         <v>18.0</v>
@@ -34316,7 +34289,7 @@
         <v>243</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="G137" s="1">
         <v>19.0</v>
@@ -34357,7 +34330,7 @@
         <v>239</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G138" s="1">
         <v>20.0</v>
@@ -34398,7 +34371,7 @@
         <v>239</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G139" s="1">
         <v>21.0</v>
@@ -34439,7 +34412,7 @@
         <v>239</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G140" s="1">
         <v>8.0</v>
@@ -34480,7 +34453,7 @@
         <v>243</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="G141" s="1">
         <v>-1.0</v>
@@ -34635,7 +34608,7 @@
         <v>-1.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H3" s="1" t="b">
         <v>0</v>
@@ -34676,7 +34649,7 @@
         <v>141</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>0</v>
@@ -34714,7 +34687,10 @@
         <v>140</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>602</v>
+        <v>593</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.0</v>
       </c>
       <c r="H5" s="1" t="b">
         <v>0</v>
@@ -34755,7 +34731,7 @@
         <v>-1.0</v>
       </c>
       <c r="G6" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="H6" s="1" t="b">
         <v>0</v>
@@ -34793,10 +34769,10 @@
         <v>125</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="G7" s="1">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="H7" s="1" t="b">
         <v>0</v>
@@ -34875,7 +34851,7 @@
         <v>125</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="G9" s="1">
         <v>8.0</v>
@@ -34916,7 +34892,7 @@
         <v>140</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G10" s="1">
         <v>13.0</v>
@@ -34998,7 +34974,7 @@
         <v>140</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G12" s="1">
         <v>11.0</v>
@@ -35039,7 +35015,7 @@
         <v>125</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="G13" s="1">
         <v>12.0</v>
@@ -35080,7 +35056,7 @@
         <v>125</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="G14" s="1">
         <v>8.0</v>
@@ -35118,10 +35094,10 @@
         <v>140000.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="G15" s="1">
         <v>14.0</v>
@@ -35159,10 +35135,10 @@
         <v>170000.0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="G16" s="1">
         <v>-1.0</v>
@@ -35244,7 +35220,7 @@
         <v>148</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G18" s="1">
         <v>2.0</v>
@@ -35285,7 +35261,7 @@
         <v>148</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G19" s="1">
         <v>3.0</v>
@@ -35326,10 +35302,10 @@
         <v>148</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="H20" s="1" t="b">
         <v>0</v>
@@ -35364,10 +35340,10 @@
         <v>120000.0</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G21" s="1">
         <v>5.0</v>
@@ -35449,7 +35425,7 @@
         <v>148</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G23" s="1">
         <v>7.0</v>
@@ -35490,7 +35466,7 @@
         <v>148</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="G24" s="1">
         <v>16.0</v>
@@ -35531,10 +35507,10 @@
         <v>148</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
@@ -35572,7 +35548,7 @@
         <v>148</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G26" s="1">
         <v>12.0</v>
@@ -35610,10 +35586,10 @@
         <v>150000.0</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G27" s="1">
         <v>11.0</v>
@@ -35695,7 +35671,7 @@
         <v>148</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="G29" s="1">
         <v>14.0</v>
@@ -35736,10 +35712,10 @@
         <v>148</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H30" s="1" t="b">
         <v>0</v>
@@ -35815,10 +35791,10 @@
         <v>130000.0</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G32" s="1">
         <v>16.0</v>
@@ -35856,10 +35832,10 @@
         <v>160000.0</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="G33" s="1">
         <v>17.0</v>
@@ -35897,10 +35873,10 @@
         <v>170000.0</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="G34" s="1">
         <v>-1.0</v>
@@ -35944,7 +35920,7 @@
         <v>160</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="H35" s="1" t="b">
         <v>1</v>
@@ -36023,10 +35999,10 @@
         <v>152</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="G37" s="1">
-        <v>3.0</v>
+        <v>607</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>608</v>
       </c>
       <c r="H37" s="1" t="b">
         <v>0</v>
@@ -36064,10 +36040,10 @@
         <v>152</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="H38" s="1" t="b">
         <v>0</v>
@@ -36102,10 +36078,10 @@
         <v>140000.0</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="G39" s="1">
         <v>5.0</v>
@@ -36143,10 +36119,10 @@
         <v>160000.0</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G40" s="1">
         <v>6.0</v>
@@ -36184,10 +36160,10 @@
         <v>180000.0</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="G41" s="1">
         <v>18.0</v>
@@ -36228,10 +36204,10 @@
         <v>152</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>0</v>
@@ -36272,7 +36248,7 @@
         <v>-1.0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H43" s="1" t="b">
         <v>0</v>
@@ -36310,7 +36286,7 @@
         <v>152</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="G44" s="1">
         <v>10.0</v>
@@ -36351,7 +36327,7 @@
         <v>152</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="G45" s="1">
         <v>6.0</v>
@@ -36389,10 +36365,10 @@
         <v>140000.0</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G46" s="1">
         <v>12.0</v>
@@ -36436,7 +36412,7 @@
         <v>-1.0</v>
       </c>
       <c r="G47" s="1">
-        <v>-1.0</v>
+        <v>13.0</v>
       </c>
       <c r="H47" s="1" t="b">
         <v>0</v>
@@ -36474,7 +36450,7 @@
         <v>152</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="G48" s="1">
         <v>14.0</v>
@@ -36518,7 +36494,7 @@
         <v>-1.0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>316</v>
+        <v>617</v>
       </c>
       <c r="H49" s="1" t="b">
         <v>0</v>
@@ -36553,10 +36529,10 @@
         <v>150000.0</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G50" s="1">
         <v>17.0</v>
@@ -36597,7 +36573,7 @@
         <v>152</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="G51" s="1">
         <v>10.0</v>
@@ -36676,10 +36652,10 @@
         <v>200000.0</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="G53" s="1">
         <v>-1.0</v>
@@ -36720,7 +36696,7 @@
         <v>148</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G54" s="1">
         <v>1.0</v>
@@ -36804,8 +36780,8 @@
       <c r="F56" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="G56" s="1">
-        <v>3.0</v>
+      <c r="G56" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="H56" s="1" t="b">
         <v>0</v>
@@ -36966,7 +36942,7 @@
         <v>163</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="G60" s="1">
         <v>17.0</v>
@@ -37048,7 +37024,7 @@
         <v>168</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G62" s="1">
         <v>9.0</v>
@@ -37086,10 +37062,10 @@
         <v>80000.0</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G63" s="1">
         <v>10.0</v>
@@ -37127,10 +37103,10 @@
         <v>90000.0</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G64" s="1">
         <v>11.0</v>
@@ -37168,10 +37144,10 @@
         <v>95000.0</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="G65" s="1">
         <v>12.0</v>
@@ -37209,10 +37185,10 @@
         <v>100000.0</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="G66" s="1">
         <v>13.0</v>
@@ -37250,10 +37226,10 @@
         <v>105000.0</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="G67" s="1">
         <v>14.0</v>
@@ -37291,10 +37267,10 @@
         <v>110000.0</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="G68" s="1">
         <v>15.0</v>
@@ -37332,10 +37308,10 @@
         <v>110000.0</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="G69" s="1">
         <v>16.0</v>
@@ -37414,10 +37390,10 @@
         <v>150000.0</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G71" s="1">
         <v>18.0</v>
@@ -37455,10 +37431,10 @@
         <v>170000.0</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G72" s="1">
         <v>19.0</v>
@@ -37496,10 +37472,10 @@
         <v>200000.0</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G73" s="1">
         <v>-1.0</v>
@@ -37584,7 +37560,7 @@
         <v>-1.0</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>0</v>
@@ -37619,7 +37595,7 @@
         <v>60000.0</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>196</v>
@@ -37660,10 +37636,10 @@
         <v>70000.0</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="G77" s="1">
         <v>4.0</v>
@@ -37742,10 +37718,10 @@
         <v>80000.0</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G79" s="1">
         <v>6.0</v>
@@ -37783,10 +37759,10 @@
         <v>90000.0</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="G80" s="1">
         <v>22.0</v>
@@ -37824,7 +37800,7 @@
         <v>60000.0</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F81" s="9" t="s">
         <v>196</v>
@@ -37865,10 +37841,10 @@
         <v>70000.0</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="G82" s="1">
         <v>9.0</v>
@@ -37906,10 +37882,10 @@
         <v>80000.0</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G83" s="1">
         <v>10.0</v>
@@ -37988,10 +37964,10 @@
         <v>90000.0</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="G85" s="1">
         <v>22.0</v>
@@ -38029,13 +38005,13 @@
         <v>60000.0</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>196</v>
       </c>
       <c r="G86" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H86" s="1" t="b">
         <v>0</v>
@@ -38070,13 +38046,13 @@
         <v>70000.0</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="G87" s="1">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="H87" s="1" t="b">
         <v>0</v>
@@ -38117,7 +38093,7 @@
         <v>-1.0</v>
       </c>
       <c r="G88" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="H88" s="1" t="b">
         <v>0</v>
@@ -38152,13 +38128,13 @@
         <v>80000.0</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G89" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="H89" s="1" t="b">
         <v>0</v>
@@ -38193,10 +38169,10 @@
         <v>90000.0</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="G90" s="1">
         <v>22.0</v>
@@ -38234,7 +38210,7 @@
         <v>60000.0</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F91" s="9" t="s">
         <v>196</v>
@@ -38316,10 +38292,10 @@
         <v>70000.0</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="G93" s="1">
         <v>20.0</v>
@@ -38357,10 +38333,10 @@
         <v>80000.0</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G94" s="1">
         <v>21.0</v>
@@ -38398,10 +38374,10 @@
         <v>90000.0</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="G95" s="1">
         <v>22.0</v>
@@ -38439,7 +38415,7 @@
         <v>120000.0</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>198</v>
@@ -38480,10 +38456,10 @@
         <v>50000.0</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G97" s="1">
         <v>1.0</v>
@@ -38524,10 +38500,10 @@
         <v>270</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H98" s="1" t="b">
         <v>0</v>
@@ -38562,10 +38538,10 @@
         <v>80000.0</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G99" s="1">
         <v>3.0</v>
@@ -38644,13 +38620,13 @@
         <v>100000.0</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G101" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H101" s="1" t="b">
         <v>0</v>
@@ -38691,7 +38667,7 @@
         <v>-1.0</v>
       </c>
       <c r="G102" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="H102" s="1" t="b">
         <v>0</v>
@@ -38726,10 +38702,10 @@
         <v>120000.0</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G103" s="1">
         <v>12.0</v>
@@ -38767,13 +38743,13 @@
         <v>75000.0</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="G104" s="1">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="H104" s="1" t="b">
         <v>0</v>
@@ -38808,13 +38784,13 @@
         <v>80000.0</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G105" s="1">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="H105" s="1" t="b">
         <v>0</v>
@@ -38849,13 +38825,13 @@
         <v>90000.0</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="G106" s="1">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="H106" s="1" t="b">
         <v>0</v>
@@ -38896,7 +38872,7 @@
         <v>-1.0</v>
       </c>
       <c r="G107" s="1">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="H107" s="1" t="b">
         <v>0</v>
@@ -38931,13 +38907,13 @@
         <v>100000.0</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="G108" s="1">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="H108" s="1" t="b">
         <v>0</v>
@@ -38972,13 +38948,13 @@
         <v>120000.0</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="G109" s="1">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="H109" s="1" t="b">
         <v>0</v>
@@ -39013,13 +38989,13 @@
         <v>150000.0</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="G110" s="1">
-        <v>13.0</v>
+        <v>-1.0</v>
       </c>
       <c r="H110" s="1" t="b">
         <v>0</v>
@@ -39054,10 +39030,10 @@
         <v>80000.0</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="G111" s="1">
         <v>1.0</v>
@@ -39095,13 +39071,13 @@
         <v>85000.0</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="H112" s="1" t="b">
         <v>0</v>
@@ -39136,10 +39112,10 @@
         <v>100000.0</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="G113" s="1">
         <v>3.0</v>
@@ -39218,10 +39194,10 @@
         <v>120000.0</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="G115" s="1">
         <v>6.0</v>
@@ -39259,13 +39235,13 @@
         <v>90000.0</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="F116" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>656</v>
       </c>
       <c r="H116" s="1" t="b">
         <v>0</v>
@@ -39300,13 +39276,13 @@
         <v>95000.0</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>657</v>
+        <v>643</v>
+      </c>
+      <c r="G117" s="1">
+        <v>7.0</v>
       </c>
       <c r="H117" s="1" t="b">
         <v>0</v>
@@ -39341,10 +39317,10 @@
         <v>100000.0</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="G118" s="1">
         <v>8.0</v>
@@ -39423,13 +39399,13 @@
         <v>95000.0</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="H120" s="1" t="b">
         <v>0</v>
@@ -39464,13 +39440,13 @@
         <v>100000.0</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="H121" s="1" t="b">
         <v>0</v>
@@ -39546,13 +39522,13 @@
         <v>100000.0</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="H123" s="1" t="b">
         <v>0</v>
@@ -39587,10 +39563,10 @@
         <v>110000.0</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G124" s="1">
         <v>14.0</v>
@@ -39669,10 +39645,10 @@
         <v>130000.0</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="G126" s="1">
         <v>16.0</v>
@@ -39710,10 +39686,10 @@
         <v>115000.0</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G127" s="1">
         <v>17.0</v>
@@ -39751,10 +39727,10 @@
         <v>140000.0</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G128" s="1">
         <v>18.0</v>
@@ -39792,10 +39768,10 @@
         <v>160000.0</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="G129" s="1">
         <v>-1.0</v>
@@ -39836,7 +39812,7 @@
         <v>236</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G130" s="1">
         <v>1.0</v>
@@ -39877,10 +39853,10 @@
         <v>236</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>666</v>
-      </c>
-      <c r="G131" s="1">
-        <v>2.0</v>
+        <v>658</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="H131" s="1" t="b">
         <v>0</v>
@@ -39918,10 +39894,10 @@
         <v>236</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H132" s="1" t="b">
         <v>0</v>
@@ -39959,7 +39935,7 @@
         <v>236</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G133" s="1">
         <v>4.0</v>
@@ -39997,10 +39973,10 @@
         <v>140000.0</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="G134" s="1">
         <v>5.0</v>
@@ -40044,7 +40020,7 @@
         <v>-1.0</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="H135" s="1" t="b">
         <v>0</v>
@@ -40123,10 +40099,10 @@
         <v>236</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>666</v>
-      </c>
-      <c r="G137" s="1">
-        <v>8.0</v>
+        <v>658</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>663</v>
       </c>
       <c r="H137" s="1" t="b">
         <v>0</v>
@@ -40164,7 +40140,7 @@
         <v>236</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G138" s="1">
         <v>9.0</v>
@@ -40205,7 +40181,7 @@
         <v>236</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G139" s="1">
         <v>10.0</v>
@@ -40243,13 +40219,13 @@
         <v>160000.0</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="H140" s="1" t="b">
         <v>0</v>
@@ -40287,7 +40263,7 @@
         <v>236</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G141" s="1">
         <v>12.0</v>
@@ -40366,10 +40342,10 @@
         <v>90000.0</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="G143" s="1">
         <v>14.0</v>
@@ -40410,10 +40386,10 @@
         <v>239</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>672</v>
-      </c>
-      <c r="G144" s="1">
-        <v>15.0</v>
+        <v>665</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>666</v>
       </c>
       <c r="H144" s="1" t="b">
         <v>0</v>
@@ -40451,7 +40427,7 @@
         <v>239</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="G145" s="1">
         <v>16.0</v>
@@ -40494,8 +40470,8 @@
       <c r="F146" s="1">
         <v>-1.0</v>
       </c>
-      <c r="G146" s="1" t="s">
-        <v>674</v>
+      <c r="G146" s="1">
+        <v>17.0</v>
       </c>
       <c r="H146" s="1" t="b">
         <v>0</v>
@@ -40533,7 +40509,7 @@
         <v>243</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="G147" s="1">
         <v>18.0</v>
@@ -40574,7 +40550,7 @@
         <v>243</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="G148" s="1">
         <v>21.0</v>
@@ -40656,10 +40632,10 @@
         <v>243</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>677</v>
+        <v>669</v>
+      </c>
+      <c r="G150" s="1">
+        <v>21.0</v>
       </c>
       <c r="H150" s="1" t="b">
         <v>0</v>
@@ -40697,7 +40673,7 @@
         <v>243</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G151" s="1">
         <v>22.0</v>
@@ -40738,7 +40714,7 @@
         <v>243</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="G152" s="1">
         <v>-1.0</v>
@@ -40763,13 +40739,23 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N1:N154">
+  <conditionalFormatting sqref="N1:N152">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"FALSE"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N154">
+  <conditionalFormatting sqref="N1:N152">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"TRUE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N153:N154">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"FALSE"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N153:N154">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"TRUE"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40849,7 +40835,7 @@
         <v>125</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="G2" s="1">
         <v>1.0</v>
@@ -40890,7 +40876,7 @@
         <v>125</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="G3" s="1">
         <v>2.0</v>
@@ -40934,7 +40920,7 @@
         <v>159</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>0</v>
@@ -40969,10 +40955,10 @@
         <v>90000.0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="G5" s="1">
         <v>4.0</v>
@@ -41051,13 +41037,13 @@
         <v>110000.0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="G7" s="1">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="H7" s="1" t="b">
         <v>0</v>
@@ -41133,10 +41119,10 @@
         <v>90000.0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="G9" s="1">
         <v>8.0</v>
@@ -41174,10 +41160,10 @@
         <v>120000.0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="G10" s="1">
         <v>9.0</v>
@@ -41256,10 +41242,10 @@
         <v>150000.0</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="G12" s="1">
         <v>-1.0</v>
@@ -41271,10 +41257,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="L12" s="10">
         <f t="shared" ref="L12:M12" si="12">LEN(E12)-LEN(SUBSTITUTE(E12, ",", ""))</f>
@@ -41306,7 +41292,7 @@
         <v>163</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G13" s="1">
         <v>1.0</v>
@@ -41347,7 +41333,7 @@
         <v>163</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="G14" s="1">
         <v>2.0</v>
@@ -41385,10 +41371,10 @@
         <v>90000.0</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="G15" s="1">
         <v>3.0</v>
@@ -41426,10 +41412,10 @@
         <v>100000.0</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G16" s="1">
         <v>4.0</v>
@@ -41467,10 +41453,10 @@
         <v>110000.0</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="G17" s="1">
         <v>5.0</v>
@@ -41508,10 +41494,10 @@
         <v>130000.0</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="G18" s="1">
         <v>6.0</v>
@@ -41555,7 +41541,7 @@
         <v>-1.0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="H19" s="1" t="b">
         <v>0</v>
@@ -41590,10 +41576,10 @@
         <v>150000.0</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="G20" s="1">
         <v>8.0</v>
@@ -41631,10 +41617,10 @@
         <v>160000.0</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="G21" s="1">
         <v>11.0</v>
@@ -41672,10 +41658,10 @@
         <v>170000.0</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="G22" s="1">
         <v>10.0</v>
@@ -41713,10 +41699,10 @@
         <v>180000.0</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="G23" s="1">
         <v>11.0</v>
@@ -41795,10 +41781,10 @@
         <v>200000.0</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="G25" s="1">
         <v>13.0</v>
@@ -41836,10 +41822,10 @@
         <v>180000.0</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="G26" s="1">
         <v>-1.0</v>
@@ -41851,10 +41837,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="17"/>
@@ -41924,13 +41910,13 @@
         <v>75000.0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>275</v>
+        <v>590</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>0</v>
@@ -41965,10 +41951,10 @@
         <v>80000.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="G29" s="1">
         <v>3.0</v>
@@ -42006,10 +41992,10 @@
         <v>90000.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="G30" s="1">
         <v>4.0</v>
@@ -42047,10 +42033,10 @@
         <v>100000.0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="G31" s="1">
         <v>5.0</v>
@@ -42088,10 +42074,10 @@
         <v>110000.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G32" s="1">
         <v>14.0</v>
@@ -42129,10 +42115,10 @@
         <v>90000.0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="G33" s="1">
         <v>7.0</v>
@@ -42170,10 +42156,10 @@
         <v>95000.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="G34" s="1">
         <v>8.0</v>
@@ -42211,10 +42197,10 @@
         <v>110000.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="G35" s="1">
         <v>9.0</v>
@@ -42293,10 +42279,10 @@
         <v>80000.0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="G37" s="1">
         <v>11.0</v>
@@ -42334,10 +42320,10 @@
         <v>85000.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="G38" s="1">
         <v>12.0</v>
@@ -42375,10 +42361,10 @@
         <v>90000.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G39" s="1">
         <v>13.0</v>
@@ -42416,10 +42402,10 @@
         <v>95000.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="G40" s="1">
         <v>14.0</v>
@@ -42498,13 +42484,13 @@
         <v>100000.0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>0</v>
@@ -42539,10 +42525,10 @@
         <v>110000.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="G43" s="1">
         <v>17.0</v>
@@ -42580,10 +42566,10 @@
         <v>120000.0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="G44" s="1">
         <v>18.0</v>
@@ -42621,10 +42607,10 @@
         <v>150000.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="G45" s="1">
         <v>24.0</v>
@@ -42662,10 +42648,10 @@
         <v>100000.0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="G46" s="1">
         <v>20.0</v>
@@ -42703,10 +42689,10 @@
         <v>110000.0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="G47" s="1">
         <v>21.0</v>
@@ -42744,10 +42730,10 @@
         <v>120000.0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="G48" s="1">
         <v>22.0</v>
@@ -42785,10 +42771,10 @@
         <v>130000.0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="G49" s="1">
         <v>23.0</v>
@@ -42826,10 +42812,10 @@
         <v>150000.0</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>727</v>
       </c>
       <c r="G50" s="1">
         <v>24.0</v>
@@ -42908,10 +42894,10 @@
         <v>200000.0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="G52" s="1">
         <v>-1.0</v>
@@ -42923,10 +42909,10 @@
         <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="L52" s="10">
         <f t="shared" si="17"/>
@@ -44517,16 +44503,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="E2" s="1">
         <v>500000.0</v>
@@ -44534,16 +44520,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="E3" s="1">
         <v>600000.0</v>
@@ -44551,16 +44537,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="E4" s="1">
         <v>700000.0</v>
@@ -44591,10 +44577,10 @@
         <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="E6" s="1">
         <v>300002.0</v>
@@ -44608,10 +44594,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="E7" s="1">
         <v>400003.0</v>
@@ -44625,10 +44611,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="E8" s="1">
         <v>500004.0</v>
@@ -44636,16 +44622,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="E9" s="1">
         <v>600005.0</v>
@@ -44653,13 +44639,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>56</v>
@@ -44676,7 +44662,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>15</v>
@@ -44716,10 +44702,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>753</v>
+        <v>550</v>
       </c>
       <c r="E13" s="1">
         <v>12000.0</v>
@@ -44736,7 +44722,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>93</v>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2427" uniqueCount="747">
   <si>
     <t>Stage_Mission</t>
   </si>
@@ -1005,6 +1005,9 @@
   </si>
   <si>
     <t>5,5,5,3,5</t>
+  </si>
+  <si>
+    <t>Nomal</t>
   </si>
   <si>
     <t>0,2,3,4,7,10</t>
@@ -21229,7 +21232,7 @@
         <v>1.0</v>
       </c>
       <c r="H2" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>0</v>
@@ -21665,22 +21668,22 @@
         <v>0.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>118</v>
+        <v>329</v>
       </c>
       <c r="D13" s="1">
         <v>100000.0</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G13" s="1">
         <v>1.0</v>
       </c>
       <c r="H13" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>0</v>
@@ -21712,10 +21715,10 @@
         <v>80000.0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G14" s="1">
         <v>2.0</v>
@@ -21794,10 +21797,10 @@
         <v>80000.0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G16" s="1">
         <v>4.0</v>
@@ -21835,13 +21838,13 @@
         <v>90000.0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H17" s="1" t="b">
         <v>0</v>
@@ -21876,10 +21879,10 @@
         <v>180000.0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G18" s="1">
         <v>9.0</v>
@@ -21917,10 +21920,10 @@
         <v>100000.0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G19" s="1">
         <v>7.0</v>
@@ -21958,10 +21961,10 @@
         <v>110000.0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G20" s="1">
         <v>8.0</v>
@@ -21999,10 +22002,10 @@
         <v>110000.0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G21" s="1">
         <v>9.0</v>
@@ -22040,10 +22043,10 @@
         <v>110000.0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G22" s="1">
         <v>10.0</v>
@@ -22081,10 +22084,10 @@
         <v>120000.0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G23" s="1">
         <v>-1.0</v>
@@ -22125,7 +22128,7 @@
         <v>126</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G24" s="1">
         <v>1.0</v>
@@ -22163,10 +22166,10 @@
         <v>75000.0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G25" s="1">
         <v>2.0</v>
@@ -22204,10 +22207,10 @@
         <v>80000.0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G26" s="1">
         <v>3.0</v>
@@ -22245,10 +22248,10 @@
         <v>85000.0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G27" s="1">
         <v>4.0</v>
@@ -22286,13 +22289,13 @@
         <v>90000.0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>0</v>
@@ -22327,10 +22330,10 @@
         <v>250000.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G29" s="1">
         <v>15.0</v>
@@ -22368,10 +22371,10 @@
         <v>100000.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G30" s="1">
         <v>7.0</v>
@@ -22409,10 +22412,10 @@
         <v>100000.0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G31" s="1">
         <v>8.0</v>
@@ -22450,10 +22453,10 @@
         <v>110000.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G32" s="1">
         <v>9.0</v>
@@ -22532,10 +22535,10 @@
         <v>130000.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G34" s="1">
         <v>11.0</v>
@@ -22614,10 +22617,10 @@
         <v>150000.0</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G36" s="1">
         <v>13.0</v>
@@ -22696,10 +22699,10 @@
         <v>100000.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G38" s="1">
         <v>15.0</v>
@@ -22737,10 +22740,10 @@
         <v>120000.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G39" s="1">
         <v>16.0</v>
@@ -22778,10 +22781,10 @@
         <v>140000.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G40" s="1">
         <v>-1.0</v>
@@ -22822,7 +22825,7 @@
         <v>149</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G41" s="1">
         <v>1.0</v>
@@ -22860,13 +22863,13 @@
         <v>110000.0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>0</v>
@@ -22901,10 +22904,10 @@
         <v>110000.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G43" s="1">
         <v>3.0</v>
@@ -22983,10 +22986,10 @@
         <v>120000.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G45" s="1">
         <v>13.0</v>
@@ -23024,13 +23027,13 @@
         <v>125000.0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H46" s="1" t="b">
         <v>0</v>
@@ -23065,10 +23068,10 @@
         <v>125000.0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G47" s="1">
         <v>7.0</v>
@@ -23106,13 +23109,13 @@
         <v>140000.0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H48" s="1" t="b">
         <v>0</v>
@@ -23147,10 +23150,10 @@
         <v>110000.0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G49" s="1">
         <v>9.0</v>
@@ -23229,10 +23232,10 @@
         <v>110000.0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G51" s="1">
         <v>11.0</v>
@@ -23270,10 +23273,10 @@
         <v>120000.0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G52" s="1">
         <v>12.0</v>
@@ -23352,10 +23355,10 @@
         <v>120000.0</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G54" s="1">
         <v>14.0</v>
@@ -23393,10 +23396,10 @@
         <v>130000.0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G55" s="1">
         <v>15.0</v>
@@ -23434,10 +23437,10 @@
         <v>150000.0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G56" s="1">
         <v>-1.0</v>
@@ -23475,10 +23478,10 @@
         <v>90000.0</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G57" s="1">
         <v>1.0</v>
@@ -23516,10 +23519,10 @@
         <v>100000.0</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G58" s="1">
         <v>2.0</v>
@@ -23557,13 +23560,13 @@
         <v>110000.0</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H59" s="1" t="b">
         <v>0</v>
@@ -23598,10 +23601,10 @@
         <v>120000.0</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G60" s="1">
         <v>4.0</v>
@@ -23639,10 +23642,10 @@
         <v>140000.0</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G61" s="1">
         <v>5.0</v>
@@ -23686,7 +23689,7 @@
         <v>-1.0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H62" s="1" t="b">
         <v>0</v>
@@ -23721,13 +23724,13 @@
         <v>100000.0</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H63" s="1" t="b">
         <v>0</v>
@@ -23762,10 +23765,10 @@
         <v>100000.0</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G64" s="1">
         <v>8.0</v>
@@ -23803,10 +23806,10 @@
         <v>150000.0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G65" s="1">
         <v>16.0</v>
@@ -23844,10 +23847,10 @@
         <v>100000.0</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G66" s="1">
         <v>10.0</v>
@@ -23885,13 +23888,13 @@
         <v>120000.0</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H67" s="1" t="b">
         <v>0</v>
@@ -23967,10 +23970,10 @@
         <v>100000.0</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G69" s="1">
         <v>13.0</v>
@@ -24008,10 +24011,10 @@
         <v>120000.0</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G70" s="1">
         <v>14.0</v>
@@ -24049,10 +24052,10 @@
         <v>140000.0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G71" s="1">
         <v>15.0</v>
@@ -24131,10 +24134,10 @@
         <v>160000.0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G73" s="1">
         <v>-1.0</v>
@@ -24175,7 +24178,7 @@
         <v>153</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G74" s="1">
         <v>1.0</v>
@@ -24216,7 +24219,7 @@
         <v>153</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>295</v>
@@ -24257,7 +24260,7 @@
         <v>153</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G76" s="1">
         <v>3.0</v>
@@ -24298,7 +24301,7 @@
         <v>153</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G77" s="1">
         <v>4.0</v>
@@ -24339,7 +24342,7 @@
         <v>153</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G78" s="1">
         <v>5.0</v>
@@ -24380,7 +24383,7 @@
         <v>153</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G79" s="1">
         <v>6.0</v>
@@ -24418,10 +24421,10 @@
         <v>100000.0</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G80" s="1">
         <v>12.0</v>
@@ -24459,13 +24462,13 @@
         <v>110000.0</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H81" s="1" t="b">
         <v>0</v>
@@ -24500,13 +24503,13 @@
         <v>120000.0</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H82" s="1" t="b">
         <v>0</v>
@@ -24541,10 +24544,10 @@
         <v>150000.0</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G83" s="1">
         <v>10.0</v>
@@ -24664,10 +24667,10 @@
         <v>170000.0</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G86" s="1">
         <v>-1.0</v>
@@ -24746,10 +24749,10 @@
         <v>85000.0</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>207</v>
@@ -24787,13 +24790,13 @@
         <v>90000.0</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H89" s="1" t="b">
         <v>0</v>
@@ -24828,10 +24831,10 @@
         <v>90000.0</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G90" s="1">
         <v>4.0</v>
@@ -24869,13 +24872,13 @@
         <v>100000.0</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H91" s="1" t="b">
         <v>0</v>
@@ -24910,10 +24913,10 @@
         <v>120000.0</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G92" s="1">
         <v>6.0</v>
@@ -24992,10 +24995,10 @@
         <v>80000.0</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G94" s="1">
         <v>8.0</v>
@@ -25033,10 +25036,10 @@
         <v>100000.0</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G95" s="1">
         <v>9.0</v>
@@ -25115,10 +25118,10 @@
         <v>120000.0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G97" s="1">
         <v>14.0</v>
@@ -25156,10 +25159,10 @@
         <v>80000.0</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G98" s="1">
         <v>12.0</v>
@@ -25197,10 +25200,10 @@
         <v>90000.0</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G99" s="1">
         <v>13.0</v>
@@ -25238,10 +25241,10 @@
         <v>120000.0</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G100" s="1">
         <v>9.0</v>
@@ -25279,10 +25282,10 @@
         <v>110000.0</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G101" s="1">
         <v>15.0</v>
@@ -25320,10 +25323,10 @@
         <v>130000.0</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G102" s="1">
         <v>6.0</v>
@@ -25361,10 +25364,10 @@
         <v>150000.0</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G103" s="1">
         <v>17.0</v>
@@ -25402,10 +25405,10 @@
         <v>180000.0</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G104" s="1">
         <v>-1.0</v>
@@ -25443,10 +25446,10 @@
         <v>70000.0</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G105" s="1">
         <v>1.0</v>
@@ -25484,13 +25487,13 @@
         <v>75000.0</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H106" s="1" t="b">
         <v>0</v>
@@ -25525,13 +25528,13 @@
         <v>80000.0</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H107" s="1" t="b">
         <v>0</v>
@@ -25566,10 +25569,10 @@
         <v>100000.0</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G108" s="1">
         <v>9.0</v>
@@ -25607,10 +25610,10 @@
         <v>90000.0</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G109" s="1">
         <v>5.0</v>
@@ -25648,10 +25651,10 @@
         <v>120000.0</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G110" s="1">
         <v>12.0</v>
@@ -25689,10 +25692,10 @@
         <v>100000.0</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G111" s="1">
         <v>7.0</v>
@@ -25730,10 +25733,10 @@
         <v>110000.0</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G112" s="1">
         <v>14.0</v>
@@ -25771,10 +25774,10 @@
         <v>130000.0</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G113" s="1">
         <v>9.0</v>
@@ -25818,7 +25821,7 @@
         <v>-1.0</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H114" s="1" t="b">
         <v>0</v>
@@ -25853,10 +25856,10 @@
         <v>140000.0</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G115" s="1">
         <v>11.0</v>
@@ -25894,10 +25897,10 @@
         <v>120000.0</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G116" s="1">
         <v>4.0</v>
@@ -25976,13 +25979,13 @@
         <v>120000.0</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H118" s="1" t="b">
         <v>0</v>
@@ -26017,10 +26020,10 @@
         <v>140000.0</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G119" s="1">
         <v>20.0</v>
@@ -26058,10 +26061,10 @@
         <v>80000.0</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G120" s="1">
         <v>16.0</v>
@@ -26099,10 +26102,10 @@
         <v>90000.0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G121" s="1">
         <v>17.0</v>
@@ -26140,13 +26143,13 @@
         <v>100000.0</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H122" s="1" t="b">
         <v>0</v>
@@ -26181,10 +26184,10 @@
         <v>180000.0</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G123" s="1">
         <v>13.0</v>
@@ -26222,10 +26225,10 @@
         <v>150000.0</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G124" s="1">
         <v>14.0</v>
@@ -26263,10 +26266,10 @@
         <v>150000.0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G125" s="1">
         <v>-1.0</v>
@@ -26307,7 +26310,7 @@
         <v>222</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G126" s="1">
         <v>1.0</v>
@@ -26348,7 +26351,7 @@
         <v>222</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G127" s="1">
         <v>2.0</v>
@@ -26386,10 +26389,10 @@
         <v>80000.0</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G128" s="1">
         <v>3.0</v>
@@ -26427,10 +26430,10 @@
         <v>85000.0</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G129" s="1">
         <v>4.0</v>
@@ -26468,10 +26471,10 @@
         <v>90000.0</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G130" s="1">
         <v>5.0</v>
@@ -26509,10 +26512,10 @@
         <v>95000.0</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G131" s="1">
         <v>6.0</v>
@@ -26550,10 +26553,10 @@
         <v>100000.0</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G132" s="1">
         <v>7.0</v>
@@ -26591,10 +26594,10 @@
         <v>105000.0</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G133" s="1">
         <v>8.0</v>
@@ -26673,10 +26676,10 @@
         <v>110000.0</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G135" s="1">
         <v>10.0</v>
@@ -26714,10 +26717,10 @@
         <v>120000.0</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G136" s="1">
         <v>11.0</v>
@@ -26755,10 +26758,10 @@
         <v>130000.0</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G137" s="1">
         <v>12.0</v>
@@ -26796,10 +26799,10 @@
         <v>140000.0</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G138" s="1">
         <v>13.0</v>
@@ -26878,10 +26881,10 @@
         <v>140000.0</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G140" s="1">
         <v>15.0</v>
@@ -26919,10 +26922,10 @@
         <v>140000.0</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G141" s="1">
         <v>16.0</v>
@@ -26960,10 +26963,10 @@
         <v>150000.0</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G142" s="1">
         <v>17.0</v>
@@ -27001,10 +27004,10 @@
         <v>150000.0</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G143" s="1">
         <v>18.0</v>
@@ -27042,10 +27045,10 @@
         <v>150000.0</v>
       </c>
       <c r="E144" s="18" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G144" s="1">
         <v>19.0</v>
@@ -27083,10 +27086,10 @@
         <v>150000.0</v>
       </c>
       <c r="E145" s="18" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G145" s="1">
         <v>20.0</v>
@@ -27124,10 +27127,10 @@
         <v>160000.0</v>
       </c>
       <c r="E146" s="18" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G146" s="1">
         <v>-1.0</v>
@@ -27165,10 +27168,10 @@
         <v>50000.0</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G147" s="1">
         <v>1.0</v>
@@ -27206,10 +27209,10 @@
         <v>55000.0</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G148" s="1">
         <v>2.0</v>
@@ -27247,10 +27250,10 @@
         <v>60000.0</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G149" s="1">
         <v>3.0</v>
@@ -27288,10 +27291,10 @@
         <v>65000.0</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G150" s="1">
         <v>4.0</v>
@@ -27329,10 +27332,10 @@
         <v>70000.0</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G151" s="1">
         <v>5.0</v>
@@ -27370,10 +27373,10 @@
         <v>75000.0</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G152" s="1">
         <v>6.0</v>
@@ -27411,10 +27414,10 @@
         <v>80000.0</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G153" s="1">
         <v>7.0</v>
@@ -27452,10 +27455,10 @@
         <v>100000.0</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G154" s="1">
         <v>8.0</v>
@@ -27534,10 +27537,10 @@
         <v>130000.0</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G156" s="1">
         <v>10.0</v>
@@ -27575,13 +27578,13 @@
         <v>50000.0</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H157" s="1" t="b">
         <v>0</v>
@@ -27616,10 +27619,10 @@
         <v>70000.0</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G158" s="1">
         <v>12.0</v>
@@ -27698,13 +27701,13 @@
         <v>80000.0</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H160" s="1" t="b">
         <v>0</v>
@@ -27745,7 +27748,7 @@
         <v>-1.0</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H161" s="1" t="b">
         <v>0</v>
@@ -27780,10 +27783,10 @@
         <v>120000.0</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G162" s="1">
         <v>27.0</v>
@@ -27821,10 +27824,10 @@
         <v>70000.0</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G163" s="1">
         <v>17.0</v>
@@ -27903,13 +27906,13 @@
         <v>90000.0</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H165" s="1" t="b">
         <v>0</v>
@@ -27944,10 +27947,10 @@
         <v>100000.0</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G166" s="1">
         <v>20.0</v>
@@ -27991,7 +27994,7 @@
         <v>-1.0</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H167" s="1" t="b">
         <v>0</v>
@@ -28026,10 +28029,10 @@
         <v>110000.0</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G168" s="1">
         <v>26.0</v>
@@ -28067,10 +28070,10 @@
         <v>70000.0</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G169" s="1">
         <v>23.0</v>
@@ -28114,7 +28117,7 @@
         <v>-1.0</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H170" s="1" t="b">
         <v>0</v>
@@ -28272,10 +28275,10 @@
         <v>150000.0</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G174" s="1">
         <v>-1.0</v>
@@ -28388,7 +28391,7 @@
         <v>142</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
@@ -28423,10 +28426,10 @@
         <v>75000.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G3" s="1">
         <v>2.0</v>
@@ -28464,10 +28467,10 @@
         <v>90000.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="G4" s="1">
         <v>3.0</v>
@@ -28546,10 +28549,10 @@
         <v>110000.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G6" s="1">
         <v>5.0</v>
@@ -28628,10 +28631,10 @@
         <v>80000.0</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G8" s="1">
         <v>7.0</v>
@@ -28669,10 +28672,10 @@
         <v>85000.0</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G9" s="1">
         <v>4.0</v>
@@ -28710,10 +28713,10 @@
         <v>90000.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G10" s="1">
         <v>9.0</v>
@@ -28751,10 +28754,10 @@
         <v>95000.0</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>167</v>
@@ -28792,10 +28795,10 @@
         <v>110000.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G12" s="1">
         <v>5.0</v>
@@ -28874,10 +28877,10 @@
         <v>90000.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G14" s="1">
         <v>13.0</v>
@@ -28915,10 +28918,10 @@
         <v>130000.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G15" s="1">
         <v>-1.0</v>
@@ -29000,7 +29003,7 @@
         <v>149</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G17" s="1">
         <v>2.0</v>
@@ -29044,7 +29047,7 @@
         <v>155</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H18" s="1" t="b">
         <v>0</v>
@@ -29123,7 +29126,7 @@
         <v>153</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G20" s="1">
         <v>5.0</v>
@@ -29164,7 +29167,7 @@
         <v>153</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="G21" s="1">
         <v>6.0</v>
@@ -29205,7 +29208,7 @@
         <v>153</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G22" s="1">
         <v>14.0</v>
@@ -29287,7 +29290,7 @@
         <v>153</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G24" s="1">
         <v>9.0</v>
@@ -29328,10 +29331,10 @@
         <v>153</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
@@ -29369,7 +29372,7 @@
         <v>153</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="G26" s="1">
         <v>11.0</v>
@@ -29407,13 +29410,13 @@
         <v>130000.0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H27" s="1" t="b">
         <v>0</v>
@@ -29489,10 +29492,10 @@
         <v>100000.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G29" s="1">
         <v>6.0</v>
@@ -29530,10 +29533,10 @@
         <v>160000.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G30" s="1">
         <v>-1.0</v>
@@ -29615,7 +29618,7 @@
         <v>153</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G32" s="1">
         <v>2.0</v>
@@ -29659,7 +29662,7 @@
         <v>-1.0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H33" s="1" t="b">
         <v>0</v>
@@ -29694,10 +29697,10 @@
         <v>80000.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G34" s="1">
         <v>4.0</v>
@@ -29735,10 +29738,10 @@
         <v>85000.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G35" s="1">
         <v>5.0</v>
@@ -29817,10 +29820,10 @@
         <v>100000.0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G37" s="1">
         <v>7.0</v>
@@ -29858,10 +29861,10 @@
         <v>120000.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G38" s="1">
         <v>8.0</v>
@@ -29899,10 +29902,10 @@
         <v>90000.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G39" s="1">
         <v>14.0</v>
@@ -29940,10 +29943,10 @@
         <v>100000.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G40" s="1">
         <v>10.0</v>
@@ -29981,10 +29984,10 @@
         <v>110000.0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G41" s="1">
         <v>11.0</v>
@@ -30063,10 +30066,10 @@
         <v>120000.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G43" s="1">
         <v>13.0</v>
@@ -30104,10 +30107,10 @@
         <v>140000.0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G44" s="1">
         <v>8.0</v>
@@ -30145,10 +30148,10 @@
         <v>170000.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G45" s="1">
         <v>-1.0</v>
@@ -30268,13 +30271,13 @@
         <v>90000.0</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H48" s="1" t="b">
         <v>0</v>
@@ -30309,13 +30312,13 @@
         <v>110000.0</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H49" s="1" t="b">
         <v>0</v>
@@ -30391,10 +30394,10 @@
         <v>140000.0</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G51" s="1">
         <v>6.0</v>
@@ -30432,10 +30435,10 @@
         <v>110000.0</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G52" s="1">
         <v>14.0</v>
@@ -30473,13 +30476,13 @@
         <v>100000.0</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>0</v>
@@ -30514,10 +30517,10 @@
         <v>105000.0</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="G54" s="1">
         <v>6.0</v>
@@ -30555,10 +30558,10 @@
         <v>110000.0</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G55" s="1">
         <v>10.0</v>
@@ -30596,10 +30599,10 @@
         <v>130000.0</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G56" s="1">
         <v>11.0</v>
@@ -30678,10 +30681,10 @@
         <v>160000.0</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G58" s="1">
         <v>13.0</v>
@@ -30760,10 +30763,10 @@
         <v>120000.0</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G60" s="1">
         <v>15.0</v>
@@ -30842,10 +30845,10 @@
         <v>140000.0</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G62" s="1">
         <v>17.0</v>
@@ -30883,10 +30886,10 @@
         <v>160000.0</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G63" s="1">
         <v>-1.0</v>
@@ -30965,13 +30968,13 @@
         <v>55000.0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>0</v>
@@ -31006,13 +31009,13 @@
         <v>60000.0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H66" s="1" t="b">
         <v>0</v>
@@ -31047,10 +31050,10 @@
         <v>65000.0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G67" s="1">
         <v>4.0</v>
@@ -31088,10 +31091,10 @@
         <v>70000.0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>278</v>
@@ -31129,10 +31132,10 @@
         <v>75000.0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G69" s="1">
         <v>6.0</v>
@@ -31170,10 +31173,10 @@
         <v>90000.0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G70" s="1">
         <v>16.0</v>
@@ -31211,10 +31214,10 @@
         <v>80000.0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G71" s="1">
         <v>8.0</v>
@@ -31293,10 +31296,10 @@
         <v>90000.0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G73" s="1">
         <v>4.0</v>
@@ -31334,10 +31337,10 @@
         <v>80000.0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G74" s="1">
         <v>11.0</v>
@@ -31416,10 +31419,10 @@
         <v>90000.0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G76" s="1">
         <v>3.0</v>
@@ -31457,10 +31460,10 @@
         <v>90000.0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G77" s="1">
         <v>14.0</v>
@@ -31539,10 +31542,10 @@
         <v>100000.0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G79" s="1">
         <v>6.0</v>
@@ -31580,10 +31583,10 @@
         <v>120000.0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G80" s="1">
         <v>-1.0</v>
@@ -31624,7 +31627,7 @@
         <v>271</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G81" s="1">
         <v>1.0</v>
@@ -31665,7 +31668,7 @@
         <v>271</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G82" s="1">
         <v>2.0</v>
@@ -31706,10 +31709,10 @@
         <v>271</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H83" s="1" t="b">
         <v>0</v>
@@ -31744,10 +31747,10 @@
         <v>100000.0</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G84" s="1">
         <v>5.0</v>
@@ -31791,7 +31794,7 @@
         <v>-1.0</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H85" s="1" t="b">
         <v>0</v>
@@ -31826,13 +31829,13 @@
         <v>120000.0</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H86" s="1" t="b">
         <v>0</v>
@@ -31867,10 +31870,10 @@
         <v>110000.0</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G87" s="1">
         <v>7.0</v>
@@ -31908,10 +31911,10 @@
         <v>115000.0</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G88" s="1">
         <v>13.0</v>
@@ -31949,10 +31952,10 @@
         <v>80000.0</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G89" s="1">
         <v>4.0</v>
@@ -31990,10 +31993,10 @@
         <v>85000.0</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="G90" s="1">
         <v>10.0</v>
@@ -32031,10 +32034,10 @@
         <v>90000.0</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G91" s="1">
         <v>14.0</v>
@@ -32072,13 +32075,13 @@
         <v>100000.0</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H92" s="1" t="b">
         <v>0</v>
@@ -32113,10 +32116,10 @@
         <v>150000.0</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G93" s="1">
         <v>13.0</v>
@@ -32154,10 +32157,10 @@
         <v>120000.0</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G94" s="1">
         <v>18.0</v>
@@ -32195,10 +32198,10 @@
         <v>100000.0</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G95" s="1">
         <v>15.0</v>
@@ -32277,10 +32280,10 @@
         <v>100000.0</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G97" s="1">
         <v>17.0</v>
@@ -32318,10 +32321,10 @@
         <v>110000.0</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G98" s="1">
         <v>13.0</v>
@@ -32359,10 +32362,10 @@
         <v>140000.0</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G99" s="1">
         <v>-1.0</v>
@@ -32400,13 +32403,13 @@
         <v>80000.0</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F100" s="9" t="s">
         <v>171</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H100" s="1" t="b">
         <v>1</v>
@@ -32441,7 +32444,7 @@
         <v>85000.0</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F101" s="9" t="s">
         <v>151</v>
@@ -32482,10 +32485,10 @@
         <v>90000.0</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G102" s="1">
         <v>3.0</v>
@@ -32529,7 +32532,7 @@
         <v>-1.0</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H103" s="1" t="b">
         <v>0</v>
@@ -32564,10 +32567,10 @@
         <v>120000.0</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G104" s="1">
         <v>5.0</v>
@@ -32605,10 +32608,10 @@
         <v>90000.0</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G105" s="1">
         <v>6.0</v>
@@ -32646,10 +32649,10 @@
         <v>95000.0</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G106" s="1">
         <v>7.0</v>
@@ -32687,10 +32690,10 @@
         <v>120000.0</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G107" s="1">
         <v>18.0</v>
@@ -32728,13 +32731,13 @@
         <v>90000.0</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>151</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H108" s="1" t="b">
         <v>0</v>
@@ -32769,10 +32772,10 @@
         <v>95000.0</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G109" s="1">
         <v>10.0</v>
@@ -32810,10 +32813,10 @@
         <v>100000.0</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G110" s="1">
         <v>3.0</v>
@@ -32851,10 +32854,10 @@
         <v>100000.0</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G111" s="1">
         <v>12.0</v>
@@ -32892,13 +32895,13 @@
         <v>100000.0</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H112" s="1" t="b">
         <v>0</v>
@@ -32974,10 +32977,10 @@
         <v>120000.0</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G114" s="1">
         <v>15.0</v>
@@ -33015,10 +33018,10 @@
         <v>140000.0</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G115" s="1">
         <v>16.0</v>
@@ -33097,10 +33100,10 @@
         <v>160000.0</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G117" s="1">
         <v>16.0</v>
@@ -33138,10 +33141,10 @@
         <v>180000.0</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G118" s="1">
         <v>-1.0</v>
@@ -33182,7 +33185,7 @@
         <v>240</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G119" s="1">
         <v>1.0</v>
@@ -33223,10 +33226,10 @@
         <v>240</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H120" s="1" t="b">
         <v>0</v>
@@ -33264,7 +33267,7 @@
         <v>240</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G121" s="1">
         <v>3.0</v>
@@ -33305,10 +33308,10 @@
         <v>240</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H122" s="1" t="b">
         <v>0</v>
@@ -33346,7 +33349,7 @@
         <v>240</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G123" s="1">
         <v>5.0</v>
@@ -33387,7 +33390,7 @@
         <v>240</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G124" s="1">
         <v>6.0</v>
@@ -33428,7 +33431,7 @@
         <v>240</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G125" s="1">
         <v>7.0</v>
@@ -33469,7 +33472,7 @@
         <v>240</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G126" s="1">
         <v>8.0</v>
@@ -33551,7 +33554,7 @@
         <v>240</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G128" s="1">
         <v>10.0</v>
@@ -33592,7 +33595,7 @@
         <v>240</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G129" s="1">
         <v>11.0</v>
@@ -33674,7 +33677,7 @@
         <v>244</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G131" s="1">
         <v>7.0</v>
@@ -33715,7 +33718,7 @@
         <v>240</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G132" s="1">
         <v>14.0</v>
@@ -33756,7 +33759,7 @@
         <v>240</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G133" s="1">
         <v>15.0</v>
@@ -33797,7 +33800,7 @@
         <v>240</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G134" s="1">
         <v>16.0</v>
@@ -33879,7 +33882,7 @@
         <v>240</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G136" s="1">
         <v>18.0</v>
@@ -33920,7 +33923,7 @@
         <v>244</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G137" s="1">
         <v>19.0</v>
@@ -33961,7 +33964,7 @@
         <v>240</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G138" s="1">
         <v>20.0</v>
@@ -34002,7 +34005,7 @@
         <v>240</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G139" s="1">
         <v>21.0</v>
@@ -34043,7 +34046,7 @@
         <v>240</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G140" s="1">
         <v>8.0</v>
@@ -34084,7 +34087,7 @@
         <v>244</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G141" s="1">
         <v>-1.0</v>
@@ -34239,7 +34242,7 @@
         <v>-1.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H3" s="1" t="b">
         <v>0</v>
@@ -34280,7 +34283,7 @@
         <v>142</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>0</v>
@@ -34318,7 +34321,7 @@
         <v>141</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G5" s="1">
         <v>4.0</v>
@@ -34400,7 +34403,7 @@
         <v>126</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G7" s="1">
         <v>13.0</v>
@@ -34482,7 +34485,7 @@
         <v>126</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G9" s="1">
         <v>8.0</v>
@@ -34523,7 +34526,7 @@
         <v>141</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G10" s="1">
         <v>13.0</v>
@@ -34605,7 +34608,7 @@
         <v>141</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="G12" s="1">
         <v>11.0</v>
@@ -34646,7 +34649,7 @@
         <v>126</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G13" s="1">
         <v>12.0</v>
@@ -34687,7 +34690,7 @@
         <v>126</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G14" s="1">
         <v>8.0</v>
@@ -34725,10 +34728,10 @@
         <v>140000.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G15" s="1">
         <v>14.0</v>
@@ -34766,10 +34769,10 @@
         <v>170000.0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G16" s="1">
         <v>-1.0</v>
@@ -34851,7 +34854,7 @@
         <v>149</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G18" s="1">
         <v>2.0</v>
@@ -34892,7 +34895,7 @@
         <v>149</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G19" s="1">
         <v>3.0</v>
@@ -34933,10 +34936,10 @@
         <v>149</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H20" s="1" t="b">
         <v>0</v>
@@ -34971,10 +34974,10 @@
         <v>120000.0</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G21" s="1">
         <v>5.0</v>
@@ -35056,7 +35059,7 @@
         <v>149</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G23" s="1">
         <v>7.0</v>
@@ -35097,7 +35100,7 @@
         <v>149</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G24" s="1">
         <v>16.0</v>
@@ -35138,10 +35141,10 @@
         <v>149</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
@@ -35179,7 +35182,7 @@
         <v>149</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G26" s="1">
         <v>12.0</v>
@@ -35217,10 +35220,10 @@
         <v>150000.0</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G27" s="1">
         <v>11.0</v>
@@ -35302,7 +35305,7 @@
         <v>149</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G29" s="1">
         <v>14.0</v>
@@ -35343,10 +35346,10 @@
         <v>149</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H30" s="1" t="b">
         <v>0</v>
@@ -35422,10 +35425,10 @@
         <v>130000.0</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G32" s="1">
         <v>16.0</v>
@@ -35463,10 +35466,10 @@
         <v>160000.0</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="G33" s="1">
         <v>17.0</v>
@@ -35504,10 +35507,10 @@
         <v>170000.0</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G34" s="1">
         <v>-1.0</v>
@@ -35551,7 +35554,7 @@
         <v>161</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H35" s="1" t="b">
         <v>1</v>
@@ -35630,10 +35633,10 @@
         <v>153</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H37" s="1" t="b">
         <v>0</v>
@@ -35671,10 +35674,10 @@
         <v>153</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H38" s="1" t="b">
         <v>0</v>
@@ -35709,10 +35712,10 @@
         <v>140000.0</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G39" s="1">
         <v>5.0</v>
@@ -35750,10 +35753,10 @@
         <v>160000.0</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G40" s="1">
         <v>6.0</v>
@@ -35791,10 +35794,10 @@
         <v>180000.0</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G41" s="1">
         <v>18.0</v>
@@ -35835,10 +35838,10 @@
         <v>153</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>0</v>
@@ -35879,7 +35882,7 @@
         <v>-1.0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H43" s="1" t="b">
         <v>0</v>
@@ -35917,7 +35920,7 @@
         <v>153</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G44" s="1">
         <v>10.0</v>
@@ -35958,7 +35961,7 @@
         <v>153</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G45" s="1">
         <v>6.0</v>
@@ -35996,10 +35999,10 @@
         <v>140000.0</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G46" s="1">
         <v>12.0</v>
@@ -36081,7 +36084,7 @@
         <v>153</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G48" s="1">
         <v>14.0</v>
@@ -36125,7 +36128,7 @@
         <v>-1.0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H49" s="1" t="b">
         <v>0</v>
@@ -36160,10 +36163,10 @@
         <v>150000.0</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G50" s="1">
         <v>17.0</v>
@@ -36204,7 +36207,7 @@
         <v>153</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G51" s="1">
         <v>10.0</v>
@@ -36283,10 +36286,10 @@
         <v>200000.0</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G53" s="1">
         <v>-1.0</v>
@@ -36327,7 +36330,7 @@
         <v>149</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G54" s="1">
         <v>1.0</v>
@@ -36412,7 +36415,7 @@
         <v>173</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H56" s="1" t="b">
         <v>0</v>
@@ -36573,7 +36576,7 @@
         <v>164</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G60" s="1">
         <v>17.0</v>
@@ -36655,7 +36658,7 @@
         <v>169</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G62" s="1">
         <v>9.0</v>
@@ -36693,10 +36696,10 @@
         <v>80000.0</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G63" s="1">
         <v>10.0</v>
@@ -36734,10 +36737,10 @@
         <v>90000.0</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G64" s="1">
         <v>11.0</v>
@@ -36775,10 +36778,10 @@
         <v>95000.0</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G65" s="1">
         <v>12.0</v>
@@ -36816,10 +36819,10 @@
         <v>100000.0</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G66" s="1">
         <v>13.0</v>
@@ -36857,10 +36860,10 @@
         <v>105000.0</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G67" s="1">
         <v>14.0</v>
@@ -36898,10 +36901,10 @@
         <v>110000.0</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G68" s="1">
         <v>15.0</v>
@@ -36939,10 +36942,10 @@
         <v>110000.0</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G69" s="1">
         <v>16.0</v>
@@ -37021,10 +37024,10 @@
         <v>150000.0</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G71" s="1">
         <v>18.0</v>
@@ -37062,10 +37065,10 @@
         <v>170000.0</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G72" s="1">
         <v>19.0</v>
@@ -37103,10 +37106,10 @@
         <v>200000.0</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G73" s="1">
         <v>-1.0</v>
@@ -37191,7 +37194,7 @@
         <v>-1.0</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>0</v>
@@ -37226,7 +37229,7 @@
         <v>60000.0</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>197</v>
@@ -37267,10 +37270,10 @@
         <v>70000.0</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G77" s="1">
         <v>4.0</v>
@@ -37349,10 +37352,10 @@
         <v>80000.0</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G79" s="1">
         <v>6.0</v>
@@ -37390,10 +37393,10 @@
         <v>90000.0</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G80" s="1">
         <v>22.0</v>
@@ -37431,7 +37434,7 @@
         <v>60000.0</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F81" s="9" t="s">
         <v>197</v>
@@ -37472,10 +37475,10 @@
         <v>70000.0</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G82" s="1">
         <v>9.0</v>
@@ -37513,10 +37516,10 @@
         <v>80000.0</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G83" s="1">
         <v>10.0</v>
@@ -37595,10 +37598,10 @@
         <v>90000.0</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G85" s="1">
         <v>22.0</v>
@@ -37636,7 +37639,7 @@
         <v>60000.0</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>197</v>
@@ -37677,10 +37680,10 @@
         <v>70000.0</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G87" s="1">
         <v>14.0</v>
@@ -37759,10 +37762,10 @@
         <v>80000.0</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G89" s="1">
         <v>16.0</v>
@@ -37800,10 +37803,10 @@
         <v>90000.0</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G90" s="1">
         <v>22.0</v>
@@ -37841,7 +37844,7 @@
         <v>60000.0</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F91" s="9" t="s">
         <v>197</v>
@@ -37923,10 +37926,10 @@
         <v>70000.0</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G93" s="1">
         <v>20.0</v>
@@ -37964,10 +37967,10 @@
         <v>80000.0</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G94" s="1">
         <v>21.0</v>
@@ -38005,10 +38008,10 @@
         <v>90000.0</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G95" s="1">
         <v>22.0</v>
@@ -38046,7 +38049,7 @@
         <v>120000.0</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>199</v>
@@ -38087,10 +38090,10 @@
         <v>50000.0</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G97" s="1">
         <v>1.0</v>
@@ -38131,7 +38134,7 @@
         <v>271</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>295</v>
@@ -38172,7 +38175,7 @@
         <v>276</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G99" s="1">
         <v>3.0</v>
@@ -38251,10 +38254,10 @@
         <v>100000.0</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G101" s="1">
         <v>5.0</v>
@@ -38333,10 +38336,10 @@
         <v>120000.0</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G103" s="1">
         <v>12.0</v>
@@ -38377,7 +38380,7 @@
         <v>276</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G104" s="1">
         <v>8.0</v>
@@ -38418,7 +38421,7 @@
         <v>276</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G105" s="1">
         <v>9.0</v>
@@ -38456,10 +38459,10 @@
         <v>90000.0</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G106" s="1">
         <v>10.0</v>
@@ -38538,10 +38541,10 @@
         <v>100000.0</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G108" s="1">
         <v>12.0</v>
@@ -38579,10 +38582,10 @@
         <v>120000.0</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G109" s="1">
         <v>13.0</v>
@@ -38620,10 +38623,10 @@
         <v>150000.0</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G110" s="1">
         <v>-1.0</v>
@@ -38661,10 +38664,10 @@
         <v>80000.0</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G111" s="1">
         <v>1.0</v>
@@ -38702,13 +38705,13 @@
         <v>85000.0</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H112" s="1" t="b">
         <v>0</v>
@@ -38743,10 +38746,10 @@
         <v>100000.0</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G113" s="1">
         <v>3.0</v>
@@ -38825,10 +38828,10 @@
         <v>120000.0</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G115" s="1">
         <v>6.0</v>
@@ -38866,13 +38869,13 @@
         <v>90000.0</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H116" s="1" t="b">
         <v>0</v>
@@ -38907,10 +38910,10 @@
         <v>95000.0</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G117" s="1">
         <v>7.0</v>
@@ -38948,10 +38951,10 @@
         <v>100000.0</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="G118" s="1">
         <v>8.0</v>
@@ -39030,13 +39033,13 @@
         <v>95000.0</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H120" s="1" t="b">
         <v>0</v>
@@ -39071,13 +39074,13 @@
         <v>100000.0</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H121" s="1" t="b">
         <v>0</v>
@@ -39153,13 +39156,13 @@
         <v>100000.0</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H123" s="1" t="b">
         <v>0</v>
@@ -39194,10 +39197,10 @@
         <v>110000.0</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G124" s="1">
         <v>14.0</v>
@@ -39276,10 +39279,10 @@
         <v>130000.0</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G126" s="1">
         <v>16.0</v>
@@ -39317,10 +39320,10 @@
         <v>115000.0</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="G127" s="1">
         <v>17.0</v>
@@ -39358,10 +39361,10 @@
         <v>140000.0</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G128" s="1">
         <v>18.0</v>
@@ -39399,10 +39402,10 @@
         <v>160000.0</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G129" s="1">
         <v>-1.0</v>
@@ -39443,7 +39446,7 @@
         <v>237</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G130" s="1">
         <v>1.0</v>
@@ -39484,7 +39487,7 @@
         <v>237</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>295</v>
@@ -39525,10 +39528,10 @@
         <v>237</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H132" s="1" t="b">
         <v>0</v>
@@ -39566,7 +39569,7 @@
         <v>237</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G133" s="1">
         <v>4.0</v>
@@ -39604,10 +39607,10 @@
         <v>140000.0</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G134" s="1">
         <v>5.0</v>
@@ -39651,7 +39654,7 @@
         <v>-1.0</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H135" s="1" t="b">
         <v>0</v>
@@ -39730,10 +39733,10 @@
         <v>237</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H137" s="1" t="b">
         <v>0</v>
@@ -39771,7 +39774,7 @@
         <v>237</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G138" s="1">
         <v>9.0</v>
@@ -39812,7 +39815,7 @@
         <v>237</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G139" s="1">
         <v>10.0</v>
@@ -39850,13 +39853,13 @@
         <v>160000.0</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H140" s="1" t="b">
         <v>0</v>
@@ -39894,7 +39897,7 @@
         <v>237</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G141" s="1">
         <v>12.0</v>
@@ -39973,10 +39976,10 @@
         <v>90000.0</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G143" s="1">
         <v>14.0</v>
@@ -40017,10 +40020,10 @@
         <v>240</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H144" s="1" t="b">
         <v>0</v>
@@ -40058,7 +40061,7 @@
         <v>240</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G145" s="1">
         <v>16.0</v>
@@ -40140,7 +40143,7 @@
         <v>244</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G147" s="1">
         <v>18.0</v>
@@ -40181,7 +40184,7 @@
         <v>244</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G148" s="1">
         <v>21.0</v>
@@ -40263,7 +40266,7 @@
         <v>244</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G150" s="1">
         <v>21.0</v>
@@ -40304,7 +40307,7 @@
         <v>244</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G151" s="1">
         <v>22.0</v>
@@ -40345,7 +40348,7 @@
         <v>244</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G152" s="1">
         <v>-1.0</v>
@@ -40466,7 +40469,7 @@
         <v>126</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G2" s="1">
         <v>1.0</v>
@@ -40507,7 +40510,7 @@
         <v>126</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="G3" s="1">
         <v>2.0</v>
@@ -40551,7 +40554,7 @@
         <v>160</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>0</v>
@@ -40586,10 +40589,10 @@
         <v>90000.0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G5" s="1">
         <v>4.0</v>
@@ -40668,10 +40671,10 @@
         <v>110000.0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G7" s="1">
         <v>9.0</v>
@@ -40750,10 +40753,10 @@
         <v>90000.0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G9" s="1">
         <v>8.0</v>
@@ -40791,10 +40794,10 @@
         <v>120000.0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G10" s="1">
         <v>9.0</v>
@@ -40873,10 +40876,10 @@
         <v>150000.0</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G12" s="1">
         <v>-1.0</v>
@@ -40888,10 +40891,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L12" s="10">
         <f t="shared" ref="L12:M12" si="12">LEN(E12)-LEN(SUBSTITUTE(E12, ",", ""))</f>
@@ -40923,7 +40926,7 @@
         <v>164</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G13" s="1">
         <v>1.0</v>
@@ -40964,7 +40967,7 @@
         <v>164</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G14" s="1">
         <v>2.0</v>
@@ -41002,10 +41005,10 @@
         <v>90000.0</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G15" s="1">
         <v>3.0</v>
@@ -41043,10 +41046,10 @@
         <v>100000.0</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G16" s="1">
         <v>4.0</v>
@@ -41084,10 +41087,10 @@
         <v>110000.0</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G17" s="1">
         <v>5.0</v>
@@ -41125,10 +41128,10 @@
         <v>130000.0</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G18" s="1">
         <v>6.0</v>
@@ -41172,7 +41175,7 @@
         <v>-1.0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H19" s="1" t="b">
         <v>0</v>
@@ -41207,10 +41210,10 @@
         <v>150000.0</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G20" s="1">
         <v>8.0</v>
@@ -41248,10 +41251,10 @@
         <v>160000.0</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G21" s="1">
         <v>11.0</v>
@@ -41289,10 +41292,10 @@
         <v>170000.0</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G22" s="1">
         <v>10.0</v>
@@ -41330,10 +41333,10 @@
         <v>180000.0</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G23" s="1">
         <v>11.0</v>
@@ -41412,10 +41415,10 @@
         <v>200000.0</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G25" s="1">
         <v>13.0</v>
@@ -41453,10 +41456,10 @@
         <v>180000.0</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G26" s="1">
         <v>-1.0</v>
@@ -41468,10 +41471,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="17"/>
@@ -41541,13 +41544,13 @@
         <v>75000.0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>0</v>
@@ -41582,10 +41585,10 @@
         <v>80000.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="G29" s="1">
         <v>3.0</v>
@@ -41623,10 +41626,10 @@
         <v>90000.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G30" s="1">
         <v>4.0</v>
@@ -41664,10 +41667,10 @@
         <v>100000.0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G31" s="1">
         <v>5.0</v>
@@ -41705,10 +41708,10 @@
         <v>110000.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G32" s="1">
         <v>14.0</v>
@@ -41746,10 +41749,10 @@
         <v>90000.0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G33" s="1">
         <v>7.0</v>
@@ -41787,10 +41790,10 @@
         <v>95000.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G34" s="1">
         <v>8.0</v>
@@ -41828,10 +41831,10 @@
         <v>110000.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G35" s="1">
         <v>9.0</v>
@@ -41910,10 +41913,10 @@
         <v>80000.0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G37" s="1">
         <v>11.0</v>
@@ -41951,10 +41954,10 @@
         <v>85000.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G38" s="1">
         <v>12.0</v>
@@ -41992,10 +41995,10 @@
         <v>90000.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G39" s="1">
         <v>13.0</v>
@@ -42033,10 +42036,10 @@
         <v>95000.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="G40" s="1">
         <v>14.0</v>
@@ -42115,13 +42118,13 @@
         <v>100000.0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>0</v>
@@ -42156,10 +42159,10 @@
         <v>110000.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G43" s="1">
         <v>17.0</v>
@@ -42197,10 +42200,10 @@
         <v>120000.0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="G44" s="1">
         <v>18.0</v>
@@ -42238,10 +42241,10 @@
         <v>150000.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G45" s="1">
         <v>24.0</v>
@@ -42279,10 +42282,10 @@
         <v>100000.0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G46" s="1">
         <v>20.0</v>
@@ -42320,10 +42323,10 @@
         <v>110000.0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G47" s="1">
         <v>21.0</v>
@@ -42361,10 +42364,10 @@
         <v>120000.0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G48" s="1">
         <v>22.0</v>
@@ -42402,10 +42405,10 @@
         <v>130000.0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G49" s="1">
         <v>23.0</v>
@@ -42443,10 +42446,10 @@
         <v>150000.0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G50" s="1">
         <v>24.0</v>
@@ -42525,10 +42528,10 @@
         <v>200000.0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G52" s="1">
         <v>-1.0</v>
@@ -42540,10 +42543,10 @@
         <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="L52" s="10">
         <f t="shared" si="17"/>
@@ -44134,16 +44137,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E2" s="1">
         <v>500000.0</v>
@@ -44151,16 +44154,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E3" s="1">
         <v>600000.0</v>
@@ -44168,16 +44171,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E4" s="1">
         <v>700000.0</v>
@@ -44208,10 +44211,10 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E6" s="1">
         <v>300002.0</v>
@@ -44225,10 +44228,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E7" s="1">
         <v>400003.0</v>
@@ -44242,10 +44245,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E8" s="1">
         <v>500004.0</v>
@@ -44253,16 +44256,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E9" s="1">
         <v>600005.0</v>
@@ -44270,13 +44273,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>57</v>
@@ -44293,10 +44296,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E11" s="1">
         <v>12000.0</v>
@@ -44333,10 +44336,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E13" s="1">
         <v>12000.0</v>
@@ -44353,7 +44356,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>94</v>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -986,13 +986,13 @@
     <t>4,2,2,1</t>
   </si>
   <si>
-    <t>5,3,2,2,1</t>
+    <t>5,3,2,2</t>
   </si>
   <si>
     <t>3,5</t>
   </si>
   <si>
-    <t>4,3,2,2,1</t>
+    <t>4,3,2,2</t>
   </si>
   <si>
     <t>7,4,3,3,2</t>
@@ -2699,7 +2699,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>5000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="F3" s="1">
         <v>10.0</v>
@@ -2719,7 +2719,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="1">
-        <v>5000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="F4" s="1">
         <v>10.0</v>
@@ -2739,7 +2739,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="1">
-        <v>5000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="F5" s="1">
         <v>10.0</v>
@@ -2759,7 +2759,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="1">
-        <v>5000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="F6" s="1">
         <v>10.0</v>
@@ -2779,7 +2779,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="1">
-        <v>5000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="F7" s="1">
         <v>10.0</v>
@@ -21281,7 +21281,7 @@
         <v>108</v>
       </c>
       <c r="D2" s="1">
-        <v>85000.0</v>
+        <v>75000.0</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>120</v>
@@ -21322,10 +21322,10 @@
         <v>111</v>
       </c>
       <c r="D3" s="1">
-        <v>90000.0</v>
+        <v>80000.0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>322</v>
@@ -21341,11 +21341,11 @@
       </c>
       <c r="L3" s="10">
         <f t="shared" ref="L3:M3" si="2">LEN(E3)-LEN(SUBSTITUTE(E3, ",", ""))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M3" s="10">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" s="10" t="b">
         <f t="shared" si="3"/>
@@ -21404,10 +21404,10 @@
         <v>108</v>
       </c>
       <c r="D5" s="1">
-        <v>90000.0</v>
+        <v>80000.0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>324</v>
@@ -21423,11 +21423,11 @@
       </c>
       <c r="L5" s="10">
         <f t="shared" ref="L5:M5" si="5">LEN(E5)-LEN(SUBSTITUTE(E5, ",", ""))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" s="10" t="b">
         <f t="shared" si="3"/>
@@ -21445,7 +21445,7 @@
         <v>118</v>
       </c>
       <c r="D6" s="1">
-        <v>110000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>126</v>
@@ -21486,10 +21486,10 @@
         <v>108</v>
       </c>
       <c r="D7" s="1">
-        <v>90000.0</v>
+        <v>80000.0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>322</v>
@@ -21505,11 +21505,11 @@
       </c>
       <c r="L7" s="10">
         <f t="shared" ref="L7:M7" si="7">LEN(E7)-LEN(SUBSTITUTE(E7, ",", ""))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" s="10">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" s="10" t="b">
         <f t="shared" si="3"/>
@@ -21568,7 +21568,7 @@
         <v>111</v>
       </c>
       <c r="D9" s="1">
-        <v>100000.0</v>
+        <v>90000.0</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>126</v>
@@ -21609,7 +21609,7 @@
         <v>118</v>
       </c>
       <c r="D10" s="1">
-        <v>120000.0</v>
+        <v>110000.0</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>126</v>
@@ -21691,7 +21691,7 @@
         <v>111</v>
       </c>
       <c r="D12" s="1">
-        <v>130000.0</v>
+        <v>120000.0</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>126</v>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="746">
   <si>
     <t>Stage_Mission</t>
   </si>
@@ -1005,9 +1005,6 @@
   </si>
   <si>
     <t>6,5,5,3,5</t>
-  </si>
-  <si>
-    <t>Nomal</t>
   </si>
   <si>
     <t>0,2,3,4,7,10</t>
@@ -21729,16 +21726,16 @@
         <v>0.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>329</v>
+        <v>108</v>
       </c>
       <c r="D13" s="1">
         <v>100000.0</v>
       </c>
       <c r="E13" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>330</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>331</v>
       </c>
       <c r="G13" s="1">
         <v>1.0</v>
@@ -21776,10 +21773,10 @@
         <v>80000.0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G14" s="1">
         <v>2.0</v>
@@ -21858,10 +21855,10 @@
         <v>80000.0</v>
       </c>
       <c r="E16" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>333</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>334</v>
       </c>
       <c r="G16" s="1">
         <v>4.0</v>
@@ -21899,13 +21896,13 @@
         <v>90000.0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="H17" s="1" t="b">
         <v>0</v>
@@ -21940,10 +21937,10 @@
         <v>180000.0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G18" s="1">
         <v>9.0</v>
@@ -21981,10 +21978,10 @@
         <v>100000.0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G19" s="1">
         <v>7.0</v>
@@ -22022,10 +22019,10 @@
         <v>110000.0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G20" s="1">
         <v>8.0</v>
@@ -22063,10 +22060,10 @@
         <v>110000.0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G21" s="1">
         <v>9.0</v>
@@ -22104,10 +22101,10 @@
         <v>110000.0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G22" s="1">
         <v>10.0</v>
@@ -22145,10 +22142,10 @@
         <v>120000.0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G23" s="1">
         <v>-1.0</v>
@@ -22189,7 +22186,7 @@
         <v>126</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G24" s="1">
         <v>1.0</v>
@@ -22227,10 +22224,10 @@
         <v>75000.0</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="G25" s="1">
         <v>2.0</v>
@@ -22268,10 +22265,10 @@
         <v>80000.0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G26" s="1">
         <v>3.0</v>
@@ -22309,10 +22306,10 @@
         <v>85000.0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G27" s="1">
         <v>4.0</v>
@@ -22350,13 +22347,13 @@
         <v>90000.0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>0</v>
@@ -22391,10 +22388,10 @@
         <v>250000.0</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="G29" s="1">
         <v>15.0</v>
@@ -22432,10 +22429,10 @@
         <v>100000.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G30" s="1">
         <v>7.0</v>
@@ -22473,10 +22470,10 @@
         <v>100000.0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G31" s="1">
         <v>8.0</v>
@@ -22514,10 +22511,10 @@
         <v>110000.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G32" s="1">
         <v>9.0</v>
@@ -22596,10 +22593,10 @@
         <v>130000.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G34" s="1">
         <v>11.0</v>
@@ -22678,10 +22675,10 @@
         <v>150000.0</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="G36" s="1">
         <v>13.0</v>
@@ -22760,10 +22757,10 @@
         <v>100000.0</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="G38" s="1">
         <v>15.0</v>
@@ -22801,10 +22798,10 @@
         <v>120000.0</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="G39" s="1">
         <v>16.0</v>
@@ -22842,10 +22839,10 @@
         <v>140000.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G40" s="1">
         <v>-1.0</v>
@@ -22886,7 +22883,7 @@
         <v>150</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G41" s="1">
         <v>1.0</v>
@@ -22924,13 +22921,13 @@
         <v>110000.0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>0</v>
@@ -22965,10 +22962,10 @@
         <v>110000.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G43" s="1">
         <v>3.0</v>
@@ -23047,10 +23044,10 @@
         <v>120000.0</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="G45" s="1">
         <v>13.0</v>
@@ -23088,13 +23085,13 @@
         <v>125000.0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="H46" s="1" t="b">
         <v>0</v>
@@ -23129,10 +23126,10 @@
         <v>125000.0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G47" s="1">
         <v>7.0</v>
@@ -23170,13 +23167,13 @@
         <v>140000.0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F48" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="H48" s="1" t="b">
         <v>0</v>
@@ -23211,10 +23208,10 @@
         <v>110000.0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G49" s="1">
         <v>9.0</v>
@@ -23293,10 +23290,10 @@
         <v>110000.0</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="G51" s="1">
         <v>11.0</v>
@@ -23334,10 +23331,10 @@
         <v>120000.0</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G52" s="1">
         <v>12.0</v>
@@ -23416,10 +23413,10 @@
         <v>120000.0</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="G54" s="1">
         <v>14.0</v>
@@ -23457,10 +23454,10 @@
         <v>130000.0</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="G55" s="1">
         <v>15.0</v>
@@ -23498,10 +23495,10 @@
         <v>150000.0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G56" s="1">
         <v>-1.0</v>
@@ -23539,10 +23536,10 @@
         <v>90000.0</v>
       </c>
       <c r="E57" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="F57" s="9" t="s">
         <v>377</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>378</v>
       </c>
       <c r="G57" s="1">
         <v>1.0</v>
@@ -23580,10 +23577,10 @@
         <v>100000.0</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G58" s="1">
         <v>2.0</v>
@@ -23621,13 +23618,13 @@
         <v>110000.0</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F59" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="H59" s="1" t="b">
         <v>0</v>
@@ -23662,10 +23659,10 @@
         <v>120000.0</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G60" s="1">
         <v>4.0</v>
@@ -23703,10 +23700,10 @@
         <v>140000.0</v>
       </c>
       <c r="E61" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="F61" s="9" t="s">
         <v>383</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>384</v>
       </c>
       <c r="G61" s="1">
         <v>5.0</v>
@@ -23750,7 +23747,7 @@
         <v>-1.0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H62" s="1" t="b">
         <v>0</v>
@@ -23785,13 +23782,13 @@
         <v>100000.0</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F63" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="H63" s="1" t="b">
         <v>0</v>
@@ -23826,10 +23823,10 @@
         <v>100000.0</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G64" s="1">
         <v>8.0</v>
@@ -23867,10 +23864,10 @@
         <v>150000.0</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="G65" s="1">
         <v>16.0</v>
@@ -23908,10 +23905,10 @@
         <v>100000.0</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G66" s="1">
         <v>10.0</v>
@@ -23949,13 +23946,13 @@
         <v>120000.0</v>
       </c>
       <c r="E67" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="F67" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="F67" s="9" t="s">
-        <v>384</v>
-      </c>
       <c r="G67" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H67" s="1" t="b">
         <v>0</v>
@@ -24031,10 +24028,10 @@
         <v>100000.0</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G69" s="1">
         <v>13.0</v>
@@ -24072,10 +24069,10 @@
         <v>120000.0</v>
       </c>
       <c r="E70" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="F70" s="9" t="s">
         <v>391</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>392</v>
       </c>
       <c r="G70" s="1">
         <v>14.0</v>
@@ -24113,10 +24110,10 @@
         <v>140000.0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G71" s="1">
         <v>15.0</v>
@@ -24195,10 +24192,10 @@
         <v>160000.0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G73" s="1">
         <v>-1.0</v>
@@ -24239,7 +24236,7 @@
         <v>154</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G74" s="1">
         <v>1.0</v>
@@ -24280,7 +24277,7 @@
         <v>154</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>296</v>
@@ -24321,7 +24318,7 @@
         <v>154</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G76" s="1">
         <v>3.0</v>
@@ -24362,7 +24359,7 @@
         <v>154</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G77" s="1">
         <v>4.0</v>
@@ -24403,7 +24400,7 @@
         <v>154</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G78" s="1">
         <v>5.0</v>
@@ -24444,7 +24441,7 @@
         <v>154</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G79" s="1">
         <v>6.0</v>
@@ -24482,10 +24479,10 @@
         <v>100000.0</v>
       </c>
       <c r="E80" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>401</v>
       </c>
       <c r="G80" s="1">
         <v>12.0</v>
@@ -24523,13 +24520,13 @@
         <v>110000.0</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="H81" s="1" t="b">
         <v>0</v>
@@ -24564,13 +24561,13 @@
         <v>120000.0</v>
       </c>
       <c r="E82" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="H82" s="1" t="b">
         <v>0</v>
@@ -24605,10 +24602,10 @@
         <v>150000.0</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G83" s="1">
         <v>10.0</v>
@@ -24728,10 +24725,10 @@
         <v>170000.0</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G86" s="1">
         <v>-1.0</v>
@@ -24810,10 +24807,10 @@
         <v>85000.0</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>208</v>
@@ -24851,13 +24848,13 @@
         <v>90000.0</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="H89" s="1" t="b">
         <v>0</v>
@@ -24892,10 +24889,10 @@
         <v>90000.0</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G90" s="1">
         <v>4.0</v>
@@ -24933,13 +24930,13 @@
         <v>100000.0</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F91" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="H91" s="1" t="b">
         <v>0</v>
@@ -24974,10 +24971,10 @@
         <v>120000.0</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="G92" s="1">
         <v>6.0</v>
@@ -25056,10 +25053,10 @@
         <v>80000.0</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="G94" s="1">
         <v>8.0</v>
@@ -25097,10 +25094,10 @@
         <v>100000.0</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G95" s="1">
         <v>9.0</v>
@@ -25179,10 +25176,10 @@
         <v>120000.0</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G97" s="1">
         <v>14.0</v>
@@ -25220,10 +25217,10 @@
         <v>80000.0</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="G98" s="1">
         <v>12.0</v>
@@ -25261,10 +25258,10 @@
         <v>90000.0</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G99" s="1">
         <v>13.0</v>
@@ -25302,10 +25299,10 @@
         <v>120000.0</v>
       </c>
       <c r="E100" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="G100" s="1">
         <v>9.0</v>
@@ -25343,10 +25340,10 @@
         <v>110000.0</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G101" s="1">
         <v>15.0</v>
@@ -25384,10 +25381,10 @@
         <v>130000.0</v>
       </c>
       <c r="E102" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="G102" s="1">
         <v>6.0</v>
@@ -25425,10 +25422,10 @@
         <v>150000.0</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G103" s="1">
         <v>17.0</v>
@@ -25466,10 +25463,10 @@
         <v>180000.0</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G104" s="1">
         <v>-1.0</v>
@@ -25507,10 +25504,10 @@
         <v>70000.0</v>
       </c>
       <c r="E105" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="G105" s="1">
         <v>1.0</v>
@@ -25548,13 +25545,13 @@
         <v>75000.0</v>
       </c>
       <c r="E106" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>426</v>
       </c>
       <c r="H106" s="1" t="b">
         <v>0</v>
@@ -25589,13 +25586,13 @@
         <v>80000.0</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F107" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="H107" s="1" t="b">
         <v>0</v>
@@ -25630,10 +25627,10 @@
         <v>100000.0</v>
       </c>
       <c r="E108" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="G108" s="1">
         <v>9.0</v>
@@ -25671,10 +25668,10 @@
         <v>90000.0</v>
       </c>
       <c r="E109" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="G109" s="1">
         <v>5.0</v>
@@ -25712,10 +25709,10 @@
         <v>120000.0</v>
       </c>
       <c r="E110" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="G110" s="1">
         <v>12.0</v>
@@ -25753,10 +25750,10 @@
         <v>100000.0</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G111" s="1">
         <v>7.0</v>
@@ -25794,10 +25791,10 @@
         <v>110000.0</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G112" s="1">
         <v>14.0</v>
@@ -25835,10 +25832,10 @@
         <v>130000.0</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G113" s="1">
         <v>9.0</v>
@@ -25882,7 +25879,7 @@
         <v>-1.0</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H114" s="1" t="b">
         <v>0</v>
@@ -25917,10 +25914,10 @@
         <v>140000.0</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G115" s="1">
         <v>11.0</v>
@@ -25958,10 +25955,10 @@
         <v>120000.0</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G116" s="1">
         <v>4.0</v>
@@ -26040,13 +26037,13 @@
         <v>120000.0</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H118" s="1" t="b">
         <v>0</v>
@@ -26081,10 +26078,10 @@
         <v>140000.0</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G119" s="1">
         <v>20.0</v>
@@ -26122,10 +26119,10 @@
         <v>80000.0</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G120" s="1">
         <v>16.0</v>
@@ -26163,10 +26160,10 @@
         <v>90000.0</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G121" s="1">
         <v>17.0</v>
@@ -26204,13 +26201,13 @@
         <v>100000.0</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F122" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="H122" s="1" t="b">
         <v>0</v>
@@ -26245,10 +26242,10 @@
         <v>180000.0</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G123" s="1">
         <v>13.0</v>
@@ -26286,10 +26283,10 @@
         <v>150000.0</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G124" s="1">
         <v>14.0</v>
@@ -26327,10 +26324,10 @@
         <v>150000.0</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G125" s="1">
         <v>-1.0</v>
@@ -26371,7 +26368,7 @@
         <v>223</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G126" s="1">
         <v>1.0</v>
@@ -26412,7 +26409,7 @@
         <v>223</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G127" s="1">
         <v>2.0</v>
@@ -26450,10 +26447,10 @@
         <v>80000.0</v>
       </c>
       <c r="E128" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="F128" s="9" t="s">
         <v>444</v>
-      </c>
-      <c r="F128" s="9" t="s">
-        <v>445</v>
       </c>
       <c r="G128" s="1">
         <v>3.0</v>
@@ -26491,10 +26488,10 @@
         <v>85000.0</v>
       </c>
       <c r="E129" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="F129" s="9" t="s">
         <v>446</v>
-      </c>
-      <c r="F129" s="9" t="s">
-        <v>447</v>
       </c>
       <c r="G129" s="1">
         <v>4.0</v>
@@ -26532,10 +26529,10 @@
         <v>90000.0</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G130" s="1">
         <v>5.0</v>
@@ -26573,10 +26570,10 @@
         <v>95000.0</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G131" s="1">
         <v>6.0</v>
@@ -26614,10 +26611,10 @@
         <v>100000.0</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G132" s="1">
         <v>7.0</v>
@@ -26655,10 +26652,10 @@
         <v>105000.0</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G133" s="1">
         <v>8.0</v>
@@ -26737,10 +26734,10 @@
         <v>110000.0</v>
       </c>
       <c r="E135" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="F135" s="9" t="s">
         <v>451</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>452</v>
       </c>
       <c r="G135" s="1">
         <v>10.0</v>
@@ -26778,10 +26775,10 @@
         <v>120000.0</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G136" s="1">
         <v>11.0</v>
@@ -26819,10 +26816,10 @@
         <v>130000.0</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G137" s="1">
         <v>12.0</v>
@@ -26860,10 +26857,10 @@
         <v>140000.0</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G138" s="1">
         <v>13.0</v>
@@ -26942,10 +26939,10 @@
         <v>140000.0</v>
       </c>
       <c r="E140" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="F140" s="9" t="s">
         <v>456</v>
-      </c>
-      <c r="F140" s="9" t="s">
-        <v>457</v>
       </c>
       <c r="G140" s="1">
         <v>15.0</v>
@@ -26983,10 +26980,10 @@
         <v>140000.0</v>
       </c>
       <c r="E141" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="F141" s="9" t="s">
         <v>456</v>
-      </c>
-      <c r="F141" s="9" t="s">
-        <v>457</v>
       </c>
       <c r="G141" s="1">
         <v>16.0</v>
@@ -27024,10 +27021,10 @@
         <v>150000.0</v>
       </c>
       <c r="E142" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="F142" s="9" t="s">
         <v>458</v>
-      </c>
-      <c r="F142" s="9" t="s">
-        <v>459</v>
       </c>
       <c r="G142" s="1">
         <v>17.0</v>
@@ -27065,10 +27062,10 @@
         <v>150000.0</v>
       </c>
       <c r="E143" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="F143" s="9" t="s">
         <v>458</v>
-      </c>
-      <c r="F143" s="9" t="s">
-        <v>459</v>
       </c>
       <c r="G143" s="1">
         <v>18.0</v>
@@ -27106,10 +27103,10 @@
         <v>150000.0</v>
       </c>
       <c r="E144" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="F144" s="11" t="s">
         <v>458</v>
-      </c>
-      <c r="F144" s="11" t="s">
-        <v>459</v>
       </c>
       <c r="G144" s="1">
         <v>19.0</v>
@@ -27147,10 +27144,10 @@
         <v>150000.0</v>
       </c>
       <c r="E145" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G145" s="1">
         <v>20.0</v>
@@ -27188,10 +27185,10 @@
         <v>160000.0</v>
       </c>
       <c r="E146" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G146" s="1">
         <v>-1.0</v>
@@ -27229,10 +27226,10 @@
         <v>50000.0</v>
       </c>
       <c r="E147" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="F147" s="9" t="s">
         <v>462</v>
-      </c>
-      <c r="F147" s="9" t="s">
-        <v>463</v>
       </c>
       <c r="G147" s="1">
         <v>1.0</v>
@@ -27270,10 +27267,10 @@
         <v>55000.0</v>
       </c>
       <c r="E148" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G148" s="1">
         <v>2.0</v>
@@ -27311,10 +27308,10 @@
         <v>60000.0</v>
       </c>
       <c r="E149" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G149" s="1">
         <v>3.0</v>
@@ -27352,10 +27349,10 @@
         <v>65000.0</v>
       </c>
       <c r="E150" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="F150" s="9" t="s">
         <v>466</v>
-      </c>
-      <c r="F150" s="9" t="s">
-        <v>467</v>
       </c>
       <c r="G150" s="1">
         <v>4.0</v>
@@ -27393,10 +27390,10 @@
         <v>70000.0</v>
       </c>
       <c r="E151" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="G151" s="1">
         <v>5.0</v>
@@ -27434,10 +27431,10 @@
         <v>75000.0</v>
       </c>
       <c r="E152" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="G152" s="1">
         <v>6.0</v>
@@ -27475,10 +27472,10 @@
         <v>80000.0</v>
       </c>
       <c r="E153" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="G153" s="1">
         <v>7.0</v>
@@ -27516,10 +27513,10 @@
         <v>100000.0</v>
       </c>
       <c r="E154" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="G154" s="1">
         <v>8.0</v>
@@ -27598,10 +27595,10 @@
         <v>130000.0</v>
       </c>
       <c r="E156" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="G156" s="1">
         <v>10.0</v>
@@ -27639,13 +27636,13 @@
         <v>50000.0</v>
       </c>
       <c r="E157" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="G157" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H157" s="1" t="b">
         <v>0</v>
@@ -27680,10 +27677,10 @@
         <v>70000.0</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="G158" s="1">
         <v>12.0</v>
@@ -27762,13 +27759,13 @@
         <v>80000.0</v>
       </c>
       <c r="E160" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="G160" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H160" s="1" t="b">
         <v>0</v>
@@ -27809,7 +27806,7 @@
         <v>-1.0</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H161" s="1" t="b">
         <v>0</v>
@@ -27844,10 +27841,10 @@
         <v>120000.0</v>
       </c>
       <c r="E162" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="G162" s="1">
         <v>27.0</v>
@@ -27885,10 +27882,10 @@
         <v>70000.0</v>
       </c>
       <c r="E163" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="G163" s="1">
         <v>17.0</v>
@@ -27967,13 +27964,13 @@
         <v>90000.0</v>
       </c>
       <c r="E165" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="F165" s="1" t="s">
-        <v>471</v>
-      </c>
       <c r="G165" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H165" s="1" t="b">
         <v>0</v>
@@ -28008,10 +28005,10 @@
         <v>100000.0</v>
       </c>
       <c r="E166" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="G166" s="1">
         <v>20.0</v>
@@ -28055,7 +28052,7 @@
         <v>-1.0</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H167" s="1" t="b">
         <v>0</v>
@@ -28090,10 +28087,10 @@
         <v>110000.0</v>
       </c>
       <c r="E168" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="G168" s="1">
         <v>26.0</v>
@@ -28131,10 +28128,10 @@
         <v>70000.0</v>
       </c>
       <c r="E169" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="G169" s="1">
         <v>23.0</v>
@@ -28178,7 +28175,7 @@
         <v>-1.0</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H170" s="1" t="b">
         <v>0</v>
@@ -28336,10 +28333,10 @@
         <v>150000.0</v>
       </c>
       <c r="E174" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="F174" s="9" t="s">
         <v>480</v>
-      </c>
-      <c r="F174" s="9" t="s">
-        <v>481</v>
       </c>
       <c r="G174" s="1">
         <v>-1.0</v>
@@ -28452,7 +28449,7 @@
         <v>143</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
@@ -28487,10 +28484,10 @@
         <v>75000.0</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="G3" s="1">
         <v>2.0</v>
@@ -28528,10 +28525,10 @@
         <v>90000.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G4" s="1">
         <v>3.0</v>
@@ -28610,10 +28607,10 @@
         <v>110000.0</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="G6" s="1">
         <v>5.0</v>
@@ -28692,10 +28689,10 @@
         <v>80000.0</v>
       </c>
       <c r="E8" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>483</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>484</v>
       </c>
       <c r="G8" s="1">
         <v>7.0</v>
@@ -28733,10 +28730,10 @@
         <v>85000.0</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G9" s="1">
         <v>4.0</v>
@@ -28774,10 +28771,10 @@
         <v>90000.0</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="G10" s="1">
         <v>9.0</v>
@@ -28815,10 +28812,10 @@
         <v>95000.0</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>168</v>
@@ -28856,10 +28853,10 @@
         <v>110000.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G12" s="1">
         <v>5.0</v>
@@ -28938,10 +28935,10 @@
         <v>90000.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G14" s="1">
         <v>13.0</v>
@@ -28979,10 +28976,10 @@
         <v>130000.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G15" s="1">
         <v>-1.0</v>
@@ -29064,7 +29061,7 @@
         <v>150</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G17" s="1">
         <v>2.0</v>
@@ -29108,7 +29105,7 @@
         <v>156</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H18" s="1" t="b">
         <v>0</v>
@@ -29187,7 +29184,7 @@
         <v>154</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G20" s="1">
         <v>5.0</v>
@@ -29228,7 +29225,7 @@
         <v>154</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G21" s="1">
         <v>6.0</v>
@@ -29269,7 +29266,7 @@
         <v>154</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G22" s="1">
         <v>14.0</v>
@@ -29351,7 +29348,7 @@
         <v>154</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G24" s="1">
         <v>9.0</v>
@@ -29392,10 +29389,10 @@
         <v>154</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
@@ -29433,7 +29430,7 @@
         <v>154</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G26" s="1">
         <v>11.0</v>
@@ -29471,13 +29468,13 @@
         <v>130000.0</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="H27" s="1" t="b">
         <v>0</v>
@@ -29553,10 +29550,10 @@
         <v>100000.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G29" s="1">
         <v>6.0</v>
@@ -29594,10 +29591,10 @@
         <v>160000.0</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="G30" s="1">
         <v>-1.0</v>
@@ -29679,7 +29676,7 @@
         <v>154</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G32" s="1">
         <v>2.0</v>
@@ -29723,7 +29720,7 @@
         <v>-1.0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H33" s="1" t="b">
         <v>0</v>
@@ -29758,10 +29755,10 @@
         <v>80000.0</v>
       </c>
       <c r="E34" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="G34" s="1">
         <v>4.0</v>
@@ -29799,10 +29796,10 @@
         <v>85000.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G35" s="1">
         <v>5.0</v>
@@ -29881,10 +29878,10 @@
         <v>100000.0</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>511</v>
       </c>
       <c r="G37" s="1">
         <v>7.0</v>
@@ -29922,10 +29919,10 @@
         <v>120000.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G38" s="1">
         <v>8.0</v>
@@ -29963,10 +29960,10 @@
         <v>90000.0</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="G39" s="1">
         <v>14.0</v>
@@ -30004,10 +30001,10 @@
         <v>100000.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G40" s="1">
         <v>10.0</v>
@@ -30045,10 +30042,10 @@
         <v>110000.0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G41" s="1">
         <v>11.0</v>
@@ -30127,10 +30124,10 @@
         <v>120000.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G43" s="1">
         <v>13.0</v>
@@ -30168,10 +30165,10 @@
         <v>140000.0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G44" s="1">
         <v>8.0</v>
@@ -30209,10 +30206,10 @@
         <v>170000.0</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>514</v>
       </c>
       <c r="G45" s="1">
         <v>-1.0</v>
@@ -30332,13 +30329,13 @@
         <v>90000.0</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H48" s="1" t="b">
         <v>0</v>
@@ -30373,13 +30370,13 @@
         <v>110000.0</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F49" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="H49" s="1" t="b">
         <v>0</v>
@@ -30455,10 +30452,10 @@
         <v>140000.0</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G51" s="1">
         <v>6.0</v>
@@ -30496,10 +30493,10 @@
         <v>110000.0</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G52" s="1">
         <v>14.0</v>
@@ -30537,13 +30534,13 @@
         <v>100000.0</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F53" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>0</v>
@@ -30578,10 +30575,10 @@
         <v>105000.0</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G54" s="1">
         <v>6.0</v>
@@ -30619,10 +30616,10 @@
         <v>110000.0</v>
       </c>
       <c r="E55" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="F55" s="9" t="s">
         <v>525</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>526</v>
       </c>
       <c r="G55" s="1">
         <v>10.0</v>
@@ -30660,10 +30657,10 @@
         <v>130000.0</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G56" s="1">
         <v>11.0</v>
@@ -30742,10 +30739,10 @@
         <v>160000.0</v>
       </c>
       <c r="E58" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>528</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>529</v>
       </c>
       <c r="G58" s="1">
         <v>13.0</v>
@@ -30824,10 +30821,10 @@
         <v>120000.0</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G60" s="1">
         <v>15.0</v>
@@ -30906,10 +30903,10 @@
         <v>140000.0</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G62" s="1">
         <v>17.0</v>
@@ -30947,10 +30944,10 @@
         <v>160000.0</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G63" s="1">
         <v>-1.0</v>
@@ -31029,13 +31026,13 @@
         <v>55000.0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F65" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>0</v>
@@ -31070,13 +31067,13 @@
         <v>60000.0</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>534</v>
-      </c>
       <c r="G66" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H66" s="1" t="b">
         <v>0</v>
@@ -31111,10 +31108,10 @@
         <v>65000.0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G67" s="1">
         <v>4.0</v>
@@ -31152,10 +31149,10 @@
         <v>70000.0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>279</v>
@@ -31193,10 +31190,10 @@
         <v>75000.0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G69" s="1">
         <v>6.0</v>
@@ -31234,10 +31231,10 @@
         <v>90000.0</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>539</v>
       </c>
       <c r="G70" s="1">
         <v>16.0</v>
@@ -31275,10 +31272,10 @@
         <v>80000.0</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>534</v>
       </c>
       <c r="G71" s="1">
         <v>8.0</v>
@@ -31357,10 +31354,10 @@
         <v>90000.0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G73" s="1">
         <v>4.0</v>
@@ -31398,10 +31395,10 @@
         <v>80000.0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G74" s="1">
         <v>11.0</v>
@@ -31480,10 +31477,10 @@
         <v>90000.0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G76" s="1">
         <v>3.0</v>
@@ -31521,10 +31518,10 @@
         <v>90000.0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G77" s="1">
         <v>14.0</v>
@@ -31603,10 +31600,10 @@
         <v>100000.0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G79" s="1">
         <v>6.0</v>
@@ -31644,10 +31641,10 @@
         <v>120000.0</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>542</v>
       </c>
       <c r="G80" s="1">
         <v>-1.0</v>
@@ -31688,7 +31685,7 @@
         <v>272</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G81" s="1">
         <v>1.0</v>
@@ -31729,7 +31726,7 @@
         <v>272</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G82" s="1">
         <v>2.0</v>
@@ -31770,10 +31767,10 @@
         <v>272</v>
       </c>
       <c r="F83" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="H83" s="1" t="b">
         <v>0</v>
@@ -31808,10 +31805,10 @@
         <v>100000.0</v>
       </c>
       <c r="E84" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="F84" s="9" t="s">
         <v>547</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>548</v>
       </c>
       <c r="G84" s="1">
         <v>5.0</v>
@@ -31855,7 +31852,7 @@
         <v>-1.0</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H85" s="1" t="b">
         <v>0</v>
@@ -31890,13 +31887,13 @@
         <v>120000.0</v>
       </c>
       <c r="E86" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="F86" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="G86" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="H86" s="1" t="b">
         <v>0</v>
@@ -31931,10 +31928,10 @@
         <v>110000.0</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G87" s="1">
         <v>7.0</v>
@@ -31972,10 +31969,10 @@
         <v>115000.0</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G88" s="1">
         <v>13.0</v>
@@ -32013,10 +32010,10 @@
         <v>80000.0</v>
       </c>
       <c r="E89" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="F89" s="9" t="s">
         <v>555</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>556</v>
       </c>
       <c r="G89" s="1">
         <v>4.0</v>
@@ -32054,10 +32051,10 @@
         <v>85000.0</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G90" s="1">
         <v>10.0</v>
@@ -32095,10 +32092,10 @@
         <v>90000.0</v>
       </c>
       <c r="E91" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="F91" s="9" t="s">
         <v>558</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>559</v>
       </c>
       <c r="G91" s="1">
         <v>14.0</v>
@@ -32136,13 +32133,13 @@
         <v>100000.0</v>
       </c>
       <c r="E92" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="F92" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="G92" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>560</v>
       </c>
       <c r="H92" s="1" t="b">
         <v>0</v>
@@ -32177,10 +32174,10 @@
         <v>150000.0</v>
       </c>
       <c r="E93" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="F93" s="9" t="s">
         <v>561</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>562</v>
       </c>
       <c r="G93" s="1">
         <v>13.0</v>
@@ -32218,10 +32215,10 @@
         <v>120000.0</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G94" s="1">
         <v>18.0</v>
@@ -32259,10 +32256,10 @@
         <v>100000.0</v>
       </c>
       <c r="E95" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="F95" s="9" t="s">
         <v>561</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>562</v>
       </c>
       <c r="G95" s="1">
         <v>15.0</v>
@@ -32341,10 +32338,10 @@
         <v>100000.0</v>
       </c>
       <c r="E97" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="F97" s="9" t="s">
         <v>558</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>559</v>
       </c>
       <c r="G97" s="1">
         <v>17.0</v>
@@ -32382,10 +32379,10 @@
         <v>110000.0</v>
       </c>
       <c r="E98" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="F98" s="9" t="s">
         <v>558</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>559</v>
       </c>
       <c r="G98" s="1">
         <v>13.0</v>
@@ -32423,10 +32420,10 @@
         <v>140000.0</v>
       </c>
       <c r="E99" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="F99" s="9" t="s">
         <v>561</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>562</v>
       </c>
       <c r="G99" s="1">
         <v>-1.0</v>
@@ -32464,13 +32461,13 @@
         <v>80000.0</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F100" s="9" t="s">
         <v>172</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H100" s="1" t="b">
         <v>1</v>
@@ -32505,7 +32502,7 @@
         <v>85000.0</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F101" s="9" t="s">
         <v>152</v>
@@ -32546,10 +32543,10 @@
         <v>90000.0</v>
       </c>
       <c r="E102" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="F102" s="9" t="s">
         <v>567</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>568</v>
       </c>
       <c r="G102" s="1">
         <v>3.0</v>
@@ -32593,7 +32590,7 @@
         <v>-1.0</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H103" s="1" t="b">
         <v>0</v>
@@ -32628,10 +32625,10 @@
         <v>120000.0</v>
       </c>
       <c r="E104" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="F104" s="9" t="s">
         <v>570</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>571</v>
       </c>
       <c r="G104" s="1">
         <v>5.0</v>
@@ -32669,10 +32666,10 @@
         <v>90000.0</v>
       </c>
       <c r="E105" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="F105" s="9" t="s">
         <v>572</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>573</v>
       </c>
       <c r="G105" s="1">
         <v>6.0</v>
@@ -32710,10 +32707,10 @@
         <v>95000.0</v>
       </c>
       <c r="E106" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="F106" s="9" t="s">
         <v>572</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>573</v>
       </c>
       <c r="G106" s="1">
         <v>7.0</v>
@@ -32751,10 +32748,10 @@
         <v>120000.0</v>
       </c>
       <c r="E107" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="F107" s="9" t="s">
         <v>574</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>575</v>
       </c>
       <c r="G107" s="1">
         <v>18.0</v>
@@ -32792,13 +32789,13 @@
         <v>90000.0</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>152</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H108" s="1" t="b">
         <v>0</v>
@@ -32833,10 +32830,10 @@
         <v>95000.0</v>
       </c>
       <c r="E109" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="F109" s="9" t="s">
         <v>567</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>568</v>
       </c>
       <c r="G109" s="1">
         <v>10.0</v>
@@ -32874,10 +32871,10 @@
         <v>100000.0</v>
       </c>
       <c r="E110" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="F110" s="9" t="s">
         <v>577</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>578</v>
       </c>
       <c r="G110" s="1">
         <v>3.0</v>
@@ -32915,10 +32912,10 @@
         <v>100000.0</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G111" s="1">
         <v>12.0</v>
@@ -32956,13 +32953,13 @@
         <v>100000.0</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F112" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="H112" s="1" t="b">
         <v>0</v>
@@ -33038,10 +33035,10 @@
         <v>120000.0</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G114" s="1">
         <v>15.0</v>
@@ -33079,10 +33076,10 @@
         <v>140000.0</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G115" s="1">
         <v>16.0</v>
@@ -33161,10 +33158,10 @@
         <v>160000.0</v>
       </c>
       <c r="E117" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="F117" s="9" t="s">
         <v>584</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>585</v>
       </c>
       <c r="G117" s="1">
         <v>16.0</v>
@@ -33202,10 +33199,10 @@
         <v>180000.0</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G118" s="1">
         <v>-1.0</v>
@@ -33246,7 +33243,7 @@
         <v>241</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G119" s="1">
         <v>1.0</v>
@@ -33287,10 +33284,10 @@
         <v>241</v>
       </c>
       <c r="F120" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="G120" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="H120" s="1" t="b">
         <v>0</v>
@@ -33328,7 +33325,7 @@
         <v>241</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G121" s="1">
         <v>3.0</v>
@@ -33369,10 +33366,10 @@
         <v>241</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H122" s="1" t="b">
         <v>0</v>
@@ -33410,7 +33407,7 @@
         <v>241</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G123" s="1">
         <v>5.0</v>
@@ -33451,7 +33448,7 @@
         <v>241</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G124" s="1">
         <v>6.0</v>
@@ -33492,7 +33489,7 @@
         <v>241</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G125" s="1">
         <v>7.0</v>
@@ -33533,7 +33530,7 @@
         <v>241</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G126" s="1">
         <v>8.0</v>
@@ -33615,7 +33612,7 @@
         <v>241</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G128" s="1">
         <v>10.0</v>
@@ -33656,7 +33653,7 @@
         <v>241</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G129" s="1">
         <v>11.0</v>
@@ -33738,7 +33735,7 @@
         <v>245</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G131" s="1">
         <v>7.0</v>
@@ -33779,7 +33776,7 @@
         <v>241</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G132" s="1">
         <v>14.0</v>
@@ -33820,7 +33817,7 @@
         <v>241</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G133" s="1">
         <v>15.0</v>
@@ -33861,7 +33858,7 @@
         <v>241</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G134" s="1">
         <v>16.0</v>
@@ -33943,7 +33940,7 @@
         <v>241</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G136" s="1">
         <v>18.0</v>
@@ -33984,7 +33981,7 @@
         <v>245</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G137" s="1">
         <v>19.0</v>
@@ -34025,7 +34022,7 @@
         <v>241</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G138" s="1">
         <v>20.0</v>
@@ -34066,7 +34063,7 @@
         <v>241</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G139" s="1">
         <v>21.0</v>
@@ -34107,7 +34104,7 @@
         <v>241</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G140" s="1">
         <v>8.0</v>
@@ -34148,7 +34145,7 @@
         <v>245</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G141" s="1">
         <v>-1.0</v>
@@ -34303,7 +34300,7 @@
         <v>-1.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H3" s="1" t="b">
         <v>0</v>
@@ -34344,7 +34341,7 @@
         <v>143</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>0</v>
@@ -34382,7 +34379,7 @@
         <v>142</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G5" s="1">
         <v>4.0</v>
@@ -34464,7 +34461,7 @@
         <v>126</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G7" s="1">
         <v>13.0</v>
@@ -34546,7 +34543,7 @@
         <v>126</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G9" s="1">
         <v>8.0</v>
@@ -34587,7 +34584,7 @@
         <v>142</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G10" s="1">
         <v>13.0</v>
@@ -34669,7 +34666,7 @@
         <v>142</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G12" s="1">
         <v>11.0</v>
@@ -34710,7 +34707,7 @@
         <v>126</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G13" s="1">
         <v>12.0</v>
@@ -34751,7 +34748,7 @@
         <v>126</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G14" s="1">
         <v>8.0</v>
@@ -34789,10 +34786,10 @@
         <v>140000.0</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="G15" s="1">
         <v>14.0</v>
@@ -34830,10 +34827,10 @@
         <v>170000.0</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="G16" s="1">
         <v>-1.0</v>
@@ -34915,7 +34912,7 @@
         <v>150</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G18" s="1">
         <v>2.0</v>
@@ -34956,7 +34953,7 @@
         <v>150</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G19" s="1">
         <v>3.0</v>
@@ -34997,10 +34994,10 @@
         <v>150</v>
       </c>
       <c r="F20" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>600</v>
       </c>
       <c r="H20" s="1" t="b">
         <v>0</v>
@@ -35035,10 +35032,10 @@
         <v>120000.0</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>601</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>602</v>
       </c>
       <c r="G21" s="1">
         <v>5.0</v>
@@ -35120,7 +35117,7 @@
         <v>150</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G23" s="1">
         <v>7.0</v>
@@ -35161,7 +35158,7 @@
         <v>150</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G24" s="1">
         <v>16.0</v>
@@ -35202,10 +35199,10 @@
         <v>150</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
@@ -35243,7 +35240,7 @@
         <v>150</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G26" s="1">
         <v>12.0</v>
@@ -35281,10 +35278,10 @@
         <v>150000.0</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>601</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>602</v>
       </c>
       <c r="G27" s="1">
         <v>11.0</v>
@@ -35366,7 +35363,7 @@
         <v>150</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G29" s="1">
         <v>14.0</v>
@@ -35407,10 +35404,10 @@
         <v>150</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H30" s="1" t="b">
         <v>0</v>
@@ -35486,10 +35483,10 @@
         <v>130000.0</v>
       </c>
       <c r="E32" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>601</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>602</v>
       </c>
       <c r="G32" s="1">
         <v>16.0</v>
@@ -35527,10 +35524,10 @@
         <v>160000.0</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G33" s="1">
         <v>17.0</v>
@@ -35568,10 +35565,10 @@
         <v>170000.0</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G34" s="1">
         <v>-1.0</v>
@@ -35615,7 +35612,7 @@
         <v>162</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H35" s="1" t="b">
         <v>1</v>
@@ -35694,10 +35691,10 @@
         <v>154</v>
       </c>
       <c r="F37" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="H37" s="1" t="b">
         <v>0</v>
@@ -35735,10 +35732,10 @@
         <v>154</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H38" s="1" t="b">
         <v>0</v>
@@ -35773,10 +35770,10 @@
         <v>140000.0</v>
       </c>
       <c r="E39" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>610</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>611</v>
       </c>
       <c r="G39" s="1">
         <v>5.0</v>
@@ -35814,10 +35811,10 @@
         <v>160000.0</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G40" s="1">
         <v>6.0</v>
@@ -35855,10 +35852,10 @@
         <v>180000.0</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G41" s="1">
         <v>18.0</v>
@@ -35899,10 +35896,10 @@
         <v>154</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>0</v>
@@ -35943,7 +35940,7 @@
         <v>-1.0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H43" s="1" t="b">
         <v>0</v>
@@ -35981,7 +35978,7 @@
         <v>154</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G44" s="1">
         <v>10.0</v>
@@ -36022,7 +36019,7 @@
         <v>154</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G45" s="1">
         <v>6.0</v>
@@ -36060,10 +36057,10 @@
         <v>140000.0</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G46" s="1">
         <v>12.0</v>
@@ -36145,7 +36142,7 @@
         <v>154</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G48" s="1">
         <v>14.0</v>
@@ -36189,7 +36186,7 @@
         <v>-1.0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H49" s="1" t="b">
         <v>0</v>
@@ -36224,10 +36221,10 @@
         <v>150000.0</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G50" s="1">
         <v>17.0</v>
@@ -36268,7 +36265,7 @@
         <v>154</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G51" s="1">
         <v>10.0</v>
@@ -36347,10 +36344,10 @@
         <v>200000.0</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G53" s="1">
         <v>-1.0</v>
@@ -36391,7 +36388,7 @@
         <v>150</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G54" s="1">
         <v>1.0</v>
@@ -36476,7 +36473,7 @@
         <v>174</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H56" s="1" t="b">
         <v>0</v>
@@ -36637,7 +36634,7 @@
         <v>165</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G60" s="1">
         <v>17.0</v>
@@ -36719,7 +36716,7 @@
         <v>170</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G62" s="1">
         <v>9.0</v>
@@ -36757,10 +36754,10 @@
         <v>80000.0</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G63" s="1">
         <v>10.0</v>
@@ -36798,10 +36795,10 @@
         <v>90000.0</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G64" s="1">
         <v>11.0</v>
@@ -36839,10 +36836,10 @@
         <v>95000.0</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G65" s="1">
         <v>12.0</v>
@@ -36880,10 +36877,10 @@
         <v>100000.0</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G66" s="1">
         <v>13.0</v>
@@ -36921,10 +36918,10 @@
         <v>105000.0</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G67" s="1">
         <v>14.0</v>
@@ -36962,10 +36959,10 @@
         <v>110000.0</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G68" s="1">
         <v>15.0</v>
@@ -37003,10 +37000,10 @@
         <v>110000.0</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G69" s="1">
         <v>16.0</v>
@@ -37085,10 +37082,10 @@
         <v>150000.0</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G71" s="1">
         <v>18.0</v>
@@ -37126,10 +37123,10 @@
         <v>170000.0</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G72" s="1">
         <v>19.0</v>
@@ -37167,10 +37164,10 @@
         <v>200000.0</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G73" s="1">
         <v>-1.0</v>
@@ -37255,7 +37252,7 @@
         <v>-1.0</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>0</v>
@@ -37290,7 +37287,7 @@
         <v>60000.0</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>198</v>
@@ -37331,10 +37328,10 @@
         <v>70000.0</v>
       </c>
       <c r="E77" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="F77" s="9" t="s">
         <v>625</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>626</v>
       </c>
       <c r="G77" s="1">
         <v>4.0</v>
@@ -37413,10 +37410,10 @@
         <v>80000.0</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G79" s="1">
         <v>6.0</v>
@@ -37454,10 +37451,10 @@
         <v>90000.0</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G80" s="1">
         <v>22.0</v>
@@ -37495,7 +37492,7 @@
         <v>60000.0</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F81" s="9" t="s">
         <v>198</v>
@@ -37536,10 +37533,10 @@
         <v>70000.0</v>
       </c>
       <c r="E82" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="F82" s="9" t="s">
         <v>625</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>626</v>
       </c>
       <c r="G82" s="1">
         <v>9.0</v>
@@ -37577,10 +37574,10 @@
         <v>80000.0</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G83" s="1">
         <v>10.0</v>
@@ -37659,10 +37656,10 @@
         <v>90000.0</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G85" s="1">
         <v>22.0</v>
@@ -37700,7 +37697,7 @@
         <v>60000.0</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>198</v>
@@ -37741,10 +37738,10 @@
         <v>70000.0</v>
       </c>
       <c r="E87" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="F87" s="9" t="s">
         <v>625</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>626</v>
       </c>
       <c r="G87" s="1">
         <v>14.0</v>
@@ -37823,10 +37820,10 @@
         <v>80000.0</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G89" s="1">
         <v>16.0</v>
@@ -37864,10 +37861,10 @@
         <v>90000.0</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G90" s="1">
         <v>22.0</v>
@@ -37905,7 +37902,7 @@
         <v>60000.0</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F91" s="9" t="s">
         <v>198</v>
@@ -37987,10 +37984,10 @@
         <v>70000.0</v>
       </c>
       <c r="E93" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="F93" s="9" t="s">
         <v>625</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>626</v>
       </c>
       <c r="G93" s="1">
         <v>20.0</v>
@@ -38028,10 +38025,10 @@
         <v>80000.0</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G94" s="1">
         <v>21.0</v>
@@ -38069,10 +38066,10 @@
         <v>90000.0</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G95" s="1">
         <v>22.0</v>
@@ -38110,7 +38107,7 @@
         <v>120000.0</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>200</v>
@@ -38151,10 +38148,10 @@
         <v>50000.0</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G97" s="1">
         <v>1.0</v>
@@ -38195,7 +38192,7 @@
         <v>272</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>296</v>
@@ -38236,7 +38233,7 @@
         <v>277</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G99" s="1">
         <v>3.0</v>
@@ -38315,10 +38312,10 @@
         <v>100000.0</v>
       </c>
       <c r="E101" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="F101" s="9" t="s">
         <v>632</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>633</v>
       </c>
       <c r="G101" s="1">
         <v>5.0</v>
@@ -38397,10 +38394,10 @@
         <v>120000.0</v>
       </c>
       <c r="E103" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="F103" s="9" t="s">
         <v>632</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>633</v>
       </c>
       <c r="G103" s="1">
         <v>12.0</v>
@@ -38441,7 +38438,7 @@
         <v>277</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G104" s="1">
         <v>8.0</v>
@@ -38482,7 +38479,7 @@
         <v>277</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G105" s="1">
         <v>9.0</v>
@@ -38520,10 +38517,10 @@
         <v>90000.0</v>
       </c>
       <c r="E106" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="F106" s="9" t="s">
         <v>635</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>636</v>
       </c>
       <c r="G106" s="1">
         <v>10.0</v>
@@ -38602,10 +38599,10 @@
         <v>100000.0</v>
       </c>
       <c r="E108" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="F108" s="9" t="s">
         <v>637</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>638</v>
       </c>
       <c r="G108" s="1">
         <v>12.0</v>
@@ -38643,10 +38640,10 @@
         <v>120000.0</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G109" s="1">
         <v>13.0</v>
@@ -38684,10 +38681,10 @@
         <v>150000.0</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G110" s="1">
         <v>-1.0</v>
@@ -38725,10 +38722,10 @@
         <v>80000.0</v>
       </c>
       <c r="E111" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="F111" s="9" t="s">
         <v>641</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>642</v>
       </c>
       <c r="G111" s="1">
         <v>1.0</v>
@@ -38766,13 +38763,13 @@
         <v>85000.0</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F112" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>644</v>
       </c>
       <c r="H112" s="1" t="b">
         <v>0</v>
@@ -38807,10 +38804,10 @@
         <v>100000.0</v>
       </c>
       <c r="E113" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="F113" s="9" t="s">
         <v>645</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>646</v>
       </c>
       <c r="G113" s="1">
         <v>3.0</v>
@@ -38889,10 +38886,10 @@
         <v>120000.0</v>
       </c>
       <c r="E115" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="F115" s="9" t="s">
         <v>647</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>648</v>
       </c>
       <c r="G115" s="1">
         <v>6.0</v>
@@ -38930,13 +38927,13 @@
         <v>90000.0</v>
       </c>
       <c r="E116" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="F116" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="F116" s="9" t="s">
-        <v>642</v>
-      </c>
       <c r="G116" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H116" s="1" t="b">
         <v>0</v>
@@ -38971,10 +38968,10 @@
         <v>95000.0</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G117" s="1">
         <v>7.0</v>
@@ -39012,10 +39009,10 @@
         <v>100000.0</v>
       </c>
       <c r="E118" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="F118" s="9" t="s">
         <v>645</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>646</v>
       </c>
       <c r="G118" s="1">
         <v>8.0</v>
@@ -39094,13 +39091,13 @@
         <v>95000.0</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H120" s="1" t="b">
         <v>0</v>
@@ -39135,13 +39132,13 @@
         <v>100000.0</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H121" s="1" t="b">
         <v>0</v>
@@ -39217,13 +39214,13 @@
         <v>100000.0</v>
       </c>
       <c r="E123" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="F123" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="G123" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="H123" s="1" t="b">
         <v>0</v>
@@ -39258,10 +39255,10 @@
         <v>110000.0</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G124" s="1">
         <v>14.0</v>
@@ -39340,10 +39337,10 @@
         <v>130000.0</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G126" s="1">
         <v>16.0</v>
@@ -39381,10 +39378,10 @@
         <v>115000.0</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G127" s="1">
         <v>17.0</v>
@@ -39422,10 +39419,10 @@
         <v>140000.0</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G128" s="1">
         <v>18.0</v>
@@ -39463,10 +39460,10 @@
         <v>160000.0</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G129" s="1">
         <v>-1.0</v>
@@ -39507,7 +39504,7 @@
         <v>238</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G130" s="1">
         <v>1.0</v>
@@ -39548,7 +39545,7 @@
         <v>238</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>296</v>
@@ -39589,10 +39586,10 @@
         <v>238</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H132" s="1" t="b">
         <v>0</v>
@@ -39630,7 +39627,7 @@
         <v>238</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G133" s="1">
         <v>4.0</v>
@@ -39668,10 +39665,10 @@
         <v>140000.0</v>
       </c>
       <c r="E134" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="F134" s="9" t="s">
         <v>660</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>661</v>
       </c>
       <c r="G134" s="1">
         <v>5.0</v>
@@ -39715,7 +39712,7 @@
         <v>-1.0</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H135" s="1" t="b">
         <v>0</v>
@@ -39794,10 +39791,10 @@
         <v>238</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H137" s="1" t="b">
         <v>0</v>
@@ -39835,7 +39832,7 @@
         <v>238</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G138" s="1">
         <v>9.0</v>
@@ -39876,7 +39873,7 @@
         <v>238</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G139" s="1">
         <v>10.0</v>
@@ -39914,13 +39911,13 @@
         <v>160000.0</v>
       </c>
       <c r="E140" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="F140" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="F140" s="9" t="s">
-        <v>661</v>
-      </c>
       <c r="G140" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H140" s="1" t="b">
         <v>0</v>
@@ -39958,7 +39955,7 @@
         <v>238</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G141" s="1">
         <v>12.0</v>
@@ -40037,10 +40034,10 @@
         <v>90000.0</v>
       </c>
       <c r="E143" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="F143" s="9" t="s">
         <v>660</v>
-      </c>
-      <c r="F143" s="9" t="s">
-        <v>661</v>
       </c>
       <c r="G143" s="1">
         <v>14.0</v>
@@ -40081,10 +40078,10 @@
         <v>241</v>
       </c>
       <c r="F144" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="G144" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="H144" s="1" t="b">
         <v>0</v>
@@ -40122,7 +40119,7 @@
         <v>241</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G145" s="1">
         <v>16.0</v>
@@ -40204,7 +40201,7 @@
         <v>245</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G147" s="1">
         <v>18.0</v>
@@ -40245,7 +40242,7 @@
         <v>245</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G148" s="1">
         <v>21.0</v>
@@ -40327,7 +40324,7 @@
         <v>245</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G150" s="1">
         <v>21.0</v>
@@ -40368,7 +40365,7 @@
         <v>245</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G151" s="1">
         <v>22.0</v>
@@ -40409,7 +40406,7 @@
         <v>245</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G152" s="1">
         <v>-1.0</v>
@@ -40530,7 +40527,7 @@
         <v>126</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G2" s="1">
         <v>1.0</v>
@@ -40571,7 +40568,7 @@
         <v>126</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G3" s="1">
         <v>2.0</v>
@@ -40615,7 +40612,7 @@
         <v>161</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>0</v>
@@ -40650,10 +40647,10 @@
         <v>90000.0</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>672</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>673</v>
       </c>
       <c r="G5" s="1">
         <v>4.0</v>
@@ -40732,10 +40729,10 @@
         <v>110000.0</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>672</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>673</v>
       </c>
       <c r="G7" s="1">
         <v>9.0</v>
@@ -40814,10 +40811,10 @@
         <v>90000.0</v>
       </c>
       <c r="E9" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>672</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>673</v>
       </c>
       <c r="G9" s="1">
         <v>8.0</v>
@@ -40855,10 +40852,10 @@
         <v>120000.0</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>672</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>673</v>
       </c>
       <c r="G10" s="1">
         <v>9.0</v>
@@ -40937,10 +40934,10 @@
         <v>150000.0</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>674</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>675</v>
       </c>
       <c r="G12" s="1">
         <v>-1.0</v>
@@ -40952,10 +40949,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>676</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>677</v>
       </c>
       <c r="L12" s="10">
         <f t="shared" ref="L12:M12" si="12">LEN(E12)-LEN(SUBSTITUTE(E12, ",", ""))</f>
@@ -40987,7 +40984,7 @@
         <v>165</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G13" s="1">
         <v>1.0</v>
@@ -41028,7 +41025,7 @@
         <v>165</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G14" s="1">
         <v>2.0</v>
@@ -41066,10 +41063,10 @@
         <v>90000.0</v>
       </c>
       <c r="E15" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>681</v>
       </c>
       <c r="G15" s="1">
         <v>3.0</v>
@@ -41107,10 +41104,10 @@
         <v>100000.0</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G16" s="1">
         <v>4.0</v>
@@ -41148,10 +41145,10 @@
         <v>110000.0</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G17" s="1">
         <v>5.0</v>
@@ -41189,10 +41186,10 @@
         <v>130000.0</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G18" s="1">
         <v>6.0</v>
@@ -41236,7 +41233,7 @@
         <v>-1.0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H19" s="1" t="b">
         <v>0</v>
@@ -41271,10 +41268,10 @@
         <v>150000.0</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>687</v>
       </c>
       <c r="G20" s="1">
         <v>8.0</v>
@@ -41312,10 +41309,10 @@
         <v>160000.0</v>
       </c>
       <c r="E21" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>687</v>
       </c>
       <c r="G21" s="1">
         <v>11.0</v>
@@ -41353,10 +41350,10 @@
         <v>170000.0</v>
       </c>
       <c r="E22" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>689</v>
       </c>
       <c r="G22" s="1">
         <v>10.0</v>
@@ -41394,10 +41391,10 @@
         <v>180000.0</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>689</v>
       </c>
       <c r="G23" s="1">
         <v>11.0</v>
@@ -41476,10 +41473,10 @@
         <v>200000.0</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G25" s="1">
         <v>13.0</v>
@@ -41517,10 +41514,10 @@
         <v>180000.0</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G26" s="1">
         <v>-1.0</v>
@@ -41532,10 +41529,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="17"/>
@@ -41605,13 +41602,13 @@
         <v>75000.0</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>693</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>0</v>
@@ -41646,10 +41643,10 @@
         <v>80000.0</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>695</v>
       </c>
       <c r="G29" s="1">
         <v>3.0</v>
@@ -41687,10 +41684,10 @@
         <v>90000.0</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="G30" s="1">
         <v>4.0</v>
@@ -41728,10 +41725,10 @@
         <v>100000.0</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>698</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>699</v>
       </c>
       <c r="G31" s="1">
         <v>5.0</v>
@@ -41769,10 +41766,10 @@
         <v>110000.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G32" s="1">
         <v>14.0</v>
@@ -41810,10 +41807,10 @@
         <v>90000.0</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="G33" s="1">
         <v>7.0</v>
@@ -41851,10 +41848,10 @@
         <v>95000.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G34" s="1">
         <v>8.0</v>
@@ -41892,10 +41889,10 @@
         <v>110000.0</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>702</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>703</v>
       </c>
       <c r="G35" s="1">
         <v>9.0</v>
@@ -41974,10 +41971,10 @@
         <v>80000.0</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G37" s="1">
         <v>11.0</v>
@@ -42015,10 +42012,10 @@
         <v>85000.0</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="G38" s="1">
         <v>12.0</v>
@@ -42056,10 +42053,10 @@
         <v>90000.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G39" s="1">
         <v>13.0</v>
@@ -42097,10 +42094,10 @@
         <v>95000.0</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>707</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="G40" s="1">
         <v>14.0</v>
@@ -42179,13 +42176,13 @@
         <v>100000.0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>710</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>0</v>
@@ -42220,10 +42217,10 @@
         <v>110000.0</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>711</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>712</v>
       </c>
       <c r="G43" s="1">
         <v>17.0</v>
@@ -42261,10 +42258,10 @@
         <v>120000.0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G44" s="1">
         <v>18.0</v>
@@ -42302,10 +42299,10 @@
         <v>150000.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G45" s="1">
         <v>24.0</v>
@@ -42343,10 +42340,10 @@
         <v>100000.0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G46" s="1">
         <v>20.0</v>
@@ -42384,10 +42381,10 @@
         <v>110000.0</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="G47" s="1">
         <v>21.0</v>
@@ -42425,10 +42422,10 @@
         <v>120000.0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G48" s="1">
         <v>22.0</v>
@@ -42466,10 +42463,10 @@
         <v>130000.0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G49" s="1">
         <v>23.0</v>
@@ -42507,10 +42504,10 @@
         <v>150000.0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G50" s="1">
         <v>24.0</v>
@@ -42589,10 +42586,10 @@
         <v>200000.0</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>721</v>
       </c>
       <c r="G52" s="1">
         <v>-1.0</v>
@@ -42604,10 +42601,10 @@
         <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L52" s="10">
         <f t="shared" si="17"/>
@@ -44198,16 +44195,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>724</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>725</v>
       </c>
       <c r="E2" s="1">
         <v>500000.0</v>
@@ -44215,16 +44212,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="D3" s="25" t="s">
         <v>727</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>728</v>
       </c>
       <c r="E3" s="1">
         <v>600000.0</v>
@@ -44232,16 +44229,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>730</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>731</v>
       </c>
       <c r="E4" s="1">
         <v>700000.0</v>
@@ -44272,10 +44269,10 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>732</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>733</v>
       </c>
       <c r="E6" s="1">
         <v>300002.0</v>
@@ -44289,10 +44286,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>734</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>735</v>
       </c>
       <c r="E7" s="1">
         <v>400003.0</v>
@@ -44306,10 +44303,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>736</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>737</v>
       </c>
       <c r="E8" s="1">
         <v>500004.0</v>
@@ -44317,16 +44314,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>739</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>740</v>
       </c>
       <c r="E9" s="1">
         <v>600005.0</v>
@@ -44334,13 +44331,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>57</v>
@@ -44357,10 +44354,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>743</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>744</v>
       </c>
       <c r="E11" s="1">
         <v>12000.0</v>
@@ -44397,10 +44394,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E13" s="1">
         <v>12000.0</v>
@@ -44417,7 +44414,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>94</v>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -1748,7 +1748,7 @@
         <v>31</v>
       </c>
       <c r="E11" s="1">
-        <v>5000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="F11" s="5">
         <v>10.0</v>
@@ -1828,7 +1828,7 @@
         <v>41</v>
       </c>
       <c r="E15" s="1">
-        <v>5000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="F15" s="5">
         <v>10.0</v>
@@ -1908,7 +1908,7 @@
         <v>41</v>
       </c>
       <c r="E19" s="1">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="F19" s="5">
         <v>10.0</v>
@@ -1988,7 +1988,7 @@
         <v>41</v>
       </c>
       <c r="E23" s="1">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="F23" s="5">
         <v>10.0</v>
@@ -2108,7 +2108,7 @@
         <v>41</v>
       </c>
       <c r="E29" s="1">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="F29" s="5">
         <v>10.0</v>
@@ -2208,7 +2208,7 @@
         <v>41</v>
       </c>
       <c r="E34" s="1">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="F34" s="5">
         <v>10.0</v>
@@ -2308,7 +2308,7 @@
         <v>41</v>
       </c>
       <c r="E39" s="1">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="F39" s="5">
         <v>10.0</v>
@@ -2408,7 +2408,7 @@
         <v>41</v>
       </c>
       <c r="E44" s="1">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="F44" s="5">
         <v>10.0</v>
@@ -32537,6 +32537,8 @@
       <c r="I2" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -32566,6 +32568,8 @@
       <c r="I3" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -32595,6 +32599,8 @@
       <c r="I4" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -32624,6 +32630,8 @@
       <c r="I5" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1">

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -206,7 +206,7 @@
     <t>재료를 수집하세요</t>
   </si>
   <si>
-    <t>70,50,60</t>
+    <t>70,30,5</t>
   </si>
   <si>
     <t>10,2</t>
@@ -230,7 +230,7 @@
     <t>11,1</t>
   </si>
   <si>
-    <t>71,60,60</t>
+    <t>71,30,10</t>
   </si>
   <si>
     <t>11,2</t>
@@ -254,7 +254,7 @@
     <t>12,1</t>
   </si>
   <si>
-    <t>72,20,30</t>
+    <t>72,20,20</t>
   </si>
   <si>
     <t>12,2</t>
@@ -278,7 +278,7 @@
     <t>13,1</t>
   </si>
   <si>
-    <t>73,10,10</t>
+    <t>73,20,5</t>
   </si>
   <si>
     <t>13,2</t>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -458,7 +458,7 @@
     <t>2,7,3,12,13,14,8</t>
   </si>
   <si>
-    <t>4,14,8</t>
+    <t>3,4,14,8</t>
   </si>
   <si>
     <t>3,4,8,9,10</t>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -206,7 +206,7 @@
     <t>재료를 수집하세요</t>
   </si>
   <si>
-    <t>70,30,5</t>
+    <t>137,30,40</t>
   </si>
   <si>
     <t>10,2</t>
@@ -230,7 +230,7 @@
     <t>11,1</t>
   </si>
   <si>
-    <t>71,30,10</t>
+    <t>138,30,50</t>
   </si>
   <si>
     <t>11,2</t>
@@ -254,7 +254,7 @@
     <t>12,1</t>
   </si>
   <si>
-    <t>72,20,20</t>
+    <t>144,20,30</t>
   </si>
   <si>
     <t>12,2</t>
@@ -278,7 +278,7 @@
     <t>13,1</t>
   </si>
   <si>
-    <t>73,20,5</t>
+    <t>147,10,5</t>
   </si>
   <si>
     <t>13,2</t>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="397">
   <si>
     <t>Stage_Mission</t>
   </si>
@@ -399,10 +399,7 @@
     <t>0,2,3,4,7</t>
   </si>
   <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Treasure</t>
+    <t>Special</t>
   </si>
   <si>
     <t>2스테이지 새로 추가</t>
@@ -4994,7 +4991,7 @@
         <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>110</v>
@@ -5014,7 +5011,7 @@
         <v>120000.0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>72</v>
@@ -5040,7 +5037,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" s="1">
         <v>-1.0</v>
@@ -5078,7 +5075,7 @@
         <v>140000.0</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>33</v>
@@ -5110,7 +5107,7 @@
         <v>160000.0</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>41</v>
@@ -5142,7 +5139,7 @@
         <v>120000.0</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>33</v>
@@ -5206,7 +5203,7 @@
         <v>140000.0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>41</v>
@@ -5238,7 +5235,7 @@
         <v>170000.0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>41</v>
@@ -5270,7 +5267,7 @@
         <v>140000.0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>72</v>
@@ -5296,7 +5293,7 @@
         <v>1.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" s="1">
         <v>-1.0</v>
@@ -5334,7 +5331,7 @@
         <v>150000.0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>33</v>
@@ -5366,7 +5363,7 @@
         <v>170000.0</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>41</v>
@@ -5398,7 +5395,7 @@
         <v>200000.0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>43</v>
@@ -5430,7 +5427,7 @@
         <v>140000.0</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>28</v>
@@ -5494,7 +5491,7 @@
         <v>140000.0</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>28</v>
@@ -5526,7 +5523,7 @@
         <v>160000.0</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>32</v>
@@ -5552,7 +5549,7 @@
         <v>4.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -5590,7 +5587,7 @@
         <v>180000.0</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>33</v>
@@ -5622,10 +5619,10 @@
         <v>200000.0</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G21" s="1">
         <v>-1.0</v>
@@ -6026,7 +6023,7 @@
         <v>70000.0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>66</v>
@@ -6063,7 +6060,7 @@
         <v>-1.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H3" s="1" t="b">
         <v>0</v>
@@ -6088,13 +6085,13 @@
         <v>75000.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>66</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>0</v>
@@ -6119,7 +6116,7 @@
         <v>90000.0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>72</v>
@@ -6144,7 +6141,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -6202,7 +6199,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -6266,7 +6263,7 @@
         <v>90000.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>67</v>
@@ -6295,7 +6292,7 @@
         <v>95000.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>67</v>
@@ -6324,7 +6321,7 @@
         <v>100000.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>67</v>
@@ -6356,7 +6353,7 @@
         <v>123</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G13" s="1">
         <v>12.0</v>
@@ -6385,7 +6382,7 @@
         <v>123</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G14" s="1">
         <v>8.0</v>
@@ -6411,10 +6408,10 @@
         <v>140000.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G15" s="1">
         <v>14.0</v>
@@ -6440,10 +6437,10 @@
         <v>170000.0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G16" s="1">
         <v>-1.0</v>
@@ -6469,7 +6466,7 @@
         <v>70000.0</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>67</v>
@@ -6498,7 +6495,7 @@
         <v>75000.0</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>67</v>
@@ -6527,7 +6524,7 @@
         <v>80000.0</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>28</v>
@@ -6556,13 +6553,13 @@
         <v>90000.0</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>72</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H20" s="1" t="b">
         <v>0</v>
@@ -6585,7 +6582,7 @@
         <v>120000.0</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>33</v>
@@ -6608,7 +6605,7 @@
         <v>5.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D22" s="1">
         <v>-1.0</v>
@@ -6643,7 +6640,7 @@
         <v>90000.0</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>28</v>
@@ -6672,7 +6669,7 @@
         <v>100000.0</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>28</v>
@@ -6701,13 +6698,13 @@
         <v>110000.0</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>72</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
@@ -6730,7 +6727,7 @@
         <v>120000.0</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>72</v>
@@ -6759,7 +6756,7 @@
         <v>150000.0</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>41</v>
@@ -6782,7 +6779,7 @@
         <v>11.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -6817,10 +6814,10 @@
         <v>140000.0</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G29" s="1">
         <v>14.0</v>
@@ -6846,13 +6843,13 @@
         <v>130000.0</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>72</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H30" s="1" t="b">
         <v>0</v>
@@ -6869,7 +6866,7 @@
         <v>14.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D31" s="1">
         <v>-1.0</v>
@@ -6904,10 +6901,10 @@
         <v>130000.0</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G32" s="1">
         <v>16.0</v>
@@ -6933,10 +6930,10 @@
         <v>160000.0</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G33" s="1">
         <v>17.0</v>
@@ -6962,10 +6959,10 @@
         <v>170000.0</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G34" s="1">
         <v>-1.0</v>
@@ -6991,13 +6988,13 @@
         <v>80000.0</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>67</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H35" s="1" t="b">
         <v>1</v>
@@ -7020,13 +7017,13 @@
         <v>85000.0</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>72</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H36" s="1" t="b">
         <v>0</v>
@@ -7049,13 +7046,13 @@
         <v>90000.0</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>72</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H37" s="1" t="b">
         <v>0</v>
@@ -7078,13 +7075,13 @@
         <v>110000.0</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F38" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="H38" s="1" t="b">
         <v>0</v>
@@ -7107,10 +7104,10 @@
         <v>140000.0</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G39" s="1">
         <v>5.0</v>
@@ -7136,10 +7133,10 @@
         <v>160000.0</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G40" s="1">
         <v>6.0</v>
@@ -7165,10 +7162,10 @@
         <v>180000.0</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G41" s="1">
         <v>18.0</v>
@@ -7194,13 +7191,13 @@
         <v>100000.0</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>72</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>0</v>
@@ -7217,7 +7214,7 @@
         <v>8.0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43" s="1">
         <v>-1.0</v>
@@ -7229,7 +7226,7 @@
         <v>-1.0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H43" s="1" t="b">
         <v>0</v>
@@ -7252,7 +7249,7 @@
         <v>110000.0</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>72</v>
@@ -7281,10 +7278,10 @@
         <v>120000.0</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G45" s="1">
         <v>6.0</v>
@@ -7310,10 +7307,10 @@
         <v>140000.0</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G46" s="1">
         <v>12.0</v>
@@ -7333,7 +7330,7 @@
         <v>12.0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D47" s="1">
         <v>-1.0</v>
@@ -7368,10 +7365,10 @@
         <v>130000.0</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G48" s="1">
         <v>14.0</v>
@@ -7403,7 +7400,7 @@
         <v>-1.0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H49" s="1" t="b">
         <v>0</v>
@@ -7426,10 +7423,10 @@
         <v>150000.0</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G50" s="1">
         <v>17.0</v>
@@ -7455,7 +7452,7 @@
         <v>90000.0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>72</v>
@@ -7478,7 +7475,7 @@
         <v>17.0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D52" s="1">
         <v>-1.0</v>
@@ -7513,10 +7510,10 @@
         <v>200000.0</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G53" s="1">
         <v>-1.0</v>
@@ -7542,7 +7539,7 @@
         <v>70000.0</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>28</v>
@@ -7571,7 +7568,7 @@
         <v>75000.0</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>28</v>
@@ -7600,13 +7597,13 @@
         <v>80000.0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>72</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H56" s="1" t="b">
         <v>0</v>
@@ -7623,7 +7620,7 @@
         <v>3.0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D57" s="1">
         <v>-1.0</v>
@@ -7658,7 +7655,7 @@
         <v>100000.0</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>33</v>
@@ -7687,7 +7684,7 @@
         <v>110000.0</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>33</v>
@@ -7716,7 +7713,7 @@
         <v>120000.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>33</v>
@@ -7774,10 +7771,10 @@
         <v>150000.0</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G62" s="1">
         <v>9.0</v>
@@ -7803,7 +7800,7 @@
         <v>80000.0</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>72</v>
@@ -7832,7 +7829,7 @@
         <v>90000.0</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>72</v>
@@ -7861,7 +7858,7 @@
         <v>95000.0</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>72</v>
@@ -7890,10 +7887,10 @@
         <v>100000.0</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G66" s="1">
         <v>13.0</v>
@@ -7919,10 +7916,10 @@
         <v>105000.0</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G67" s="1">
         <v>14.0</v>
@@ -7948,10 +7945,10 @@
         <v>110000.0</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G68" s="1">
         <v>15.0</v>
@@ -7977,10 +7974,10 @@
         <v>110000.0</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G69" s="1">
         <v>16.0</v>
@@ -8000,7 +7997,7 @@
         <v>16.0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D70" s="1">
         <v>-1.0</v>
@@ -8035,7 +8032,7 @@
         <v>150000.0</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>41</v>
@@ -8064,7 +8061,7 @@
         <v>170000.0</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>41</v>
@@ -8093,10 +8090,10 @@
         <v>200000.0</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G73" s="1">
         <v>-1.0</v>
@@ -8122,7 +8119,7 @@
         <v>50000.0</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>28</v>
@@ -8157,7 +8154,7 @@
         <v>-1.0</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>0</v>
@@ -8180,7 +8177,7 @@
         <v>60000.0</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>72</v>
@@ -8209,7 +8206,7 @@
         <v>70000.0</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>72</v>
@@ -8232,7 +8229,7 @@
         <v>4.0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D78" s="1">
         <v>-1.0</v>
@@ -8267,10 +8264,10 @@
         <v>80000.0</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G79" s="1">
         <v>6.0</v>
@@ -8296,10 +8293,10 @@
         <v>90000.0</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G80" s="1">
         <v>22.0</v>
@@ -8325,10 +8322,10 @@
         <v>60000.0</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G81" s="1">
         <v>8.0</v>
@@ -8354,10 +8351,10 @@
         <v>70000.0</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G82" s="1">
         <v>9.0</v>
@@ -8383,10 +8380,10 @@
         <v>80000.0</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G83" s="1">
         <v>10.0</v>
@@ -8406,7 +8403,7 @@
         <v>10.0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D84" s="1">
         <v>-1.0</v>
@@ -8441,10 +8438,10 @@
         <v>90000.0</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G85" s="1">
         <v>22.0</v>
@@ -8470,10 +8467,10 @@
         <v>60000.0</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G86" s="1">
         <v>13.0</v>
@@ -8499,10 +8496,10 @@
         <v>70000.0</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G87" s="1">
         <v>14.0</v>
@@ -8522,7 +8519,7 @@
         <v>14.0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D88" s="1">
         <v>-1.0</v>
@@ -8557,10 +8554,10 @@
         <v>80000.0</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G89" s="1">
         <v>16.0</v>
@@ -8586,10 +8583,10 @@
         <v>90000.0</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G90" s="1">
         <v>22.0</v>
@@ -8615,10 +8612,10 @@
         <v>60000.0</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G91" s="1">
         <v>18.0</v>
@@ -8638,7 +8635,7 @@
         <v>18.0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D92" s="1">
         <v>-1.0</v>
@@ -8673,10 +8670,10 @@
         <v>70000.0</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G93" s="1">
         <v>20.0</v>
@@ -8702,10 +8699,10 @@
         <v>80000.0</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G94" s="1">
         <v>21.0</v>
@@ -8731,10 +8728,10 @@
         <v>90000.0</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G95" s="1">
         <v>22.0</v>
@@ -8760,10 +8757,10 @@
         <v>120000.0</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G96" s="1">
         <v>-1.0</v>
@@ -8789,7 +8786,7 @@
         <v>50000.0</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>72</v>
@@ -8818,13 +8815,13 @@
         <v>70000.0</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>72</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H98" s="1" t="b">
         <v>0</v>
@@ -8847,10 +8844,10 @@
         <v>80000.0</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G99" s="1">
         <v>3.0</v>
@@ -8905,10 +8902,10 @@
         <v>100000.0</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G101" s="1">
         <v>5.0</v>
@@ -8928,7 +8925,7 @@
         <v>5.0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D102" s="1">
         <v>-1.0</v>
@@ -8963,7 +8960,7 @@
         <v>120000.0</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>41</v>
@@ -8992,10 +8989,10 @@
         <v>75000.0</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G104" s="1">
         <v>8.0</v>
@@ -9021,10 +9018,10 @@
         <v>80000.0</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G105" s="1">
         <v>9.0</v>
@@ -9050,7 +9047,7 @@
         <v>90000.0</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>33</v>
@@ -9073,7 +9070,7 @@
         <v>10.0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D107" s="1">
         <v>-1.0</v>
@@ -9108,7 +9105,7 @@
         <v>100000.0</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>39</v>
@@ -9137,7 +9134,7 @@
         <v>120000.0</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>41</v>
@@ -9166,10 +9163,10 @@
         <v>150000.0</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G110" s="1">
         <v>-1.0</v>
@@ -9195,7 +9192,7 @@
         <v>80000.0</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>72</v>
@@ -9224,13 +9221,13 @@
         <v>85000.0</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>72</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H112" s="1" t="b">
         <v>0</v>
@@ -9253,7 +9250,7 @@
         <v>100000.0</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F113" s="10" t="s">
         <v>33</v>
@@ -9276,7 +9273,7 @@
         <v>3.0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D114" s="1">
         <v>-1.0</v>
@@ -9311,10 +9308,10 @@
         <v>120000.0</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G115" s="1">
         <v>6.0</v>
@@ -9340,13 +9337,13 @@
         <v>90000.0</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H116" s="1" t="b">
         <v>0</v>
@@ -9369,10 +9366,10 @@
         <v>95000.0</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G117" s="1">
         <v>7.0</v>
@@ -9398,10 +9395,10 @@
         <v>100000.0</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G118" s="1">
         <v>8.0</v>
@@ -9421,7 +9418,7 @@
         <v>8.0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D119" s="1">
         <v>-1.0</v>
@@ -9456,13 +9453,13 @@
         <v>95000.0</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F120" s="10" t="s">
         <v>72</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H120" s="1" t="b">
         <v>0</v>
@@ -9485,13 +9482,13 @@
         <v>100000.0</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H121" s="1" t="b">
         <v>0</v>
@@ -9543,13 +9540,13 @@
         <v>100000.0</v>
       </c>
       <c r="E123" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="H123" s="1" t="b">
         <v>0</v>
@@ -9572,7 +9569,7 @@
         <v>110000.0</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>41</v>
@@ -9595,7 +9592,7 @@
         <v>14.0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D125" s="1">
         <v>-1.0</v>
@@ -9630,10 +9627,10 @@
         <v>130000.0</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G126" s="1">
         <v>16.0</v>
@@ -9659,7 +9656,7 @@
         <v>115000.0</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F127" s="10" t="s">
         <v>41</v>
@@ -9688,10 +9685,10 @@
         <v>140000.0</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G128" s="1">
         <v>18.0</v>
@@ -9717,10 +9714,10 @@
         <v>160000.0</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G129" s="1">
         <v>-1.0</v>
@@ -9746,7 +9743,7 @@
         <v>80000.0</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F130" s="10" t="s">
         <v>72</v>
@@ -9775,13 +9772,13 @@
         <v>85000.0</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>72</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H131" s="1" t="b">
         <v>0</v>
@@ -9804,13 +9801,13 @@
         <v>100000.0</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H132" s="1" t="b">
         <v>0</v>
@@ -9833,7 +9830,7 @@
         <v>90000.0</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>33</v>
@@ -9862,10 +9859,10 @@
         <v>140000.0</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G134" s="1">
         <v>5.0</v>
@@ -9885,7 +9882,7 @@
         <v>5.0</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D135" s="1">
         <v>-1.0</v>
@@ -9897,7 +9894,7 @@
         <v>-1.0</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H135" s="1" t="b">
         <v>0</v>
@@ -9914,7 +9911,7 @@
         <v>6.0</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D136" s="1">
         <v>-1.0</v>
@@ -9949,13 +9946,13 @@
         <v>100000.0</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H137" s="1" t="b">
         <v>0</v>
@@ -9978,7 +9975,7 @@
         <v>110000.0</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F138" s="10" t="s">
         <v>33</v>
@@ -10007,7 +10004,7 @@
         <v>120000.0</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>33</v>
@@ -10036,13 +10033,13 @@
         <v>160000.0</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H140" s="1" t="b">
         <v>0</v>
@@ -10065,10 +10062,10 @@
         <v>80000.0</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G141" s="1">
         <v>12.0</v>
@@ -10123,10 +10120,10 @@
         <v>90000.0</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G143" s="1">
         <v>14.0</v>
@@ -10152,13 +10149,13 @@
         <v>80000.0</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H144" s="1" t="b">
         <v>0</v>
@@ -10181,10 +10178,10 @@
         <v>100000.0</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G145" s="1">
         <v>16.0</v>
@@ -10204,7 +10201,7 @@
         <v>16.0</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D146" s="1">
         <v>-1.0</v>
@@ -10239,10 +10236,10 @@
         <v>140000.0</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G147" s="1">
         <v>18.0</v>
@@ -10268,10 +10265,10 @@
         <v>110000.0</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G148" s="1">
         <v>21.0</v>
@@ -10291,7 +10288,7 @@
         <v>19.0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D149" s="1">
         <v>-1.0</v>
@@ -10326,10 +10323,10 @@
         <v>140000.0</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G150" s="1">
         <v>21.0</v>
@@ -10355,10 +10352,10 @@
         <v>160000.0</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G151" s="1">
         <v>22.0</v>
@@ -10384,10 +10381,10 @@
         <v>180000.0</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G152" s="1">
         <v>-1.0</v>
@@ -12991,7 +12988,7 @@
         <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>110</v>
@@ -13011,13 +13008,13 @@
         <v>120000.0</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>72</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
@@ -13044,7 +13041,7 @@
         <v>130000.0</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>72</v>
@@ -13077,7 +13074,7 @@
         <v>140000.0</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>33</v>
@@ -13110,7 +13107,7 @@
         <v>130000.0</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>72</v>
@@ -13143,7 +13140,7 @@
         <v>140000.0</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>33</v>
@@ -13169,7 +13166,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -13207,7 +13204,7 @@
         <v>160000.0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>41</v>
@@ -13239,7 +13236,7 @@
         <v>170000.0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>41</v>
@@ -13271,13 +13268,13 @@
         <v>140000.0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H10" s="1" t="b">
         <v>1</v>
@@ -13303,7 +13300,7 @@
         <v>150000.0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>33</v>
@@ -13335,7 +13332,7 @@
         <v>180000.0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>33</v>
@@ -13367,7 +13364,7 @@
         <v>200000.0</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>41</v>
@@ -13405,7 +13402,7 @@
         <v>-1.0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H14" s="1" t="b">
         <v>0</v>
@@ -13431,7 +13428,7 @@
         <v>200000.0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>41</v>
@@ -13463,7 +13460,7 @@
         <v>180000.0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>33</v>
@@ -13495,7 +13492,7 @@
         <v>180000.0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>33</v>
@@ -13527,7 +13524,7 @@
         <v>200000.0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>41</v>
@@ -13559,7 +13556,7 @@
         <v>140000.0</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>28</v>
@@ -13591,13 +13588,13 @@
         <v>140000.0</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H20" s="1" t="b">
         <v>0</v>
@@ -13623,7 +13620,7 @@
         <v>160000.0</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>32</v>
@@ -13649,7 +13646,7 @@
         <v>3.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D22" s="1">
         <v>-1.0</v>
@@ -13687,7 +13684,7 @@
         <v>150000.0</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>33</v>
@@ -13719,7 +13716,7 @@
         <v>150000.0</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>33</v>
@@ -13783,7 +13780,7 @@
         <v>180000.0</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F26" s="20" t="s">
         <v>41</v>
@@ -13815,7 +13812,7 @@
         <v>190000.0</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>41</v>
@@ -13847,10 +13844,10 @@
         <v>200000.0</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G28" s="1">
         <v>-1.0</v>
@@ -17016,7 +17013,7 @@
         <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>0</v>
@@ -17039,7 +17036,7 @@
         <v>90000.0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>32</v>
@@ -17062,7 +17059,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -17097,7 +17094,7 @@
         <v>110000.0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>41</v>
@@ -17155,7 +17152,7 @@
         <v>90000.0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>33</v>
@@ -17184,10 +17181,10 @@
         <v>120000.0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G10" s="1">
         <v>9.0</v>
@@ -17207,7 +17204,7 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="1">
         <v>-1.0</v>
@@ -17242,7 +17239,7 @@
         <v>150000.0</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>85</v>
@@ -17257,10 +17254,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="13">
@@ -17277,7 +17274,7 @@
         <v>80000.0</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>39</v>
@@ -17306,7 +17303,7 @@
         <v>85000.0</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>39</v>
@@ -17335,7 +17332,7 @@
         <v>90000.0</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>39</v>
@@ -17364,7 +17361,7 @@
         <v>100000.0</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>39</v>
@@ -17393,10 +17390,10 @@
         <v>110000.0</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G17" s="1">
         <v>5.0</v>
@@ -17422,10 +17419,10 @@
         <v>130000.0</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G18" s="1">
         <v>6.0</v>
@@ -17457,7 +17454,7 @@
         <v>-1.0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H19" s="1" t="b">
         <v>0</v>
@@ -17480,10 +17477,10 @@
         <v>150000.0</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G20" s="1">
         <v>8.0</v>
@@ -17509,10 +17506,10 @@
         <v>160000.0</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G21" s="1">
         <v>11.0</v>
@@ -17538,10 +17535,10 @@
         <v>170000.0</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G22" s="1">
         <v>10.0</v>
@@ -17567,10 +17564,10 @@
         <v>180000.0</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G23" s="1">
         <v>11.0</v>
@@ -17590,7 +17587,7 @@
         <v>11.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -17625,7 +17622,7 @@
         <v>200000.0</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>85</v>
@@ -17654,10 +17651,10 @@
         <v>180000.0</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G26" s="1">
         <v>-1.0</v>
@@ -17669,10 +17666,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27">
@@ -17718,13 +17715,13 @@
         <v>75000.0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>0</v>
@@ -17747,10 +17744,10 @@
         <v>80000.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G29" s="1">
         <v>3.0</v>
@@ -17776,10 +17773,10 @@
         <v>90000.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G30" s="1">
         <v>4.0</v>
@@ -17805,10 +17802,10 @@
         <v>100000.0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G31" s="1">
         <v>5.0</v>
@@ -17834,10 +17831,10 @@
         <v>110000.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G32" s="1">
         <v>14.0</v>
@@ -17863,7 +17860,7 @@
         <v>90000.0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>41</v>
@@ -17892,7 +17889,7 @@
         <v>95000.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>41</v>
@@ -17921,10 +17918,10 @@
         <v>110000.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G35" s="1">
         <v>9.0</v>
@@ -17944,7 +17941,7 @@
         <v>9.0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D36" s="1">
         <v>-1.0</v>
@@ -17979,10 +17976,10 @@
         <v>80000.0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G37" s="1">
         <v>11.0</v>
@@ -18008,10 +18005,10 @@
         <v>85000.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G38" s="1">
         <v>12.0</v>
@@ -18037,10 +18034,10 @@
         <v>90000.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G39" s="1">
         <v>13.0</v>
@@ -18066,10 +18063,10 @@
         <v>95000.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G40" s="1">
         <v>14.0</v>
@@ -18124,13 +18121,13 @@
         <v>100000.0</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>0</v>
@@ -18153,7 +18150,7 @@
         <v>110000.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>43</v>
@@ -18182,7 +18179,7 @@
         <v>120000.0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>43</v>
@@ -18211,7 +18208,7 @@
         <v>150000.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>85</v>
@@ -18240,10 +18237,10 @@
         <v>100000.0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G46" s="1">
         <v>20.0</v>
@@ -18269,10 +18266,10 @@
         <v>110000.0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G47" s="1">
         <v>21.0</v>
@@ -18298,10 +18295,10 @@
         <v>120000.0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G48" s="1">
         <v>22.0</v>
@@ -18327,10 +18324,10 @@
         <v>130000.0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G49" s="1">
         <v>23.0</v>
@@ -18356,7 +18353,7 @@
         <v>150000.0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>43</v>
@@ -18379,7 +18376,7 @@
         <v>24.0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D51" s="1">
         <v>-1.0</v>
@@ -18414,10 +18411,10 @@
         <v>200000.0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G52" s="1">
         <v>-1.0</v>
@@ -18429,10 +18426,10 @@
         <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -18483,7 +18480,7 @@
         <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>110</v>
@@ -18602,7 +18599,7 @@
         <v>123</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G5" s="1">
         <v>4.0</v>
@@ -18625,7 +18622,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -18666,7 +18663,7 @@
         <v>123</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G7" s="1">
         <v>-1.0</v>
@@ -18681,7 +18678,7 @@
         <v>2.0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8">
@@ -18698,7 +18695,7 @@
         <v>130000.0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>28</v>
@@ -18730,13 +18727,13 @@
         <v>140000.0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H9" s="1" t="b">
         <v>0</v>
@@ -18794,7 +18791,7 @@
         <v>200000.0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>33</v>
@@ -18826,7 +18823,7 @@
         <v>150000.0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>28</v>
@@ -18858,7 +18855,7 @@
         <v>150000.0</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>28</v>
@@ -18884,7 +18881,7 @@
         <v>6.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" s="1">
         <v>-1.0</v>
@@ -18922,10 +18919,10 @@
         <v>180000.0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G15" s="1">
         <v>-1.0</v>
@@ -18940,7 +18937,7 @@
         <v>2.0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16">
@@ -18957,7 +18954,7 @@
         <v>140000.0</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>28</v>
@@ -18989,7 +18986,7 @@
         <v>150000.0</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>33</v>
@@ -19015,7 +19012,7 @@
         <v>2.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -19053,7 +19050,7 @@
         <v>160000.0</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>33</v>
@@ -19085,7 +19082,7 @@
         <v>170000.0</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>33</v>
@@ -19117,10 +19114,10 @@
         <v>180000.0</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G21" s="1">
         <v>6.0</v>
@@ -19181,10 +19178,10 @@
         <v>190000.0</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G23" s="1">
         <v>8.0</v>
@@ -19213,10 +19210,10 @@
         <v>200000.0</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G24" s="1">
         <v>9.0</v>
@@ -19239,7 +19236,7 @@
         <v>9.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -19277,10 +19274,10 @@
         <v>200000.0</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G26" s="1">
         <v>-1.0</v>
@@ -19295,10 +19292,10 @@
         <v>3.0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27">
@@ -19347,16 +19344,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="E2" s="1">
         <v>500000.0</v>
@@ -19364,16 +19361,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>380</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>381</v>
       </c>
       <c r="E3" s="1">
         <v>600000.0</v>
@@ -19381,16 +19378,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>382</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>383</v>
       </c>
       <c r="E4" s="1">
         <v>700000.0</v>
@@ -19421,10 +19418,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>385</v>
       </c>
       <c r="E6" s="1">
         <v>300002.0</v>
@@ -19438,10 +19435,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>386</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>387</v>
       </c>
       <c r="E7" s="1">
         <v>400003.0</v>
@@ -19449,16 +19446,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="E8" s="1">
         <v>500004.0</v>
@@ -19466,16 +19463,16 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>391</v>
       </c>
       <c r="E9" s="1">
         <v>600005.0</v>
@@ -19483,13 +19480,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>45</v>
@@ -19506,10 +19503,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>394</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>395</v>
       </c>
       <c r="E11" s="1">
         <v>12000.0</v>
@@ -19546,10 +19543,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E13" s="1">
         <v>12000.0</v>
@@ -19566,7 +19563,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>59</v>
@@ -23976,7 +23973,7 @@
         <v>7.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D22" s="1">
         <v>-1.0</v>
@@ -24056,7 +24053,7 @@
       </c>
       <c r="J24" s="15"/>
       <c r="K24" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25">
@@ -24079,7 +24076,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>1</v>
@@ -24154,7 +24151,7 @@
         <v>3.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -24386,7 +24383,7 @@
         <v>11.0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D36" s="1">
         <v>-1.0</v>
@@ -24453,7 +24450,7 @@
         <v>123</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G38" s="7">
         <v>-1.0</v>
@@ -24479,13 +24476,13 @@
         <v>70000.0</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>74</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H39" s="1" t="b">
         <v>1</v>
@@ -24508,7 +24505,7 @@
         <v>75000.0</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>39</v>
@@ -24566,7 +24563,7 @@
         <v>75000.0</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>39</v>
@@ -24595,7 +24592,7 @@
         <v>80000.0</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>39</v>
@@ -24624,10 +24621,10 @@
         <v>85000.0</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G44" s="7">
         <v>12.0</v>
@@ -24653,7 +24650,7 @@
         <v>80000.0</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>74</v>
@@ -24682,7 +24679,7 @@
         <v>85000.0</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>32</v>
@@ -24711,7 +24708,7 @@
         <v>90000.0</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>32</v>
@@ -24740,7 +24737,7 @@
         <v>95000.0</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>39</v>
@@ -24769,7 +24766,7 @@
         <v>100000.0</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>39</v>
@@ -24798,7 +24795,7 @@
         <v>110000.0</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>41</v>
@@ -24827,10 +24824,10 @@
         <v>90000.0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G51" s="7">
         <v>-1.0</v>
@@ -24856,7 +24853,7 @@
         <v>70000.0</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>32</v>
@@ -24885,13 +24882,13 @@
         <v>80000.0</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>32</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>0</v>
@@ -24914,10 +24911,10 @@
         <v>120000.0</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G54" s="7">
         <v>6.0</v>
@@ -24943,7 +24940,7 @@
         <v>80000.0</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>33</v>
@@ -24972,7 +24969,7 @@
         <v>90000.0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>41</v>
@@ -25001,7 +24998,7 @@
         <v>80000.0</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>33</v>
@@ -25036,7 +25033,7 @@
         <v>-1.0</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H58" s="1" t="b">
         <v>0</v>
@@ -25059,7 +25056,7 @@
         <v>80000.0</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>33</v>
@@ -25088,10 +25085,10 @@
         <v>95000.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G60" s="7">
         <v>9.0</v>
@@ -25117,7 +25114,7 @@
         <v>80000.0</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>41</v>
@@ -25146,10 +25143,10 @@
         <v>130000.0</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G62" s="7">
         <v>11.0</v>
@@ -25175,7 +25172,7 @@
         <v>90000.0</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>41</v>
@@ -25204,7 +25201,7 @@
         <v>110000.0</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>43</v>
@@ -25233,13 +25230,13 @@
         <v>70000.0</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>1</v>
@@ -25262,7 +25259,7 @@
         <v>75000.0</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>41</v>
@@ -25291,7 +25288,7 @@
         <v>90000.0</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>43</v>
@@ -25320,7 +25317,7 @@
         <v>110000.0</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>85</v>
@@ -25349,7 +25346,7 @@
         <v>80000.0</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>41</v>
@@ -25378,7 +25375,7 @@
         <v>90000.0</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>43</v>
@@ -25407,7 +25404,7 @@
         <v>120000.0</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>85</v>
@@ -25459,7 +25456,7 @@
         <v>8.0</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D73" s="1">
         <v>-1.0</v>
@@ -25494,13 +25491,13 @@
         <v>70000.0</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H74" s="1" t="b">
         <v>0</v>
@@ -25523,7 +25520,7 @@
         <v>100000.0</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>43</v>
@@ -25552,7 +25549,7 @@
         <v>100000.0</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>43</v>
@@ -25581,10 +25578,10 @@
         <v>140000.0</v>
       </c>
       <c r="E77" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="G77" s="7">
         <v>-1.0</v>
@@ -25610,13 +25607,13 @@
         <v>70000.0</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H78" s="1" t="b">
         <v>1</v>
@@ -25639,7 +25636,7 @@
         <v>75000.0</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>41</v>
@@ -25668,7 +25665,7 @@
         <v>75000.0</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>41</v>
@@ -25697,10 +25694,10 @@
         <v>80000.0</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G81" s="7">
         <v>7.0</v>
@@ -25726,10 +25723,10 @@
         <v>90000.0</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G82" s="7">
         <v>5.0</v>
@@ -25755,10 +25752,10 @@
         <v>100000.0</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G83" s="7">
         <v>7.0</v>
@@ -25784,7 +25781,7 @@
         <v>140000.0</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>85</v>
@@ -25819,7 +25816,7 @@
         <v>-1.0</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H85" s="1" t="b">
         <v>0</v>
@@ -25842,7 +25839,7 @@
         <v>120000.0</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>43</v>
@@ -25865,7 +25862,7 @@
         <v>9.0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D87" s="1">
         <v>-1.0</v>
@@ -25900,10 +25897,10 @@
         <v>110000.0</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G88" s="7">
         <v>16.0</v>
@@ -25929,7 +25926,7 @@
         <v>120000.0</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>43</v>
@@ -25958,7 +25955,7 @@
         <v>140000.0</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>90</v>
@@ -25987,7 +25984,7 @@
         <v>100000.0</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>41</v>
@@ -26016,10 +26013,10 @@
         <v>100000.0</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G92" s="7">
         <v>15.0</v>
@@ -26045,7 +26042,7 @@
         <v>110000.0</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>43</v>
@@ -26074,7 +26071,7 @@
         <v>150000.0</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>90</v>
@@ -26103,7 +26100,7 @@
         <v>80000.0</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>39</v>
@@ -26132,7 +26129,7 @@
         <v>85000.0</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>41</v>
@@ -26161,10 +26158,10 @@
         <v>90000.0</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G97" s="7">
         <v>3.0</v>
@@ -26190,10 +26187,10 @@
         <v>90000.0</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G98" s="7">
         <v>4.0</v>
@@ -26219,13 +26216,13 @@
         <v>100000.0</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H99" s="1" t="b">
         <v>0</v>
@@ -26248,10 +26245,10 @@
         <v>140000.0</v>
       </c>
       <c r="E100" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F100" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="G100" s="7">
         <v>6.0</v>
@@ -26277,7 +26274,7 @@
         <v>100000.0</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>85</v>
@@ -26306,7 +26303,7 @@
         <v>110000.0</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>43</v>
@@ -26364,7 +26361,7 @@
         <v>90000.0</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>43</v>
@@ -26393,7 +26390,7 @@
         <v>95000.0</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>85</v>
@@ -26422,7 +26419,7 @@
         <v>120000.0</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>90</v>
@@ -26451,7 +26448,7 @@
         <v>140000.0</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>90</v>
@@ -26480,10 +26477,10 @@
         <v>160000.0</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G108" s="7">
         <v>-1.0</v>
@@ -26509,7 +26506,7 @@
         <v>75000.0</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>39</v>
@@ -26538,13 +26535,13 @@
         <v>80000.0</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H110" s="1" t="b">
         <v>0</v>
@@ -26567,10 +26564,10 @@
         <v>85000.0</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G111" s="7">
         <v>3.0</v>
@@ -26596,10 +26593,10 @@
         <v>85000.0</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G112" s="7">
         <v>4.0</v>
@@ -26619,7 +26616,7 @@
         <v>4.0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D113" s="1">
         <v>-1.0</v>
@@ -26654,7 +26651,7 @@
         <v>80000.0</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F114" s="10" t="s">
         <v>43</v>
@@ -26683,7 +26680,7 @@
         <v>100000.0</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>85</v>
@@ -26712,10 +26709,10 @@
         <v>120000.0</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G116" s="7">
         <v>8.0</v>
@@ -26741,7 +26738,7 @@
         <v>90000.0</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F117" s="10" t="s">
         <v>85</v>
@@ -26770,10 +26767,10 @@
         <v>120000.0</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G118" s="7">
         <v>10.0</v>
@@ -26799,10 +26796,10 @@
         <v>100000.0</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G119" s="7">
         <v>16.0</v>
@@ -26828,10 +26825,10 @@
         <v>110000.0</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G120" s="7">
         <v>12.0</v>
@@ -26857,10 +26854,10 @@
         <v>130000.0</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G121" s="7">
         <v>13.0</v>
@@ -26880,7 +26877,7 @@
         <v>13.0</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D122" s="1">
         <v>-1.0</v>
@@ -26915,7 +26912,7 @@
         <v>140000.0</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>90</v>
@@ -26944,7 +26941,7 @@
         <v>150000.0</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>90</v>
@@ -26973,10 +26970,10 @@
         <v>180000.0</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G125" s="7">
         <v>-1.0</v>
@@ -27002,7 +26999,7 @@
         <v>80000.0</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>41</v>
@@ -27025,7 +27022,7 @@
         <v>1.0</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D127" s="1">
         <v>-1.0</v>
@@ -27060,7 +27057,7 @@
         <v>90000.0</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F128" s="10" t="s">
         <v>41</v>
@@ -27089,10 +27086,10 @@
         <v>90000.0</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G129" s="7">
         <v>4.0</v>
@@ -27118,10 +27115,10 @@
         <v>95000.0</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G130" s="7">
         <v>5.0</v>
@@ -27147,7 +27144,7 @@
         <v>95000.0</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>43</v>
@@ -27176,13 +27173,13 @@
         <v>100000.0</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H132" s="1" t="b">
         <v>0</v>
@@ -27199,7 +27196,7 @@
         <v>7.0</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D133" s="1">
         <v>-1.0</v>
@@ -27234,10 +27231,10 @@
         <v>120000.0</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G134" s="7">
         <v>9.0</v>
@@ -27263,10 +27260,10 @@
         <v>130000.0</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G135" s="7">
         <v>10.0</v>
@@ -27292,10 +27289,10 @@
         <v>140000.0</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G136" s="7">
         <v>13.0</v>
@@ -27321,10 +27318,10 @@
         <v>180000.0</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G137" s="7">
         <v>12.0</v>
@@ -27350,10 +27347,10 @@
         <v>190000.0</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G138" s="7">
         <v>13.0</v>
@@ -27408,10 +27405,10 @@
         <v>220000.0</v>
       </c>
       <c r="E140" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F140" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="F140" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="G140" s="7">
         <v>-1.0</v>
@@ -27437,10 +27434,10 @@
         <v>80000.0</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G141" s="7">
         <v>1.0</v>
@@ -27466,10 +27463,10 @@
         <v>90000.0</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G142" s="7">
         <v>2.0</v>
@@ -27495,10 +27492,10 @@
         <v>95000.0</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G143" s="7">
         <v>3.0</v>
@@ -27524,10 +27521,10 @@
         <v>95000.0</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G144" s="7">
         <v>4.0</v>
@@ -27553,10 +27550,10 @@
         <v>100000.0</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G145" s="7">
         <v>5.0</v>
@@ -27582,10 +27579,10 @@
         <v>105000.0</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G146" s="7">
         <v>6.0</v>
@@ -27611,10 +27608,10 @@
         <v>110000.0</v>
       </c>
       <c r="E147" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F147" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="F147" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="G147" s="7">
         <v>7.0</v>
@@ -27640,10 +27637,10 @@
         <v>110000.0</v>
       </c>
       <c r="E148" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F148" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="F148" s="10" t="s">
-        <v>167</v>
       </c>
       <c r="G148" s="7">
         <v>8.0</v>
@@ -27698,10 +27695,10 @@
         <v>110000.0</v>
       </c>
       <c r="E150" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F150" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="F150" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="G150" s="7">
         <v>10.0</v>
@@ -27727,10 +27724,10 @@
         <v>115000.0</v>
       </c>
       <c r="E151" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F151" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="F151" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="G151" s="7">
         <v>11.0</v>
@@ -27756,10 +27753,10 @@
         <v>120000.0</v>
       </c>
       <c r="E152" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F152" s="10" t="s">
         <v>168</v>
-      </c>
-      <c r="F152" s="10" t="s">
-        <v>169</v>
       </c>
       <c r="G152" s="7">
         <v>12.0</v>
@@ -27779,7 +27776,7 @@
         <v>12.0</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D153" s="1">
         <v>-1.0</v>
@@ -27814,10 +27811,10 @@
         <v>130000.0</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G154" s="7">
         <v>14.0</v>
@@ -27843,10 +27840,10 @@
         <v>130000.0</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G155" s="7">
         <v>15.0</v>
@@ -27872,10 +27869,10 @@
         <v>140000.0</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G156" s="7">
         <v>16.0</v>
@@ -27901,10 +27898,10 @@
         <v>140000.0</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G157" s="7">
         <v>17.0</v>
@@ -27959,10 +27956,10 @@
         <v>150000.0</v>
       </c>
       <c r="E159" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F159" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="F159" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="G159" s="7">
         <v>19.0</v>
@@ -27988,10 +27985,10 @@
         <v>160000.0</v>
       </c>
       <c r="E160" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F160" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="F160" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="G160" s="7">
         <v>20.0</v>
@@ -28017,10 +28014,10 @@
         <v>170000.0</v>
       </c>
       <c r="E161" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F161" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="F161" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="G161" s="7">
         <v>21.0</v>
@@ -28046,10 +28043,10 @@
         <v>180000.0</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G162" s="7">
         <v>-1.0</v>
@@ -33132,7 +33129,7 @@
         <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>110</v>
@@ -33306,7 +33303,7 @@
         <v>2.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -33475,7 +33472,7 @@
         <v>123</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G12" s="7">
         <v>-1.0</v>
@@ -33504,13 +33501,13 @@
         <v>100000.0</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H13" s="1" t="b">
         <v>1</v>
@@ -33536,7 +33533,7 @@
         <v>110000.0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>33</v>
@@ -33562,7 +33559,7 @@
         <v>2.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -33603,7 +33600,7 @@
         <v>123</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G16" s="7">
         <v>6.0</v>
@@ -33635,7 +33632,7 @@
         <v>123</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7">
         <v>5.0</v>
@@ -33667,7 +33664,7 @@
         <v>123</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G18" s="7">
         <v>6.0</v>
@@ -33728,7 +33725,7 @@
         <v>120000.0</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>39</v>
@@ -33760,7 +33757,7 @@
         <v>120000.0</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>41</v>
@@ -33792,13 +33789,13 @@
         <v>140000.0</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H22" s="1" t="b">
         <v>0</v>
@@ -33856,7 +33853,7 @@
         <v>120000.0</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>43</v>
@@ -33888,7 +33885,7 @@
         <v>120000.0</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>43</v>
@@ -33920,7 +33917,7 @@
         <v>160000.0</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>43</v>
@@ -33952,10 +33949,10 @@
         <v>180000.0</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G27" s="7">
         <v>-1.0</v>
@@ -33984,7 +33981,7 @@
         <v>130000.0</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>39</v>
@@ -34016,13 +34013,13 @@
         <v>130000.0</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H29" s="1" t="b">
         <v>0</v>
@@ -34048,7 +34045,7 @@
         <v>150000.0</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>43</v>
@@ -34106,7 +34103,7 @@
         <v>4.0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" s="1">
         <v>-1.0</v>
@@ -34144,7 +34141,7 @@
         <v>150000.0</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>43</v>
@@ -34176,10 +34173,10 @@
         <v>180000.0</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G34" s="7">
         <v>7.0</v>
@@ -34208,7 +34205,7 @@
         <v>150000.0</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>43</v>
@@ -34240,7 +34237,7 @@
         <v>160000.0</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>28</v>
@@ -34272,7 +34269,7 @@
         <v>170000.0</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>33</v>
@@ -34304,13 +34301,13 @@
         <v>170000.0</v>
       </c>
       <c r="E38" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H38" s="1" t="b">
         <v>0</v>
@@ -34336,7 +34333,7 @@
         <v>210000.0</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>43</v>
@@ -34362,7 +34359,7 @@
         <v>4.0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="1">
         <v>-1.0</v>
@@ -34400,10 +34397,10 @@
         <v>170000.0</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G41" s="7">
         <v>6.0</v>
@@ -34432,10 +34429,10 @@
         <v>180000.0</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G42" s="7">
         <v>7.0</v>
@@ -34464,10 +34461,10 @@
         <v>180000.0</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G43" s="7">
         <v>8.0</v>
@@ -34496,10 +34493,10 @@
         <v>190000.0</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G44" s="7">
         <v>9.0</v>
@@ -34560,7 +34557,7 @@
         <v>210000.0</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>43</v>
@@ -34592,10 +34589,10 @@
         <v>220000.0</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G47" s="7">
         <v>-1.0</v>
@@ -40267,13 +40264,13 @@
         <v>70000.0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
@@ -40296,7 +40293,7 @@
         <v>75000.0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>41</v>
@@ -40354,10 +40351,10 @@
         <v>100000.0</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G5" s="1">
         <v>4.0</v>
@@ -40377,7 +40374,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -40412,7 +40409,7 @@
         <v>110000.0</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>85</v>
@@ -40441,7 +40438,7 @@
         <v>80000.0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>41</v>
@@ -40470,10 +40467,10 @@
         <v>80000.0</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G9" s="1">
         <v>8.0</v>
@@ -40528,7 +40525,7 @@
         <v>90000.0</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>85</v>
@@ -40557,7 +40554,7 @@
         <v>95000.0</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>85</v>
@@ -40586,7 +40583,7 @@
         <v>80000.0</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>41</v>
@@ -40615,10 +40612,10 @@
         <v>120000.0</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G14" s="1">
         <v>13.0</v>
@@ -40638,7 +40635,7 @@
         <v>13.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" s="1">
         <v>-1.0</v>
@@ -40673,7 +40670,7 @@
         <v>90000.0</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>85</v>
@@ -40702,13 +40699,13 @@
         <v>110000.0</v>
       </c>
       <c r="E17" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="H17" s="1" t="b">
         <v>0</v>
@@ -40731,10 +40728,10 @@
         <v>120000.0</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G18" s="1">
         <v>17.0</v>
@@ -40754,7 +40751,7 @@
         <v>17.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D19" s="1">
         <v>-1.0</v>
@@ -40789,10 +40786,10 @@
         <v>150000.0</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G20" s="1">
         <v>-1.0</v>
@@ -40818,13 +40815,13 @@
         <v>80000.0</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H21" s="1" t="b">
         <v>1</v>
@@ -40847,10 +40844,10 @@
         <v>85000.0</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G22" s="1">
         <v>2.0</v>
@@ -40876,10 +40873,10 @@
         <v>90000.0</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G23" s="1">
         <v>3.0</v>
@@ -40899,7 +40896,7 @@
         <v>3.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -40934,13 +40931,13 @@
         <v>90000.0</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
@@ -40963,10 +40960,10 @@
         <v>110000.0</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G26" s="1">
         <v>16.0</v>
@@ -40992,7 +40989,7 @@
         <v>90000.0</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>41</v>
@@ -41021,13 +41018,13 @@
         <v>95000.0</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>0</v>
@@ -41050,7 +41047,7 @@
         <v>120000.0</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>43</v>
@@ -41079,7 +41076,7 @@
         <v>130000.0</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>43</v>
@@ -41108,10 +41105,10 @@
         <v>100000.0</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G31" s="1">
         <v>11.0</v>
@@ -41137,7 +41134,7 @@
         <v>110000.0</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>43</v>
@@ -41160,7 +41157,7 @@
         <v>12.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D33" s="1">
         <v>-1.0</v>
@@ -41195,13 +41192,13 @@
         <v>130000.0</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="H34" s="1" t="b">
         <v>0</v>
@@ -41253,7 +41250,7 @@
         <v>160000.0</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>90</v>
@@ -41276,7 +41273,7 @@
         <v>16.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" s="1">
         <v>-1.0</v>
@@ -41311,7 +41308,7 @@
         <v>140000.0</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>54</v>
@@ -41340,10 +41337,10 @@
         <v>160000.0</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G39" s="1">
         <v>-1.0</v>
@@ -41369,10 +41366,10 @@
         <v>60000.0</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G40" s="1">
         <v>1.0</v>
@@ -41398,13 +41395,13 @@
         <v>65000.0</v>
       </c>
       <c r="E41" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="H41" s="1" t="b">
         <v>0</v>
@@ -41427,13 +41424,13 @@
         <v>70000.0</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>0</v>
@@ -41456,10 +41453,10 @@
         <v>75000.0</v>
       </c>
       <c r="E43" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" s="10" t="s">
         <v>202</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>203</v>
       </c>
       <c r="G43" s="1">
         <v>5.0</v>
@@ -41485,7 +41482,7 @@
         <v>80000.0</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>43</v>
@@ -41514,10 +41511,10 @@
         <v>120000.0</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G45" s="1">
         <v>6.0</v>
@@ -41537,7 +41534,7 @@
         <v>6.0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D46" s="1">
         <v>-1.0</v>
@@ -41572,7 +41569,7 @@
         <v>70000.0</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>43</v>
@@ -41601,10 +41598,10 @@
         <v>75000.0</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G48" s="1">
         <v>9.0</v>
@@ -41630,10 +41627,10 @@
         <v>80000.0</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G49" s="1">
         <v>10.0</v>
@@ -41653,7 +41650,7 @@
         <v>10.0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D50" s="1">
         <v>-1.0</v>
@@ -41688,10 +41685,10 @@
         <v>120000.0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G51" s="1">
         <v>12.0</v>
@@ -41717,10 +41714,10 @@
         <v>100000.0</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G52" s="1">
         <v>13.0</v>
@@ -41775,10 +41772,10 @@
         <v>120000.0</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G54" s="1">
         <v>15.0</v>
@@ -41804,10 +41801,10 @@
         <v>100000.0</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G55" s="1">
         <v>16.0</v>
@@ -41833,7 +41830,7 @@
         <v>140000.0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>54</v>
@@ -41862,10 +41859,10 @@
         <v>160000.0</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G57" s="1">
         <v>-1.0</v>
@@ -41891,10 +41888,10 @@
         <v>80000.0</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G58" s="1">
         <v>1.0</v>
@@ -41920,10 +41917,10 @@
         <v>90000.0</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G59" s="1">
         <v>2.0</v>
@@ -41949,10 +41946,10 @@
         <v>95000.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G60" s="1">
         <v>3.0</v>
@@ -41978,7 +41975,7 @@
         <v>100000.0</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>43</v>
@@ -42007,10 +42004,10 @@
         <v>120000.0</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G62" s="1">
         <v>5.0</v>
@@ -42065,7 +42062,7 @@
         <v>150000.0</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>90</v>
@@ -42094,13 +42091,13 @@
         <v>100000.0</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>85</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>0</v>
@@ -42123,10 +42120,10 @@
         <v>200000.0</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G66" s="1">
         <v>17.0</v>
@@ -42152,7 +42149,7 @@
         <v>110000.0</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>85</v>
@@ -42181,10 +42178,10 @@
         <v>130000.0</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G68" s="1">
         <v>16.0</v>
@@ -42210,7 +42207,7 @@
         <v>110000.0</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>85</v>
@@ -42233,7 +42230,7 @@
         <v>12.0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D70" s="1">
         <v>-1.0</v>
@@ -42268,10 +42265,10 @@
         <v>140000.0</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G71" s="1">
         <v>14.0</v>
@@ -42297,10 +42294,10 @@
         <v>150000.0</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G72" s="1">
         <v>15.0</v>
@@ -42326,10 +42323,10 @@
         <v>160000.0</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G73" s="1">
         <v>10.0</v>
@@ -42355,10 +42352,10 @@
         <v>180000.0</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G74" s="1">
         <v>17.0</v>
@@ -42384,10 +42381,10 @@
         <v>200000.0</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G75" s="1">
         <v>18.0</v>
@@ -42413,10 +42410,10 @@
         <v>220000.0</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G76" s="1">
         <v>-1.0</v>
@@ -45235,7 +45232,7 @@
         <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>110</v>
@@ -45255,7 +45252,7 @@
         <v>110000.0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>33</v>
@@ -45287,7 +45284,7 @@
         <v>120000.0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>33</v>
@@ -45325,7 +45322,7 @@
         <v>-1.0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>0</v>
@@ -45351,7 +45348,7 @@
         <v>130000.0</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>33</v>
@@ -45383,10 +45380,10 @@
         <v>160000.0</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" s="1">
         <v>7.0</v>
@@ -45415,7 +45412,7 @@
         <v>140000.0</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>33</v>
@@ -45447,10 +45444,10 @@
         <v>160000.0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G8" s="1">
         <v>7.0</v>
@@ -45479,7 +45476,7 @@
         <v>140000.0</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>32</v>
@@ -45511,13 +45508,13 @@
         <v>140000.0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>72</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H10" s="1" t="b">
         <v>1</v>
@@ -45575,7 +45572,7 @@
         <v>160000.0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>33</v>
@@ -45601,7 +45598,7 @@
         <v>3.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="1">
         <v>-1.0</v>
@@ -45639,10 +45636,10 @@
         <v>200000.0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G14" s="1">
         <v>6.0</v>
@@ -45671,7 +45668,7 @@
         <v>160000.0</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F15" s="11" t="s">
         <v>33</v>
@@ -45703,7 +45700,7 @@
         <v>180000.0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>33</v>
@@ -45735,13 +45732,13 @@
         <v>140000.0</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H17" s="1" t="b">
         <v>1</v>
@@ -45767,7 +45764,7 @@
         <v>140000.0</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>41</v>
@@ -45799,7 +45796,7 @@
         <v>140000.0</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>41</v>
@@ -45831,7 +45828,7 @@
         <v>140000.0</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>41</v>
@@ -45863,7 +45860,7 @@
         <v>160000.0</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>43</v>
@@ -45895,7 +45892,7 @@
         <v>160000.0</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>43</v>
@@ -45927,7 +45924,7 @@
         <v>180000.0</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>43</v>
@@ -45953,7 +45950,7 @@
         <v>7.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -45991,7 +45988,7 @@
         <v>200000.0</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>43</v>
@@ -49098,7 +49095,7 @@
         <v>-1.0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H4" s="1" t="b">
         <v>0</v>
@@ -49202,7 +49199,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="1">
         <v>-1.0</v>
@@ -49289,7 +49286,7 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="1">
         <v>-1.0</v>
@@ -49327,7 +49324,7 @@
         <v>123</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G12" s="1">
         <v>-1.0</v>
@@ -49353,7 +49350,7 @@
         <v>100000.0</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>32</v>
@@ -49382,7 +49379,7 @@
         <v>80000.0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>33</v>
@@ -49440,7 +49437,7 @@
         <v>80000.0</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>33</v>
@@ -49469,13 +49466,13 @@
         <v>90000.0</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H17" s="1" t="b">
         <v>0</v>
@@ -49498,7 +49495,7 @@
         <v>180000.0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>43</v>
@@ -49527,7 +49524,7 @@
         <v>100000.0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>41</v>
@@ -49556,10 +49553,10 @@
         <v>110000.0</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G20" s="1">
         <v>8.0</v>
@@ -49585,7 +49582,7 @@
         <v>110000.0</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>43</v>
@@ -49614,7 +49611,7 @@
         <v>110000.0</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>41</v>
@@ -49643,10 +49640,10 @@
         <v>120000.0</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G23" s="1">
         <v>-1.0</v>
@@ -49675,7 +49672,7 @@
         <v>123</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G24" s="1">
         <v>1.0</v>
@@ -49701,10 +49698,10 @@
         <v>75000.0</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G25" s="1">
         <v>2.0</v>
@@ -49730,10 +49727,10 @@
         <v>80000.0</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G26" s="1">
         <v>3.0</v>
@@ -49759,7 +49756,7 @@
         <v>85000.0</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>43</v>
@@ -49788,13 +49785,13 @@
         <v>90000.0</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>0</v>
@@ -49817,10 +49814,10 @@
         <v>250000.0</v>
       </c>
       <c r="E29" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>218</v>
       </c>
       <c r="G29" s="1">
         <v>15.0</v>
@@ -49846,10 +49843,10 @@
         <v>100000.0</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G30" s="1">
         <v>7.0</v>
@@ -49875,7 +49872,7 @@
         <v>100000.0</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>43</v>
@@ -49904,7 +49901,7 @@
         <v>110000.0</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>43</v>
@@ -49962,10 +49959,10 @@
         <v>130000.0</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G34" s="1">
         <v>11.0</v>
@@ -49985,7 +49982,7 @@
         <v>11.0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D35" s="1">
         <v>-1.0</v>
@@ -50020,10 +50017,10 @@
         <v>150000.0</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G36" s="1">
         <v>13.0</v>
@@ -50043,7 +50040,7 @@
         <v>13.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D37" s="1">
         <v>-1.0</v>
@@ -50078,10 +50075,10 @@
         <v>100000.0</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G38" s="1">
         <v>15.0</v>
@@ -50107,10 +50104,10 @@
         <v>120000.0</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G39" s="1">
         <v>16.0</v>
@@ -50136,10 +50133,10 @@
         <v>140000.0</v>
       </c>
       <c r="E40" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>221</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="G40" s="1">
         <v>-1.0</v>
@@ -50165,7 +50162,7 @@
         <v>100000.0</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>32</v>
@@ -50194,13 +50191,13 @@
         <v>110000.0</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>32</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>0</v>
@@ -50223,7 +50220,7 @@
         <v>110000.0</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>33</v>
@@ -50246,7 +50243,7 @@
         <v>3.0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D44" s="1">
         <v>-1.0</v>
@@ -50281,10 +50278,10 @@
         <v>120000.0</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G45" s="1">
         <v>13.0</v>
@@ -50310,13 +50307,13 @@
         <v>125000.0</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H46" s="1" t="b">
         <v>0</v>
@@ -50339,7 +50336,7 @@
         <v>125000.0</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>33</v>
@@ -50368,13 +50365,13 @@
         <v>140000.0</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H48" s="1" t="b">
         <v>0</v>
@@ -50397,7 +50394,7 @@
         <v>110000.0</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>33</v>
@@ -50455,7 +50452,7 @@
         <v>110000.0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>41</v>
@@ -50484,10 +50481,10 @@
         <v>120000.0</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G52" s="1">
         <v>12.0</v>
@@ -50507,7 +50504,7 @@
         <v>12.0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D53" s="1">
         <v>-1.0</v>
@@ -50542,7 +50539,7 @@
         <v>120000.0</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>43</v>
@@ -50571,10 +50568,10 @@
         <v>130000.0</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G55" s="1">
         <v>15.0</v>
@@ -50600,10 +50597,10 @@
         <v>150000.0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G56" s="1">
         <v>-1.0</v>
@@ -50629,7 +50626,7 @@
         <v>90000.0</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>33</v>
@@ -50658,7 +50655,7 @@
         <v>100000.0</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>33</v>
@@ -50687,13 +50684,13 @@
         <v>110000.0</v>
       </c>
       <c r="E59" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="H59" s="1" t="b">
         <v>0</v>
@@ -50716,10 +50713,10 @@
         <v>120000.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G60" s="1">
         <v>4.0</v>
@@ -50745,10 +50742,10 @@
         <v>140000.0</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G61" s="1">
         <v>5.0</v>
@@ -50768,7 +50765,7 @@
         <v>5.0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D62" s="1">
         <v>-1.0</v>
@@ -50780,7 +50777,7 @@
         <v>-1.0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H62" s="1" t="b">
         <v>0</v>
@@ -50803,13 +50800,13 @@
         <v>100000.0</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H63" s="1" t="b">
         <v>0</v>
@@ -50832,10 +50829,10 @@
         <v>100000.0</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G64" s="1">
         <v>8.0</v>
@@ -50861,10 +50858,10 @@
         <v>150000.0</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G65" s="1">
         <v>16.0</v>
@@ -50890,10 +50887,10 @@
         <v>100000.0</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G66" s="1">
         <v>10.0</v>
@@ -50919,13 +50916,13 @@
         <v>120000.0</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H67" s="1" t="b">
         <v>0</v>
@@ -50977,10 +50974,10 @@
         <v>100000.0</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G69" s="1">
         <v>13.0</v>
@@ -51006,10 +51003,10 @@
         <v>120000.0</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G70" s="1">
         <v>14.0</v>
@@ -51035,10 +51032,10 @@
         <v>140000.0</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G71" s="1">
         <v>15.0</v>
@@ -51058,7 +51055,7 @@
         <v>15.0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D72" s="1">
         <v>-1.0</v>
@@ -51093,10 +51090,10 @@
         <v>160000.0</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G73" s="1">
         <v>-1.0</v>
@@ -51122,7 +51119,7 @@
         <v>60000.0</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>41</v>
@@ -51151,13 +51148,13 @@
         <v>65000.0</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>0</v>
@@ -51180,10 +51177,10 @@
         <v>70000.0</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G76" s="1">
         <v>3.0</v>
@@ -51209,10 +51206,10 @@
         <v>75000.0</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G77" s="1">
         <v>4.0</v>
@@ -51238,10 +51235,10 @@
         <v>80000.0</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G78" s="1">
         <v>5.0</v>
@@ -51267,10 +51264,10 @@
         <v>85000.0</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G79" s="1">
         <v>6.0</v>
@@ -51296,10 +51293,10 @@
         <v>100000.0</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G80" s="1">
         <v>12.0</v>
@@ -51325,13 +51322,13 @@
         <v>110000.0</v>
       </c>
       <c r="E81" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="H81" s="1" t="b">
         <v>0</v>
@@ -51354,13 +51351,13 @@
         <v>120000.0</v>
       </c>
       <c r="E82" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="H82" s="1" t="b">
         <v>0</v>
@@ -51383,10 +51380,10 @@
         <v>150000.0</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G83" s="1">
         <v>10.0</v>
@@ -51406,7 +51403,7 @@
         <v>10.0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D84" s="1">
         <v>-1.0</v>
@@ -51470,10 +51467,10 @@
         <v>170000.0</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G86" s="1">
         <v>-1.0</v>
@@ -51499,7 +51496,7 @@
         <v>80000.0</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>39</v>
@@ -51528,13 +51525,13 @@
         <v>85000.0</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H88" s="1" t="b">
         <v>0</v>
@@ -51557,13 +51554,13 @@
         <v>90000.0</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H89" s="1" t="b">
         <v>0</v>
@@ -51586,7 +51583,7 @@
         <v>90000.0</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>41</v>
@@ -51615,13 +51612,13 @@
         <v>100000.0</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H91" s="1" t="b">
         <v>0</v>
@@ -51644,10 +51641,10 @@
         <v>120000.0</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G92" s="1">
         <v>6.0</v>
@@ -51702,10 +51699,10 @@
         <v>80000.0</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G94" s="1">
         <v>8.0</v>
@@ -51731,7 +51728,7 @@
         <v>100000.0</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>43</v>
@@ -51754,7 +51751,7 @@
         <v>9.0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D96" s="1">
         <v>-1.0</v>
@@ -51789,10 +51786,10 @@
         <v>120000.0</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G97" s="1">
         <v>14.0</v>
@@ -51818,7 +51815,7 @@
         <v>80000.0</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>39</v>
@@ -51847,7 +51844,7 @@
         <v>90000.0</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>41</v>
@@ -51876,7 +51873,7 @@
         <v>120000.0</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>43</v>
@@ -51905,10 +51902,10 @@
         <v>110000.0</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G101" s="1">
         <v>15.0</v>
@@ -51934,7 +51931,7 @@
         <v>130000.0</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>43</v>
@@ -51963,10 +51960,10 @@
         <v>150000.0</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G103" s="1">
         <v>17.0</v>
@@ -51992,10 +51989,10 @@
         <v>180000.0</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G104" s="1">
         <v>-1.0</v>
@@ -52021,7 +52018,7 @@
         <v>70000.0</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>39</v>
@@ -52050,13 +52047,13 @@
         <v>75000.0</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H106" s="1" t="b">
         <v>0</v>
@@ -52079,13 +52076,13 @@
         <v>80000.0</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H107" s="1" t="b">
         <v>0</v>
@@ -52108,7 +52105,7 @@
         <v>100000.0</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>43</v>
@@ -52137,7 +52134,7 @@
         <v>90000.0</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>43</v>
@@ -52166,10 +52163,10 @@
         <v>120000.0</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G110" s="1">
         <v>12.0</v>
@@ -52195,10 +52192,10 @@
         <v>100000.0</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G111" s="1">
         <v>7.0</v>
@@ -52224,10 +52221,10 @@
         <v>110000.0</v>
       </c>
       <c r="E112" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F112" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>252</v>
       </c>
       <c r="G112" s="1">
         <v>14.0</v>
@@ -52253,7 +52250,7 @@
         <v>130000.0</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F113" s="10" t="s">
         <v>41</v>
@@ -52288,7 +52285,7 @@
         <v>-1.0</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H114" s="1" t="b">
         <v>0</v>
@@ -52311,10 +52308,10 @@
         <v>140000.0</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G115" s="1">
         <v>11.0</v>
@@ -52340,7 +52337,7 @@
         <v>120000.0</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F116" s="10" t="s">
         <v>43</v>
@@ -52363,7 +52360,7 @@
         <v>12.0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D117" s="1">
         <v>-1.0</v>
@@ -52398,13 +52395,13 @@
         <v>120000.0</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H118" s="1" t="b">
         <v>0</v>
@@ -52427,10 +52424,10 @@
         <v>140000.0</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G119" s="1">
         <v>20.0</v>
@@ -52456,7 +52453,7 @@
         <v>80000.0</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F120" s="10" t="s">
         <v>41</v>
@@ -52485,7 +52482,7 @@
         <v>90000.0</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F121" s="10" t="s">
         <v>41</v>
@@ -52514,13 +52511,13 @@
         <v>100000.0</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H122" s="1" t="b">
         <v>0</v>
@@ -52543,10 +52540,10 @@
         <v>180000.0</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G123" s="1">
         <v>13.0</v>
@@ -52572,10 +52569,10 @@
         <v>150000.0</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G124" s="1">
         <v>14.0</v>
@@ -52601,10 +52598,10 @@
         <v>150000.0</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G125" s="1">
         <v>-1.0</v>
@@ -52630,7 +52627,7 @@
         <v>70000.0</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>41</v>
@@ -52659,7 +52656,7 @@
         <v>75000.0</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F127" s="10" t="s">
         <v>41</v>
@@ -52688,7 +52685,7 @@
         <v>80000.0</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F128" s="10" t="s">
         <v>41</v>
@@ -52717,7 +52714,7 @@
         <v>85000.0</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>41</v>
@@ -52746,10 +52743,10 @@
         <v>90000.0</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G130" s="1">
         <v>5.0</v>
@@ -52775,10 +52772,10 @@
         <v>95000.0</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G131" s="1">
         <v>6.0</v>
@@ -52804,10 +52801,10 @@
         <v>100000.0</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G132" s="1">
         <v>7.0</v>
@@ -52833,10 +52830,10 @@
         <v>105000.0</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G133" s="1">
         <v>8.0</v>
@@ -52856,7 +52853,7 @@
         <v>8.0</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D134" s="1">
         <v>-1.0</v>
@@ -52891,10 +52888,10 @@
         <v>110000.0</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G135" s="1">
         <v>10.0</v>
@@ -52920,10 +52917,10 @@
         <v>120000.0</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G136" s="1">
         <v>11.0</v>
@@ -52949,10 +52946,10 @@
         <v>130000.0</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G137" s="1">
         <v>12.0</v>
@@ -52978,10 +52975,10 @@
         <v>140000.0</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G138" s="1">
         <v>13.0</v>
@@ -53036,10 +53033,10 @@
         <v>140000.0</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G140" s="1">
         <v>15.0</v>
@@ -53065,10 +53062,10 @@
         <v>140000.0</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G141" s="1">
         <v>16.0</v>
@@ -53094,10 +53091,10 @@
         <v>150000.0</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G142" s="1">
         <v>17.0</v>
@@ -53123,10 +53120,10 @@
         <v>150000.0</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G143" s="1">
         <v>18.0</v>
@@ -53152,10 +53149,10 @@
         <v>150000.0</v>
       </c>
       <c r="E144" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G144" s="1">
         <v>19.0</v>
@@ -53181,10 +53178,10 @@
         <v>150000.0</v>
       </c>
       <c r="E145" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G145" s="1">
         <v>20.0</v>
@@ -53210,10 +53207,10 @@
         <v>160000.0</v>
       </c>
       <c r="E146" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G146" s="1">
         <v>-1.0</v>
@@ -53239,10 +53236,10 @@
         <v>50000.0</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G147" s="1">
         <v>1.0</v>
@@ -53268,10 +53265,10 @@
         <v>55000.0</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G148" s="1">
         <v>2.0</v>
@@ -53297,10 +53294,10 @@
         <v>60000.0</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G149" s="1">
         <v>3.0</v>
@@ -53326,10 +53323,10 @@
         <v>65000.0</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G150" s="1">
         <v>4.0</v>
@@ -53355,10 +53352,10 @@
         <v>70000.0</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G151" s="1">
         <v>5.0</v>
@@ -53384,10 +53381,10 @@
         <v>75000.0</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G152" s="1">
         <v>6.0</v>
@@ -53413,10 +53410,10 @@
         <v>80000.0</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G153" s="1">
         <v>7.0</v>
@@ -53442,10 +53439,10 @@
         <v>100000.0</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G154" s="1">
         <v>8.0</v>
@@ -53500,10 +53497,10 @@
         <v>130000.0</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G156" s="1">
         <v>10.0</v>
@@ -53529,13 +53526,13 @@
         <v>50000.0</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H157" s="1" t="b">
         <v>0</v>
@@ -53558,10 +53555,10 @@
         <v>70000.0</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G158" s="1">
         <v>12.0</v>
@@ -53581,7 +53578,7 @@
         <v>12.0</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D159" s="1">
         <v>-1.0</v>
@@ -53616,13 +53613,13 @@
         <v>80000.0</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H160" s="1" t="b">
         <v>0</v>
@@ -53639,7 +53636,7 @@
         <v>14.0</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D161" s="1">
         <v>-1.0</v>
@@ -53651,7 +53648,7 @@
         <v>-1.0</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H161" s="1" t="b">
         <v>0</v>
@@ -53674,10 +53671,10 @@
         <v>120000.0</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G162" s="1">
         <v>27.0</v>
@@ -53703,10 +53700,10 @@
         <v>70000.0</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G163" s="1">
         <v>17.0</v>
@@ -53726,7 +53723,7 @@
         <v>17.0</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D164" s="1">
         <v>-1.0</v>
@@ -53761,13 +53758,13 @@
         <v>90000.0</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H165" s="1" t="b">
         <v>0</v>
@@ -53790,10 +53787,10 @@
         <v>100000.0</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G166" s="1">
         <v>20.0</v>
@@ -53813,7 +53810,7 @@
         <v>20.0</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D167" s="1">
         <v>-1.0</v>
@@ -53825,7 +53822,7 @@
         <v>-1.0</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H167" s="1" t="b">
         <v>0</v>
@@ -53848,10 +53845,10 @@
         <v>110000.0</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G168" s="1">
         <v>26.0</v>
@@ -53877,10 +53874,10 @@
         <v>70000.0</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F169" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G169" s="1">
         <v>23.0</v>
@@ -53900,7 +53897,7 @@
         <v>23.0</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D170" s="1">
         <v>-1.0</v>
@@ -53912,7 +53909,7 @@
         <v>-1.0</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H170" s="1" t="b">
         <v>0</v>
@@ -53935,10 +53932,10 @@
         <v>90000.0</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G171" s="1">
         <v>25.0</v>
@@ -53964,10 +53961,10 @@
         <v>100000.0</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G172" s="1">
         <v>26.0</v>
@@ -53987,7 +53984,7 @@
         <v>26.0</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D173" s="1">
         <v>-1.0</v>
@@ -54022,10 +54019,10 @@
         <v>150000.0</v>
       </c>
       <c r="E174" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F174" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="F174" s="10" t="s">
-        <v>274</v>
       </c>
       <c r="G174" s="1">
         <v>-1.0</v>
@@ -57350,7 +57347,7 @@
         <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>110</v>
@@ -57376,7 +57373,7 @@
         <v>72</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
@@ -57460,7 +57457,7 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1">
         <v>-1.0</v>
@@ -57533,7 +57530,7 @@
         <v>123</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G7" s="1">
         <v>-1.0</v>
@@ -57562,10 +57559,10 @@
         <v>100000.0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G8" s="1">
         <v>1.0</v>
@@ -57594,13 +57591,13 @@
         <v>100000.0</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F9" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="H9" s="1" t="b">
         <v>0</v>
@@ -57620,7 +57617,7 @@
         <v>2.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="1">
         <v>-1.0</v>
@@ -57658,10 +57655,10 @@
         <v>140000.0</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G11" s="1">
         <v>6.0</v>
@@ -57722,10 +57719,10 @@
         <v>150000.0</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G13" s="1">
         <v>6.0</v>
@@ -57754,10 +57751,10 @@
         <v>130000.0</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G14" s="1">
         <v>-1.0</v>
@@ -57786,7 +57783,7 @@
         <v>120000.0</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>39</v>
@@ -57818,13 +57815,13 @@
         <v>120000.0</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H16" s="1" t="b">
         <v>0</v>
@@ -57850,10 +57847,10 @@
         <v>130000.0</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G17" s="1">
         <v>3.0</v>
@@ -57882,10 +57879,10 @@
         <v>140000.0</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G18" s="1">
         <v>5.0</v>
@@ -57914,7 +57911,7 @@
         <v>160000.0</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>43</v>
@@ -57946,7 +57943,7 @@
         <v>140000.0</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>43</v>
@@ -57972,7 +57969,7 @@
         <v>6.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D21" s="1">
         <v>-1.0</v>
@@ -58010,7 +58007,7 @@
         <v>180000.0</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>43</v>
@@ -61971,13 +61968,13 @@
         <v>70000.0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
@@ -62000,10 +61997,10 @@
         <v>75000.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G3" s="1">
         <v>2.0</v>
@@ -62029,7 +62026,7 @@
         <v>90000.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>66</v>
@@ -62087,7 +62084,7 @@
         <v>110000.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>67</v>
@@ -62110,7 +62107,7 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1">
         <v>-1.0</v>
@@ -62145,10 +62142,10 @@
         <v>80000.0</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G8" s="1">
         <v>7.0</v>
@@ -62174,10 +62171,10 @@
         <v>85000.0</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G9" s="1">
         <v>4.0</v>
@@ -62203,10 +62200,10 @@
         <v>90000.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G10" s="1">
         <v>9.0</v>
@@ -62232,13 +62229,13 @@
         <v>95000.0</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H11" s="1" t="b">
         <v>0</v>
@@ -62261,7 +62258,7 @@
         <v>110000.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>67</v>
@@ -62284,7 +62281,7 @@
         <v>11.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="1">
         <v>-1.0</v>
@@ -62319,10 +62316,10 @@
         <v>90000.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G14" s="1">
         <v>13.0</v>
@@ -62348,10 +62345,10 @@
         <v>130000.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G15" s="1">
         <v>-1.0</v>
@@ -62377,10 +62374,10 @@
         <v>70000.0</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G16" s="1">
         <v>1.0</v>
@@ -62406,10 +62403,10 @@
         <v>75000.0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G17" s="1">
         <v>2.0</v>
@@ -62435,13 +62432,13 @@
         <v>80000.0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H18" s="1" t="b">
         <v>0</v>
@@ -62493,7 +62490,7 @@
         <v>100000.0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>67</v>
@@ -62522,10 +62519,10 @@
         <v>80000.0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G21" s="1">
         <v>6.0</v>
@@ -62551,7 +62548,7 @@
         <v>100000.0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>67</v>
@@ -62574,7 +62571,7 @@
         <v>7.0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23" s="1">
         <v>-1.0</v>
@@ -62609,10 +62606,10 @@
         <v>120000.0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G24" s="1">
         <v>9.0</v>
@@ -62638,13 +62635,13 @@
         <v>100000.0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
@@ -62667,7 +62664,7 @@
         <v>110000.0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>67</v>
@@ -62696,13 +62693,13 @@
         <v>130000.0</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="H27" s="1" t="b">
         <v>0</v>
@@ -62719,7 +62716,7 @@
         <v>12.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -62754,10 +62751,10 @@
         <v>100000.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G29" s="1">
         <v>6.0</v>
@@ -62783,7 +62780,7 @@
         <v>160000.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>72</v>
@@ -62812,7 +62809,7 @@
         <v>70000.0</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>67</v>
@@ -62841,7 +62838,7 @@
         <v>80000.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>67</v>
@@ -62876,7 +62873,7 @@
         <v>-1.0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H33" s="1" t="b">
         <v>0</v>
@@ -62899,7 +62896,7 @@
         <v>80000.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>67</v>
@@ -62928,7 +62925,7 @@
         <v>85000.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>67</v>
@@ -62951,7 +62948,7 @@
         <v>5.0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D36" s="1">
         <v>-1.0</v>
@@ -62986,10 +62983,10 @@
         <v>100000.0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G37" s="1">
         <v>7.0</v>
@@ -63015,10 +63012,10 @@
         <v>120000.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G38" s="1">
         <v>8.0</v>
@@ -63044,7 +63041,7 @@
         <v>90000.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>67</v>
@@ -63073,7 +63070,7 @@
         <v>100000.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>67</v>
@@ -63102,7 +63099,7 @@
         <v>110000.0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>67</v>
@@ -63125,7 +63122,7 @@
         <v>11.0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="1">
         <v>-1.0</v>
@@ -63160,10 +63157,10 @@
         <v>120000.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G43" s="1">
         <v>13.0</v>
@@ -63189,10 +63186,10 @@
         <v>140000.0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G44" s="1">
         <v>8.0</v>
@@ -63218,10 +63215,10 @@
         <v>170000.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G45" s="1">
         <v>-1.0</v>
@@ -63247,7 +63244,7 @@
         <v>80000.0</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>67</v>
@@ -63276,7 +63273,7 @@
         <v>85000.0</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>67</v>
@@ -63305,13 +63302,13 @@
         <v>90000.0</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>67</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H48" s="1" t="b">
         <v>0</v>
@@ -63334,13 +63331,13 @@
         <v>110000.0</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F49" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="H49" s="1" t="b">
         <v>0</v>
@@ -63392,10 +63389,10 @@
         <v>140000.0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G51" s="1">
         <v>6.0</v>
@@ -63421,10 +63418,10 @@
         <v>110000.0</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G52" s="1">
         <v>14.0</v>
@@ -63450,13 +63447,13 @@
         <v>100000.0</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>0</v>
@@ -63479,10 +63476,10 @@
         <v>105000.0</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G54" s="1">
         <v>6.0</v>
@@ -63508,10 +63505,10 @@
         <v>110000.0</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G55" s="1">
         <v>10.0</v>
@@ -63537,10 +63534,10 @@
         <v>130000.0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G56" s="1">
         <v>11.0</v>
@@ -63560,7 +63557,7 @@
         <v>11.0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D57" s="1">
         <v>-1.0</v>
@@ -63595,10 +63592,10 @@
         <v>160000.0</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G58" s="1">
         <v>13.0</v>
@@ -63618,7 +63615,7 @@
         <v>13.0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D59" s="1">
         <v>-1.0</v>
@@ -63653,10 +63650,10 @@
         <v>120000.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G60" s="1">
         <v>15.0</v>
@@ -63676,7 +63673,7 @@
         <v>15.0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D61" s="1">
         <v>-1.0</v>
@@ -63711,10 +63708,10 @@
         <v>140000.0</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G62" s="1">
         <v>17.0</v>
@@ -63740,10 +63737,10 @@
         <v>160000.0</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G63" s="1">
         <v>-1.0</v>
@@ -63769,10 +63766,10 @@
         <v>50000.0</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G64" s="1">
         <v>1.0</v>
@@ -63798,13 +63795,13 @@
         <v>55000.0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>0</v>
@@ -63827,13 +63824,13 @@
         <v>60000.0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H66" s="1" t="b">
         <v>0</v>
@@ -63856,10 +63853,10 @@
         <v>65000.0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G67" s="1">
         <v>4.0</v>
@@ -63885,13 +63882,13 @@
         <v>70000.0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H68" s="1" t="b">
         <v>0</v>
@@ -63914,10 +63911,10 @@
         <v>75000.0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G69" s="1">
         <v>6.0</v>
@@ -63943,10 +63940,10 @@
         <v>90000.0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G70" s="1">
         <v>16.0</v>
@@ -63972,10 +63969,10 @@
         <v>80000.0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G71" s="1">
         <v>8.0</v>
@@ -63995,7 +63992,7 @@
         <v>8.0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D72" s="1">
         <v>-1.0</v>
@@ -64030,10 +64027,10 @@
         <v>90000.0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G73" s="1">
         <v>4.0</v>
@@ -64059,10 +64056,10 @@
         <v>80000.0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G74" s="1">
         <v>11.0</v>
@@ -64117,10 +64114,10 @@
         <v>90000.0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G76" s="1">
         <v>3.0</v>
@@ -64146,10 +64143,10 @@
         <v>90000.0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G77" s="1">
         <v>14.0</v>
@@ -64169,7 +64166,7 @@
         <v>14.0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D78" s="1">
         <v>-1.0</v>
@@ -64204,10 +64201,10 @@
         <v>100000.0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G79" s="1">
         <v>6.0</v>
@@ -64233,10 +64230,10 @@
         <v>120000.0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G80" s="1">
         <v>-1.0</v>
@@ -64262,10 +64259,10 @@
         <v>70000.0</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G81" s="1">
         <v>1.0</v>
@@ -64291,10 +64288,10 @@
         <v>75000.0</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G82" s="1">
         <v>2.0</v>
@@ -64320,13 +64317,13 @@
         <v>80000.0</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H83" s="1" t="b">
         <v>0</v>
@@ -64349,10 +64346,10 @@
         <v>100000.0</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G84" s="1">
         <v>5.0</v>
@@ -64384,7 +64381,7 @@
         <v>-1.0</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H85" s="1" t="b">
         <v>0</v>
@@ -64407,13 +64404,13 @@
         <v>120000.0</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H86" s="1" t="b">
         <v>0</v>
@@ -64436,7 +64433,7 @@
         <v>110000.0</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>72</v>
@@ -64465,7 +64462,7 @@
         <v>115000.0</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>72</v>
@@ -64494,10 +64491,10 @@
         <v>80000.0</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G89" s="1">
         <v>4.0</v>
@@ -64523,7 +64520,7 @@
         <v>85000.0</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>72</v>
@@ -64552,7 +64549,7 @@
         <v>90000.0</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>72</v>
@@ -64581,13 +64578,13 @@
         <v>100000.0</v>
       </c>
       <c r="E92" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="H92" s="1" t="b">
         <v>0</v>
@@ -64610,10 +64607,10 @@
         <v>150000.0</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G93" s="1">
         <v>13.0</v>
@@ -64639,7 +64636,7 @@
         <v>120000.0</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>33</v>
@@ -64668,10 +64665,10 @@
         <v>100000.0</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G95" s="1">
         <v>15.0</v>
@@ -64691,7 +64688,7 @@
         <v>15.0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D96" s="1">
         <v>-1.0</v>
@@ -64726,7 +64723,7 @@
         <v>100000.0</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>72</v>
@@ -64755,10 +64752,10 @@
         <v>110000.0</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G98" s="1">
         <v>13.0</v>
@@ -64784,10 +64781,10 @@
         <v>140000.0</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G99" s="1">
         <v>-1.0</v>
@@ -64813,13 +64810,13 @@
         <v>80000.0</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>72</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H100" s="1" t="b">
         <v>1</v>
@@ -64842,7 +64839,7 @@
         <v>85000.0</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>72</v>
@@ -64871,7 +64868,7 @@
         <v>90000.0</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>72</v>
@@ -64906,7 +64903,7 @@
         <v>-1.0</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H103" s="1" t="b">
         <v>0</v>
@@ -64929,10 +64926,10 @@
         <v>120000.0</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G104" s="1">
         <v>5.0</v>
@@ -64958,10 +64955,10 @@
         <v>90000.0</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G105" s="1">
         <v>6.0</v>
@@ -64987,10 +64984,10 @@
         <v>95000.0</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G106" s="1">
         <v>7.0</v>
@@ -65016,10 +65013,10 @@
         <v>120000.0</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G107" s="1">
         <v>18.0</v>
@@ -65045,13 +65042,13 @@
         <v>90000.0</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H108" s="1" t="b">
         <v>0</v>
@@ -65074,10 +65071,10 @@
         <v>95000.0</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G109" s="1">
         <v>10.0</v>
@@ -65103,10 +65100,10 @@
         <v>100000.0</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G110" s="1">
         <v>3.0</v>
@@ -65132,10 +65129,10 @@
         <v>100000.0</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G111" s="1">
         <v>12.0</v>
@@ -65161,13 +65158,13 @@
         <v>100000.0</v>
       </c>
       <c r="E112" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="H112" s="1" t="b">
         <v>0</v>
@@ -65184,7 +65181,7 @@
         <v>13.0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D113" s="1">
         <v>-1.0</v>
@@ -65219,10 +65216,10 @@
         <v>120000.0</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G114" s="1">
         <v>15.0</v>
@@ -65248,10 +65245,10 @@
         <v>140000.0</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G115" s="1">
         <v>16.0</v>
@@ -65271,7 +65268,7 @@
         <v>16.0</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D116" s="1">
         <v>-1.0</v>
@@ -65306,10 +65303,10 @@
         <v>160000.0</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G117" s="1">
         <v>16.0</v>
@@ -65335,10 +65332,10 @@
         <v>180000.0</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G118" s="1">
         <v>-1.0</v>
@@ -65364,7 +65361,7 @@
         <v>80000.0</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F119" s="10" t="s">
         <v>66</v>
@@ -65393,13 +65390,13 @@
         <v>85000.0</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F120" s="10" t="s">
         <v>66</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H120" s="1" t="b">
         <v>0</v>
@@ -65422,7 +65419,7 @@
         <v>90000.0</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F121" s="10" t="s">
         <v>66</v>
@@ -65451,13 +65448,13 @@
         <v>95000.0</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F122" s="10" t="s">
         <v>66</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H122" s="1" t="b">
         <v>0</v>
@@ -65480,7 +65477,7 @@
         <v>100000.0</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>28</v>
@@ -65509,7 +65506,7 @@
         <v>110000.0</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>28</v>
@@ -65538,7 +65535,7 @@
         <v>110000.0</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F125" s="10" t="s">
         <v>28</v>
@@ -65567,7 +65564,7 @@
         <v>130000.0</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>72</v>
@@ -65625,7 +65622,7 @@
         <v>110000.0</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F128" s="10" t="s">
         <v>66</v>
@@ -65654,7 +65651,7 @@
         <v>130000.0</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>28</v>
@@ -65677,7 +65674,7 @@
         <v>11.0</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D130" s="1">
         <v>-1.0</v>
@@ -65712,7 +65709,7 @@
         <v>170000.0</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>72</v>
@@ -65741,7 +65738,7 @@
         <v>120000.0</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>28</v>
@@ -65770,7 +65767,7 @@
         <v>120000.0</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>28</v>
@@ -65799,7 +65796,7 @@
         <v>130000.0</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F134" s="10" t="s">
         <v>28</v>
@@ -65822,7 +65819,7 @@
         <v>16.0</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D135" s="1">
         <v>-1.0</v>
@@ -65857,7 +65854,7 @@
         <v>150000.0</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F136" s="10" t="s">
         <v>72</v>
@@ -65886,7 +65883,7 @@
         <v>180000.0</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>33</v>
@@ -65915,7 +65912,7 @@
         <v>100000.0</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F138" s="10" t="s">
         <v>72</v>
@@ -65944,7 +65941,7 @@
         <v>110000.0</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>72</v>
@@ -65973,7 +65970,7 @@
         <v>120000.0</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F140" s="10" t="s">
         <v>72</v>
@@ -66002,10 +65999,10 @@
         <v>200000.0</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G141" s="1">
         <v>-1.0</v>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="399">
   <si>
     <t>Stage_Mission</t>
   </si>
@@ -84,7 +84,7 @@
     <t>전투 헬기를 잡아주세요.</t>
   </si>
   <si>
-    <t>2,1</t>
+    <t>0,1</t>
   </si>
   <si>
     <t>5,0</t>
@@ -204,7 +204,7 @@
     <t>여왕거미를 잡아주세요.</t>
   </si>
   <si>
-    <t>0,1</t>
+    <t>2,1</t>
   </si>
   <si>
     <t>2,2</t>
@@ -1155,7 +1155,13 @@
     <t>0,98,9</t>
   </si>
   <si>
+    <t>0,98,7</t>
+  </si>
+  <si>
     <t>Trasure</t>
+  </si>
+  <si>
+    <t>2,98,9</t>
   </si>
   <si>
     <t>8번 NPC를 호위하세요 (체력 2000)</t>
@@ -18678,7 +18684,7 @@
         <v>2.0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8">
@@ -19012,7 +19018,7 @@
         <v>2.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -19292,7 +19298,7 @@
         <v>3.0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>358</v>
@@ -19350,10 +19356,10 @@
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E2" s="1">
         <v>500000.0</v>
@@ -19367,10 +19373,10 @@
         <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E3" s="1">
         <v>600000.0</v>
@@ -19384,10 +19390,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E4" s="1">
         <v>700000.0</v>
@@ -19412,16 +19418,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E6" s="1">
         <v>300002.0</v>
@@ -19435,10 +19441,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E7" s="1">
         <v>400003.0</v>
@@ -19452,10 +19458,10 @@
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E8" s="1">
         <v>500004.0</v>
@@ -19469,10 +19475,10 @@
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E9" s="1">
         <v>600005.0</v>
@@ -19480,13 +19486,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>45</v>
@@ -19503,10 +19509,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E11" s="1">
         <v>12000.0</v>
@@ -19543,7 +19549,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>307</v>
@@ -19563,10 +19569,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E14" s="1">
         <v>22000.0</v>
@@ -19745,7 +19751,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E8" s="1">
         <v>10000.0</v>
@@ -20505,7 +20511,7 @@
         <v>58</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E46" s="1">
         <v>10000.0</v>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -564,7 +564,7 @@
     <t>3,6</t>
   </si>
   <si>
-    <t>2,4,6</t>
+    <t>2,4</t>
   </si>
   <si>
     <t>5,10,11,13</t>
@@ -855,9 +855,6 @@
     <t>7,6</t>
   </si>
   <si>
-    <t>2,4</t>
-  </si>
-  <si>
     <t>7,7</t>
   </si>
   <si>
@@ -1090,6 +1087,9 @@
   </si>
   <si>
     <t>6,8</t>
+  </si>
+  <si>
+    <t>2,4,6</t>
   </si>
   <si>
     <t>0,2,3,4,7,11</t>
@@ -6359,7 +6359,7 @@
         <v>123</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G13" s="1">
         <v>12.0</v>
@@ -6388,7 +6388,7 @@
         <v>123</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G14" s="1">
         <v>8.0</v>
@@ -6414,7 +6414,7 @@
         <v>140000.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>175</v>
@@ -6443,7 +6443,7 @@
         <v>170000.0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>175</v>
@@ -6565,7 +6565,7 @@
         <v>72</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H20" s="1" t="b">
         <v>0</v>
@@ -6588,7 +6588,7 @@
         <v>120000.0</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>33</v>
@@ -6710,7 +6710,7 @@
         <v>72</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
@@ -6762,7 +6762,7 @@
         <v>150000.0</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>41</v>
@@ -6823,7 +6823,7 @@
         <v>132</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G29" s="1">
         <v>14.0</v>
@@ -6907,7 +6907,7 @@
         <v>130000.0</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>175</v>
@@ -6936,7 +6936,7 @@
         <v>160000.0</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>175</v>
@@ -6965,7 +6965,7 @@
         <v>170000.0</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>175</v>
@@ -7000,7 +7000,7 @@
         <v>67</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H35" s="1" t="b">
         <v>1</v>
@@ -7058,7 +7058,7 @@
         <v>72</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H37" s="1" t="b">
         <v>0</v>
@@ -7084,10 +7084,10 @@
         <v>134</v>
       </c>
       <c r="F38" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="H38" s="1" t="b">
         <v>0</v>
@@ -7110,7 +7110,7 @@
         <v>140000.0</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>175</v>
@@ -7139,7 +7139,7 @@
         <v>160000.0</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>175</v>
@@ -7168,7 +7168,7 @@
         <v>180000.0</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>175</v>
@@ -7203,7 +7203,7 @@
         <v>72</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>0</v>
@@ -7232,7 +7232,7 @@
         <v>-1.0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H43" s="1" t="b">
         <v>0</v>
@@ -7287,7 +7287,7 @@
         <v>134</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G45" s="1">
         <v>6.0</v>
@@ -7313,7 +7313,7 @@
         <v>140000.0</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>175</v>
@@ -7374,7 +7374,7 @@
         <v>134</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G48" s="1">
         <v>14.0</v>
@@ -7406,7 +7406,7 @@
         <v>-1.0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H49" s="1" t="b">
         <v>0</v>
@@ -7429,7 +7429,7 @@
         <v>150000.0</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>175</v>
@@ -7516,7 +7516,7 @@
         <v>200000.0</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>136</v>
@@ -7896,7 +7896,7 @@
         <v>236</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G66" s="1">
         <v>13.0</v>
@@ -7925,7 +7925,7 @@
         <v>236</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G67" s="1">
         <v>14.0</v>
@@ -7954,7 +7954,7 @@
         <v>236</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G68" s="1">
         <v>15.0</v>
@@ -7983,7 +7983,7 @@
         <v>236</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G69" s="1">
         <v>16.0</v>
@@ -8160,7 +8160,7 @@
         <v>-1.0</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>0</v>
@@ -8183,7 +8183,7 @@
         <v>60000.0</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>72</v>
@@ -8212,7 +8212,7 @@
         <v>70000.0</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>72</v>
@@ -8270,10 +8270,10 @@
         <v>80000.0</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G79" s="1">
         <v>6.0</v>
@@ -8299,10 +8299,10 @@
         <v>90000.0</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G80" s="1">
         <v>22.0</v>
@@ -8328,10 +8328,10 @@
         <v>60000.0</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G81" s="1">
         <v>8.0</v>
@@ -8357,10 +8357,10 @@
         <v>70000.0</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G82" s="1">
         <v>9.0</v>
@@ -8386,10 +8386,10 @@
         <v>80000.0</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G83" s="1">
         <v>10.0</v>
@@ -8444,10 +8444,10 @@
         <v>90000.0</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G85" s="1">
         <v>22.0</v>
@@ -8473,10 +8473,10 @@
         <v>60000.0</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G86" s="1">
         <v>13.0</v>
@@ -8502,10 +8502,10 @@
         <v>70000.0</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G87" s="1">
         <v>14.0</v>
@@ -8560,10 +8560,10 @@
         <v>80000.0</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G89" s="1">
         <v>16.0</v>
@@ -8589,10 +8589,10 @@
         <v>90000.0</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G90" s="1">
         <v>22.0</v>
@@ -8618,10 +8618,10 @@
         <v>60000.0</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G91" s="1">
         <v>18.0</v>
@@ -8676,10 +8676,10 @@
         <v>70000.0</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G93" s="1">
         <v>20.0</v>
@@ -8705,10 +8705,10 @@
         <v>80000.0</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G94" s="1">
         <v>21.0</v>
@@ -8734,10 +8734,10 @@
         <v>90000.0</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G95" s="1">
         <v>22.0</v>
@@ -8763,7 +8763,7 @@
         <v>120000.0</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>164</v>
@@ -8792,7 +8792,7 @@
         <v>50000.0</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>72</v>
@@ -8853,7 +8853,7 @@
         <v>192</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G99" s="1">
         <v>3.0</v>
@@ -8908,7 +8908,7 @@
         <v>100000.0</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>175</v>
@@ -8966,7 +8966,7 @@
         <v>120000.0</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>41</v>
@@ -8998,7 +8998,7 @@
         <v>192</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G104" s="1">
         <v>8.0</v>
@@ -9027,7 +9027,7 @@
         <v>192</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G105" s="1">
         <v>9.0</v>
@@ -9053,7 +9053,7 @@
         <v>90000.0</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>33</v>
@@ -9111,7 +9111,7 @@
         <v>100000.0</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>39</v>
@@ -9140,7 +9140,7 @@
         <v>120000.0</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>41</v>
@@ -9169,7 +9169,7 @@
         <v>150000.0</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>136</v>
@@ -9198,7 +9198,7 @@
         <v>80000.0</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>72</v>
@@ -9227,13 +9227,13 @@
         <v>85000.0</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>72</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H112" s="1" t="b">
         <v>0</v>
@@ -9256,7 +9256,7 @@
         <v>100000.0</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F113" s="10" t="s">
         <v>33</v>
@@ -9314,7 +9314,7 @@
         <v>120000.0</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>136</v>
@@ -9343,10 +9343,10 @@
         <v>90000.0</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>270</v>
@@ -9372,10 +9372,10 @@
         <v>95000.0</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G117" s="1">
         <v>7.0</v>
@@ -9401,7 +9401,7 @@
         <v>100000.0</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F118" s="10" t="s">
         <v>175</v>
@@ -9459,13 +9459,13 @@
         <v>95000.0</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F120" s="10" t="s">
         <v>72</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H120" s="1" t="b">
         <v>0</v>
@@ -9488,13 +9488,13 @@
         <v>100000.0</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H121" s="1" t="b">
         <v>0</v>
@@ -9546,13 +9546,13 @@
         <v>100000.0</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>136</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H123" s="1" t="b">
         <v>0</v>
@@ -9575,7 +9575,7 @@
         <v>110000.0</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>41</v>
@@ -9633,7 +9633,7 @@
         <v>130000.0</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>136</v>
@@ -9662,7 +9662,7 @@
         <v>115000.0</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F127" s="10" t="s">
         <v>41</v>
@@ -9691,7 +9691,7 @@
         <v>140000.0</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F128" s="10" t="s">
         <v>128</v>
@@ -9720,7 +9720,7 @@
         <v>160000.0</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>128</v>
@@ -9865,7 +9865,7 @@
         <v>140000.0</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F134" s="10" t="s">
         <v>136</v>
@@ -9900,7 +9900,7 @@
         <v>-1.0</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H135" s="1" t="b">
         <v>0</v>
@@ -9958,7 +9958,7 @@
         <v>33</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H137" s="1" t="b">
         <v>0</v>
@@ -10039,13 +10039,13 @@
         <v>160000.0</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H140" s="1" t="b">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>90000.0</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F143" s="10" t="s">
         <v>136</v>
@@ -10161,7 +10161,7 @@
         <v>175</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H144" s="1" t="b">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>167</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G151" s="1">
         <v>22.0</v>
@@ -13600,7 +13600,7 @@
         <v>28</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>179</v>
+        <v>354</v>
       </c>
       <c r="H20" s="1" t="b">
         <v>0</v>
@@ -17985,7 +17985,7 @@
         <v>369</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G37" s="1">
         <v>11.0</v>
@@ -18014,7 +18014,7 @@
         <v>369</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G38" s="1">
         <v>12.0</v>
@@ -18043,7 +18043,7 @@
         <v>369</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G39" s="1">
         <v>13.0</v>
@@ -18739,7 +18739,7 @@
         <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="H9" s="1" t="b">
         <v>0</v>
@@ -19187,7 +19187,7 @@
         <v>182</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G23" s="1">
         <v>8.0</v>
@@ -19219,7 +19219,7 @@
         <v>182</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G24" s="1">
         <v>9.0</v>
@@ -19283,7 +19283,7 @@
         <v>182</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G26" s="1">
         <v>-1.0</v>
@@ -19469,7 +19469,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
@@ -19552,7 +19552,7 @@
         <v>397</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E13" s="1">
         <v>12000.0</v>
@@ -57603,7 +57603,7 @@
         <v>275</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="H9" s="1" t="b">
         <v>0</v>
@@ -57664,7 +57664,7 @@
         <v>209</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G11" s="1">
         <v>6.0</v>
@@ -57728,7 +57728,7 @@
         <v>209</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G13" s="1">
         <v>6.0</v>
@@ -57827,7 +57827,7 @@
         <v>39</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>276</v>
+        <v>179</v>
       </c>
       <c r="H16" s="1" t="b">
         <v>0</v>
@@ -57856,7 +57856,7 @@
         <v>151</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G17" s="1">
         <v>3.0</v>
@@ -61977,10 +61977,10 @@
         <v>129</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
@@ -62003,10 +62003,10 @@
         <v>75000.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G3" s="1">
         <v>2.0</v>
@@ -62032,7 +62032,7 @@
         <v>90000.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>66</v>
@@ -62090,7 +62090,7 @@
         <v>110000.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>67</v>
@@ -62148,10 +62148,10 @@
         <v>80000.0</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G8" s="1">
         <v>7.0</v>
@@ -62177,10 +62177,10 @@
         <v>85000.0</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G9" s="1">
         <v>4.0</v>
@@ -62206,10 +62206,10 @@
         <v>90000.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G10" s="1">
         <v>9.0</v>
@@ -62235,10 +62235,10 @@
         <v>95000.0</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>139</v>
@@ -62264,7 +62264,7 @@
         <v>110000.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>67</v>
@@ -62322,10 +62322,10 @@
         <v>90000.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G14" s="1">
         <v>13.0</v>
@@ -62351,10 +62351,10 @@
         <v>130000.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G15" s="1">
         <v>-1.0</v>
@@ -62383,7 +62383,7 @@
         <v>132</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G16" s="1">
         <v>1.0</v>
@@ -62412,7 +62412,7 @@
         <v>132</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G17" s="1">
         <v>2.0</v>
@@ -62441,10 +62441,10 @@
         <v>134</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H18" s="1" t="b">
         <v>0</v>
@@ -62528,7 +62528,7 @@
         <v>134</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G21" s="1">
         <v>6.0</v>
@@ -62615,7 +62615,7 @@
         <v>134</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G24" s="1">
         <v>9.0</v>
@@ -62647,7 +62647,7 @@
         <v>67</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
@@ -62699,13 +62699,13 @@
         <v>130000.0</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="H27" s="1" t="b">
         <v>0</v>
@@ -62757,10 +62757,10 @@
         <v>100000.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G29" s="1">
         <v>6.0</v>
@@ -62786,7 +62786,7 @@
         <v>160000.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>72</v>
@@ -62902,7 +62902,7 @@
         <v>80000.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>67</v>
@@ -62931,7 +62931,7 @@
         <v>85000.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>67</v>
@@ -62989,10 +62989,10 @@
         <v>100000.0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G37" s="1">
         <v>7.0</v>
@@ -63018,10 +63018,10 @@
         <v>120000.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G38" s="1">
         <v>8.0</v>
@@ -63047,7 +63047,7 @@
         <v>90000.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>67</v>
@@ -63076,7 +63076,7 @@
         <v>100000.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>67</v>
@@ -63105,7 +63105,7 @@
         <v>110000.0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>67</v>
@@ -63163,10 +63163,10 @@
         <v>120000.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G43" s="1">
         <v>13.0</v>
@@ -63192,10 +63192,10 @@
         <v>140000.0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G44" s="1">
         <v>8.0</v>
@@ -63221,10 +63221,10 @@
         <v>170000.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G45" s="1">
         <v>-1.0</v>
@@ -63340,10 +63340,10 @@
         <v>238</v>
       </c>
       <c r="F49" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="H49" s="1" t="b">
         <v>0</v>
@@ -63398,7 +63398,7 @@
         <v>233</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G51" s="1">
         <v>6.0</v>
@@ -63427,7 +63427,7 @@
         <v>238</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G52" s="1">
         <v>14.0</v>
@@ -63456,10 +63456,10 @@
         <v>238</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>0</v>
@@ -63485,7 +63485,7 @@
         <v>238</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G54" s="1">
         <v>6.0</v>
@@ -63511,10 +63511,10 @@
         <v>110000.0</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G55" s="1">
         <v>10.0</v>
@@ -63540,10 +63540,10 @@
         <v>130000.0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G56" s="1">
         <v>11.0</v>
@@ -63598,7 +63598,7 @@
         <v>160000.0</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>275</v>
@@ -63656,10 +63656,10 @@
         <v>120000.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G60" s="1">
         <v>15.0</v>
@@ -63714,7 +63714,7 @@
         <v>140000.0</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>275</v>
@@ -63743,10 +63743,10 @@
         <v>160000.0</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G63" s="1">
         <v>-1.0</v>
@@ -63775,7 +63775,7 @@
         <v>144</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G64" s="1">
         <v>1.0</v>
@@ -63804,10 +63804,10 @@
         <v>241</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>0</v>
@@ -63830,10 +63830,10 @@
         <v>60000.0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>242</v>
@@ -63859,10 +63859,10 @@
         <v>65000.0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G67" s="1">
         <v>4.0</v>
@@ -63888,10 +63888,10 @@
         <v>70000.0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>193</v>
@@ -63917,10 +63917,10 @@
         <v>75000.0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G69" s="1">
         <v>6.0</v>
@@ -63946,10 +63946,10 @@
         <v>90000.0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G70" s="1">
         <v>16.0</v>
@@ -63975,10 +63975,10 @@
         <v>80000.0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G71" s="1">
         <v>8.0</v>
@@ -64033,10 +64033,10 @@
         <v>90000.0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G73" s="1">
         <v>4.0</v>
@@ -64062,10 +64062,10 @@
         <v>80000.0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G74" s="1">
         <v>11.0</v>
@@ -64120,10 +64120,10 @@
         <v>90000.0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G76" s="1">
         <v>3.0</v>
@@ -64149,10 +64149,10 @@
         <v>90000.0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G77" s="1">
         <v>14.0</v>
@@ -64207,10 +64207,10 @@
         <v>100000.0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G79" s="1">
         <v>6.0</v>
@@ -64236,10 +64236,10 @@
         <v>120000.0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G80" s="1">
         <v>-1.0</v>
@@ -64268,7 +64268,7 @@
         <v>190</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G81" s="1">
         <v>1.0</v>
@@ -64297,7 +64297,7 @@
         <v>190</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G82" s="1">
         <v>2.0</v>
@@ -64326,10 +64326,10 @@
         <v>190</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H83" s="1" t="b">
         <v>0</v>
@@ -64352,10 +64352,10 @@
         <v>100000.0</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G84" s="1">
         <v>5.0</v>
@@ -64387,7 +64387,7 @@
         <v>-1.0</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H85" s="1" t="b">
         <v>0</v>
@@ -64410,10 +64410,10 @@
         <v>120000.0</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>173</v>
@@ -64439,7 +64439,7 @@
         <v>110000.0</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>72</v>
@@ -64468,7 +64468,7 @@
         <v>115000.0</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>72</v>
@@ -64497,10 +64497,10 @@
         <v>80000.0</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G89" s="1">
         <v>4.0</v>
@@ -64526,7 +64526,7 @@
         <v>85000.0</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>72</v>
@@ -64555,7 +64555,7 @@
         <v>90000.0</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>72</v>
@@ -64584,13 +64584,13 @@
         <v>100000.0</v>
       </c>
       <c r="E92" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="H92" s="1" t="b">
         <v>0</v>
@@ -64613,7 +64613,7 @@
         <v>150000.0</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>175</v>
@@ -64642,7 +64642,7 @@
         <v>120000.0</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>33</v>
@@ -64671,7 +64671,7 @@
         <v>100000.0</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>175</v>
@@ -64729,7 +64729,7 @@
         <v>100000.0</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>72</v>
@@ -64758,10 +64758,10 @@
         <v>110000.0</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G98" s="1">
         <v>13.0</v>
@@ -64787,7 +64787,7 @@
         <v>140000.0</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>175</v>
@@ -64816,13 +64816,13 @@
         <v>80000.0</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>72</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H100" s="1" t="b">
         <v>1</v>
@@ -64845,7 +64845,7 @@
         <v>85000.0</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>72</v>
@@ -64874,7 +64874,7 @@
         <v>90000.0</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>72</v>
@@ -64909,7 +64909,7 @@
         <v>-1.0</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H103" s="1" t="b">
         <v>0</v>
@@ -64932,7 +64932,7 @@
         <v>120000.0</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>275</v>
@@ -64961,10 +64961,10 @@
         <v>90000.0</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G105" s="1">
         <v>6.0</v>
@@ -64990,10 +64990,10 @@
         <v>95000.0</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G106" s="1">
         <v>7.0</v>
@@ -65019,7 +65019,7 @@
         <v>120000.0</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>275</v>
@@ -65048,13 +65048,13 @@
         <v>90000.0</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H108" s="1" t="b">
         <v>0</v>
@@ -65077,10 +65077,10 @@
         <v>95000.0</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G109" s="1">
         <v>10.0</v>
@@ -65106,10 +65106,10 @@
         <v>100000.0</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G110" s="1">
         <v>3.0</v>
@@ -65135,10 +65135,10 @@
         <v>100000.0</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G111" s="1">
         <v>12.0</v>
@@ -65164,13 +65164,13 @@
         <v>100000.0</v>
       </c>
       <c r="E112" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="H112" s="1" t="b">
         <v>0</v>
@@ -65222,10 +65222,10 @@
         <v>120000.0</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G114" s="1">
         <v>15.0</v>
@@ -65251,10 +65251,10 @@
         <v>140000.0</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G115" s="1">
         <v>16.0</v>
@@ -65309,7 +65309,7 @@
         <v>160000.0</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F117" s="10" t="s">
         <v>175</v>
@@ -65338,7 +65338,7 @@
         <v>180000.0</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F118" s="10" t="s">
         <v>175</v>
@@ -65402,7 +65402,7 @@
         <v>66</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H120" s="1" t="b">
         <v>0</v>
@@ -65460,7 +65460,7 @@
         <v>66</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H122" s="1" t="b">
         <v>0</v>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -246,7 +246,7 @@
     <t>26,1</t>
   </si>
   <si>
-    <t>140,,20,40</t>
+    <t>140,20,40</t>
   </si>
   <si>
     <t>26,2</t>
@@ -65421,7 +65421,7 @@
         <v>8.0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>225</v>
+        <v>132</v>
       </c>
       <c r="D35" s="1">
         <v>-1.0</v>
@@ -66192,7 +66192,7 @@
         <v>15.0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="D59" s="1">
         <v>-1.0</v>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -594,10 +594,10 @@
     <t>35,36,37,38,45,46</t>
   </si>
   <si>
-    <t>11,5</t>
+    <t>1,6</t>
   </si>
   <si>
-    <t>2,6</t>
+    <t>11,5</t>
   </si>
   <si>
     <t>35,36,37,38,39,44,45,46</t>
@@ -811,6 +811,9 @@
   </si>
   <si>
     <t>2,5,8,11,14</t>
+  </si>
+  <si>
+    <t>2,6</t>
   </si>
   <si>
     <t>35,36,37,38,39,40,41,44,45,46,47</t>
@@ -1138,9 +1141,6 @@
   </si>
   <si>
     <t>2,4,8,9,10</t>
-  </si>
-  <si>
-    <t>1,6</t>
   </si>
   <si>
     <t>2,4,8,9,10,11</t>
@@ -6213,7 +6213,7 @@
         <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
@@ -6230,13 +6230,13 @@
         <v>70000.0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
@@ -6259,7 +6259,7 @@
         <v>75000.0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>41</v>
@@ -6317,7 +6317,7 @@
         <v>100000.0</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>176</v>
@@ -6375,7 +6375,7 @@
         <v>110000.0</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>237</v>
@@ -6404,7 +6404,7 @@
         <v>80000.0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>41</v>
@@ -6433,7 +6433,7 @@
         <v>80000.0</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>176</v>
@@ -6491,7 +6491,7 @@
         <v>90000.0</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>237</v>
@@ -6520,7 +6520,7 @@
         <v>95000.0</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>237</v>
@@ -6549,7 +6549,7 @@
         <v>80000.0</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>41</v>
@@ -6578,7 +6578,7 @@
         <v>120000.0</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>158</v>
@@ -6636,7 +6636,7 @@
         <v>90000.0</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>237</v>
@@ -6665,13 +6665,13 @@
         <v>110000.0</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H17" s="1" t="b">
         <v>0</v>
@@ -6694,10 +6694,10 @@
         <v>120000.0</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G18" s="1">
         <v>17.0</v>
@@ -6752,10 +6752,10 @@
         <v>150000.0</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G20" s="1">
         <v>-1.0</v>
@@ -6781,13 +6781,13 @@
         <v>80000.0</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>371</v>
+        <v>189</v>
       </c>
       <c r="H21" s="1" t="b">
         <v>1</v>
@@ -6810,7 +6810,7 @@
         <v>85000.0</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>152</v>
@@ -6839,7 +6839,7 @@
         <v>90000.0</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>152</v>
@@ -6903,7 +6903,7 @@
         <v>43</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
@@ -6955,7 +6955,7 @@
         <v>90000.0</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>41</v>
@@ -6984,7 +6984,7 @@
         <v>95000.0</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>152</v>
@@ -7071,7 +7071,7 @@
         <v>100000.0</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>152</v>
@@ -7239,7 +7239,7 @@
         <v>16.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D37" s="1">
         <v>-1.0</v>
@@ -7480,7 +7480,7 @@
         <v>380</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G45" s="1">
         <v>6.0</v>
@@ -7654,7 +7654,7 @@
         <v>380</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G51" s="1">
         <v>12.0</v>
@@ -7770,7 +7770,7 @@
         <v>381</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G55" s="1">
         <v>16.0</v>
@@ -7854,7 +7854,7 @@
         <v>80000.0</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>152</v>
@@ -7883,7 +7883,7 @@
         <v>90000.0</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>152</v>
@@ -7912,7 +7912,7 @@
         <v>95000.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>223</v>
@@ -7941,7 +7941,7 @@
         <v>100000.0</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>43</v>
@@ -7970,7 +7970,7 @@
         <v>120000.0</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>158</v>
@@ -8028,7 +8028,7 @@
         <v>150000.0</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>195</v>
@@ -8057,7 +8057,7 @@
         <v>100000.0</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>237</v>
@@ -8086,7 +8086,7 @@
         <v>200000.0</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>178</v>
@@ -8115,7 +8115,7 @@
         <v>110000.0</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>237</v>
@@ -8144,10 +8144,10 @@
         <v>130000.0</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G68" s="1">
         <v>16.0</v>
@@ -8173,7 +8173,7 @@
         <v>110000.0</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>237</v>
@@ -8231,7 +8231,7 @@
         <v>140000.0</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>158</v>
@@ -8260,7 +8260,7 @@
         <v>150000.0</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>158</v>
@@ -8289,10 +8289,10 @@
         <v>160000.0</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G73" s="1">
         <v>10.0</v>
@@ -8318,7 +8318,7 @@
         <v>180000.0</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>197</v>
@@ -8347,10 +8347,10 @@
         <v>200000.0</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G75" s="1">
         <v>18.0</v>
@@ -8376,10 +8376,10 @@
         <v>220000.0</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G76" s="1">
         <v>-1.0</v>
@@ -11203,7 +11203,7 @@
         <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
@@ -11223,7 +11223,7 @@
         <v>147</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G2" s="1">
         <v>1.0</v>
@@ -11252,7 +11252,7 @@
         <v>147</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G3" s="1">
         <v>2.0</v>
@@ -11475,7 +11475,7 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D11" s="1">
         <v>-1.0</v>
@@ -12229,7 +12229,7 @@
         <v>13.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D37" s="1">
         <v>-1.0</v>
@@ -12693,7 +12693,7 @@
         <v>12.0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D53" s="1">
         <v>-1.0</v>
@@ -12789,7 +12789,7 @@
         <v>393</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G56" s="1">
         <v>-1.0</v>
@@ -13308,7 +13308,7 @@
         <v>60000.0</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>41</v>
@@ -13337,7 +13337,7 @@
         <v>65000.0</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>152</v>
@@ -13366,7 +13366,7 @@
         <v>70000.0</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>152</v>
@@ -13395,7 +13395,7 @@
         <v>75000.0</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>152</v>
@@ -13424,7 +13424,7 @@
         <v>80000.0</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>223</v>
@@ -13453,7 +13453,7 @@
         <v>85000.0</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>223</v>
@@ -13517,7 +13517,7 @@
         <v>224</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H81" s="1" t="b">
         <v>0</v>
@@ -13720,7 +13720,7 @@
         <v>39</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H88" s="1" t="b">
         <v>0</v>
@@ -14181,7 +14181,7 @@
         <v>408</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G104" s="1">
         <v>-1.0</v>
@@ -14384,7 +14384,7 @@
         <v>413</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G111" s="1">
         <v>7.0</v>
@@ -14790,7 +14790,7 @@
         <v>413</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G125" s="1">
         <v>-1.0</v>
@@ -14816,7 +14816,7 @@
         <v>70000.0</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>41</v>
@@ -14845,7 +14845,7 @@
         <v>75000.0</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F127" s="10" t="s">
         <v>41</v>
@@ -15689,7 +15689,7 @@
         <v>427</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G156" s="1">
         <v>10.0</v>
@@ -15805,7 +15805,7 @@
         <v>426</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>50</v>
@@ -15863,7 +15863,7 @@
         <v>427</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G162" s="1">
         <v>27.0</v>
@@ -15950,7 +15950,7 @@
         <v>426</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>430</v>
@@ -15979,7 +15979,7 @@
         <v>426</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G166" s="1">
         <v>20.0</v>
@@ -16121,10 +16121,10 @@
         <v>90000.0</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G171" s="1">
         <v>25.0</v>
@@ -16150,10 +16150,10 @@
         <v>100000.0</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G172" s="1">
         <v>26.0</v>
@@ -19537,7 +19537,7 @@
         <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
@@ -19615,7 +19615,7 @@
         <v>438</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G4" s="1">
         <v>3.0</v>
@@ -19673,7 +19673,7 @@
         <v>439</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G6" s="1">
         <v>5.0</v>
@@ -19821,7 +19821,7 @@
         <v>440</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H11" s="1" t="b">
         <v>0</v>
@@ -19847,7 +19847,7 @@
         <v>438</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G12" s="1">
         <v>5.0</v>
@@ -20018,7 +20018,7 @@
         <v>80000.0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>440</v>
@@ -20076,10 +20076,10 @@
         <v>100000.0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G20" s="1">
         <v>5.0</v>
@@ -20105,7 +20105,7 @@
         <v>80000.0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>440</v>
@@ -20134,10 +20134,10 @@
         <v>100000.0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G22" s="1">
         <v>14.0</v>
@@ -20192,7 +20192,7 @@
         <v>120000.0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>441</v>
@@ -20221,10 +20221,10 @@
         <v>100000.0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>443</v>
@@ -20250,10 +20250,10 @@
         <v>110000.0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G26" s="1">
         <v>11.0</v>
@@ -20395,10 +20395,10 @@
         <v>70000.0</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G31" s="1">
         <v>1.0</v>
@@ -20424,10 +20424,10 @@
         <v>80000.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G32" s="1">
         <v>2.0</v>
@@ -20485,7 +20485,7 @@
         <v>447</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G34" s="1">
         <v>4.0</v>
@@ -20514,7 +20514,7 @@
         <v>447</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G35" s="1">
         <v>5.0</v>
@@ -20630,7 +20630,7 @@
         <v>449</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G39" s="1">
         <v>14.0</v>
@@ -20659,7 +20659,7 @@
         <v>450</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G40" s="1">
         <v>10.0</v>
@@ -20688,7 +20688,7 @@
         <v>450</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G41" s="1">
         <v>11.0</v>
@@ -20804,7 +20804,7 @@
         <v>449</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G45" s="1">
         <v>-1.0</v>
@@ -20830,10 +20830,10 @@
         <v>80000.0</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G46" s="1">
         <v>1.0</v>
@@ -20859,10 +20859,10 @@
         <v>85000.0</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G47" s="1">
         <v>2.0</v>
@@ -20891,7 +20891,7 @@
         <v>402</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>395</v>
@@ -20978,7 +20978,7 @@
         <v>399</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G51" s="1">
         <v>6.0</v>
@@ -21123,7 +21123,7 @@
         <v>455</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G56" s="1">
         <v>11.0</v>
@@ -21239,7 +21239,7 @@
         <v>455</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G60" s="1">
         <v>15.0</v>
@@ -21474,7 +21474,7 @@
         <v>452</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H68" s="1" t="b">
         <v>0</v>
@@ -21529,7 +21529,7 @@
         <v>459</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G70" s="1">
         <v>16.0</v>
@@ -21558,7 +21558,7 @@
         <v>458</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G71" s="1">
         <v>8.0</v>
@@ -21616,7 +21616,7 @@
         <v>459</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G73" s="1">
         <v>4.0</v>
@@ -21645,7 +21645,7 @@
         <v>459</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G74" s="1">
         <v>11.0</v>
@@ -21703,7 +21703,7 @@
         <v>459</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G76" s="1">
         <v>3.0</v>
@@ -21732,7 +21732,7 @@
         <v>459</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G77" s="1">
         <v>14.0</v>
@@ -21790,7 +21790,7 @@
         <v>459</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G79" s="1">
         <v>6.0</v>
@@ -21845,7 +21845,7 @@
         <v>70000.0</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>441</v>
@@ -21874,7 +21874,7 @@
         <v>75000.0</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>441</v>
@@ -21903,7 +21903,7 @@
         <v>80000.0</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>441</v>
@@ -21993,10 +21993,10 @@
         <v>464</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H86" s="1" t="b">
         <v>0</v>
@@ -22947,10 +22947,10 @@
         <v>80000.0</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G119" s="1">
         <v>1.0</v>
@@ -22976,10 +22976,10 @@
         <v>85000.0</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>481</v>
@@ -23005,10 +23005,10 @@
         <v>90000.0</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G121" s="1">
         <v>3.0</v>
@@ -23034,10 +23034,10 @@
         <v>95000.0</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>482</v>
@@ -23063,7 +23063,7 @@
         <v>100000.0</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>28</v>
@@ -23092,7 +23092,7 @@
         <v>110000.0</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>28</v>
@@ -23121,7 +23121,7 @@
         <v>110000.0</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F125" s="10" t="s">
         <v>28</v>
@@ -23150,7 +23150,7 @@
         <v>130000.0</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>146</v>
@@ -23208,10 +23208,10 @@
         <v>110000.0</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G128" s="1">
         <v>10.0</v>
@@ -23237,7 +23237,7 @@
         <v>130000.0</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>28</v>
@@ -23295,7 +23295,7 @@
         <v>170000.0</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>146</v>
@@ -23324,7 +23324,7 @@
         <v>120000.0</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>28</v>
@@ -23353,7 +23353,7 @@
         <v>120000.0</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>28</v>
@@ -23382,7 +23382,7 @@
         <v>130000.0</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F134" s="10" t="s">
         <v>28</v>
@@ -23440,7 +23440,7 @@
         <v>150000.0</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F136" s="10" t="s">
         <v>146</v>
@@ -23469,7 +23469,7 @@
         <v>180000.0</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>33</v>
@@ -23498,7 +23498,7 @@
         <v>100000.0</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F138" s="10" t="s">
         <v>146</v>
@@ -23527,7 +23527,7 @@
         <v>110000.0</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>146</v>
@@ -23556,7 +23556,7 @@
         <v>120000.0</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F140" s="10" t="s">
         <v>146</v>
@@ -23585,7 +23585,7 @@
         <v>200000.0</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F141" s="10" t="s">
         <v>149</v>
@@ -23651,7 +23651,7 @@
         <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
@@ -23671,7 +23671,7 @@
         <v>150</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G2" s="7">
         <v>1.0</v>
@@ -23705,7 +23705,7 @@
         <v>-1.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H3" s="1" t="b">
         <v>0</v>
@@ -23733,7 +23733,7 @@
         <v>150</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>157</v>
@@ -23911,7 +23911,7 @@
         <v>150</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G10" s="1">
         <v>13.0</v>
@@ -23940,7 +23940,7 @@
         <v>150</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G11" s="1">
         <v>10.0</v>
@@ -23969,7 +23969,7 @@
         <v>150</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G12" s="1">
         <v>11.0</v>
@@ -24114,7 +24114,7 @@
         <v>210</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G17" s="1">
         <v>1.0</v>
@@ -24143,7 +24143,7 @@
         <v>210</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G18" s="1">
         <v>2.0</v>
@@ -24633,10 +24633,10 @@
         <v>80000.0</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>183</v>
@@ -24662,13 +24662,13 @@
         <v>85000.0</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>146</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H36" s="1" t="b">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>90000.0</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>146</v>
@@ -24720,7 +24720,7 @@
         <v>110000.0</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>452</v>
@@ -24836,7 +24836,7 @@
         <v>100000.0</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>146</v>
@@ -24894,7 +24894,7 @@
         <v>110000.0</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>146</v>
@@ -24923,7 +24923,7 @@
         <v>120000.0</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>452</v>
@@ -25010,7 +25010,7 @@
         <v>130000.0</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>452</v>
@@ -25097,7 +25097,7 @@
         <v>90000.0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>146</v>
@@ -25213,7 +25213,7 @@
         <v>75000.0</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>28</v>
@@ -25242,7 +25242,7 @@
         <v>80000.0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>146</v>
@@ -25300,7 +25300,7 @@
         <v>100000.0</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>33</v>
@@ -25329,7 +25329,7 @@
         <v>110000.0</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>33</v>
@@ -25358,7 +25358,7 @@
         <v>120000.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>33</v>
@@ -25416,7 +25416,7 @@
         <v>150000.0</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>152</v>
@@ -26460,7 +26460,7 @@
         <v>70000.0</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>146</v>
@@ -27388,7 +27388,7 @@
         <v>80000.0</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F130" s="10" t="s">
         <v>146</v>
@@ -27417,7 +27417,7 @@
         <v>85000.0</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>146</v>
@@ -27446,7 +27446,7 @@
         <v>100000.0</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>33</v>
@@ -27475,7 +27475,7 @@
         <v>90000.0</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>33</v>
@@ -27591,7 +27591,7 @@
         <v>100000.0</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>33</v>
@@ -27620,7 +27620,7 @@
         <v>110000.0</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F138" s="10" t="s">
         <v>33</v>
@@ -27649,7 +27649,7 @@
         <v>120000.0</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>33</v>
@@ -27681,7 +27681,7 @@
         <v>501</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>504</v>
@@ -27707,7 +27707,7 @@
         <v>80000.0</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F141" s="10" t="s">
         <v>149</v>
@@ -27794,7 +27794,7 @@
         <v>80000.0</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F144" s="10" t="s">
         <v>149</v>
@@ -27823,7 +27823,7 @@
         <v>100000.0</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F145" s="10" t="s">
         <v>226</v>
@@ -27881,10 +27881,10 @@
         <v>140000.0</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G147" s="1">
         <v>18.0</v>
@@ -27910,7 +27910,7 @@
         <v>110000.0</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F148" s="10" t="s">
         <v>254</v>
@@ -27933,7 +27933,7 @@
         <v>19.0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D149" s="1">
         <v>-1.0</v>
@@ -27968,10 +27968,10 @@
         <v>140000.0</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G150" s="1">
         <v>21.0</v>
@@ -27997,10 +27997,10 @@
         <v>160000.0</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G151" s="1">
         <v>22.0</v>
@@ -28026,7 +28026,7 @@
         <v>180000.0</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F152" s="10" t="s">
         <v>432</v>
@@ -30636,7 +30636,7 @@
         <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
@@ -30908,7 +30908,7 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D11" s="1">
         <v>-1.0</v>
@@ -30961,7 +30961,7 @@
         <v>508</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13">
@@ -30978,7 +30978,7 @@
         <v>80000.0</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>39</v>
@@ -31007,7 +31007,7 @@
         <v>85000.0</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>39</v>
@@ -31291,7 +31291,7 @@
         <v>11.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -31358,7 +31358,7 @@
         <v>511</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G26" s="1">
         <v>-1.0</v>
@@ -31370,10 +31370,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27">
@@ -31425,7 +31425,7 @@
         <v>41</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>0</v>
@@ -32080,7 +32080,7 @@
         <v>24.0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D51" s="1">
         <v>-1.0</v>
@@ -32133,7 +32133,7 @@
         <v>523</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -32261,7 +32261,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -32278,7 +32278,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>29</v>
@@ -32329,7 +32329,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
@@ -32349,7 +32349,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -36260,8 +36260,8 @@
       <c r="F120" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G120" s="7">
-        <v>1.0</v>
+      <c r="G120" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="H120" s="1" t="b">
         <v>1</v>
@@ -36290,10 +36290,10 @@
         <v>188</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="G121" s="7" t="s">
         <v>190</v>
+      </c>
+      <c r="G121" s="7">
+        <v>2.0</v>
       </c>
       <c r="H121" s="1" t="b">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>191</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G123" s="7">
         <v>4.0</v>
@@ -36834,7 +36834,7 @@
         <v>194</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>196</v>
@@ -37090,7 +37090,7 @@
         <v>203</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G146" s="7">
         <v>10.0</v>
@@ -43441,7 +43441,7 @@
         <v>220</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G31" s="1">
         <v>9.0</v>
@@ -43569,7 +43569,7 @@
         <v>221</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G35" s="1">
         <v>-1.0</v>
@@ -51232,7 +51232,7 @@
         <v>250</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G81" s="1">
         <v>3.0</v>
@@ -51264,7 +51264,7 @@
         <v>250</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G82" s="1">
         <v>6.0</v>
@@ -51296,7 +51296,7 @@
         <v>250</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G83" s="1">
         <v>5.0</v>
@@ -51328,7 +51328,7 @@
         <v>250</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G84" s="1">
         <v>6.0</v>
@@ -57337,7 +57337,7 @@
         <v>188</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G66" s="1">
         <v>2.0</v>
@@ -62535,7 +62535,7 @@
         <v>174</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G38" s="1">
         <v>10.0</v>
@@ -63530,7 +63530,7 @@
         <v>224</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="H69" s="1" t="b">
         <v>0</v>
@@ -63815,7 +63815,7 @@
         <v>253</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G78" s="1">
         <v>11.0</v>
@@ -64039,7 +64039,7 @@
         <v>250</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>212</v>
@@ -64071,7 +64071,7 @@
         <v>250</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G86" s="1">
         <v>4.0</v>
@@ -64103,7 +64103,7 @@
         <v>250</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G87" s="1">
         <v>6.0</v>
@@ -64132,7 +64132,7 @@
         <v>420000.0</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>178</v>
@@ -64234,7 +64234,7 @@
         <v>158</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H91" s="1" t="b">
         <v>0</v>
@@ -64327,7 +64327,7 @@
         <v>250</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G94" s="1">
         <v>12.0</v>
@@ -64356,7 +64356,7 @@
         <v>410000.0</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>178</v>
@@ -64388,7 +64388,7 @@
         <v>420000.0</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>178</v>
@@ -67418,7 +67418,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -67474,7 +67474,7 @@
         <v>2.0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8">
@@ -67677,7 +67677,7 @@
         <v>6.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D14" s="1">
         <v>-1.0</v>
@@ -67733,7 +67733,7 @@
         <v>2.0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16">
@@ -67808,7 +67808,7 @@
         <v>2.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -67977,7 +67977,7 @@
         <v>164</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G23" s="1">
         <v>8.0</v>
@@ -68032,7 +68032,7 @@
         <v>9.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -68073,7 +68073,7 @@
         <v>164</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G26" s="1">
         <v>-1.0</v>
@@ -68088,10 +68088,10 @@
         <v>3.0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27">
@@ -68146,7 +68146,7 @@
         <v>158</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>0</v>
@@ -68207,10 +68207,10 @@
         <v>247</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H30" s="1" t="b">
         <v>0</v>
@@ -68303,7 +68303,7 @@
         <v>247</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G33" s="1">
         <v>7.0</v>
@@ -68335,7 +68335,7 @@
         <v>247</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G34" s="1">
         <v>8.0</v>
@@ -68463,7 +68463,7 @@
         <v>247</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>249</v>
@@ -68582,7 +68582,7 @@
         <v>15.0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D42" s="1">
         <v>-1.0</v>
@@ -68623,7 +68623,7 @@
         <v>247</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G43" s="1">
         <v>-1.0</v>
@@ -68638,7 +68638,7 @@
         <v>5.0</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44">
@@ -68917,7 +68917,7 @@
         <v>-1.0</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H52" s="1" t="b">
         <v>0</v>
@@ -68946,7 +68946,7 @@
         <v>181</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G53" s="1">
         <v>10.0</v>
@@ -68981,7 +68981,7 @@
         <v>170</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H54" s="1" t="b">
         <v>0</v>
@@ -69129,7 +69129,7 @@
         <v>15.0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D59" s="1">
         <v>-1.0</v>
@@ -69170,7 +69170,7 @@
         <v>181</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G60" s="1">
         <v>-1.0</v>
@@ -69185,7 +69185,7 @@
         <v>6.0</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61">
@@ -69237,7 +69237,7 @@
         <v>194</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>235</v>
@@ -69464,7 +69464,7 @@
         <v>209</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H69" s="1" t="b">
         <v>0</v>
@@ -69525,7 +69525,7 @@
         <v>194</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G71" s="1">
         <v>14.0</v>
@@ -69653,7 +69653,7 @@
         <v>194</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G75" s="1">
         <v>15.0</v>
@@ -69685,7 +69685,7 @@
         <v>194</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G76" s="1">
         <v>16.0</v>
@@ -69717,7 +69717,7 @@
         <v>194</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G77" s="1">
         <v>17.0</v>
@@ -69740,7 +69740,7 @@
         <v>17.0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D78" s="1">
         <v>-1.0</v>
@@ -69781,7 +69781,7 @@
         <v>194</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G79" s="1">
         <v>-1.0</v>
@@ -69796,7 +69796,7 @@
         <v>7.0</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81">
@@ -72660,7 +72660,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -72669,7 +72669,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E5" s="1">
         <v>6000.0</v>
@@ -72680,7 +72680,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -72706,10 +72706,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E7" s="1">
         <v>6000.0</v>
@@ -72766,10 +72766,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E10" s="1">
         <v>5000.0</v>
@@ -72780,7 +72780,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>29</v>
@@ -72800,7 +72800,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>34</v>
@@ -72820,7 +72820,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -72840,16 +72840,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E14" s="1">
         <v>5000.0</v>
@@ -72900,7 +72900,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
@@ -72920,16 +72920,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E18" s="1">
         <v>5000.0</v>
@@ -72980,7 +72980,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
@@ -73000,16 +73000,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E22" s="1">
         <v>5000.0</v>
@@ -73100,7 +73100,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -73109,7 +73109,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E27" s="1">
         <v>5000.0</v>
@@ -73120,16 +73120,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E28" s="1">
         <v>5000.0</v>
@@ -73140,7 +73140,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>29</v>
@@ -73200,7 +73200,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>25</v>
@@ -73209,7 +73209,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E32" s="1">
         <v>5000.0</v>
@@ -73226,10 +73226,10 @@
         <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E33" s="1">
         <v>5000.0</v>
@@ -73240,7 +73240,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>29</v>
@@ -73280,7 +73280,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
@@ -73309,7 +73309,7 @@
         <v>26</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E37" s="1">
         <v>5000.0</v>
@@ -73320,7 +73320,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>13</v>
@@ -73329,7 +73329,7 @@
         <v>49</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E38" s="1">
         <v>5000.0</v>
@@ -73400,7 +73400,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>25</v>
@@ -73409,7 +73409,7 @@
         <v>26</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E42" s="1">
         <v>5000.0</v>
@@ -73420,16 +73420,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E43" s="1">
         <v>5000.0</v>
@@ -73440,7 +73440,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>29</v>
@@ -73460,7 +73460,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>34</v>
@@ -76366,7 +76366,7 @@
         <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
@@ -76386,7 +76386,7 @@
         <v>0.0</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G2" s="7">
         <v>1.0</v>
@@ -76502,10 +76502,10 @@
         <v>142</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H6" s="1" t="b">
         <v>1</v>
@@ -76589,7 +76589,7 @@
         <v>142</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G9" s="7">
         <v>4.0</v>
@@ -76618,7 +76618,7 @@
         <v>142</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G10" s="7">
         <v>5.0</v>
@@ -76673,7 +76673,7 @@
         <v>75000.0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>146</v>
@@ -76702,7 +76702,7 @@
         <v>90000.0</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>41</v>
@@ -76731,7 +76731,7 @@
         <v>86000.0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>33</v>
@@ -76763,7 +76763,7 @@
         <v>147</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>241</v>
@@ -76853,7 +76853,7 @@
         <v>146</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H18" s="1" t="b">
         <v>0</v>
@@ -77037,7 +77037,7 @@
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="20" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25">
@@ -77060,7 +77060,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>1</v>
@@ -77135,7 +77135,7 @@
         <v>3.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -77463,10 +77463,10 @@
         <v>150</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H39" s="1" t="b">
         <v>1</v>
@@ -77605,7 +77605,7 @@
         <v>85000.0</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>176</v>
@@ -77637,7 +77637,7 @@
         <v>150</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G45" s="7">
         <v>7.0</v>
@@ -77721,7 +77721,7 @@
         <v>95000.0</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>39</v>
@@ -77750,7 +77750,7 @@
         <v>100000.0</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>39</v>
@@ -77779,7 +77779,7 @@
         <v>110000.0</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>41</v>
@@ -77808,7 +77808,7 @@
         <v>90000.0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>176</v>
@@ -77872,7 +77872,7 @@
         <v>32</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>0</v>
@@ -77895,7 +77895,7 @@
         <v>120000.0</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>176</v>
@@ -77953,7 +77953,7 @@
         <v>90000.0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>41</v>
@@ -77982,7 +77982,7 @@
         <v>80000.0</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>33</v>
@@ -78040,7 +78040,7 @@
         <v>80000.0</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>33</v>
@@ -78069,7 +78069,7 @@
         <v>95000.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>152</v>
@@ -78098,7 +78098,7 @@
         <v>80000.0</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>41</v>
@@ -78127,7 +78127,7 @@
         <v>130000.0</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>176</v>
@@ -78156,7 +78156,7 @@
         <v>90000.0</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>41</v>
@@ -78185,7 +78185,7 @@
         <v>110000.0</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>43</v>
@@ -78214,13 +78214,13 @@
         <v>70000.0</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>1</v>
@@ -78243,7 +78243,7 @@
         <v>75000.0</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>41</v>
@@ -78272,7 +78272,7 @@
         <v>90000.0</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>43</v>
@@ -78301,7 +78301,7 @@
         <v>110000.0</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>237</v>
@@ -78330,7 +78330,7 @@
         <v>80000.0</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>41</v>
@@ -78359,7 +78359,7 @@
         <v>90000.0</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>43</v>
@@ -78388,7 +78388,7 @@
         <v>120000.0</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>237</v>
@@ -78475,13 +78475,13 @@
         <v>70000.0</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H74" s="1" t="b">
         <v>0</v>
@@ -78504,7 +78504,7 @@
         <v>100000.0</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>43</v>
@@ -78533,7 +78533,7 @@
         <v>100000.0</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>43</v>
@@ -78562,7 +78562,7 @@
         <v>140000.0</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>158</v>
@@ -78591,7 +78591,7 @@
         <v>70000.0</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>39</v>
@@ -78620,7 +78620,7 @@
         <v>75000.0</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>41</v>
@@ -78649,7 +78649,7 @@
         <v>75000.0</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>41</v>
@@ -78678,7 +78678,7 @@
         <v>80000.0</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>176</v>
@@ -78707,7 +78707,7 @@
         <v>90000.0</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>176</v>
@@ -78736,7 +78736,7 @@
         <v>100000.0</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>176</v>
@@ -78765,7 +78765,7 @@
         <v>140000.0</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>237</v>
@@ -78800,7 +78800,7 @@
         <v>-1.0</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H85" s="1" t="b">
         <v>0</v>
@@ -78823,7 +78823,7 @@
         <v>120000.0</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>43</v>
@@ -78881,7 +78881,7 @@
         <v>110000.0</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>158</v>
@@ -78910,7 +78910,7 @@
         <v>120000.0</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>43</v>
@@ -78939,7 +78939,7 @@
         <v>140000.0</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>195</v>
@@ -78968,7 +78968,7 @@
         <v>100000.0</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>41</v>
@@ -78997,7 +78997,7 @@
         <v>100000.0</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>152</v>
@@ -79026,7 +79026,7 @@
         <v>110000.0</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>43</v>
@@ -79055,7 +79055,7 @@
         <v>150000.0</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>195</v>
@@ -79142,7 +79142,7 @@
         <v>90000.0</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>176</v>
@@ -79171,7 +79171,7 @@
         <v>90000.0</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>176</v>
@@ -79200,13 +79200,13 @@
         <v>100000.0</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H99" s="1" t="b">
         <v>0</v>
@@ -79232,7 +79232,7 @@
         <v>156</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G100" s="7">
         <v>6.0</v>
@@ -79345,7 +79345,7 @@
         <v>90000.0</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>43</v>
@@ -79374,7 +79374,7 @@
         <v>95000.0</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>237</v>
@@ -79403,7 +79403,7 @@
         <v>120000.0</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>195</v>
@@ -79432,7 +79432,7 @@
         <v>140000.0</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>195</v>
@@ -79461,10 +79461,10 @@
         <v>160000.0</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G108" s="7">
         <v>-1.0</v>
@@ -79525,7 +79525,7 @@
         <v>41</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H110" s="1" t="b">
         <v>0</v>
@@ -79548,7 +79548,7 @@
         <v>85000.0</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>176</v>
@@ -79577,7 +79577,7 @@
         <v>85000.0</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>176</v>
@@ -79635,7 +79635,7 @@
         <v>80000.0</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F114" s="10" t="s">
         <v>43</v>
@@ -79664,7 +79664,7 @@
         <v>100000.0</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>237</v>
@@ -79693,7 +79693,7 @@
         <v>120000.0</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F116" s="10" t="s">
         <v>158</v>
@@ -79722,7 +79722,7 @@
         <v>90000.0</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F117" s="10" t="s">
         <v>237</v>
@@ -79751,7 +79751,7 @@
         <v>120000.0</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F118" s="10" t="s">
         <v>158</v>
@@ -79780,7 +79780,7 @@
         <v>100000.0</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F119" s="10" t="s">
         <v>176</v>
@@ -79809,7 +79809,7 @@
         <v>110000.0</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F120" s="10" t="s">
         <v>152</v>
@@ -79838,7 +79838,7 @@
         <v>130000.0</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F121" s="10" t="s">
         <v>176</v>
@@ -79896,7 +79896,7 @@
         <v>140000.0</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>195</v>
@@ -79925,7 +79925,7 @@
         <v>150000.0</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>195</v>
@@ -79954,10 +79954,10 @@
         <v>180000.0</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G125" s="7">
         <v>-1.0</v>
@@ -79983,7 +79983,7 @@
         <v>80000.0</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>41</v>
@@ -80041,7 +80041,7 @@
         <v>90000.0</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F128" s="10" t="s">
         <v>41</v>
@@ -80070,7 +80070,7 @@
         <v>90000.0</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>152</v>
@@ -80099,7 +80099,7 @@
         <v>95000.0</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F130" s="10" t="s">
         <v>152</v>
@@ -80128,7 +80128,7 @@
         <v>95000.0</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>43</v>
@@ -80157,7 +80157,7 @@
         <v>100000.0</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>43</v>
@@ -80215,7 +80215,7 @@
         <v>120000.0</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F134" s="10" t="s">
         <v>158</v>
@@ -80244,7 +80244,7 @@
         <v>130000.0</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F135" s="10" t="s">
         <v>158</v>
@@ -80273,10 +80273,10 @@
         <v>140000.0</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G136" s="7">
         <v>13.0</v>
@@ -80302,7 +80302,7 @@
         <v>180000.0</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>158</v>
@@ -80331,10 +80331,10 @@
         <v>190000.0</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G138" s="7">
         <v>13.0</v>
@@ -80389,7 +80389,7 @@
         <v>220000.0</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F140" s="10" t="s">
         <v>197</v>
@@ -80418,7 +80418,7 @@
         <v>80000.0</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F141" s="10" t="s">
         <v>152</v>
@@ -80447,7 +80447,7 @@
         <v>90000.0</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F142" s="10" t="s">
         <v>152</v>
@@ -80476,7 +80476,7 @@
         <v>95000.0</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F143" s="10" t="s">
         <v>152</v>
@@ -80505,7 +80505,7 @@
         <v>95000.0</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F144" s="10" t="s">
         <v>223</v>
@@ -80534,7 +80534,7 @@
         <v>100000.0</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F145" s="10" t="s">
         <v>223</v>
@@ -80563,7 +80563,7 @@
         <v>105000.0</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F146" s="10" t="s">
         <v>223</v>
@@ -80592,10 +80592,10 @@
         <v>110000.0</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G147" s="7">
         <v>7.0</v>
@@ -80621,10 +80621,10 @@
         <v>110000.0</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G148" s="7">
         <v>8.0</v>
@@ -80679,10 +80679,10 @@
         <v>110000.0</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G150" s="7">
         <v>10.0</v>
@@ -80708,10 +80708,10 @@
         <v>115000.0</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G151" s="7">
         <v>11.0</v>
@@ -80737,10 +80737,10 @@
         <v>120000.0</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G152" s="7">
         <v>12.0</v>
@@ -80760,7 +80760,7 @@
         <v>12.0</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D153" s="1">
         <v>-1.0</v>
@@ -80795,7 +80795,7 @@
         <v>130000.0</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F154" s="10" t="s">
         <v>246</v>
@@ -80824,7 +80824,7 @@
         <v>130000.0</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F155" s="10" t="s">
         <v>246</v>
@@ -80853,7 +80853,7 @@
         <v>140000.0</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F156" s="10" t="s">
         <v>246</v>
@@ -80882,7 +80882,7 @@
         <v>140000.0</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F157" s="10" t="s">
         <v>246</v>
@@ -80940,10 +80940,10 @@
         <v>150000.0</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G159" s="7">
         <v>19.0</v>
@@ -80969,10 +80969,10 @@
         <v>160000.0</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G160" s="7">
         <v>20.0</v>
@@ -80998,10 +80998,10 @@
         <v>170000.0</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G161" s="7">
         <v>21.0</v>
@@ -81027,10 +81027,10 @@
         <v>180000.0</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G162" s="7">
         <v>-1.0</v>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4264" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4266" uniqueCount="545">
   <si>
     <t>Stage_Mission</t>
   </si>
@@ -820,6 +820,12 @@
   </si>
   <si>
     <t>9,11</t>
+  </si>
+  <si>
+    <t>Story_Flag</t>
+  </si>
+  <si>
+    <t>Story_Status</t>
   </si>
   <si>
     <t>SimpleStation</t>
@@ -6213,7 +6219,7 @@
         <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
@@ -6230,13 +6236,13 @@
         <v>70000.0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
@@ -6259,7 +6265,7 @@
         <v>75000.0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>41</v>
@@ -6317,7 +6323,7 @@
         <v>100000.0</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>176</v>
@@ -6375,7 +6381,7 @@
         <v>110000.0</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>237</v>
@@ -6404,7 +6410,7 @@
         <v>80000.0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>41</v>
@@ -6433,7 +6439,7 @@
         <v>80000.0</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>176</v>
@@ -6491,7 +6497,7 @@
         <v>90000.0</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>237</v>
@@ -6520,7 +6526,7 @@
         <v>95000.0</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>237</v>
@@ -6549,7 +6555,7 @@
         <v>80000.0</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>41</v>
@@ -6578,7 +6584,7 @@
         <v>120000.0</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>158</v>
@@ -6636,7 +6642,7 @@
         <v>90000.0</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>237</v>
@@ -6665,13 +6671,13 @@
         <v>110000.0</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="H17" s="1" t="b">
         <v>0</v>
@@ -6694,7 +6700,7 @@
         <v>120000.0</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>190</v>
@@ -6752,7 +6758,7 @@
         <v>150000.0</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>190</v>
@@ -6781,7 +6787,7 @@
         <v>80000.0</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>41</v>
@@ -6810,7 +6816,7 @@
         <v>85000.0</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>152</v>
@@ -6839,7 +6845,7 @@
         <v>90000.0</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>152</v>
@@ -6897,13 +6903,13 @@
         <v>90000.0</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
@@ -6926,7 +6932,7 @@
         <v>110000.0</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>158</v>
@@ -6955,7 +6961,7 @@
         <v>90000.0</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>41</v>
@@ -6984,7 +6990,7 @@
         <v>95000.0</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>152</v>
@@ -7013,7 +7019,7 @@
         <v>120000.0</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>43</v>
@@ -7042,7 +7048,7 @@
         <v>130000.0</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>43</v>
@@ -7071,7 +7077,7 @@
         <v>100000.0</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>152</v>
@@ -7100,7 +7106,7 @@
         <v>110000.0</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>43</v>
@@ -7158,13 +7164,13 @@
         <v>130000.0</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>158</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H34" s="1" t="b">
         <v>0</v>
@@ -7216,7 +7222,7 @@
         <v>160000.0</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>195</v>
@@ -7239,7 +7245,7 @@
         <v>16.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D37" s="1">
         <v>-1.0</v>
@@ -7274,7 +7280,7 @@
         <v>140000.0</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>54</v>
@@ -7303,7 +7309,7 @@
         <v>160000.0</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>197</v>
@@ -7332,7 +7338,7 @@
         <v>60000.0</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>176</v>
@@ -7361,13 +7367,13 @@
         <v>65000.0</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>176</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H41" s="1" t="b">
         <v>0</v>
@@ -7390,7 +7396,7 @@
         <v>70000.0</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>43</v>
@@ -7419,7 +7425,7 @@
         <v>75000.0</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>167</v>
@@ -7448,7 +7454,7 @@
         <v>80000.0</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>43</v>
@@ -7477,7 +7483,7 @@
         <v>120000.0</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>190</v>
@@ -7535,7 +7541,7 @@
         <v>70000.0</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>43</v>
@@ -7564,7 +7570,7 @@
         <v>75000.0</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>158</v>
@@ -7593,7 +7599,7 @@
         <v>80000.0</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>158</v>
@@ -7651,7 +7657,7 @@
         <v>120000.0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>190</v>
@@ -7680,7 +7686,7 @@
         <v>100000.0</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>197</v>
@@ -7738,7 +7744,7 @@
         <v>120000.0</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>197</v>
@@ -7767,7 +7773,7 @@
         <v>100000.0</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>190</v>
@@ -7796,7 +7802,7 @@
         <v>140000.0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>54</v>
@@ -7825,7 +7831,7 @@
         <v>160000.0</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>197</v>
@@ -7854,7 +7860,7 @@
         <v>80000.0</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>152</v>
@@ -7883,7 +7889,7 @@
         <v>90000.0</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>152</v>
@@ -7912,7 +7918,7 @@
         <v>95000.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>223</v>
@@ -7941,7 +7947,7 @@
         <v>100000.0</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>43</v>
@@ -7970,7 +7976,7 @@
         <v>120000.0</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>158</v>
@@ -8028,7 +8034,7 @@
         <v>150000.0</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>195</v>
@@ -8057,13 +8063,13 @@
         <v>100000.0</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>237</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>0</v>
@@ -8086,7 +8092,7 @@
         <v>200000.0</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>178</v>
@@ -8115,7 +8121,7 @@
         <v>110000.0</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>237</v>
@@ -8144,7 +8150,7 @@
         <v>130000.0</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>190</v>
@@ -8173,7 +8179,7 @@
         <v>110000.0</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>237</v>
@@ -8231,7 +8237,7 @@
         <v>140000.0</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>158</v>
@@ -8260,7 +8266,7 @@
         <v>150000.0</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>158</v>
@@ -8289,7 +8295,7 @@
         <v>160000.0</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>190</v>
@@ -8318,7 +8324,7 @@
         <v>180000.0</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>197</v>
@@ -8347,10 +8353,10 @@
         <v>200000.0</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G75" s="1">
         <v>18.0</v>
@@ -8376,10 +8382,10 @@
         <v>220000.0</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G76" s="1">
         <v>-1.0</v>
@@ -11203,7 +11209,7 @@
         <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
@@ -11223,7 +11229,7 @@
         <v>147</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G2" s="1">
         <v>1.0</v>
@@ -11252,7 +11258,7 @@
         <v>147</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G3" s="1">
         <v>2.0</v>
@@ -11475,7 +11481,7 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D11" s="1">
         <v>-1.0</v>
@@ -11539,7 +11545,7 @@
         <v>100000.0</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>32</v>
@@ -11568,7 +11574,7 @@
         <v>80000.0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>33</v>
@@ -12003,10 +12009,10 @@
         <v>250000.0</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G29" s="1">
         <v>15.0</v>
@@ -12148,7 +12154,7 @@
         <v>130000.0</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>224</v>
@@ -12206,7 +12212,7 @@
         <v>150000.0</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>224</v>
@@ -12229,7 +12235,7 @@
         <v>13.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D37" s="1">
         <v>-1.0</v>
@@ -12264,7 +12270,7 @@
         <v>100000.0</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>158</v>
@@ -12293,7 +12299,7 @@
         <v>120000.0</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>167</v>
@@ -12322,10 +12328,10 @@
         <v>140000.0</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G40" s="1">
         <v>-1.0</v>
@@ -12380,7 +12386,7 @@
         <v>110000.0</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>32</v>
@@ -12409,7 +12415,7 @@
         <v>110000.0</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>33</v>
@@ -12467,7 +12473,7 @@
         <v>120000.0</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>149</v>
@@ -12496,7 +12502,7 @@
         <v>125000.0</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>33</v>
@@ -12525,7 +12531,7 @@
         <v>125000.0</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>33</v>
@@ -12554,13 +12560,13 @@
         <v>140000.0</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H48" s="1" t="b">
         <v>0</v>
@@ -12583,7 +12589,7 @@
         <v>110000.0</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>33</v>
@@ -12641,7 +12647,7 @@
         <v>110000.0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>41</v>
@@ -12670,7 +12676,7 @@
         <v>120000.0</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>152</v>
@@ -12693,7 +12699,7 @@
         <v>12.0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D53" s="1">
         <v>-1.0</v>
@@ -12728,7 +12734,7 @@
         <v>120000.0</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>43</v>
@@ -12757,7 +12763,7 @@
         <v>130000.0</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>158</v>
@@ -12786,7 +12792,7 @@
         <v>150000.0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>190</v>
@@ -12815,7 +12821,7 @@
         <v>90000.0</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>33</v>
@@ -12844,7 +12850,7 @@
         <v>100000.0</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>33</v>
@@ -12873,13 +12879,13 @@
         <v>110000.0</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>149</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H59" s="1" t="b">
         <v>0</v>
@@ -12902,7 +12908,7 @@
         <v>120000.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>149</v>
@@ -12931,7 +12937,7 @@
         <v>140000.0</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>152</v>
@@ -12966,7 +12972,7 @@
         <v>-1.0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H62" s="1" t="b">
         <v>0</v>
@@ -12989,13 +12995,13 @@
         <v>100000.0</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>152</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H63" s="1" t="b">
         <v>0</v>
@@ -13018,7 +13024,7 @@
         <v>100000.0</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>152</v>
@@ -13047,7 +13053,7 @@
         <v>150000.0</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>224</v>
@@ -13076,7 +13082,7 @@
         <v>100000.0</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>149</v>
@@ -13105,13 +13111,13 @@
         <v>120000.0</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>152</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H67" s="1" t="b">
         <v>0</v>
@@ -13163,7 +13169,7 @@
         <v>100000.0</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>149</v>
@@ -13192,7 +13198,7 @@
         <v>120000.0</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>152</v>
@@ -13221,7 +13227,7 @@
         <v>140000.0</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>223</v>
@@ -13279,7 +13285,7 @@
         <v>160000.0</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>167</v>
@@ -13308,7 +13314,7 @@
         <v>60000.0</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>41</v>
@@ -13337,13 +13343,13 @@
         <v>65000.0</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>152</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>0</v>
@@ -13366,7 +13372,7 @@
         <v>70000.0</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>152</v>
@@ -13395,7 +13401,7 @@
         <v>75000.0</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>152</v>
@@ -13424,7 +13430,7 @@
         <v>80000.0</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>223</v>
@@ -13453,7 +13459,7 @@
         <v>85000.0</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>223</v>
@@ -13482,7 +13488,7 @@
         <v>100000.0</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>224</v>
@@ -13511,13 +13517,13 @@
         <v>110000.0</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>224</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H81" s="1" t="b">
         <v>0</v>
@@ -13540,13 +13546,13 @@
         <v>120000.0</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>223</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H82" s="1" t="b">
         <v>0</v>
@@ -13569,7 +13575,7 @@
         <v>150000.0</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>158</v>
@@ -13656,7 +13662,7 @@
         <v>170000.0</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>170</v>
@@ -13714,13 +13720,13 @@
         <v>85000.0</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H88" s="1" t="b">
         <v>0</v>
@@ -13807,7 +13813,7 @@
         <v>176</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H91" s="1" t="b">
         <v>0</v>
@@ -13830,7 +13836,7 @@
         <v>120000.0</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>176</v>
@@ -13888,7 +13894,7 @@
         <v>80000.0</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>152</v>
@@ -13917,7 +13923,7 @@
         <v>100000.0</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>43</v>
@@ -13975,7 +13981,7 @@
         <v>120000.0</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>176</v>
@@ -14062,7 +14068,7 @@
         <v>120000.0</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>43</v>
@@ -14091,7 +14097,7 @@
         <v>110000.0</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>176</v>
@@ -14120,7 +14126,7 @@
         <v>130000.0</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>43</v>
@@ -14149,7 +14155,7 @@
         <v>150000.0</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>158</v>
@@ -14178,7 +14184,7 @@
         <v>180000.0</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>190</v>
@@ -14207,7 +14213,7 @@
         <v>70000.0</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>39</v>
@@ -14236,13 +14242,13 @@
         <v>75000.0</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H106" s="1" t="b">
         <v>0</v>
@@ -14265,13 +14271,13 @@
         <v>80000.0</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H107" s="1" t="b">
         <v>0</v>
@@ -14294,7 +14300,7 @@
         <v>100000.0</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>43</v>
@@ -14323,7 +14329,7 @@
         <v>90000.0</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>43</v>
@@ -14352,7 +14358,7 @@
         <v>120000.0</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>158</v>
@@ -14381,7 +14387,7 @@
         <v>100000.0</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>190</v>
@@ -14410,10 +14416,10 @@
         <v>110000.0</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G112" s="1">
         <v>14.0</v>
@@ -14439,7 +14445,7 @@
         <v>130000.0</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F113" s="10" t="s">
         <v>41</v>
@@ -14474,7 +14480,7 @@
         <v>-1.0</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H114" s="1" t="b">
         <v>0</v>
@@ -14497,7 +14503,7 @@
         <v>140000.0</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>152</v>
@@ -14526,7 +14532,7 @@
         <v>120000.0</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F116" s="10" t="s">
         <v>43</v>
@@ -14584,13 +14590,13 @@
         <v>120000.0</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F118" s="10" t="s">
         <v>158</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H118" s="1" t="b">
         <v>0</v>
@@ -14613,7 +14619,7 @@
         <v>140000.0</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F119" s="10" t="s">
         <v>170</v>
@@ -14642,7 +14648,7 @@
         <v>80000.0</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F120" s="10" t="s">
         <v>41</v>
@@ -14671,7 +14677,7 @@
         <v>90000.0</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F121" s="10" t="s">
         <v>41</v>
@@ -14700,13 +14706,13 @@
         <v>100000.0</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F122" s="10" t="s">
         <v>176</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H122" s="1" t="b">
         <v>0</v>
@@ -14729,7 +14735,7 @@
         <v>180000.0</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>158</v>
@@ -14758,7 +14764,7 @@
         <v>150000.0</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>170</v>
@@ -14787,7 +14793,7 @@
         <v>150000.0</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F125" s="10" t="s">
         <v>190</v>
@@ -14816,7 +14822,7 @@
         <v>70000.0</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>41</v>
@@ -14845,7 +14851,7 @@
         <v>75000.0</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F127" s="10" t="s">
         <v>41</v>
@@ -14874,7 +14880,7 @@
         <v>80000.0</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F128" s="10" t="s">
         <v>41</v>
@@ -14903,7 +14909,7 @@
         <v>85000.0</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>41</v>
@@ -14932,7 +14938,7 @@
         <v>90000.0</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F130" s="10" t="s">
         <v>176</v>
@@ -14961,7 +14967,7 @@
         <v>95000.0</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>176</v>
@@ -14990,7 +14996,7 @@
         <v>100000.0</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>176</v>
@@ -15019,7 +15025,7 @@
         <v>105000.0</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>176</v>
@@ -15077,7 +15083,7 @@
         <v>110000.0</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F135" s="10" t="s">
         <v>158</v>
@@ -15106,7 +15112,7 @@
         <v>120000.0</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F136" s="10" t="s">
         <v>158</v>
@@ -15135,7 +15141,7 @@
         <v>130000.0</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>158</v>
@@ -15164,7 +15170,7 @@
         <v>140000.0</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F138" s="10" t="s">
         <v>158</v>
@@ -15222,7 +15228,7 @@
         <v>140000.0</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F140" s="10" t="s">
         <v>158</v>
@@ -15251,7 +15257,7 @@
         <v>140000.0</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F141" s="10" t="s">
         <v>158</v>
@@ -15280,7 +15286,7 @@
         <v>150000.0</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F142" s="10" t="s">
         <v>170</v>
@@ -15309,7 +15315,7 @@
         <v>150000.0</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F143" s="10" t="s">
         <v>170</v>
@@ -15338,7 +15344,7 @@
         <v>150000.0</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F144" s="10" t="s">
         <v>170</v>
@@ -15367,7 +15373,7 @@
         <v>150000.0</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F145" s="10" t="s">
         <v>170</v>
@@ -15396,7 +15402,7 @@
         <v>160000.0</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F146" s="10" t="s">
         <v>170</v>
@@ -15425,7 +15431,7 @@
         <v>50000.0</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F147" s="10" t="s">
         <v>152</v>
@@ -15454,7 +15460,7 @@
         <v>55000.0</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F148" s="10" t="s">
         <v>152</v>
@@ -15483,7 +15489,7 @@
         <v>60000.0</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F149" s="10" t="s">
         <v>152</v>
@@ -15512,7 +15518,7 @@
         <v>65000.0</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F150" s="10" t="s">
         <v>152</v>
@@ -15541,7 +15547,7 @@
         <v>70000.0</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F151" s="10" t="s">
         <v>152</v>
@@ -15570,7 +15576,7 @@
         <v>75000.0</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F152" s="10" t="s">
         <v>152</v>
@@ -15599,7 +15605,7 @@
         <v>80000.0</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F153" s="10" t="s">
         <v>152</v>
@@ -15628,7 +15634,7 @@
         <v>100000.0</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F154" s="10" t="s">
         <v>223</v>
@@ -15686,10 +15692,10 @@
         <v>130000.0</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G156" s="1">
         <v>10.0</v>
@@ -15715,13 +15721,13 @@
         <v>50000.0</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F157" s="10" t="s">
         <v>223</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H157" s="1" t="b">
         <v>0</v>
@@ -15744,7 +15750,7 @@
         <v>70000.0</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F158" s="10" t="s">
         <v>223</v>
@@ -15802,10 +15808,10 @@
         <v>80000.0</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>50</v>
@@ -15837,7 +15843,7 @@
         <v>-1.0</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H161" s="1" t="b">
         <v>0</v>
@@ -15860,10 +15866,10 @@
         <v>120000.0</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G162" s="1">
         <v>27.0</v>
@@ -15889,7 +15895,7 @@
         <v>70000.0</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F163" s="10" t="s">
         <v>223</v>
@@ -15947,13 +15953,13 @@
         <v>90000.0</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="H165" s="1" t="b">
         <v>0</v>
@@ -15976,10 +15982,10 @@
         <v>100000.0</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G166" s="1">
         <v>20.0</v>
@@ -16011,7 +16017,7 @@
         <v>-1.0</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H167" s="1" t="b">
         <v>0</v>
@@ -16034,10 +16040,10 @@
         <v>110000.0</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G168" s="1">
         <v>26.0</v>
@@ -16063,7 +16069,7 @@
         <v>70000.0</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F169" s="10" t="s">
         <v>223</v>
@@ -16098,7 +16104,7 @@
         <v>-1.0</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H170" s="1" t="b">
         <v>0</v>
@@ -16121,10 +16127,10 @@
         <v>90000.0</v>
       </c>
       <c r="E171" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F171" s="10" t="s">
         <v>361</v>
-      </c>
-      <c r="F171" s="10" t="s">
-        <v>359</v>
       </c>
       <c r="G171" s="1">
         <v>25.0</v>
@@ -16150,10 +16156,10 @@
         <v>100000.0</v>
       </c>
       <c r="E172" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F172" s="10" t="s">
         <v>361</v>
-      </c>
-      <c r="F172" s="10" t="s">
-        <v>359</v>
       </c>
       <c r="G172" s="1">
         <v>26.0</v>
@@ -16208,10 +16214,10 @@
         <v>150000.0</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F174" s="10" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G174" s="1">
         <v>-1.0</v>
@@ -19537,7 +19543,7 @@
         <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
@@ -19557,10 +19563,10 @@
         <v>150</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
@@ -19583,10 +19589,10 @@
         <v>75000.0</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="G3" s="1">
         <v>2.0</v>
@@ -19612,10 +19618,10 @@
         <v>90000.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G4" s="1">
         <v>3.0</v>
@@ -19670,10 +19676,10 @@
         <v>110000.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G6" s="1">
         <v>5.0</v>
@@ -19728,10 +19734,10 @@
         <v>80000.0</v>
       </c>
       <c r="E8" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>438</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>436</v>
       </c>
       <c r="G8" s="1">
         <v>7.0</v>
@@ -19757,10 +19763,10 @@
         <v>85000.0</v>
       </c>
       <c r="E9" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>438</v>
-      </c>
-      <c r="F9" s="25" t="s">
-        <v>436</v>
       </c>
       <c r="G9" s="1">
         <v>4.0</v>
@@ -19786,10 +19792,10 @@
         <v>90000.0</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>436</v>
       </c>
       <c r="G10" s="1">
         <v>9.0</v>
@@ -19815,13 +19821,13 @@
         <v>95000.0</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H11" s="1" t="b">
         <v>0</v>
@@ -19844,10 +19850,10 @@
         <v>110000.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G12" s="1">
         <v>5.0</v>
@@ -19902,10 +19908,10 @@
         <v>90000.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G14" s="1">
         <v>13.0</v>
@@ -19931,10 +19937,10 @@
         <v>130000.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G15" s="1">
         <v>-1.0</v>
@@ -19963,7 +19969,7 @@
         <v>210</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G16" s="1">
         <v>1.0</v>
@@ -19992,7 +19998,7 @@
         <v>210</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G17" s="1">
         <v>2.0</v>
@@ -20018,13 +20024,13 @@
         <v>80000.0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H18" s="1" t="b">
         <v>0</v>
@@ -20076,10 +20082,10 @@
         <v>100000.0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G20" s="1">
         <v>5.0</v>
@@ -20105,10 +20111,10 @@
         <v>80000.0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G21" s="1">
         <v>6.0</v>
@@ -20134,10 +20140,10 @@
         <v>100000.0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G22" s="1">
         <v>14.0</v>
@@ -20192,10 +20198,10 @@
         <v>120000.0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G24" s="1">
         <v>9.0</v>
@@ -20221,13 +20227,13 @@
         <v>100000.0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
@@ -20250,10 +20256,10 @@
         <v>110000.0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G26" s="1">
         <v>11.0</v>
@@ -20279,13 +20285,13 @@
         <v>130000.0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H27" s="1" t="b">
         <v>0</v>
@@ -20337,10 +20343,10 @@
         <v>100000.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G29" s="1">
         <v>6.0</v>
@@ -20366,7 +20372,7 @@
         <v>160000.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>146</v>
@@ -20395,10 +20401,10 @@
         <v>70000.0</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G31" s="1">
         <v>1.0</v>
@@ -20424,10 +20430,10 @@
         <v>80000.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G32" s="1">
         <v>2.0</v>
@@ -20459,7 +20465,7 @@
         <v>-1.0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H33" s="1" t="b">
         <v>0</v>
@@ -20482,10 +20488,10 @@
         <v>80000.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G34" s="1">
         <v>4.0</v>
@@ -20511,10 +20517,10 @@
         <v>85000.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G35" s="1">
         <v>5.0</v>
@@ -20569,10 +20575,10 @@
         <v>100000.0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G37" s="1">
         <v>7.0</v>
@@ -20598,10 +20604,10 @@
         <v>120000.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G38" s="1">
         <v>8.0</v>
@@ -20627,10 +20633,10 @@
         <v>90000.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G39" s="1">
         <v>14.0</v>
@@ -20656,10 +20662,10 @@
         <v>100000.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G40" s="1">
         <v>10.0</v>
@@ -20685,10 +20691,10 @@
         <v>110000.0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G41" s="1">
         <v>11.0</v>
@@ -20743,10 +20749,10 @@
         <v>120000.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G43" s="1">
         <v>13.0</v>
@@ -20772,10 +20778,10 @@
         <v>140000.0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G44" s="1">
         <v>8.0</v>
@@ -20801,10 +20807,10 @@
         <v>170000.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G45" s="1">
         <v>-1.0</v>
@@ -20830,10 +20836,10 @@
         <v>80000.0</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G46" s="1">
         <v>1.0</v>
@@ -20859,10 +20865,10 @@
         <v>85000.0</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G47" s="1">
         <v>2.0</v>
@@ -20888,13 +20894,13 @@
         <v>90000.0</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H48" s="1" t="b">
         <v>0</v>
@@ -20917,13 +20923,13 @@
         <v>110000.0</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H49" s="1" t="b">
         <v>0</v>
@@ -20975,10 +20981,10 @@
         <v>140000.0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G51" s="1">
         <v>6.0</v>
@@ -21004,10 +21010,10 @@
         <v>110000.0</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G52" s="1">
         <v>14.0</v>
@@ -21033,13 +21039,13 @@
         <v>100000.0</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>0</v>
@@ -21062,10 +21068,10 @@
         <v>105000.0</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G54" s="1">
         <v>6.0</v>
@@ -21091,10 +21097,10 @@
         <v>110000.0</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G55" s="1">
         <v>10.0</v>
@@ -21120,10 +21126,10 @@
         <v>130000.0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G56" s="1">
         <v>11.0</v>
@@ -21178,7 +21184,7 @@
         <v>160000.0</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>226</v>
@@ -21236,10 +21242,10 @@
         <v>120000.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G60" s="1">
         <v>15.0</v>
@@ -21294,7 +21300,7 @@
         <v>140000.0</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>226</v>
@@ -21323,7 +21329,7 @@
         <v>160000.0</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>233</v>
@@ -21355,7 +21361,7 @@
         <v>154</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G64" s="1">
         <v>1.0</v>
@@ -21381,13 +21387,13 @@
         <v>55000.0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>0</v>
@@ -21410,10 +21416,10 @@
         <v>60000.0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>258</v>
@@ -21439,10 +21445,10 @@
         <v>65000.0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G67" s="1">
         <v>4.0</v>
@@ -21468,13 +21474,13 @@
         <v>70000.0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H68" s="1" t="b">
         <v>0</v>
@@ -21497,10 +21503,10 @@
         <v>75000.0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G69" s="1">
         <v>6.0</v>
@@ -21526,10 +21532,10 @@
         <v>90000.0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G70" s="1">
         <v>16.0</v>
@@ -21555,10 +21561,10 @@
         <v>80000.0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G71" s="1">
         <v>8.0</v>
@@ -21613,10 +21619,10 @@
         <v>90000.0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G73" s="1">
         <v>4.0</v>
@@ -21642,10 +21648,10 @@
         <v>80000.0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G74" s="1">
         <v>11.0</v>
@@ -21700,10 +21706,10 @@
         <v>90000.0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G76" s="1">
         <v>3.0</v>
@@ -21729,10 +21735,10 @@
         <v>90000.0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G77" s="1">
         <v>14.0</v>
@@ -21787,10 +21793,10 @@
         <v>100000.0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G79" s="1">
         <v>6.0</v>
@@ -21816,7 +21822,7 @@
         <v>120000.0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>233</v>
@@ -21845,10 +21851,10 @@
         <v>70000.0</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G81" s="1">
         <v>1.0</v>
@@ -21874,10 +21880,10 @@
         <v>75000.0</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G82" s="1">
         <v>2.0</v>
@@ -21903,13 +21909,13 @@
         <v>80000.0</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H83" s="1" t="b">
         <v>0</v>
@@ -21932,10 +21938,10 @@
         <v>100000.0</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G84" s="1">
         <v>5.0</v>
@@ -21967,7 +21973,7 @@
         <v>-1.0</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H85" s="1" t="b">
         <v>0</v>
@@ -21990,13 +21996,13 @@
         <v>120000.0</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H86" s="1" t="b">
         <v>0</v>
@@ -22019,7 +22025,7 @@
         <v>110000.0</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>146</v>
@@ -22048,7 +22054,7 @@
         <v>115000.0</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>146</v>
@@ -22077,10 +22083,10 @@
         <v>80000.0</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G89" s="1">
         <v>4.0</v>
@@ -22106,7 +22112,7 @@
         <v>85000.0</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>146</v>
@@ -22135,7 +22141,7 @@
         <v>90000.0</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>146</v>
@@ -22164,13 +22170,13 @@
         <v>100000.0</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H92" s="1" t="b">
         <v>0</v>
@@ -22193,7 +22199,7 @@
         <v>150000.0</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>149</v>
@@ -22222,7 +22228,7 @@
         <v>120000.0</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>33</v>
@@ -22251,7 +22257,7 @@
         <v>100000.0</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>149</v>
@@ -22309,7 +22315,7 @@
         <v>100000.0</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>146</v>
@@ -22338,10 +22344,10 @@
         <v>110000.0</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G98" s="1">
         <v>13.0</v>
@@ -22367,7 +22373,7 @@
         <v>140000.0</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>149</v>
@@ -22396,13 +22402,13 @@
         <v>80000.0</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>146</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H100" s="1" t="b">
         <v>1</v>
@@ -22425,7 +22431,7 @@
         <v>85000.0</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>146</v>
@@ -22454,7 +22460,7 @@
         <v>90000.0</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>146</v>
@@ -22489,7 +22495,7 @@
         <v>-1.0</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H103" s="1" t="b">
         <v>0</v>
@@ -22512,7 +22518,7 @@
         <v>120000.0</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>226</v>
@@ -22541,10 +22547,10 @@
         <v>90000.0</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G105" s="1">
         <v>6.0</v>
@@ -22570,10 +22576,10 @@
         <v>95000.0</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G106" s="1">
         <v>7.0</v>
@@ -22599,7 +22605,7 @@
         <v>120000.0</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>226</v>
@@ -22628,13 +22634,13 @@
         <v>90000.0</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H108" s="1" t="b">
         <v>0</v>
@@ -22657,10 +22663,10 @@
         <v>95000.0</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G109" s="1">
         <v>10.0</v>
@@ -22686,10 +22692,10 @@
         <v>100000.0</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G110" s="1">
         <v>3.0</v>
@@ -22715,10 +22721,10 @@
         <v>100000.0</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G111" s="1">
         <v>12.0</v>
@@ -22744,13 +22750,13 @@
         <v>100000.0</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H112" s="1" t="b">
         <v>0</v>
@@ -22802,10 +22808,10 @@
         <v>120000.0</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G114" s="1">
         <v>15.0</v>
@@ -22831,10 +22837,10 @@
         <v>140000.0</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G115" s="1">
         <v>16.0</v>
@@ -22889,7 +22895,7 @@
         <v>160000.0</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F117" s="10" t="s">
         <v>149</v>
@@ -22918,7 +22924,7 @@
         <v>180000.0</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F118" s="10" t="s">
         <v>149</v>
@@ -22947,10 +22953,10 @@
         <v>80000.0</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G119" s="1">
         <v>1.0</v>
@@ -22976,13 +22982,13 @@
         <v>85000.0</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H120" s="1" t="b">
         <v>0</v>
@@ -23005,10 +23011,10 @@
         <v>90000.0</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G121" s="1">
         <v>3.0</v>
@@ -23034,13 +23040,13 @@
         <v>95000.0</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="H122" s="1" t="b">
         <v>0</v>
@@ -23063,7 +23069,7 @@
         <v>100000.0</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>28</v>
@@ -23092,7 +23098,7 @@
         <v>110000.0</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>28</v>
@@ -23121,7 +23127,7 @@
         <v>110000.0</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F125" s="10" t="s">
         <v>28</v>
@@ -23150,7 +23156,7 @@
         <v>130000.0</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>146</v>
@@ -23208,10 +23214,10 @@
         <v>110000.0</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G128" s="1">
         <v>10.0</v>
@@ -23237,7 +23243,7 @@
         <v>130000.0</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>28</v>
@@ -23295,7 +23301,7 @@
         <v>170000.0</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>146</v>
@@ -23324,7 +23330,7 @@
         <v>120000.0</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>28</v>
@@ -23353,7 +23359,7 @@
         <v>120000.0</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>28</v>
@@ -23382,7 +23388,7 @@
         <v>130000.0</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F134" s="10" t="s">
         <v>28</v>
@@ -23440,7 +23446,7 @@
         <v>150000.0</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F136" s="10" t="s">
         <v>146</v>
@@ -23469,7 +23475,7 @@
         <v>180000.0</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>33</v>
@@ -23498,7 +23504,7 @@
         <v>100000.0</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F138" s="10" t="s">
         <v>146</v>
@@ -23527,7 +23533,7 @@
         <v>110000.0</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>146</v>
@@ -23556,7 +23562,7 @@
         <v>120000.0</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F140" s="10" t="s">
         <v>146</v>
@@ -23585,7 +23591,7 @@
         <v>200000.0</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F141" s="10" t="s">
         <v>149</v>
@@ -23651,7 +23657,7 @@
         <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
@@ -23671,7 +23677,7 @@
         <v>150</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G2" s="7">
         <v>1.0</v>
@@ -23705,7 +23711,7 @@
         <v>-1.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H3" s="1" t="b">
         <v>0</v>
@@ -23733,7 +23739,7 @@
         <v>150</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>157</v>
@@ -23911,7 +23917,7 @@
         <v>150</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G10" s="1">
         <v>13.0</v>
@@ -23940,7 +23946,7 @@
         <v>150</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G11" s="1">
         <v>10.0</v>
@@ -23969,7 +23975,7 @@
         <v>150</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G12" s="1">
         <v>11.0</v>
@@ -23998,7 +24004,7 @@
         <v>148</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G13" s="1">
         <v>12.0</v>
@@ -24027,7 +24033,7 @@
         <v>148</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G14" s="1">
         <v>8.0</v>
@@ -24053,7 +24059,7 @@
         <v>140000.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>149</v>
@@ -24082,7 +24088,7 @@
         <v>170000.0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>149</v>
@@ -24114,7 +24120,7 @@
         <v>210</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G17" s="1">
         <v>1.0</v>
@@ -24143,7 +24149,7 @@
         <v>210</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G18" s="1">
         <v>2.0</v>
@@ -24227,7 +24233,7 @@
         <v>120000.0</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>33</v>
@@ -24349,7 +24355,7 @@
         <v>146</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
@@ -24401,7 +24407,7 @@
         <v>150000.0</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>41</v>
@@ -24462,7 +24468,7 @@
         <v>210</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G29" s="1">
         <v>14.0</v>
@@ -24494,7 +24500,7 @@
         <v>146</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H30" s="1" t="b">
         <v>0</v>
@@ -24546,7 +24552,7 @@
         <v>130000.0</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>149</v>
@@ -24575,7 +24581,7 @@
         <v>160000.0</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>149</v>
@@ -24604,7 +24610,7 @@
         <v>170000.0</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>149</v>
@@ -24633,10 +24639,10 @@
         <v>80000.0</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>183</v>
@@ -24662,13 +24668,13 @@
         <v>85000.0</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>146</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H36" s="1" t="b">
         <v>0</v>
@@ -24691,13 +24697,13 @@
         <v>90000.0</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>146</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="H37" s="1" t="b">
         <v>0</v>
@@ -24720,13 +24726,13 @@
         <v>110000.0</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H38" s="1" t="b">
         <v>0</v>
@@ -24749,7 +24755,7 @@
         <v>140000.0</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>149</v>
@@ -24778,7 +24784,7 @@
         <v>160000.0</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>149</v>
@@ -24807,7 +24813,7 @@
         <v>180000.0</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>149</v>
@@ -24836,7 +24842,7 @@
         <v>100000.0</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>146</v>
@@ -24871,7 +24877,7 @@
         <v>-1.0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H43" s="1" t="b">
         <v>0</v>
@@ -24894,7 +24900,7 @@
         <v>110000.0</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>146</v>
@@ -24923,10 +24929,10 @@
         <v>120000.0</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G45" s="1">
         <v>6.0</v>
@@ -24952,7 +24958,7 @@
         <v>140000.0</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>149</v>
@@ -25010,10 +25016,10 @@
         <v>130000.0</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G48" s="1">
         <v>14.0</v>
@@ -25045,7 +25051,7 @@
         <v>-1.0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H49" s="1" t="b">
         <v>0</v>
@@ -25068,7 +25074,7 @@
         <v>150000.0</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>149</v>
@@ -25097,7 +25103,7 @@
         <v>90000.0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>146</v>
@@ -25155,7 +25161,7 @@
         <v>200000.0</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>152</v>
@@ -25213,7 +25219,7 @@
         <v>75000.0</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>28</v>
@@ -25242,7 +25248,7 @@
         <v>80000.0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>146</v>
@@ -25300,7 +25306,7 @@
         <v>100000.0</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>33</v>
@@ -25329,7 +25335,7 @@
         <v>110000.0</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>33</v>
@@ -25358,7 +25364,7 @@
         <v>120000.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>33</v>
@@ -25416,7 +25422,7 @@
         <v>150000.0</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>152</v>
@@ -25445,7 +25451,7 @@
         <v>80000.0</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>146</v>
@@ -25474,7 +25480,7 @@
         <v>90000.0</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>146</v>
@@ -25503,7 +25509,7 @@
         <v>95000.0</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>146</v>
@@ -25532,10 +25538,10 @@
         <v>100000.0</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G66" s="1">
         <v>13.0</v>
@@ -25561,10 +25567,10 @@
         <v>105000.0</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G67" s="1">
         <v>14.0</v>
@@ -25590,10 +25596,10 @@
         <v>110000.0</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G68" s="1">
         <v>15.0</v>
@@ -25619,10 +25625,10 @@
         <v>110000.0</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G69" s="1">
         <v>16.0</v>
@@ -25677,7 +25683,7 @@
         <v>150000.0</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>41</v>
@@ -25706,7 +25712,7 @@
         <v>170000.0</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>41</v>
@@ -25735,7 +25741,7 @@
         <v>200000.0</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>152</v>
@@ -25799,7 +25805,7 @@
         <v>-1.0</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>0</v>
@@ -25822,7 +25828,7 @@
         <v>60000.0</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>146</v>
@@ -25851,7 +25857,7 @@
         <v>70000.0</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>146</v>
@@ -25909,10 +25915,10 @@
         <v>80000.0</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G79" s="1">
         <v>6.0</v>
@@ -25938,10 +25944,10 @@
         <v>90000.0</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G80" s="1">
         <v>22.0</v>
@@ -25967,10 +25973,10 @@
         <v>60000.0</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G81" s="1">
         <v>8.0</v>
@@ -25996,10 +26002,10 @@
         <v>70000.0</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G82" s="1">
         <v>9.0</v>
@@ -26025,10 +26031,10 @@
         <v>80000.0</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G83" s="1">
         <v>10.0</v>
@@ -26083,10 +26089,10 @@
         <v>90000.0</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G85" s="1">
         <v>22.0</v>
@@ -26112,10 +26118,10 @@
         <v>60000.0</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G86" s="1">
         <v>13.0</v>
@@ -26141,10 +26147,10 @@
         <v>70000.0</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G87" s="1">
         <v>14.0</v>
@@ -26199,10 +26205,10 @@
         <v>80000.0</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G89" s="1">
         <v>16.0</v>
@@ -26228,10 +26234,10 @@
         <v>90000.0</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G90" s="1">
         <v>22.0</v>
@@ -26257,10 +26263,10 @@
         <v>60000.0</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G91" s="1">
         <v>18.0</v>
@@ -26315,10 +26321,10 @@
         <v>70000.0</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G93" s="1">
         <v>20.0</v>
@@ -26344,10 +26350,10 @@
         <v>80000.0</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G94" s="1">
         <v>21.0</v>
@@ -26373,10 +26379,10 @@
         <v>90000.0</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G95" s="1">
         <v>22.0</v>
@@ -26402,7 +26408,7 @@
         <v>120000.0</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>223</v>
@@ -26431,7 +26437,7 @@
         <v>50000.0</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>146</v>
@@ -26460,13 +26466,13 @@
         <v>70000.0</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>146</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H98" s="1" t="b">
         <v>0</v>
@@ -26489,10 +26495,10 @@
         <v>80000.0</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G99" s="1">
         <v>3.0</v>
@@ -26547,7 +26553,7 @@
         <v>100000.0</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>149</v>
@@ -26605,7 +26611,7 @@
         <v>120000.0</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>41</v>
@@ -26634,10 +26640,10 @@
         <v>75000.0</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G104" s="1">
         <v>8.0</v>
@@ -26663,10 +26669,10 @@
         <v>80000.0</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G105" s="1">
         <v>9.0</v>
@@ -26692,7 +26698,7 @@
         <v>90000.0</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>33</v>
@@ -26750,7 +26756,7 @@
         <v>100000.0</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>39</v>
@@ -26779,7 +26785,7 @@
         <v>120000.0</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>41</v>
@@ -26808,7 +26814,7 @@
         <v>150000.0</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>152</v>
@@ -26837,7 +26843,7 @@
         <v>80000.0</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>146</v>
@@ -26866,13 +26872,13 @@
         <v>85000.0</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>146</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H112" s="1" t="b">
         <v>0</v>
@@ -26895,7 +26901,7 @@
         <v>100000.0</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F113" s="10" t="s">
         <v>33</v>
@@ -26953,7 +26959,7 @@
         <v>120000.0</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>152</v>
@@ -26982,13 +26988,13 @@
         <v>90000.0</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H116" s="1" t="b">
         <v>0</v>
@@ -27011,10 +27017,10 @@
         <v>95000.0</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G117" s="1">
         <v>7.0</v>
@@ -27040,7 +27046,7 @@
         <v>100000.0</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F118" s="10" t="s">
         <v>149</v>
@@ -27098,13 +27104,13 @@
         <v>95000.0</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F120" s="10" t="s">
         <v>146</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H120" s="1" t="b">
         <v>0</v>
@@ -27127,13 +27133,13 @@
         <v>100000.0</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H121" s="1" t="b">
         <v>0</v>
@@ -27185,7 +27191,7 @@
         <v>100000.0</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>152</v>
@@ -27214,7 +27220,7 @@
         <v>110000.0</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>41</v>
@@ -27272,7 +27278,7 @@
         <v>130000.0</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>152</v>
@@ -27301,7 +27307,7 @@
         <v>115000.0</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F127" s="10" t="s">
         <v>41</v>
@@ -27330,7 +27336,7 @@
         <v>140000.0</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F128" s="10" t="s">
         <v>176</v>
@@ -27359,7 +27365,7 @@
         <v>160000.0</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>176</v>
@@ -27388,7 +27394,7 @@
         <v>80000.0</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F130" s="10" t="s">
         <v>146</v>
@@ -27417,13 +27423,13 @@
         <v>85000.0</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>146</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H131" s="1" t="b">
         <v>0</v>
@@ -27446,7 +27452,7 @@
         <v>100000.0</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>33</v>
@@ -27475,7 +27481,7 @@
         <v>90000.0</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>33</v>
@@ -27504,7 +27510,7 @@
         <v>140000.0</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F134" s="10" t="s">
         <v>152</v>
@@ -27539,7 +27545,7 @@
         <v>-1.0</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H135" s="1" t="b">
         <v>0</v>
@@ -27591,13 +27597,13 @@
         <v>100000.0</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="H137" s="1" t="b">
         <v>0</v>
@@ -27620,7 +27626,7 @@
         <v>110000.0</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F138" s="10" t="s">
         <v>33</v>
@@ -27649,7 +27655,7 @@
         <v>120000.0</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>33</v>
@@ -27678,13 +27684,13 @@
         <v>160000.0</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H140" s="1" t="b">
         <v>0</v>
@@ -27707,7 +27713,7 @@
         <v>80000.0</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F141" s="10" t="s">
         <v>149</v>
@@ -27765,7 +27771,7 @@
         <v>90000.0</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F143" s="10" t="s">
         <v>152</v>
@@ -27794,13 +27800,13 @@
         <v>80000.0</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F144" s="10" t="s">
         <v>149</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H144" s="1" t="b">
         <v>0</v>
@@ -27823,7 +27829,7 @@
         <v>100000.0</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F145" s="10" t="s">
         <v>226</v>
@@ -27881,10 +27887,10 @@
         <v>140000.0</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G147" s="1">
         <v>18.0</v>
@@ -27910,7 +27916,7 @@
         <v>110000.0</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F148" s="10" t="s">
         <v>254</v>
@@ -27933,7 +27939,7 @@
         <v>19.0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D149" s="1">
         <v>-1.0</v>
@@ -27968,10 +27974,10 @@
         <v>140000.0</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G150" s="1">
         <v>21.0</v>
@@ -27997,10 +28003,10 @@
         <v>160000.0</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G151" s="1">
         <v>22.0</v>
@@ -28026,10 +28032,10 @@
         <v>180000.0</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G152" s="1">
         <v>-1.0</v>
@@ -30636,7 +30642,7 @@
         <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
@@ -30740,7 +30746,7 @@
         <v>90000.0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>32</v>
@@ -30798,7 +30804,7 @@
         <v>110000.0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>41</v>
@@ -30856,7 +30862,7 @@
         <v>90000.0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>33</v>
@@ -30885,7 +30891,7 @@
         <v>120000.0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>152</v>
@@ -30908,7 +30914,7 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D11" s="1">
         <v>-1.0</v>
@@ -30943,7 +30949,7 @@
         <v>150000.0</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>237</v>
@@ -30958,10 +30964,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13">
@@ -30978,7 +30984,7 @@
         <v>80000.0</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>39</v>
@@ -31007,7 +31013,7 @@
         <v>85000.0</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>39</v>
@@ -31036,7 +31042,7 @@
         <v>90000.0</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>39</v>
@@ -31065,7 +31071,7 @@
         <v>100000.0</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>39</v>
@@ -31094,7 +31100,7 @@
         <v>110000.0</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>176</v>
@@ -31123,7 +31129,7 @@
         <v>130000.0</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>176</v>
@@ -31181,7 +31187,7 @@
         <v>150000.0</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>176</v>
@@ -31210,7 +31216,7 @@
         <v>160000.0</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>176</v>
@@ -31239,7 +31245,7 @@
         <v>170000.0</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>176</v>
@@ -31268,7 +31274,7 @@
         <v>180000.0</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>176</v>
@@ -31291,7 +31297,7 @@
         <v>11.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D24" s="1">
         <v>-1.0</v>
@@ -31326,7 +31332,7 @@
         <v>200000.0</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>237</v>
@@ -31355,7 +31361,7 @@
         <v>180000.0</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>190</v>
@@ -31370,10 +31376,10 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27">
@@ -31419,7 +31425,7 @@
         <v>75000.0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>41</v>
@@ -31448,7 +31454,7 @@
         <v>80000.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>152</v>
@@ -31477,7 +31483,7 @@
         <v>90000.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>152</v>
@@ -31506,7 +31512,7 @@
         <v>100000.0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>152</v>
@@ -31535,7 +31541,7 @@
         <v>110000.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>152</v>
@@ -31564,7 +31570,7 @@
         <v>90000.0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>41</v>
@@ -31593,7 +31599,7 @@
         <v>95000.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>41</v>
@@ -31622,7 +31628,7 @@
         <v>110000.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>176</v>
@@ -31680,7 +31686,7 @@
         <v>80000.0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>234</v>
@@ -31709,7 +31715,7 @@
         <v>85000.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>234</v>
@@ -31738,7 +31744,7 @@
         <v>90000.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>234</v>
@@ -31767,7 +31773,7 @@
         <v>95000.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>176</v>
@@ -31825,13 +31831,13 @@
         <v>100000.0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>176</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>0</v>
@@ -31854,7 +31860,7 @@
         <v>110000.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>43</v>
@@ -31883,7 +31889,7 @@
         <v>120000.0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>43</v>
@@ -31912,7 +31918,7 @@
         <v>150000.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>237</v>
@@ -31941,7 +31947,7 @@
         <v>100000.0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>176</v>
@@ -31970,7 +31976,7 @@
         <v>110000.0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>176</v>
@@ -31999,7 +32005,7 @@
         <v>120000.0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>176</v>
@@ -32028,7 +32034,7 @@
         <v>130000.0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>176</v>
@@ -32057,7 +32063,7 @@
         <v>150000.0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>43</v>
@@ -32080,7 +32086,7 @@
         <v>24.0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D51" s="1">
         <v>-1.0</v>
@@ -32115,7 +32121,7 @@
         <v>200000.0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>224</v>
@@ -32130,10 +32136,10 @@
         <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -32182,10 +32188,10 @@
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E2" s="1">
         <v>500000.0</v>
@@ -32199,10 +32205,10 @@
         <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E3" s="1">
         <v>600000.0</v>
@@ -32216,10 +32222,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E4" s="1">
         <v>700000.0</v>
@@ -32250,10 +32256,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E6" s="1">
         <v>300002.0</v>
@@ -32261,16 +32267,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E7" s="1">
         <v>400003.0</v>
@@ -32278,16 +32284,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E8" s="1">
         <v>500004.0</v>
@@ -32301,10 +32307,10 @@
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E9" s="1">
         <v>600005.0</v>
@@ -32318,7 +32324,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>45</v>
@@ -32329,16 +32335,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E11" s="1">
         <v>12000.0</v>
@@ -32349,7 +32355,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -32375,10 +32381,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E13" s="1">
         <v>12000.0</v>
@@ -32395,7 +32401,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>19</v>
@@ -67281,6 +67287,12 @@
       <c r="K1" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -67313,6 +67325,9 @@
       <c r="J2" s="1">
         <v>1.0</v>
       </c>
+      <c r="L2" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
@@ -67345,6 +67360,9 @@
       <c r="J3" s="1">
         <v>2.0</v>
       </c>
+      <c r="L3" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
@@ -67377,6 +67395,9 @@
       <c r="J4" s="1">
         <v>-1.0</v>
       </c>
+      <c r="L4" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
@@ -67409,6 +67430,9 @@
       <c r="J5" s="1">
         <v>2.0</v>
       </c>
+      <c r="L5" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
@@ -67418,7 +67442,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D6" s="1">
         <v>-1.0</v>
@@ -67440,6 +67464,9 @@
       </c>
       <c r="J6" s="1">
         <v>-1.0</v>
+      </c>
+      <c r="L6" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -67474,7 +67501,10 @@
         <v>2.0</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
+      </c>
+      <c r="L7" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -67508,6 +67538,9 @@
       <c r="J8" s="1">
         <v>1.0</v>
       </c>
+      <c r="L8" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
@@ -67540,6 +67573,9 @@
       <c r="J9" s="1">
         <v>1.0</v>
       </c>
+      <c r="L9" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
@@ -67572,6 +67608,9 @@
       <c r="J10" s="1">
         <v>-1.0</v>
       </c>
+      <c r="L10" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
@@ -67604,6 +67643,9 @@
       <c r="J11" s="1">
         <v>3.0</v>
       </c>
+      <c r="L11" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
@@ -67636,6 +67678,9 @@
       <c r="J12" s="1">
         <v>2.0</v>
       </c>
+      <c r="L12" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
@@ -67668,6 +67713,9 @@
       <c r="J13" s="1">
         <v>2.0</v>
       </c>
+      <c r="L13" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
@@ -67677,7 +67725,7 @@
         <v>6.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D14" s="1">
         <v>-1.0</v>
@@ -67699,6 +67747,9 @@
       </c>
       <c r="J14" s="1">
         <v>-1.0</v>
+      </c>
+      <c r="L14" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -67733,7 +67784,10 @@
         <v>2.0</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
+      </c>
+      <c r="L15" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -67767,6 +67821,9 @@
       <c r="J16" s="1">
         <v>1.0</v>
       </c>
+      <c r="L16" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
@@ -67799,6 +67856,9 @@
       <c r="J17" s="1">
         <v>1.0</v>
       </c>
+      <c r="L17" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
@@ -67808,7 +67868,7 @@
         <v>2.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D18" s="1">
         <v>-1.0</v>
@@ -67830,6 +67890,9 @@
       </c>
       <c r="J18" s="1">
         <v>-1.0</v>
+      </c>
+      <c r="L18" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -67863,6 +67926,9 @@
       <c r="J19" s="1">
         <v>2.0</v>
       </c>
+      <c r="L19" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
@@ -67895,6 +67961,9 @@
       <c r="J20" s="1">
         <v>2.0</v>
       </c>
+      <c r="L20" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
@@ -67927,6 +67996,9 @@
       <c r="J21" s="1">
         <v>2.0</v>
       </c>
+      <c r="L21" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
@@ -67959,6 +68031,9 @@
       <c r="J22" s="1">
         <v>-1.0</v>
       </c>
+      <c r="L22" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
@@ -67977,7 +68052,7 @@
         <v>164</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G23" s="1">
         <v>8.0</v>
@@ -67990,6 +68065,9 @@
       </c>
       <c r="J23" s="1">
         <v>3.0</v>
+      </c>
+      <c r="L23" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -68023,6 +68101,9 @@
       <c r="J24" s="1">
         <v>3.0</v>
       </c>
+      <c r="L24" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
@@ -68032,7 +68113,7 @@
         <v>9.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D25" s="1">
         <v>-1.0</v>
@@ -68054,6 +68135,9 @@
       </c>
       <c r="J25" s="1">
         <v>-1.0</v>
+      </c>
+      <c r="L25" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -68073,7 +68157,7 @@
         <v>164</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G26" s="1">
         <v>-1.0</v>
@@ -68088,10 +68172,16 @@
         <v>3.0</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="L26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>-1.0</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="27">
@@ -68125,6 +68215,9 @@
       <c r="J27" s="1">
         <v>1.0</v>
       </c>
+      <c r="L27" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
@@ -68146,7 +68239,7 @@
         <v>158</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>0</v>
@@ -68156,6 +68249,9 @@
       </c>
       <c r="J28" s="1">
         <v>1.0</v>
+      </c>
+      <c r="L28" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -68189,6 +68285,9 @@
       <c r="J29" s="1">
         <v>-1.0</v>
       </c>
+      <c r="L29" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
@@ -68210,7 +68309,7 @@
         <v>190</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H30" s="1" t="b">
         <v>0</v>
@@ -68220,6 +68319,9 @@
       </c>
       <c r="J30" s="1">
         <v>1.0</v>
+      </c>
+      <c r="L30" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -68253,6 +68355,9 @@
       <c r="J31" s="1">
         <v>2.0</v>
       </c>
+      <c r="L31" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
@@ -68285,6 +68390,9 @@
       <c r="J32" s="1">
         <v>-1.0</v>
       </c>
+      <c r="L32" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
@@ -68317,6 +68425,9 @@
       <c r="J33" s="1">
         <v>2.0</v>
       </c>
+      <c r="L33" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
@@ -68349,6 +68460,9 @@
       <c r="J34" s="1">
         <v>2.0</v>
       </c>
+      <c r="L34" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
@@ -68381,6 +68495,9 @@
       <c r="J35" s="1">
         <v>-1.0</v>
       </c>
+      <c r="L35" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
@@ -68413,6 +68530,9 @@
       <c r="J36" s="1">
         <v>2.0</v>
       </c>
+      <c r="L36" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
@@ -68445,6 +68565,9 @@
       <c r="J37" s="1">
         <v>-1.0</v>
       </c>
+      <c r="L37" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
@@ -68477,6 +68600,9 @@
       <c r="J38" s="1">
         <v>2.0</v>
       </c>
+      <c r="L38" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
@@ -68509,6 +68635,9 @@
       <c r="J39" s="1">
         <v>3.0</v>
       </c>
+      <c r="L39" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
@@ -68541,6 +68670,9 @@
       <c r="J40" s="1">
         <v>-1.0</v>
       </c>
+      <c r="L40" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1">
@@ -68573,6 +68705,9 @@
       <c r="J41" s="1">
         <v>3.0</v>
       </c>
+      <c r="L41" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1">
@@ -68582,7 +68717,7 @@
         <v>15.0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D42" s="1">
         <v>-1.0</v>
@@ -68604,6 +68739,9 @@
       </c>
       <c r="J42" s="1">
         <v>-1.0</v>
+      </c>
+      <c r="L42" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -68623,7 +68761,7 @@
         <v>247</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G43" s="1">
         <v>-1.0</v>
@@ -68638,7 +68776,10 @@
         <v>5.0</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
+      </c>
+      <c r="L43" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -68672,6 +68813,9 @@
       <c r="J44" s="1">
         <v>1.0</v>
       </c>
+      <c r="L44" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
@@ -68704,6 +68848,9 @@
       <c r="J45" s="1">
         <v>1.0</v>
       </c>
+      <c r="L45" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1">
@@ -68736,6 +68883,9 @@
       <c r="J46" s="1">
         <v>1.0</v>
       </c>
+      <c r="L46" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1">
@@ -68768,6 +68918,9 @@
       <c r="J47" s="1">
         <v>-1.0</v>
       </c>
+      <c r="L47" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
@@ -68800,6 +68953,9 @@
       <c r="J48" s="1">
         <v>2.0</v>
       </c>
+      <c r="L48" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
@@ -68832,6 +68988,9 @@
       <c r="J49" s="1">
         <v>-1.0</v>
       </c>
+      <c r="L49" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
@@ -68864,6 +69023,9 @@
       <c r="J50" s="1">
         <v>2.0</v>
       </c>
+      <c r="L50" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1">
@@ -68896,6 +69058,9 @@
       <c r="J51" s="1">
         <v>2.0</v>
       </c>
+      <c r="L51" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1">
@@ -68928,6 +69093,9 @@
       <c r="J52" s="1">
         <v>-1.0</v>
       </c>
+      <c r="L52" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1">
@@ -68960,6 +69128,9 @@
       <c r="J53" s="1">
         <v>3.0</v>
       </c>
+      <c r="L53" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1">
@@ -68981,7 +69152,7 @@
         <v>170</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H54" s="1" t="b">
         <v>0</v>
@@ -68991,6 +69162,9 @@
       </c>
       <c r="J54" s="1">
         <v>2.0</v>
+      </c>
+      <c r="L54" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -69024,6 +69198,9 @@
       <c r="J55" s="1">
         <v>3.0</v>
       </c>
+      <c r="L55" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1">
@@ -69056,6 +69233,9 @@
       <c r="J56" s="1">
         <v>-1.0</v>
       </c>
+      <c r="L56" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1">
@@ -69088,6 +69268,9 @@
       <c r="J57" s="1">
         <v>5.0</v>
       </c>
+      <c r="L57" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1">
@@ -69120,6 +69303,9 @@
       <c r="J58" s="1">
         <v>5.0</v>
       </c>
+      <c r="L58" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1">
@@ -69129,7 +69315,7 @@
         <v>15.0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D59" s="1">
         <v>-1.0</v>
@@ -69151,6 +69337,9 @@
       </c>
       <c r="J59" s="1">
         <v>-1.0</v>
+      </c>
+      <c r="L59" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -69170,7 +69359,7 @@
         <v>181</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G60" s="1">
         <v>-1.0</v>
@@ -69185,7 +69374,10 @@
         <v>6.0</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
+      </c>
+      <c r="L60" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -69219,6 +69411,9 @@
       <c r="J61" s="1">
         <v>2.0</v>
       </c>
+      <c r="L61" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1">
@@ -69251,6 +69446,9 @@
       <c r="J62" s="1">
         <v>2.0</v>
       </c>
+      <c r="L62" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1">
@@ -69283,6 +69481,9 @@
       <c r="J63" s="1">
         <v>2.0</v>
       </c>
+      <c r="L63" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1">
@@ -69315,6 +69516,9 @@
       <c r="J64" s="1">
         <v>2.0</v>
       </c>
+      <c r="L64" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1">
@@ -69347,6 +69551,9 @@
       <c r="J65" s="1">
         <v>2.0</v>
       </c>
+      <c r="L65" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1">
@@ -69379,6 +69586,9 @@
       <c r="J66" s="1">
         <v>-1.0</v>
       </c>
+      <c r="L66" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1">
@@ -69411,6 +69621,9 @@
       <c r="J67" s="1">
         <v>3.0</v>
       </c>
+      <c r="L67" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1">
@@ -69443,6 +69656,9 @@
       <c r="J68" s="1">
         <v>2.0</v>
       </c>
+      <c r="L68" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1">
@@ -69475,6 +69691,9 @@
       <c r="J69" s="1">
         <v>3.0</v>
       </c>
+      <c r="L69" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1">
@@ -69507,6 +69726,9 @@
       <c r="J70" s="1">
         <v>-1.0</v>
       </c>
+      <c r="L70" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1">
@@ -69525,7 +69747,7 @@
         <v>194</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G71" s="1">
         <v>14.0</v>
@@ -69538,6 +69760,9 @@
       </c>
       <c r="J71" s="1">
         <v>4.0</v>
+      </c>
+      <c r="L71" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -69571,6 +69796,9 @@
       <c r="J72" s="1">
         <v>3.0</v>
       </c>
+      <c r="L72" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1">
@@ -69603,6 +69831,9 @@
       <c r="J73" s="1">
         <v>3.0</v>
       </c>
+      <c r="L73" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1">
@@ -69635,6 +69866,9 @@
       <c r="J74" s="1">
         <v>3.0</v>
       </c>
+      <c r="L74" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1">
@@ -69653,7 +69887,7 @@
         <v>194</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G75" s="1">
         <v>15.0</v>
@@ -69666,6 +69900,9 @@
       </c>
       <c r="J75" s="1">
         <v>3.0</v>
+      </c>
+      <c r="L75" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -69685,7 +69922,7 @@
         <v>194</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G76" s="1">
         <v>16.0</v>
@@ -69698,6 +69935,9 @@
       </c>
       <c r="J76" s="1">
         <v>3.0</v>
+      </c>
+      <c r="L76" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -69717,7 +69957,7 @@
         <v>194</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G77" s="1">
         <v>17.0</v>
@@ -69730,6 +69970,9 @@
       </c>
       <c r="J77" s="1">
         <v>4.0</v>
+      </c>
+      <c r="L77" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -69740,7 +69983,7 @@
         <v>17.0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D78" s="1">
         <v>-1.0</v>
@@ -69762,6 +70005,9 @@
       </c>
       <c r="J78" s="1">
         <v>-1.0</v>
+      </c>
+      <c r="L78" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -69781,7 +70027,7 @@
         <v>194</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G79" s="1">
         <v>-1.0</v>
@@ -69796,7 +70042,10 @@
         <v>7.0</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
+      </c>
+      <c r="L79" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -72660,7 +72909,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -72669,7 +72918,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E5" s="1">
         <v>6000.0</v>
@@ -72680,7 +72929,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -72706,10 +72955,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E7" s="1">
         <v>6000.0</v>
@@ -72766,10 +73015,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E10" s="1">
         <v>5000.0</v>
@@ -72780,7 +73029,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>29</v>
@@ -72800,7 +73049,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>34</v>
@@ -72820,7 +73069,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -72840,16 +73089,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E14" s="1">
         <v>5000.0</v>
@@ -72900,7 +73149,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
@@ -72920,16 +73169,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E18" s="1">
         <v>5000.0</v>
@@ -72980,7 +73229,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
@@ -73000,16 +73249,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E22" s="1">
         <v>5000.0</v>
@@ -73100,7 +73349,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -73109,7 +73358,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E27" s="1">
         <v>5000.0</v>
@@ -73120,16 +73369,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E28" s="1">
         <v>5000.0</v>
@@ -73140,7 +73389,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>29</v>
@@ -73200,7 +73449,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>25</v>
@@ -73209,7 +73458,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E32" s="1">
         <v>5000.0</v>
@@ -73226,10 +73475,10 @@
         <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E33" s="1">
         <v>5000.0</v>
@@ -73240,7 +73489,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>29</v>
@@ -73280,7 +73529,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
@@ -73309,7 +73558,7 @@
         <v>26</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E37" s="1">
         <v>5000.0</v>
@@ -73320,7 +73569,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>13</v>
@@ -73329,7 +73578,7 @@
         <v>49</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E38" s="1">
         <v>5000.0</v>
@@ -73400,7 +73649,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>25</v>
@@ -73409,7 +73658,7 @@
         <v>26</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E42" s="1">
         <v>5000.0</v>
@@ -73420,16 +73669,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E43" s="1">
         <v>5000.0</v>
@@ -73440,7 +73689,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>29</v>
@@ -73460,7 +73709,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>34</v>
@@ -76366,7 +76615,7 @@
         <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
@@ -76386,7 +76635,7 @@
         <v>0.0</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G2" s="7">
         <v>1.0</v>
@@ -76502,10 +76751,10 @@
         <v>142</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H6" s="1" t="b">
         <v>1</v>
@@ -76589,7 +76838,7 @@
         <v>142</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G9" s="7">
         <v>4.0</v>
@@ -76618,7 +76867,7 @@
         <v>142</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G10" s="7">
         <v>5.0</v>
@@ -76673,7 +76922,7 @@
         <v>75000.0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>146</v>
@@ -76702,7 +76951,7 @@
         <v>90000.0</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>41</v>
@@ -76731,7 +76980,7 @@
         <v>86000.0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>33</v>
@@ -76763,7 +77012,7 @@
         <v>147</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>241</v>
@@ -76853,7 +77102,7 @@
         <v>146</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H18" s="1" t="b">
         <v>0</v>
@@ -77037,7 +77286,7 @@
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="20" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25">
@@ -77060,7 +77309,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>1</v>
@@ -77135,7 +77384,7 @@
         <v>3.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D28" s="1">
         <v>-1.0</v>
@@ -77463,10 +77712,10 @@
         <v>150</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H39" s="1" t="b">
         <v>1</v>
@@ -77605,7 +77854,7 @@
         <v>85000.0</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>176</v>
@@ -77637,7 +77886,7 @@
         <v>150</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G45" s="7">
         <v>7.0</v>
@@ -77721,7 +77970,7 @@
         <v>95000.0</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>39</v>
@@ -77750,7 +77999,7 @@
         <v>100000.0</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>39</v>
@@ -77779,7 +78028,7 @@
         <v>110000.0</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>41</v>
@@ -77808,7 +78057,7 @@
         <v>90000.0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>176</v>
@@ -77872,7 +78121,7 @@
         <v>32</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>0</v>
@@ -77895,7 +78144,7 @@
         <v>120000.0</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>176</v>
@@ -77953,7 +78202,7 @@
         <v>90000.0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>41</v>
@@ -77982,7 +78231,7 @@
         <v>80000.0</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>33</v>
@@ -78040,7 +78289,7 @@
         <v>80000.0</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>33</v>
@@ -78069,7 +78318,7 @@
         <v>95000.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>152</v>
@@ -78098,7 +78347,7 @@
         <v>80000.0</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>41</v>
@@ -78127,7 +78376,7 @@
         <v>130000.0</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>176</v>
@@ -78156,7 +78405,7 @@
         <v>90000.0</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>41</v>
@@ -78185,7 +78434,7 @@
         <v>110000.0</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>43</v>
@@ -78214,13 +78463,13 @@
         <v>70000.0</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>1</v>
@@ -78243,7 +78492,7 @@
         <v>75000.0</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>41</v>
@@ -78272,7 +78521,7 @@
         <v>90000.0</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>43</v>
@@ -78301,7 +78550,7 @@
         <v>110000.0</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>237</v>
@@ -78330,7 +78579,7 @@
         <v>80000.0</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>41</v>
@@ -78359,7 +78608,7 @@
         <v>90000.0</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>43</v>
@@ -78388,7 +78637,7 @@
         <v>120000.0</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>237</v>
@@ -78475,13 +78724,13 @@
         <v>70000.0</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H74" s="1" t="b">
         <v>0</v>
@@ -78504,7 +78753,7 @@
         <v>100000.0</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>43</v>
@@ -78533,7 +78782,7 @@
         <v>100000.0</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>43</v>
@@ -78562,7 +78811,7 @@
         <v>140000.0</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>158</v>
@@ -78591,7 +78840,7 @@
         <v>70000.0</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>39</v>
@@ -78620,7 +78869,7 @@
         <v>75000.0</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>41</v>
@@ -78649,7 +78898,7 @@
         <v>75000.0</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>41</v>
@@ -78678,7 +78927,7 @@
         <v>80000.0</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>176</v>
@@ -78707,7 +78956,7 @@
         <v>90000.0</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>176</v>
@@ -78736,7 +78985,7 @@
         <v>100000.0</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>176</v>
@@ -78765,7 +79014,7 @@
         <v>140000.0</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>237</v>
@@ -78800,7 +79049,7 @@
         <v>-1.0</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H85" s="1" t="b">
         <v>0</v>
@@ -78823,7 +79072,7 @@
         <v>120000.0</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>43</v>
@@ -78881,7 +79130,7 @@
         <v>110000.0</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>158</v>
@@ -78910,7 +79159,7 @@
         <v>120000.0</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>43</v>
@@ -78939,7 +79188,7 @@
         <v>140000.0</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>195</v>
@@ -78968,7 +79217,7 @@
         <v>100000.0</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>41</v>
@@ -78997,7 +79246,7 @@
         <v>100000.0</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>152</v>
@@ -79026,7 +79275,7 @@
         <v>110000.0</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>43</v>
@@ -79055,7 +79304,7 @@
         <v>150000.0</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>195</v>
@@ -79142,7 +79391,7 @@
         <v>90000.0</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>176</v>
@@ -79171,7 +79420,7 @@
         <v>90000.0</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>176</v>
@@ -79200,13 +79449,13 @@
         <v>100000.0</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="H99" s="1" t="b">
         <v>0</v>
@@ -79345,7 +79594,7 @@
         <v>90000.0</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>43</v>
@@ -79374,7 +79623,7 @@
         <v>95000.0</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>237</v>
@@ -79403,7 +79652,7 @@
         <v>120000.0</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>195</v>
@@ -79432,7 +79681,7 @@
         <v>140000.0</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>195</v>
@@ -79461,7 +79710,7 @@
         <v>160000.0</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>190</v>
@@ -79525,7 +79774,7 @@
         <v>41</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="H110" s="1" t="b">
         <v>0</v>
@@ -79548,7 +79797,7 @@
         <v>85000.0</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>176</v>
@@ -79577,7 +79826,7 @@
         <v>85000.0</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>176</v>
@@ -79635,7 +79884,7 @@
         <v>80000.0</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F114" s="10" t="s">
         <v>43</v>
@@ -79664,7 +79913,7 @@
         <v>100000.0</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>237</v>
@@ -79693,7 +79942,7 @@
         <v>120000.0</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F116" s="10" t="s">
         <v>158</v>
@@ -79722,7 +79971,7 @@
         <v>90000.0</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F117" s="10" t="s">
         <v>237</v>
@@ -79751,7 +80000,7 @@
         <v>120000.0</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F118" s="10" t="s">
         <v>158</v>
@@ -79780,7 +80029,7 @@
         <v>100000.0</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F119" s="10" t="s">
         <v>176</v>
@@ -79809,7 +80058,7 @@
         <v>110000.0</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F120" s="10" t="s">
         <v>152</v>
@@ -79838,7 +80087,7 @@
         <v>130000.0</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F121" s="10" t="s">
         <v>176</v>
@@ -79896,7 +80145,7 @@
         <v>140000.0</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>195</v>
@@ -79925,7 +80174,7 @@
         <v>150000.0</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>195</v>
@@ -79954,7 +80203,7 @@
         <v>180000.0</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F125" s="10" t="s">
         <v>190</v>
@@ -79983,7 +80232,7 @@
         <v>80000.0</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>41</v>
@@ -80041,7 +80290,7 @@
         <v>90000.0</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F128" s="10" t="s">
         <v>41</v>
@@ -80070,7 +80319,7 @@
         <v>90000.0</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>152</v>
@@ -80099,7 +80348,7 @@
         <v>95000.0</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F130" s="10" t="s">
         <v>152</v>
@@ -80128,7 +80377,7 @@
         <v>95000.0</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>43</v>
@@ -80157,7 +80406,7 @@
         <v>100000.0</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>43</v>
@@ -80215,7 +80464,7 @@
         <v>120000.0</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F134" s="10" t="s">
         <v>158</v>
@@ -80244,7 +80493,7 @@
         <v>130000.0</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F135" s="10" t="s">
         <v>158</v>
@@ -80273,7 +80522,7 @@
         <v>140000.0</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F136" s="10" t="s">
         <v>190</v>
@@ -80302,7 +80551,7 @@
         <v>180000.0</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>158</v>
@@ -80331,7 +80580,7 @@
         <v>190000.0</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F138" s="10" t="s">
         <v>190</v>
@@ -80389,7 +80638,7 @@
         <v>220000.0</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F140" s="10" t="s">
         <v>197</v>
@@ -80418,7 +80667,7 @@
         <v>80000.0</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F141" s="10" t="s">
         <v>152</v>
@@ -80447,7 +80696,7 @@
         <v>90000.0</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F142" s="10" t="s">
         <v>152</v>
@@ -80476,7 +80725,7 @@
         <v>95000.0</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F143" s="10" t="s">
         <v>152</v>
@@ -80505,7 +80754,7 @@
         <v>95000.0</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F144" s="10" t="s">
         <v>223</v>
@@ -80534,7 +80783,7 @@
         <v>100000.0</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F145" s="10" t="s">
         <v>223</v>
@@ -80563,7 +80812,7 @@
         <v>105000.0</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F146" s="10" t="s">
         <v>223</v>
@@ -80592,10 +80841,10 @@
         <v>110000.0</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G147" s="7">
         <v>7.0</v>
@@ -80621,10 +80870,10 @@
         <v>110000.0</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G148" s="7">
         <v>8.0</v>
@@ -80679,10 +80928,10 @@
         <v>110000.0</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G150" s="7">
         <v>10.0</v>
@@ -80708,10 +80957,10 @@
         <v>115000.0</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G151" s="7">
         <v>11.0</v>
@@ -80737,10 +80986,10 @@
         <v>120000.0</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G152" s="7">
         <v>12.0</v>
@@ -80760,7 +81009,7 @@
         <v>12.0</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D153" s="1">
         <v>-1.0</v>
@@ -80795,7 +81044,7 @@
         <v>130000.0</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F154" s="10" t="s">
         <v>246</v>
@@ -80824,7 +81073,7 @@
         <v>130000.0</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F155" s="10" t="s">
         <v>246</v>
@@ -80853,7 +81102,7 @@
         <v>140000.0</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F156" s="10" t="s">
         <v>246</v>
@@ -80882,7 +81131,7 @@
         <v>140000.0</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F157" s="10" t="s">
         <v>246</v>
@@ -80940,10 +81189,10 @@
         <v>150000.0</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G159" s="7">
         <v>19.0</v>
@@ -80969,10 +81218,10 @@
         <v>160000.0</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G160" s="7">
         <v>20.0</v>
@@ -80998,10 +81247,10 @@
         <v>170000.0</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G161" s="7">
         <v>21.0</v>
@@ -81027,10 +81276,10 @@
         <v>180000.0</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G162" s="7">
         <v>-1.0</v>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4266" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4267" uniqueCount="546">
   <si>
     <t>Stage_Mission</t>
   </si>
@@ -847,6 +847,9 @@
   </si>
   <si>
     <t>2,98,9</t>
+  </si>
+  <si>
+    <t>42,97,2</t>
   </si>
   <si>
     <t>0번 보스가, 거리 90%에 나타나지만, 출현 몬스터 수는 5번까지이다.</t>
@@ -6219,7 +6222,7 @@
         <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
@@ -6236,13 +6239,13 @@
         <v>70000.0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
@@ -6265,7 +6268,7 @@
         <v>75000.0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>41</v>
@@ -6323,7 +6326,7 @@
         <v>100000.0</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>176</v>
@@ -6381,7 +6384,7 @@
         <v>110000.0</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>237</v>
@@ -6410,7 +6413,7 @@
         <v>80000.0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>41</v>
@@ -6439,7 +6442,7 @@
         <v>80000.0</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>176</v>
@@ -6497,7 +6500,7 @@
         <v>90000.0</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>237</v>
@@ -6526,7 +6529,7 @@
         <v>95000.0</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>237</v>
@@ -6555,7 +6558,7 @@
         <v>80000.0</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>41</v>
@@ -6584,7 +6587,7 @@
         <v>120000.0</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>158</v>
@@ -6642,7 +6645,7 @@
         <v>90000.0</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>237</v>
@@ -6671,13 +6674,13 @@
         <v>110000.0</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>190</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H17" s="1" t="b">
         <v>0</v>
@@ -6700,7 +6703,7 @@
         <v>120000.0</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>190</v>
@@ -6758,7 +6761,7 @@
         <v>150000.0</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>190</v>
@@ -6787,7 +6790,7 @@
         <v>80000.0</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>41</v>
@@ -6816,7 +6819,7 @@
         <v>85000.0</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>152</v>
@@ -6845,7 +6848,7 @@
         <v>90000.0</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>152</v>
@@ -6903,13 +6906,13 @@
         <v>90000.0</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
@@ -6932,7 +6935,7 @@
         <v>110000.0</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>158</v>
@@ -6961,7 +6964,7 @@
         <v>90000.0</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>41</v>
@@ -6990,7 +6993,7 @@
         <v>95000.0</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>152</v>
@@ -7019,7 +7022,7 @@
         <v>120000.0</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>43</v>
@@ -7048,7 +7051,7 @@
         <v>130000.0</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>43</v>
@@ -7077,7 +7080,7 @@
         <v>100000.0</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F31" s="10" t="s">
         <v>152</v>
@@ -7106,7 +7109,7 @@
         <v>110000.0</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>43</v>
@@ -7164,13 +7167,13 @@
         <v>130000.0</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>158</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H34" s="1" t="b">
         <v>0</v>
@@ -7222,7 +7225,7 @@
         <v>160000.0</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>195</v>
@@ -7280,7 +7283,7 @@
         <v>140000.0</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>54</v>
@@ -7309,7 +7312,7 @@
         <v>160000.0</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>197</v>
@@ -7338,7 +7341,7 @@
         <v>60000.0</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>176</v>
@@ -7367,13 +7370,13 @@
         <v>65000.0</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>176</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H41" s="1" t="b">
         <v>0</v>
@@ -7396,7 +7399,7 @@
         <v>70000.0</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>43</v>
@@ -7425,7 +7428,7 @@
         <v>75000.0</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>167</v>
@@ -7454,7 +7457,7 @@
         <v>80000.0</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>43</v>
@@ -7483,7 +7486,7 @@
         <v>120000.0</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>190</v>
@@ -7541,7 +7544,7 @@
         <v>70000.0</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>43</v>
@@ -7570,7 +7573,7 @@
         <v>75000.0</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>158</v>
@@ -7599,7 +7602,7 @@
         <v>80000.0</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>158</v>
@@ -7657,7 +7660,7 @@
         <v>120000.0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>190</v>
@@ -7686,7 +7689,7 @@
         <v>100000.0</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>197</v>
@@ -7744,7 +7747,7 @@
         <v>120000.0</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>197</v>
@@ -7773,7 +7776,7 @@
         <v>100000.0</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>190</v>
@@ -7802,7 +7805,7 @@
         <v>140000.0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>54</v>
@@ -7831,7 +7834,7 @@
         <v>160000.0</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>197</v>
@@ -7860,7 +7863,7 @@
         <v>80000.0</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>152</v>
@@ -7889,7 +7892,7 @@
         <v>90000.0</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>152</v>
@@ -7918,7 +7921,7 @@
         <v>95000.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>223</v>
@@ -7947,7 +7950,7 @@
         <v>100000.0</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>43</v>
@@ -7976,7 +7979,7 @@
         <v>120000.0</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>158</v>
@@ -8034,7 +8037,7 @@
         <v>150000.0</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>195</v>
@@ -8063,13 +8066,13 @@
         <v>100000.0</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>237</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>0</v>
@@ -8092,7 +8095,7 @@
         <v>200000.0</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>178</v>
@@ -8121,7 +8124,7 @@
         <v>110000.0</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>237</v>
@@ -8150,7 +8153,7 @@
         <v>130000.0</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>190</v>
@@ -8179,7 +8182,7 @@
         <v>110000.0</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>237</v>
@@ -8237,7 +8240,7 @@
         <v>140000.0</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>158</v>
@@ -8266,7 +8269,7 @@
         <v>150000.0</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>158</v>
@@ -8295,7 +8298,7 @@
         <v>160000.0</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>190</v>
@@ -8324,7 +8327,7 @@
         <v>180000.0</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>197</v>
@@ -8353,10 +8356,10 @@
         <v>200000.0</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G75" s="1">
         <v>18.0</v>
@@ -8382,10 +8385,10 @@
         <v>220000.0</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G76" s="1">
         <v>-1.0</v>
@@ -11209,7 +11212,7 @@
         <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
@@ -11229,7 +11232,7 @@
         <v>147</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G2" s="1">
         <v>1.0</v>
@@ -11258,7 +11261,7 @@
         <v>147</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G3" s="1">
         <v>2.0</v>
@@ -11545,7 +11548,7 @@
         <v>100000.0</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>32</v>
@@ -11574,7 +11577,7 @@
         <v>80000.0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>33</v>
@@ -12009,10 +12012,10 @@
         <v>250000.0</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G29" s="1">
         <v>15.0</v>
@@ -12154,7 +12157,7 @@
         <v>130000.0</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>224</v>
@@ -12212,7 +12215,7 @@
         <v>150000.0</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>224</v>
@@ -12270,7 +12273,7 @@
         <v>100000.0</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>158</v>
@@ -12299,7 +12302,7 @@
         <v>120000.0</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>167</v>
@@ -12328,10 +12331,10 @@
         <v>140000.0</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G40" s="1">
         <v>-1.0</v>
@@ -12386,7 +12389,7 @@
         <v>110000.0</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>32</v>
@@ -12415,7 +12418,7 @@
         <v>110000.0</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>33</v>
@@ -12473,7 +12476,7 @@
         <v>120000.0</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>149</v>
@@ -12502,7 +12505,7 @@
         <v>125000.0</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>33</v>
@@ -12531,7 +12534,7 @@
         <v>125000.0</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F47" s="10" t="s">
         <v>33</v>
@@ -12560,13 +12563,13 @@
         <v>140000.0</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H48" s="1" t="b">
         <v>0</v>
@@ -12589,7 +12592,7 @@
         <v>110000.0</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>33</v>
@@ -12647,7 +12650,7 @@
         <v>110000.0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>41</v>
@@ -12676,7 +12679,7 @@
         <v>120000.0</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>152</v>
@@ -12734,7 +12737,7 @@
         <v>120000.0</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>43</v>
@@ -12763,7 +12766,7 @@
         <v>130000.0</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>158</v>
@@ -12792,7 +12795,7 @@
         <v>150000.0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>190</v>
@@ -12821,7 +12824,7 @@
         <v>90000.0</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>33</v>
@@ -12850,7 +12853,7 @@
         <v>100000.0</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>33</v>
@@ -12879,13 +12882,13 @@
         <v>110000.0</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>149</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H59" s="1" t="b">
         <v>0</v>
@@ -12908,7 +12911,7 @@
         <v>120000.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>149</v>
@@ -12937,7 +12940,7 @@
         <v>140000.0</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>152</v>
@@ -12972,7 +12975,7 @@
         <v>-1.0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H62" s="1" t="b">
         <v>0</v>
@@ -12995,13 +12998,13 @@
         <v>100000.0</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>152</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H63" s="1" t="b">
         <v>0</v>
@@ -13024,7 +13027,7 @@
         <v>100000.0</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>152</v>
@@ -13053,7 +13056,7 @@
         <v>150000.0</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>224</v>
@@ -13082,7 +13085,7 @@
         <v>100000.0</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>149</v>
@@ -13111,13 +13114,13 @@
         <v>120000.0</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>152</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H67" s="1" t="b">
         <v>0</v>
@@ -13169,7 +13172,7 @@
         <v>100000.0</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>149</v>
@@ -13198,7 +13201,7 @@
         <v>120000.0</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>152</v>
@@ -13227,7 +13230,7 @@
         <v>140000.0</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>223</v>
@@ -13285,7 +13288,7 @@
         <v>160000.0</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>167</v>
@@ -13314,7 +13317,7 @@
         <v>60000.0</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>41</v>
@@ -13343,13 +13346,13 @@
         <v>65000.0</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>152</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>0</v>
@@ -13372,7 +13375,7 @@
         <v>70000.0</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>152</v>
@@ -13401,7 +13404,7 @@
         <v>75000.0</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>152</v>
@@ -13430,7 +13433,7 @@
         <v>80000.0</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>223</v>
@@ -13459,7 +13462,7 @@
         <v>85000.0</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>223</v>
@@ -13488,7 +13491,7 @@
         <v>100000.0</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>224</v>
@@ -13517,13 +13520,13 @@
         <v>110000.0</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>224</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H81" s="1" t="b">
         <v>0</v>
@@ -13546,13 +13549,13 @@
         <v>120000.0</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>223</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H82" s="1" t="b">
         <v>0</v>
@@ -13575,7 +13578,7 @@
         <v>150000.0</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>158</v>
@@ -13662,7 +13665,7 @@
         <v>170000.0</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>170</v>
@@ -13720,13 +13723,13 @@
         <v>85000.0</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>39</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H88" s="1" t="b">
         <v>0</v>
@@ -13813,7 +13816,7 @@
         <v>176</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H91" s="1" t="b">
         <v>0</v>
@@ -13836,7 +13839,7 @@
         <v>120000.0</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>176</v>
@@ -13894,7 +13897,7 @@
         <v>80000.0</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>152</v>
@@ -13923,7 +13926,7 @@
         <v>100000.0</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>43</v>
@@ -13981,7 +13984,7 @@
         <v>120000.0</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>176</v>
@@ -14068,7 +14071,7 @@
         <v>120000.0</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>43</v>
@@ -14097,7 +14100,7 @@
         <v>110000.0</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>176</v>
@@ -14126,7 +14129,7 @@
         <v>130000.0</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>43</v>
@@ -14155,7 +14158,7 @@
         <v>150000.0</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>158</v>
@@ -14184,7 +14187,7 @@
         <v>180000.0</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>190</v>
@@ -14213,7 +14216,7 @@
         <v>70000.0</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>39</v>
@@ -14242,13 +14245,13 @@
         <v>75000.0</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H106" s="1" t="b">
         <v>0</v>
@@ -14271,13 +14274,13 @@
         <v>80000.0</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H107" s="1" t="b">
         <v>0</v>
@@ -14300,7 +14303,7 @@
         <v>100000.0</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>43</v>
@@ -14329,7 +14332,7 @@
         <v>90000.0</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>43</v>
@@ -14358,7 +14361,7 @@
         <v>120000.0</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>158</v>
@@ -14387,7 +14390,7 @@
         <v>100000.0</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>190</v>
@@ -14416,10 +14419,10 @@
         <v>110000.0</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G112" s="1">
         <v>14.0</v>
@@ -14445,7 +14448,7 @@
         <v>130000.0</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F113" s="10" t="s">
         <v>41</v>
@@ -14480,7 +14483,7 @@
         <v>-1.0</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H114" s="1" t="b">
         <v>0</v>
@@ -14503,7 +14506,7 @@
         <v>140000.0</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>152</v>
@@ -14532,7 +14535,7 @@
         <v>120000.0</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F116" s="10" t="s">
         <v>43</v>
@@ -14590,13 +14593,13 @@
         <v>120000.0</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F118" s="10" t="s">
         <v>158</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H118" s="1" t="b">
         <v>0</v>
@@ -14619,7 +14622,7 @@
         <v>140000.0</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F119" s="10" t="s">
         <v>170</v>
@@ -14648,7 +14651,7 @@
         <v>80000.0</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F120" s="10" t="s">
         <v>41</v>
@@ -14677,7 +14680,7 @@
         <v>90000.0</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F121" s="10" t="s">
         <v>41</v>
@@ -14706,13 +14709,13 @@
         <v>100000.0</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F122" s="10" t="s">
         <v>176</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H122" s="1" t="b">
         <v>0</v>
@@ -14735,7 +14738,7 @@
         <v>180000.0</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>158</v>
@@ -14764,7 +14767,7 @@
         <v>150000.0</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>170</v>
@@ -14793,7 +14796,7 @@
         <v>150000.0</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F125" s="10" t="s">
         <v>190</v>
@@ -14822,7 +14825,7 @@
         <v>70000.0</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>41</v>
@@ -14851,7 +14854,7 @@
         <v>75000.0</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F127" s="10" t="s">
         <v>41</v>
@@ -14880,7 +14883,7 @@
         <v>80000.0</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F128" s="10" t="s">
         <v>41</v>
@@ -14909,7 +14912,7 @@
         <v>85000.0</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>41</v>
@@ -14938,7 +14941,7 @@
         <v>90000.0</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F130" s="10" t="s">
         <v>176</v>
@@ -14967,7 +14970,7 @@
         <v>95000.0</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>176</v>
@@ -14996,7 +14999,7 @@
         <v>100000.0</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>176</v>
@@ -15025,7 +15028,7 @@
         <v>105000.0</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>176</v>
@@ -15083,7 +15086,7 @@
         <v>110000.0</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F135" s="10" t="s">
         <v>158</v>
@@ -15112,7 +15115,7 @@
         <v>120000.0</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F136" s="10" t="s">
         <v>158</v>
@@ -15141,7 +15144,7 @@
         <v>130000.0</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>158</v>
@@ -15170,7 +15173,7 @@
         <v>140000.0</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F138" s="10" t="s">
         <v>158</v>
@@ -15228,7 +15231,7 @@
         <v>140000.0</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F140" s="10" t="s">
         <v>158</v>
@@ -15257,7 +15260,7 @@
         <v>140000.0</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F141" s="10" t="s">
         <v>158</v>
@@ -15286,7 +15289,7 @@
         <v>150000.0</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F142" s="10" t="s">
         <v>170</v>
@@ -15315,7 +15318,7 @@
         <v>150000.0</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F143" s="10" t="s">
         <v>170</v>
@@ -15344,7 +15347,7 @@
         <v>150000.0</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F144" s="10" t="s">
         <v>170</v>
@@ -15373,7 +15376,7 @@
         <v>150000.0</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F145" s="10" t="s">
         <v>170</v>
@@ -15402,7 +15405,7 @@
         <v>160000.0</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F146" s="10" t="s">
         <v>170</v>
@@ -15431,7 +15434,7 @@
         <v>50000.0</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F147" s="10" t="s">
         <v>152</v>
@@ -15460,7 +15463,7 @@
         <v>55000.0</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F148" s="10" t="s">
         <v>152</v>
@@ -15489,7 +15492,7 @@
         <v>60000.0</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F149" s="10" t="s">
         <v>152</v>
@@ -15518,7 +15521,7 @@
         <v>65000.0</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F150" s="10" t="s">
         <v>152</v>
@@ -15547,7 +15550,7 @@
         <v>70000.0</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F151" s="10" t="s">
         <v>152</v>
@@ -15576,7 +15579,7 @@
         <v>75000.0</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F152" s="10" t="s">
         <v>152</v>
@@ -15605,7 +15608,7 @@
         <v>80000.0</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F153" s="10" t="s">
         <v>152</v>
@@ -15634,7 +15637,7 @@
         <v>100000.0</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F154" s="10" t="s">
         <v>223</v>
@@ -15692,10 +15695,10 @@
         <v>130000.0</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G156" s="1">
         <v>10.0</v>
@@ -15721,13 +15724,13 @@
         <v>50000.0</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F157" s="10" t="s">
         <v>223</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="H157" s="1" t="b">
         <v>0</v>
@@ -15750,7 +15753,7 @@
         <v>70000.0</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F158" s="10" t="s">
         <v>223</v>
@@ -15808,10 +15811,10 @@
         <v>80000.0</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>50</v>
@@ -15843,7 +15846,7 @@
         <v>-1.0</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H161" s="1" t="b">
         <v>0</v>
@@ -15866,10 +15869,10 @@
         <v>120000.0</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G162" s="1">
         <v>27.0</v>
@@ -15895,7 +15898,7 @@
         <v>70000.0</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F163" s="10" t="s">
         <v>223</v>
@@ -15953,13 +15956,13 @@
         <v>90000.0</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H165" s="1" t="b">
         <v>0</v>
@@ -15982,10 +15985,10 @@
         <v>100000.0</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G166" s="1">
         <v>20.0</v>
@@ -16017,7 +16020,7 @@
         <v>-1.0</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H167" s="1" t="b">
         <v>0</v>
@@ -16040,10 +16043,10 @@
         <v>110000.0</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G168" s="1">
         <v>26.0</v>
@@ -16069,7 +16072,7 @@
         <v>70000.0</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F169" s="10" t="s">
         <v>223</v>
@@ -16104,7 +16107,7 @@
         <v>-1.0</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H170" s="1" t="b">
         <v>0</v>
@@ -16127,10 +16130,10 @@
         <v>90000.0</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G171" s="1">
         <v>25.0</v>
@@ -16156,10 +16159,10 @@
         <v>100000.0</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G172" s="1">
         <v>26.0</v>
@@ -16214,10 +16217,10 @@
         <v>150000.0</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F174" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G174" s="1">
         <v>-1.0</v>
@@ -19543,7 +19546,7 @@
         <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
@@ -19563,10 +19566,10 @@
         <v>150</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H2" s="1" t="b">
         <v>1</v>
@@ -19589,10 +19592,10 @@
         <v>75000.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G3" s="1">
         <v>2.0</v>
@@ -19618,10 +19621,10 @@
         <v>90000.0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G4" s="1">
         <v>3.0</v>
@@ -19676,10 +19679,10 @@
         <v>110000.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G6" s="1">
         <v>5.0</v>
@@ -19734,10 +19737,10 @@
         <v>80000.0</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G8" s="1">
         <v>7.0</v>
@@ -19763,10 +19766,10 @@
         <v>85000.0</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G9" s="1">
         <v>4.0</v>
@@ -19792,10 +19795,10 @@
         <v>90000.0</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G10" s="1">
         <v>9.0</v>
@@ -19821,13 +19824,13 @@
         <v>95000.0</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H11" s="1" t="b">
         <v>0</v>
@@ -19850,10 +19853,10 @@
         <v>110000.0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G12" s="1">
         <v>5.0</v>
@@ -19908,10 +19911,10 @@
         <v>90000.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G14" s="1">
         <v>13.0</v>
@@ -19937,10 +19940,10 @@
         <v>130000.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G15" s="1">
         <v>-1.0</v>
@@ -19969,7 +19972,7 @@
         <v>210</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G16" s="1">
         <v>1.0</v>
@@ -19998,7 +20001,7 @@
         <v>210</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G17" s="1">
         <v>2.0</v>
@@ -20024,13 +20027,13 @@
         <v>80000.0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H18" s="1" t="b">
         <v>0</v>
@@ -20082,10 +20085,10 @@
         <v>100000.0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G20" s="1">
         <v>5.0</v>
@@ -20111,10 +20114,10 @@
         <v>80000.0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G21" s="1">
         <v>6.0</v>
@@ -20140,10 +20143,10 @@
         <v>100000.0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G22" s="1">
         <v>14.0</v>
@@ -20198,10 +20201,10 @@
         <v>120000.0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G24" s="1">
         <v>9.0</v>
@@ -20227,13 +20230,13 @@
         <v>100000.0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
@@ -20256,10 +20259,10 @@
         <v>110000.0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G26" s="1">
         <v>11.0</v>
@@ -20285,13 +20288,13 @@
         <v>130000.0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="H27" s="1" t="b">
         <v>0</v>
@@ -20343,10 +20346,10 @@
         <v>100000.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G29" s="1">
         <v>6.0</v>
@@ -20372,7 +20375,7 @@
         <v>160000.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>146</v>
@@ -20401,10 +20404,10 @@
         <v>70000.0</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G31" s="1">
         <v>1.0</v>
@@ -20430,10 +20433,10 @@
         <v>80000.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G32" s="1">
         <v>2.0</v>
@@ -20465,7 +20468,7 @@
         <v>-1.0</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H33" s="1" t="b">
         <v>0</v>
@@ -20488,10 +20491,10 @@
         <v>80000.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G34" s="1">
         <v>4.0</v>
@@ -20517,10 +20520,10 @@
         <v>85000.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G35" s="1">
         <v>5.0</v>
@@ -20575,10 +20578,10 @@
         <v>100000.0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G37" s="1">
         <v>7.0</v>
@@ -20604,10 +20607,10 @@
         <v>120000.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G38" s="1">
         <v>8.0</v>
@@ -20633,10 +20636,10 @@
         <v>90000.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G39" s="1">
         <v>14.0</v>
@@ -20662,10 +20665,10 @@
         <v>100000.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G40" s="1">
         <v>10.0</v>
@@ -20691,10 +20694,10 @@
         <v>110000.0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G41" s="1">
         <v>11.0</v>
@@ -20749,10 +20752,10 @@
         <v>120000.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G43" s="1">
         <v>13.0</v>
@@ -20778,10 +20781,10 @@
         <v>140000.0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G44" s="1">
         <v>8.0</v>
@@ -20807,7 +20810,7 @@
         <v>170000.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>271</v>
@@ -20836,10 +20839,10 @@
         <v>80000.0</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G46" s="1">
         <v>1.0</v>
@@ -20865,10 +20868,10 @@
         <v>85000.0</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G47" s="1">
         <v>2.0</v>
@@ -20894,13 +20897,13 @@
         <v>90000.0</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H48" s="1" t="b">
         <v>0</v>
@@ -20923,13 +20926,13 @@
         <v>110000.0</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H49" s="1" t="b">
         <v>0</v>
@@ -20981,7 +20984,7 @@
         <v>140000.0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>271</v>
@@ -21010,10 +21013,10 @@
         <v>110000.0</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G52" s="1">
         <v>14.0</v>
@@ -21039,13 +21042,13 @@
         <v>100000.0</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>0</v>
@@ -21068,10 +21071,10 @@
         <v>105000.0</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G54" s="1">
         <v>6.0</v>
@@ -21097,10 +21100,10 @@
         <v>110000.0</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G55" s="1">
         <v>10.0</v>
@@ -21126,7 +21129,7 @@
         <v>130000.0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>271</v>
@@ -21184,7 +21187,7 @@
         <v>160000.0</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>226</v>
@@ -21242,7 +21245,7 @@
         <v>120000.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>271</v>
@@ -21300,7 +21303,7 @@
         <v>140000.0</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>226</v>
@@ -21329,7 +21332,7 @@
         <v>160000.0</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>233</v>
@@ -21361,7 +21364,7 @@
         <v>154</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G64" s="1">
         <v>1.0</v>
@@ -21387,13 +21390,13 @@
         <v>55000.0</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>0</v>
@@ -21416,10 +21419,10 @@
         <v>60000.0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>258</v>
@@ -21445,10 +21448,10 @@
         <v>65000.0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G67" s="1">
         <v>4.0</v>
@@ -21474,13 +21477,13 @@
         <v>70000.0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H68" s="1" t="b">
         <v>0</v>
@@ -21503,10 +21506,10 @@
         <v>75000.0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G69" s="1">
         <v>6.0</v>
@@ -21532,7 +21535,7 @@
         <v>90000.0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>271</v>
@@ -21561,7 +21564,7 @@
         <v>80000.0</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>271</v>
@@ -21619,7 +21622,7 @@
         <v>90000.0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>271</v>
@@ -21648,7 +21651,7 @@
         <v>80000.0</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>271</v>
@@ -21706,7 +21709,7 @@
         <v>90000.0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>271</v>
@@ -21735,7 +21738,7 @@
         <v>90000.0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>271</v>
@@ -21793,7 +21796,7 @@
         <v>100000.0</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>271</v>
@@ -21822,7 +21825,7 @@
         <v>120000.0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>233</v>
@@ -21851,10 +21854,10 @@
         <v>70000.0</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G81" s="1">
         <v>1.0</v>
@@ -21880,10 +21883,10 @@
         <v>75000.0</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G82" s="1">
         <v>2.0</v>
@@ -21909,13 +21912,13 @@
         <v>80000.0</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H83" s="1" t="b">
         <v>0</v>
@@ -21938,10 +21941,10 @@
         <v>100000.0</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G84" s="1">
         <v>5.0</v>
@@ -21973,7 +21976,7 @@
         <v>-1.0</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H85" s="1" t="b">
         <v>0</v>
@@ -21996,13 +21999,13 @@
         <v>120000.0</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>271</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H86" s="1" t="b">
         <v>0</v>
@@ -22025,7 +22028,7 @@
         <v>110000.0</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F87" s="10" t="s">
         <v>146</v>
@@ -22054,7 +22057,7 @@
         <v>115000.0</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>146</v>
@@ -22083,10 +22086,10 @@
         <v>80000.0</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G89" s="1">
         <v>4.0</v>
@@ -22112,7 +22115,7 @@
         <v>85000.0</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>146</v>
@@ -22141,7 +22144,7 @@
         <v>90000.0</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>146</v>
@@ -22170,13 +22173,13 @@
         <v>100000.0</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H92" s="1" t="b">
         <v>0</v>
@@ -22199,7 +22202,7 @@
         <v>150000.0</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>149</v>
@@ -22228,7 +22231,7 @@
         <v>120000.0</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>33</v>
@@ -22257,7 +22260,7 @@
         <v>100000.0</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>149</v>
@@ -22315,7 +22318,7 @@
         <v>100000.0</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>146</v>
@@ -22344,10 +22347,10 @@
         <v>110000.0</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G98" s="1">
         <v>13.0</v>
@@ -22373,7 +22376,7 @@
         <v>140000.0</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>149</v>
@@ -22402,13 +22405,13 @@
         <v>80000.0</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F100" s="10" t="s">
         <v>146</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H100" s="1" t="b">
         <v>1</v>
@@ -22431,7 +22434,7 @@
         <v>85000.0</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>146</v>
@@ -22460,7 +22463,7 @@
         <v>90000.0</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F102" s="10" t="s">
         <v>146</v>
@@ -22495,7 +22498,7 @@
         <v>-1.0</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H103" s="1" t="b">
         <v>0</v>
@@ -22518,7 +22521,7 @@
         <v>120000.0</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>226</v>
@@ -22547,10 +22550,10 @@
         <v>90000.0</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G105" s="1">
         <v>6.0</v>
@@ -22576,10 +22579,10 @@
         <v>95000.0</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G106" s="1">
         <v>7.0</v>
@@ -22605,7 +22608,7 @@
         <v>120000.0</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>226</v>
@@ -22634,13 +22637,13 @@
         <v>90000.0</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H108" s="1" t="b">
         <v>0</v>
@@ -22663,10 +22666,10 @@
         <v>95000.0</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G109" s="1">
         <v>10.0</v>
@@ -22692,10 +22695,10 @@
         <v>100000.0</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G110" s="1">
         <v>3.0</v>
@@ -22721,10 +22724,10 @@
         <v>100000.0</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G111" s="1">
         <v>12.0</v>
@@ -22750,13 +22753,13 @@
         <v>100000.0</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H112" s="1" t="b">
         <v>0</v>
@@ -22808,10 +22811,10 @@
         <v>120000.0</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G114" s="1">
         <v>15.0</v>
@@ -22837,10 +22840,10 @@
         <v>140000.0</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G115" s="1">
         <v>16.0</v>
@@ -22895,7 +22898,7 @@
         <v>160000.0</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F117" s="10" t="s">
         <v>149</v>
@@ -22924,7 +22927,7 @@
         <v>180000.0</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F118" s="10" t="s">
         <v>149</v>
@@ -22953,10 +22956,10 @@
         <v>80000.0</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G119" s="1">
         <v>1.0</v>
@@ -22982,13 +22985,13 @@
         <v>85000.0</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H120" s="1" t="b">
         <v>0</v>
@@ -23011,10 +23014,10 @@
         <v>90000.0</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G121" s="1">
         <v>3.0</v>
@@ -23040,13 +23043,13 @@
         <v>95000.0</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H122" s="1" t="b">
         <v>0</v>
@@ -23069,7 +23072,7 @@
         <v>100000.0</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>28</v>
@@ -23098,7 +23101,7 @@
         <v>110000.0</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>28</v>
@@ -23127,7 +23130,7 @@
         <v>110000.0</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F125" s="10" t="s">
         <v>28</v>
@@ -23156,7 +23159,7 @@
         <v>130000.0</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>146</v>
@@ -23214,10 +23217,10 @@
         <v>110000.0</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G128" s="1">
         <v>10.0</v>
@@ -23243,7 +23246,7 @@
         <v>130000.0</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>28</v>
@@ -23301,7 +23304,7 @@
         <v>170000.0</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>146</v>
@@ -23330,7 +23333,7 @@
         <v>120000.0</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>28</v>
@@ -23359,7 +23362,7 @@
         <v>120000.0</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>28</v>
@@ -23388,7 +23391,7 @@
         <v>130000.0</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F134" s="10" t="s">
         <v>28</v>
@@ -23446,7 +23449,7 @@
         <v>150000.0</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F136" s="10" t="s">
         <v>146</v>
@@ -23475,7 +23478,7 @@
         <v>180000.0</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>33</v>
@@ -23504,7 +23507,7 @@
         <v>100000.0</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F138" s="10" t="s">
         <v>146</v>
@@ -23533,7 +23536,7 @@
         <v>110000.0</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>146</v>
@@ -23562,7 +23565,7 @@
         <v>120000.0</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F140" s="10" t="s">
         <v>146</v>
@@ -23591,7 +23594,7 @@
         <v>200000.0</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F141" s="10" t="s">
         <v>149</v>
@@ -23657,7 +23660,7 @@
         <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
@@ -23677,7 +23680,7 @@
         <v>150</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G2" s="7">
         <v>1.0</v>
@@ -23711,7 +23714,7 @@
         <v>-1.0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H3" s="1" t="b">
         <v>0</v>
@@ -23739,7 +23742,7 @@
         <v>150</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>157</v>
@@ -23917,7 +23920,7 @@
         <v>150</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G10" s="1">
         <v>13.0</v>
@@ -23946,7 +23949,7 @@
         <v>150</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G11" s="1">
         <v>10.0</v>
@@ -23975,7 +23978,7 @@
         <v>150</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G12" s="1">
         <v>11.0</v>
@@ -24004,7 +24007,7 @@
         <v>148</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G13" s="1">
         <v>12.0</v>
@@ -24033,7 +24036,7 @@
         <v>148</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G14" s="1">
         <v>8.0</v>
@@ -24059,7 +24062,7 @@
         <v>140000.0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>149</v>
@@ -24088,7 +24091,7 @@
         <v>170000.0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>149</v>
@@ -24120,7 +24123,7 @@
         <v>210</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G17" s="1">
         <v>1.0</v>
@@ -24149,7 +24152,7 @@
         <v>210</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G18" s="1">
         <v>2.0</v>
@@ -24233,7 +24236,7 @@
         <v>120000.0</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>33</v>
@@ -24355,7 +24358,7 @@
         <v>146</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>0</v>
@@ -24407,7 +24410,7 @@
         <v>150000.0</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F27" s="10" t="s">
         <v>41</v>
@@ -24468,7 +24471,7 @@
         <v>210</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G29" s="1">
         <v>14.0</v>
@@ -24500,7 +24503,7 @@
         <v>146</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H30" s="1" t="b">
         <v>0</v>
@@ -24552,7 +24555,7 @@
         <v>130000.0</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>149</v>
@@ -24581,7 +24584,7 @@
         <v>160000.0</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F33" s="10" t="s">
         <v>149</v>
@@ -24610,7 +24613,7 @@
         <v>170000.0</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F34" s="10" t="s">
         <v>149</v>
@@ -24639,10 +24642,10 @@
         <v>80000.0</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>183</v>
@@ -24668,13 +24671,13 @@
         <v>85000.0</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>146</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H36" s="1" t="b">
         <v>0</v>
@@ -24697,13 +24700,13 @@
         <v>90000.0</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>146</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H37" s="1" t="b">
         <v>0</v>
@@ -24726,13 +24729,13 @@
         <v>110000.0</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H38" s="1" t="b">
         <v>0</v>
@@ -24755,7 +24758,7 @@
         <v>140000.0</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>149</v>
@@ -24784,7 +24787,7 @@
         <v>160000.0</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>149</v>
@@ -24813,7 +24816,7 @@
         <v>180000.0</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>149</v>
@@ -24842,7 +24845,7 @@
         <v>100000.0</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>146</v>
@@ -24877,7 +24880,7 @@
         <v>-1.0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H43" s="1" t="b">
         <v>0</v>
@@ -24900,7 +24903,7 @@
         <v>110000.0</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F44" s="10" t="s">
         <v>146</v>
@@ -24929,10 +24932,10 @@
         <v>120000.0</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G45" s="1">
         <v>6.0</v>
@@ -24958,7 +24961,7 @@
         <v>140000.0</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>149</v>
@@ -25016,10 +25019,10 @@
         <v>130000.0</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G48" s="1">
         <v>14.0</v>
@@ -25051,7 +25054,7 @@
         <v>-1.0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H49" s="1" t="b">
         <v>0</v>
@@ -25074,7 +25077,7 @@
         <v>150000.0</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>149</v>
@@ -25103,7 +25106,7 @@
         <v>90000.0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>146</v>
@@ -25161,7 +25164,7 @@
         <v>200000.0</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>152</v>
@@ -25219,7 +25222,7 @@
         <v>75000.0</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F55" s="10" t="s">
         <v>28</v>
@@ -25248,7 +25251,7 @@
         <v>80000.0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>146</v>
@@ -25306,7 +25309,7 @@
         <v>100000.0</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>33</v>
@@ -25335,7 +25338,7 @@
         <v>110000.0</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>33</v>
@@ -25364,7 +25367,7 @@
         <v>120000.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>33</v>
@@ -25422,7 +25425,7 @@
         <v>150000.0</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>152</v>
@@ -25451,7 +25454,7 @@
         <v>80000.0</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>146</v>
@@ -25480,7 +25483,7 @@
         <v>90000.0</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>146</v>
@@ -25509,7 +25512,7 @@
         <v>95000.0</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>146</v>
@@ -25538,10 +25541,10 @@
         <v>100000.0</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G66" s="1">
         <v>13.0</v>
@@ -25567,10 +25570,10 @@
         <v>105000.0</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G67" s="1">
         <v>14.0</v>
@@ -25596,10 +25599,10 @@
         <v>110000.0</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G68" s="1">
         <v>15.0</v>
@@ -25625,10 +25628,10 @@
         <v>110000.0</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G69" s="1">
         <v>16.0</v>
@@ -25683,7 +25686,7 @@
         <v>150000.0</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>41</v>
@@ -25712,7 +25715,7 @@
         <v>170000.0</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>41</v>
@@ -25741,7 +25744,7 @@
         <v>200000.0</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>152</v>
@@ -25805,7 +25808,7 @@
         <v>-1.0</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H75" s="1" t="b">
         <v>0</v>
@@ -25828,7 +25831,7 @@
         <v>60000.0</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>146</v>
@@ -25857,7 +25860,7 @@
         <v>70000.0</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>146</v>
@@ -25915,10 +25918,10 @@
         <v>80000.0</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G79" s="1">
         <v>6.0</v>
@@ -25944,10 +25947,10 @@
         <v>90000.0</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G80" s="1">
         <v>22.0</v>
@@ -25973,10 +25976,10 @@
         <v>60000.0</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G81" s="1">
         <v>8.0</v>
@@ -26002,10 +26005,10 @@
         <v>70000.0</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G82" s="1">
         <v>9.0</v>
@@ -26031,10 +26034,10 @@
         <v>80000.0</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G83" s="1">
         <v>10.0</v>
@@ -26089,10 +26092,10 @@
         <v>90000.0</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G85" s="1">
         <v>22.0</v>
@@ -26118,10 +26121,10 @@
         <v>60000.0</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G86" s="1">
         <v>13.0</v>
@@ -26147,10 +26150,10 @@
         <v>70000.0</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G87" s="1">
         <v>14.0</v>
@@ -26205,10 +26208,10 @@
         <v>80000.0</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G89" s="1">
         <v>16.0</v>
@@ -26234,10 +26237,10 @@
         <v>90000.0</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G90" s="1">
         <v>22.0</v>
@@ -26263,10 +26266,10 @@
         <v>60000.0</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G91" s="1">
         <v>18.0</v>
@@ -26321,10 +26324,10 @@
         <v>70000.0</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G93" s="1">
         <v>20.0</v>
@@ -26350,10 +26353,10 @@
         <v>80000.0</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G94" s="1">
         <v>21.0</v>
@@ -26379,10 +26382,10 @@
         <v>90000.0</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G95" s="1">
         <v>22.0</v>
@@ -26408,7 +26411,7 @@
         <v>120000.0</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F96" s="10" t="s">
         <v>223</v>
@@ -26437,7 +26440,7 @@
         <v>50000.0</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>146</v>
@@ -26466,13 +26469,13 @@
         <v>70000.0</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>146</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H98" s="1" t="b">
         <v>0</v>
@@ -26495,10 +26498,10 @@
         <v>80000.0</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G99" s="1">
         <v>3.0</v>
@@ -26553,7 +26556,7 @@
         <v>100000.0</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F101" s="10" t="s">
         <v>149</v>
@@ -26611,7 +26614,7 @@
         <v>120000.0</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F103" s="10" t="s">
         <v>41</v>
@@ -26640,10 +26643,10 @@
         <v>75000.0</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G104" s="1">
         <v>8.0</v>
@@ -26669,10 +26672,10 @@
         <v>80000.0</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G105" s="1">
         <v>9.0</v>
@@ -26698,7 +26701,7 @@
         <v>90000.0</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>33</v>
@@ -26756,7 +26759,7 @@
         <v>100000.0</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>39</v>
@@ -26785,7 +26788,7 @@
         <v>120000.0</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F109" s="10" t="s">
         <v>41</v>
@@ -26814,7 +26817,7 @@
         <v>150000.0</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F110" s="10" t="s">
         <v>152</v>
@@ -26843,7 +26846,7 @@
         <v>80000.0</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>146</v>
@@ -26872,13 +26875,13 @@
         <v>85000.0</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>146</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H112" s="1" t="b">
         <v>0</v>
@@ -26901,7 +26904,7 @@
         <v>100000.0</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F113" s="10" t="s">
         <v>33</v>
@@ -26959,7 +26962,7 @@
         <v>120000.0</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>152</v>
@@ -26988,13 +26991,13 @@
         <v>90000.0</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H116" s="1" t="b">
         <v>0</v>
@@ -27017,10 +27020,10 @@
         <v>95000.0</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G117" s="1">
         <v>7.0</v>
@@ -27046,7 +27049,7 @@
         <v>100000.0</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F118" s="10" t="s">
         <v>149</v>
@@ -27104,13 +27107,13 @@
         <v>95000.0</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F120" s="10" t="s">
         <v>146</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H120" s="1" t="b">
         <v>0</v>
@@ -27133,13 +27136,13 @@
         <v>100000.0</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H121" s="1" t="b">
         <v>0</v>
@@ -27191,7 +27194,7 @@
         <v>100000.0</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>152</v>
@@ -27220,7 +27223,7 @@
         <v>110000.0</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>41</v>
@@ -27278,7 +27281,7 @@
         <v>130000.0</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>152</v>
@@ -27307,7 +27310,7 @@
         <v>115000.0</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F127" s="10" t="s">
         <v>41</v>
@@ -27336,7 +27339,7 @@
         <v>140000.0</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F128" s="10" t="s">
         <v>176</v>
@@ -27365,7 +27368,7 @@
         <v>160000.0</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>176</v>
@@ -27394,7 +27397,7 @@
         <v>80000.0</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F130" s="10" t="s">
         <v>146</v>
@@ -27423,13 +27426,13 @@
         <v>85000.0</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>146</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H131" s="1" t="b">
         <v>0</v>
@@ -27452,7 +27455,7 @@
         <v>100000.0</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>33</v>
@@ -27481,7 +27484,7 @@
         <v>90000.0</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F133" s="10" t="s">
         <v>33</v>
@@ -27510,7 +27513,7 @@
         <v>140000.0</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F134" s="10" t="s">
         <v>152</v>
@@ -27545,7 +27548,7 @@
         <v>-1.0</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H135" s="1" t="b">
         <v>0</v>
@@ -27597,13 +27600,13 @@
         <v>100000.0</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H137" s="1" t="b">
         <v>0</v>
@@ -27626,7 +27629,7 @@
         <v>110000.0</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F138" s="10" t="s">
         <v>33</v>
@@ -27655,7 +27658,7 @@
         <v>120000.0</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>33</v>
@@ -27684,13 +27687,13 @@
         <v>160000.0</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F140" s="10" t="s">
         <v>271</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H140" s="1" t="b">
         <v>0</v>
@@ -27713,7 +27716,7 @@
         <v>80000.0</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F141" s="10" t="s">
         <v>149</v>
@@ -27771,7 +27774,7 @@
         <v>90000.0</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F143" s="10" t="s">
         <v>152</v>
@@ -27800,13 +27803,13 @@
         <v>80000.0</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F144" s="10" t="s">
         <v>149</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H144" s="1" t="b">
         <v>0</v>
@@ -27829,7 +27832,7 @@
         <v>100000.0</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F145" s="10" t="s">
         <v>226</v>
@@ -27887,10 +27890,10 @@
         <v>140000.0</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G147" s="1">
         <v>18.0</v>
@@ -27916,7 +27919,7 @@
         <v>110000.0</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F148" s="10" t="s">
         <v>254</v>
@@ -27974,10 +27977,10 @@
         <v>140000.0</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G150" s="1">
         <v>21.0</v>
@@ -28003,7 +28006,7 @@
         <v>160000.0</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F151" s="10" t="s">
         <v>272</v>
@@ -28032,10 +28035,10 @@
         <v>180000.0</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G152" s="1">
         <v>-1.0</v>
@@ -30642,7 +30645,7 @@
         <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
@@ -30746,7 +30749,7 @@
         <v>90000.0</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>32</v>
@@ -30804,7 +30807,7 @@
         <v>110000.0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>41</v>
@@ -30862,7 +30865,7 @@
         <v>90000.0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>33</v>
@@ -30891,7 +30894,7 @@
         <v>120000.0</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>152</v>
@@ -30949,7 +30952,7 @@
         <v>150000.0</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>237</v>
@@ -30964,10 +30967,10 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13">
@@ -30984,7 +30987,7 @@
         <v>80000.0</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>39</v>
@@ -31013,7 +31016,7 @@
         <v>85000.0</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>39</v>
@@ -31042,7 +31045,7 @@
         <v>90000.0</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>39</v>
@@ -31071,7 +31074,7 @@
         <v>100000.0</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>39</v>
@@ -31100,7 +31103,7 @@
         <v>110000.0</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>176</v>
@@ -31129,7 +31132,7 @@
         <v>130000.0</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>176</v>
@@ -31187,7 +31190,7 @@
         <v>150000.0</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>176</v>
@@ -31216,7 +31219,7 @@
         <v>160000.0</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>176</v>
@@ -31245,7 +31248,7 @@
         <v>170000.0</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>176</v>
@@ -31274,7 +31277,7 @@
         <v>180000.0</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>176</v>
@@ -31332,7 +31335,7 @@
         <v>200000.0</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>237</v>
@@ -31361,7 +31364,7 @@
         <v>180000.0</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>190</v>
@@ -31379,7 +31382,7 @@
         <v>269</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27">
@@ -31425,7 +31428,7 @@
         <v>75000.0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>41</v>
@@ -31454,7 +31457,7 @@
         <v>80000.0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>152</v>
@@ -31483,7 +31486,7 @@
         <v>90000.0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>152</v>
@@ -31512,7 +31515,7 @@
         <v>100000.0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>152</v>
@@ -31541,7 +31544,7 @@
         <v>110000.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>152</v>
@@ -31570,7 +31573,7 @@
         <v>90000.0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>41</v>
@@ -31599,7 +31602,7 @@
         <v>95000.0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>41</v>
@@ -31628,7 +31631,7 @@
         <v>110000.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>176</v>
@@ -31686,7 +31689,7 @@
         <v>80000.0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>234</v>
@@ -31715,7 +31718,7 @@
         <v>85000.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>234</v>
@@ -31744,7 +31747,7 @@
         <v>90000.0</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>234</v>
@@ -31773,7 +31776,7 @@
         <v>95000.0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>176</v>
@@ -31831,13 +31834,13 @@
         <v>100000.0</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>176</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>0</v>
@@ -31860,7 +31863,7 @@
         <v>110000.0</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>43</v>
@@ -31889,7 +31892,7 @@
         <v>120000.0</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>43</v>
@@ -31918,7 +31921,7 @@
         <v>150000.0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>237</v>
@@ -31947,7 +31950,7 @@
         <v>100000.0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>176</v>
@@ -31976,7 +31979,7 @@
         <v>110000.0</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>176</v>
@@ -32005,7 +32008,7 @@
         <v>120000.0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>176</v>
@@ -32034,7 +32037,7 @@
         <v>130000.0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>176</v>
@@ -32063,7 +32066,7 @@
         <v>150000.0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>43</v>
@@ -32121,7 +32124,7 @@
         <v>200000.0</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>224</v>
@@ -32136,10 +32139,10 @@
         <v>1</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -32188,10 +32191,10 @@
         <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E2" s="1">
         <v>500000.0</v>
@@ -32205,10 +32208,10 @@
         <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E3" s="1">
         <v>600000.0</v>
@@ -32222,10 +32225,10 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E4" s="1">
         <v>700000.0</v>
@@ -32256,10 +32259,10 @@
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E6" s="1">
         <v>300002.0</v>
@@ -32267,16 +32270,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E7" s="1">
         <v>400003.0</v>
@@ -32284,16 +32287,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E8" s="1">
         <v>500004.0</v>
@@ -32307,10 +32310,10 @@
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E9" s="1">
         <v>600005.0</v>
@@ -32324,7 +32327,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>45</v>
@@ -32335,16 +32338,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E11" s="1">
         <v>12000.0</v>
@@ -32355,7 +32358,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -32381,10 +32384,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E13" s="1">
         <v>12000.0</v>
@@ -32401,7 +32404,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>19</v>
@@ -68177,11 +68180,11 @@
       <c r="L26" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="M26" s="1">
-        <v>-1.0</v>
+      <c r="M26" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27">
@@ -68239,7 +68242,7 @@
         <v>158</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H28" s="1" t="b">
         <v>0</v>
@@ -68309,7 +68312,7 @@
         <v>190</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H30" s="1" t="b">
         <v>0</v>
@@ -68761,7 +68764,7 @@
         <v>247</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G43" s="1">
         <v>-1.0</v>
@@ -68776,7 +68779,7 @@
         <v>5.0</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L43" s="1" t="b">
         <v>0</v>
@@ -69152,7 +69155,7 @@
         <v>170</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H54" s="1" t="b">
         <v>0</v>
@@ -69359,7 +69362,7 @@
         <v>181</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G60" s="1">
         <v>-1.0</v>
@@ -69374,7 +69377,7 @@
         <v>6.0</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L60" s="1" t="b">
         <v>0</v>
@@ -69747,7 +69750,7 @@
         <v>194</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G71" s="1">
         <v>14.0</v>
@@ -69887,7 +69890,7 @@
         <v>194</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G75" s="1">
         <v>15.0</v>
@@ -69922,7 +69925,7 @@
         <v>194</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G76" s="1">
         <v>16.0</v>
@@ -69957,7 +69960,7 @@
         <v>194</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G77" s="1">
         <v>17.0</v>
@@ -70027,7 +70030,7 @@
         <v>194</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G79" s="1">
         <v>-1.0</v>
@@ -70042,7 +70045,7 @@
         <v>7.0</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L79" s="1" t="b">
         <v>0</v>
@@ -72909,7 +72912,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -72918,7 +72921,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E5" s="1">
         <v>6000.0</v>
@@ -72929,7 +72932,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -72955,10 +72958,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E7" s="1">
         <v>6000.0</v>
@@ -73015,10 +73018,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E10" s="1">
         <v>5000.0</v>
@@ -73029,7 +73032,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>29</v>
@@ -73049,7 +73052,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>34</v>
@@ -73069,7 +73072,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -73089,16 +73092,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E14" s="1">
         <v>5000.0</v>
@@ -73149,7 +73152,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
@@ -73169,16 +73172,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E18" s="1">
         <v>5000.0</v>
@@ -73229,7 +73232,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
@@ -73249,16 +73252,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E22" s="1">
         <v>5000.0</v>
@@ -73349,7 +73352,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -73358,7 +73361,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E27" s="1">
         <v>5000.0</v>
@@ -73369,16 +73372,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E28" s="1">
         <v>5000.0</v>
@@ -73389,7 +73392,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>29</v>
@@ -73449,7 +73452,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>25</v>
@@ -73458,7 +73461,7 @@
         <v>26</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E32" s="1">
         <v>5000.0</v>
@@ -73475,10 +73478,10 @@
         <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E33" s="1">
         <v>5000.0</v>
@@ -73489,7 +73492,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>29</v>
@@ -73529,7 +73532,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
@@ -73558,7 +73561,7 @@
         <v>26</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E37" s="1">
         <v>5000.0</v>
@@ -73569,7 +73572,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>13</v>
@@ -73578,7 +73581,7 @@
         <v>49</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E38" s="1">
         <v>5000.0</v>
@@ -73649,7 +73652,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>25</v>
@@ -73658,7 +73661,7 @@
         <v>26</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E42" s="1">
         <v>5000.0</v>
@@ -73669,16 +73672,16 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E43" s="1">
         <v>5000.0</v>
@@ -73689,7 +73692,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>29</v>
@@ -73709,7 +73712,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>34</v>
@@ -76615,7 +76618,7 @@
         <v>140</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
@@ -76635,7 +76638,7 @@
         <v>0.0</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G2" s="7">
         <v>1.0</v>
@@ -76751,10 +76754,10 @@
         <v>142</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H6" s="1" t="b">
         <v>1</v>
@@ -76838,7 +76841,7 @@
         <v>142</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G9" s="7">
         <v>4.0</v>
@@ -76867,7 +76870,7 @@
         <v>142</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G10" s="7">
         <v>5.0</v>
@@ -76922,7 +76925,7 @@
         <v>75000.0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>146</v>
@@ -76951,7 +76954,7 @@
         <v>90000.0</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>41</v>
@@ -76980,7 +76983,7 @@
         <v>86000.0</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>33</v>
@@ -77012,7 +77015,7 @@
         <v>147</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>241</v>
@@ -77102,7 +77105,7 @@
         <v>146</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H18" s="1" t="b">
         <v>0</v>
@@ -77286,7 +77289,7 @@
       </c>
       <c r="J24" s="23"/>
       <c r="K24" s="20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25">
@@ -77309,7 +77312,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H25" s="1" t="b">
         <v>1</v>
@@ -77712,10 +77715,10 @@
         <v>150</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H39" s="1" t="b">
         <v>1</v>
@@ -77854,7 +77857,7 @@
         <v>85000.0</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>176</v>
@@ -77886,7 +77889,7 @@
         <v>150</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G45" s="7">
         <v>7.0</v>
@@ -77970,7 +77973,7 @@
         <v>95000.0</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>39</v>
@@ -77999,7 +78002,7 @@
         <v>100000.0</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>39</v>
@@ -78028,7 +78031,7 @@
         <v>110000.0</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>41</v>
@@ -78057,7 +78060,7 @@
         <v>90000.0</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>176</v>
@@ -78121,7 +78124,7 @@
         <v>32</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H53" s="1" t="b">
         <v>0</v>
@@ -78144,7 +78147,7 @@
         <v>120000.0</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>176</v>
@@ -78202,7 +78205,7 @@
         <v>90000.0</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>41</v>
@@ -78231,7 +78234,7 @@
         <v>80000.0</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F57" s="10" t="s">
         <v>33</v>
@@ -78289,7 +78292,7 @@
         <v>80000.0</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>33</v>
@@ -78318,7 +78321,7 @@
         <v>95000.0</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F60" s="10" t="s">
         <v>152</v>
@@ -78347,7 +78350,7 @@
         <v>80000.0</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F61" s="10" t="s">
         <v>41</v>
@@ -78376,7 +78379,7 @@
         <v>130000.0</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>176</v>
@@ -78405,7 +78408,7 @@
         <v>90000.0</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>41</v>
@@ -78434,7 +78437,7 @@
         <v>110000.0</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>43</v>
@@ -78463,13 +78466,13 @@
         <v>70000.0</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>1</v>
@@ -78492,7 +78495,7 @@
         <v>75000.0</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>41</v>
@@ -78521,7 +78524,7 @@
         <v>90000.0</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>43</v>
@@ -78550,7 +78553,7 @@
         <v>110000.0</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>237</v>
@@ -78579,7 +78582,7 @@
         <v>80000.0</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>41</v>
@@ -78608,7 +78611,7 @@
         <v>90000.0</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>43</v>
@@ -78637,7 +78640,7 @@
         <v>120000.0</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>237</v>
@@ -78724,13 +78727,13 @@
         <v>70000.0</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>41</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H74" s="1" t="b">
         <v>0</v>
@@ -78753,7 +78756,7 @@
         <v>100000.0</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>43</v>
@@ -78782,7 +78785,7 @@
         <v>100000.0</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>43</v>
@@ -78811,7 +78814,7 @@
         <v>140000.0</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>158</v>
@@ -78840,7 +78843,7 @@
         <v>70000.0</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>39</v>
@@ -78869,7 +78872,7 @@
         <v>75000.0</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>41</v>
@@ -78898,7 +78901,7 @@
         <v>75000.0</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>41</v>
@@ -78927,7 +78930,7 @@
         <v>80000.0</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F81" s="10" t="s">
         <v>176</v>
@@ -78956,7 +78959,7 @@
         <v>90000.0</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F82" s="10" t="s">
         <v>176</v>
@@ -78985,7 +78988,7 @@
         <v>100000.0</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>176</v>
@@ -79014,7 +79017,7 @@
         <v>140000.0</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>237</v>
@@ -79049,7 +79052,7 @@
         <v>-1.0</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H85" s="1" t="b">
         <v>0</v>
@@ -79072,7 +79075,7 @@
         <v>120000.0</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>43</v>
@@ -79130,7 +79133,7 @@
         <v>110000.0</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>158</v>
@@ -79159,7 +79162,7 @@
         <v>120000.0</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F89" s="10" t="s">
         <v>43</v>
@@ -79188,7 +79191,7 @@
         <v>140000.0</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>195</v>
@@ -79217,7 +79220,7 @@
         <v>100000.0</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>41</v>
@@ -79246,7 +79249,7 @@
         <v>100000.0</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>152</v>
@@ -79275,7 +79278,7 @@
         <v>110000.0</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>43</v>
@@ -79304,7 +79307,7 @@
         <v>150000.0</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>195</v>
@@ -79391,7 +79394,7 @@
         <v>90000.0</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F97" s="10" t="s">
         <v>176</v>
@@ -79420,7 +79423,7 @@
         <v>90000.0</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F98" s="10" t="s">
         <v>176</v>
@@ -79449,13 +79452,13 @@
         <v>100000.0</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F99" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H99" s="1" t="b">
         <v>0</v>
@@ -79594,7 +79597,7 @@
         <v>90000.0</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F104" s="10" t="s">
         <v>43</v>
@@ -79623,7 +79626,7 @@
         <v>95000.0</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F105" s="10" t="s">
         <v>237</v>
@@ -79652,7 +79655,7 @@
         <v>120000.0</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F106" s="10" t="s">
         <v>195</v>
@@ -79681,7 +79684,7 @@
         <v>140000.0</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F107" s="10" t="s">
         <v>195</v>
@@ -79710,7 +79713,7 @@
         <v>160000.0</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>190</v>
@@ -79774,7 +79777,7 @@
         <v>41</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H110" s="1" t="b">
         <v>0</v>
@@ -79797,7 +79800,7 @@
         <v>85000.0</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>176</v>
@@ -79826,7 +79829,7 @@
         <v>85000.0</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>176</v>
@@ -79884,7 +79887,7 @@
         <v>80000.0</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F114" s="10" t="s">
         <v>43</v>
@@ -79913,7 +79916,7 @@
         <v>100000.0</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F115" s="10" t="s">
         <v>237</v>
@@ -79942,7 +79945,7 @@
         <v>120000.0</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F116" s="10" t="s">
         <v>158</v>
@@ -79971,7 +79974,7 @@
         <v>90000.0</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F117" s="10" t="s">
         <v>237</v>
@@ -80000,7 +80003,7 @@
         <v>120000.0</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F118" s="10" t="s">
         <v>158</v>
@@ -80029,7 +80032,7 @@
         <v>100000.0</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F119" s="10" t="s">
         <v>176</v>
@@ -80058,7 +80061,7 @@
         <v>110000.0</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F120" s="10" t="s">
         <v>152</v>
@@ -80087,7 +80090,7 @@
         <v>130000.0</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F121" s="10" t="s">
         <v>176</v>
@@ -80145,7 +80148,7 @@
         <v>140000.0</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>195</v>
@@ -80174,7 +80177,7 @@
         <v>150000.0</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>195</v>
@@ -80203,7 +80206,7 @@
         <v>180000.0</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F125" s="10" t="s">
         <v>190</v>
@@ -80232,7 +80235,7 @@
         <v>80000.0</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>41</v>
@@ -80290,7 +80293,7 @@
         <v>90000.0</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F128" s="10" t="s">
         <v>41</v>
@@ -80319,7 +80322,7 @@
         <v>90000.0</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F129" s="10" t="s">
         <v>152</v>
@@ -80348,7 +80351,7 @@
         <v>95000.0</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F130" s="10" t="s">
         <v>152</v>
@@ -80377,7 +80380,7 @@
         <v>95000.0</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F131" s="10" t="s">
         <v>43</v>
@@ -80406,7 +80409,7 @@
         <v>100000.0</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>43</v>
@@ -80464,7 +80467,7 @@
         <v>120000.0</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F134" s="10" t="s">
         <v>158</v>
@@ -80493,7 +80496,7 @@
         <v>130000.0</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F135" s="10" t="s">
         <v>158</v>
@@ -80522,7 +80525,7 @@
         <v>140000.0</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F136" s="10" t="s">
         <v>190</v>
@@ -80551,7 +80554,7 @@
         <v>180000.0</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F137" s="10" t="s">
         <v>158</v>
@@ -80580,7 +80583,7 @@
         <v>190000.0</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F138" s="10" t="s">
         <v>190</v>
@@ -80638,7 +80641,7 @@
         <v>220000.0</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F140" s="10" t="s">
         <v>197</v>
@@ -80667,7 +80670,7 @@
         <v>80000.0</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F141" s="10" t="s">
         <v>152</v>
@@ -80696,7 +80699,7 @@
         <v>90000.0</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F142" s="10" t="s">
         <v>152</v>
@@ -80725,7 +80728,7 @@
         <v>95000.0</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F143" s="10" t="s">
         <v>152</v>
@@ -80754,7 +80757,7 @@
         <v>95000.0</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F144" s="10" t="s">
         <v>223</v>
@@ -80783,7 +80786,7 @@
         <v>100000.0</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F145" s="10" t="s">
         <v>223</v>
@@ -80812,7 +80815,7 @@
         <v>105000.0</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F146" s="10" t="s">
         <v>223</v>
@@ -80841,10 +80844,10 @@
         <v>110000.0</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G147" s="7">
         <v>7.0</v>
@@ -80870,10 +80873,10 @@
         <v>110000.0</v>
       </c>
       <c r="E148" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G148" s="7">
         <v>8.0</v>
@@ -80928,10 +80931,10 @@
         <v>110000.0</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G150" s="7">
         <v>10.0</v>
@@ -80957,10 +80960,10 @@
         <v>115000.0</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G151" s="7">
         <v>11.0</v>
@@ -80986,10 +80989,10 @@
         <v>120000.0</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G152" s="7">
         <v>12.0</v>
@@ -81044,7 +81047,7 @@
         <v>130000.0</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F154" s="10" t="s">
         <v>246</v>
@@ -81073,7 +81076,7 @@
         <v>130000.0</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F155" s="10" t="s">
         <v>246</v>
@@ -81102,7 +81105,7 @@
         <v>140000.0</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F156" s="10" t="s">
         <v>246</v>
@@ -81131,7 +81134,7 @@
         <v>140000.0</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F157" s="10" t="s">
         <v>246</v>
@@ -81189,10 +81192,10 @@
         <v>150000.0</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G159" s="7">
         <v>19.0</v>
@@ -81218,10 +81221,10 @@
         <v>160000.0</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G160" s="7">
         <v>20.0</v>
@@ -81247,10 +81250,10 @@
         <v>170000.0</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G161" s="7">
         <v>21.0</v>
@@ -81276,10 +81279,10 @@
         <v>180000.0</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G162" s="7">
         <v>-1.0</v>

--- a/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
+++ b/Train/Assets/_Data_Quest/Quest_DataTable.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Q_List" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Q_Destination" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Q_Material" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Q_Monster" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Q_Escort" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Q_Convoy" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Q_Boss" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Q_List(Before)" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Q_Destination(Before)" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Q_Material(Before)" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Q_Monster(Before)" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="Q_Escort(Before)" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="Q_Convoy(Before)" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="Q_Boss(before)" sheetId="14" r:id="rId17"/>
-    <sheet state="visible" name="메모장" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="Q_List" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="Q_Destination" sheetId="2" r:id="rId6"/>
+    <sheet state="visible" name="Q_Material" sheetId="3" r:id="rId7"/>
+    <sheet state="visible" name="Q_Monster" sheetId="4" r:id="rId8"/>
+    <sheet state="visible" name="Q_Escort" sheetId="5" r:id="rId9"/>
+    <sheet state="visible" name="Q_Convoy" sheetId="6" r:id="rId10"/>
+    <sheet state="visible" name="Q_Boss" sheetId="7" r:id="rId11"/>
+    <sheet state="visible" name="Q_List(Before)" sheetId="8" r:id="rId12"/>
+    <sheet state="visible" name="Q_Destination(Before)" sheetId="9" r:id="rId13"/>
+    <sheet state="visible" name="Q_Material(Before)" sheetId="10" r:id="rId14"/>
+    <sheet state="visible" name="Q_Monster(Before)" sheetId="11" r:id="rId15"/>
+    <sheet state="visible" name="Q_Escort(Before)" sheetId="12" r:id="rId16"/>
+    <sheet state="visible" name="Q_Convoy(Before)" sheetId="13" r:id="rId17"/>
+    <sheet state="visible" name="Q_Boss(before)" sheetId="14" r:id="rId18"/>
+    <sheet state="visible" name="메모장" sheetId="15" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -375,7 +375,7 @@
     <t>해파리를 잡아주세요.</t>
   </si>
   <si>
-    <t>1.4,1</t>
+    <t>1,4,1</t>
   </si>
   <si>
     <t>40,0</t>
@@ -1898,6 +1898,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
